--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="11880" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="19575" windowHeight="10515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -805,12 +805,6 @@
 2. Attempt to navigate the menu using the arrow keys</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select Initiate Sequence on main menu.
-2. Proceed to move units towards enemies.
-3. Engage in combat with enemies.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. Select Initiate Sequence on main menu.
 2. Proceed to move units towards enemies.
@@ -1060,6 +1054,11 @@
   </si>
   <si>
     <t>48|66</t>
+  </si>
+  <si>
+    <t>1. Select Initiate Sequence on main menu.
+2. Proceed to move units towards enemies.
+3. Engage in combat with enemies.</t>
   </si>
 </sst>
 </file>
@@ -1466,25 +1465,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1494,6 +1484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2229,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2293,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2732,7 +2731,9 @@
       <c r="AN5" s="38"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="B6" s="36">
         <v>40381</v>
       </c>
@@ -2740,7 +2741,9 @@
         <v>50</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" s="36">
         <v>40381</v>
       </c>
@@ -2748,7 +2751,9 @@
         <v>50</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J6" s="36">
         <v>40381</v>
       </c>
@@ -2756,7 +2761,9 @@
         <v>50</v>
       </c>
       <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="M6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="36">
         <v>40381</v>
       </c>
@@ -2814,66 +2821,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2903,9 +2910,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2938,66 +2945,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39" t="s">
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3013,25 +3020,25 @@
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
       <c r="U10" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
@@ -3043,267 +3050,267 @@
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
       <c r="AC10" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD10" s="42"/>
       <c r="AE10" s="42"/>
       <c r="AF10" s="42"/>
       <c r="AG10" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH10" s="42"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL10" s="42"/>
       <c r="AM10" s="42"/>
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
       <c r="T12" s="42"/>
       <c r="U12" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V12" s="42"/>
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
       <c r="Y12" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
       <c r="AC12" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD12" s="42"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
       <c r="AG12" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH12" s="42"/>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="42"/>
       <c r="AK12" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL12" s="42"/>
       <c r="AM12" s="42"/>
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V14" s="42"/>
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
       <c r="Y14" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD14" s="42"/>
       <c r="AE14" s="42"/>
       <c r="AF14" s="42"/>
       <c r="AG14" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH14" s="42"/>
       <c r="AI14" s="42"/>
       <c r="AJ14" s="42"/>
       <c r="AK14" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL14" s="42"/>
       <c r="AM14" s="42"/>
@@ -3484,7 +3491,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>16</v>
@@ -3853,84 +3860,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41" t="s">
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41" t="s">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41" t="s">
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41" t="s">
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41" t="s">
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41" t="s">
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4013,84 +4020,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39" t="s">
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39" t="s">
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39" t="s">
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39" t="s">
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="s">
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39" t="s">
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39" t="s">
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39" t="s">
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4173,84 +4180,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="s">
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41" t="s">
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41" t="s">
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41" t="s">
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41" t="s">
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41" t="s">
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41" t="s">
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4289,12 +4296,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="46" t="s">
+      <c r="Y26" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4333,84 +4340,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="s">
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41" t="s">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41" t="s">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41" t="s">
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41" t="s">
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41" t="s">
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41" t="s">
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41" t="s">
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5080,84 +5087,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="s">
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41" t="s">
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41" t="s">
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41" t="s">
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41" t="s">
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5240,112 +5247,112 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39" t="s">
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39" t="s">
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39" t="s">
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39" t="s">
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39" t="s">
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39" t="s">
+      <c r="AT37" s="41"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="41"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J38" s="42"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R38" s="42"/>
       <c r="S38" s="42"/>
@@ -5355,155 +5362,155 @@
       <c r="W38" s="42"/>
       <c r="X38" s="42"/>
       <c r="Y38" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z38" s="42"/>
       <c r="AA38" s="42"/>
       <c r="AB38" s="42"/>
       <c r="AC38" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD38" s="42"/>
       <c r="AE38" s="42"/>
       <c r="AF38" s="42"/>
       <c r="AG38" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH38" s="42"/>
       <c r="AI38" s="42"/>
       <c r="AJ38" s="42"/>
       <c r="AK38" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL38" s="42"/>
       <c r="AM38" s="42"/>
       <c r="AN38" s="42"/>
       <c r="AO38" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AP38" s="42"/>
       <c r="AQ38" s="42"/>
       <c r="AR38" s="42"/>
       <c r="AS38" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AT38" s="42"/>
       <c r="AU38" s="42"/>
       <c r="AV38" s="42"/>
       <c r="AW38" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AX38" s="42"/>
       <c r="AY38" s="42"/>
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41" t="s">
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41" t="s">
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41" t="s">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41" t="s">
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41" t="s">
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41" t="s">
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41" t="s">
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41" t="s">
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="42"/>
       <c r="L40" s="42"/>
       <c r="M40" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R40" s="42"/>
       <c r="S40" s="42"/>
@@ -5513,155 +5520,155 @@
       <c r="W40" s="42"/>
       <c r="X40" s="42"/>
       <c r="Y40" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z40" s="42"/>
       <c r="AA40" s="42"/>
       <c r="AB40" s="42"/>
       <c r="AC40" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD40" s="42"/>
       <c r="AE40" s="42"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH40" s="42"/>
       <c r="AI40" s="42"/>
       <c r="AJ40" s="42"/>
       <c r="AK40" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL40" s="42"/>
       <c r="AM40" s="42"/>
       <c r="AN40" s="42"/>
       <c r="AO40" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AP40" s="42"/>
       <c r="AQ40" s="42"/>
       <c r="AR40" s="42"/>
       <c r="AS40" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AT40" s="42"/>
       <c r="AU40" s="42"/>
       <c r="AV40" s="42"/>
       <c r="AW40" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AX40" s="42"/>
       <c r="AY40" s="42"/>
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41" t="s">
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41" t="s">
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41" t="s">
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41" t="s">
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41" t="s">
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41" t="s">
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41" t="s">
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
       <c r="Q42" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R42" s="42"/>
       <c r="S42" s="42"/>
@@ -5671,43 +5678,43 @@
       <c r="W42" s="42"/>
       <c r="X42" s="42"/>
       <c r="Y42" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
       <c r="AB42" s="42"/>
       <c r="AC42" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD42" s="42"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
       <c r="AG42" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH42" s="42"/>
       <c r="AI42" s="42"/>
       <c r="AJ42" s="42"/>
       <c r="AK42" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL42" s="42"/>
       <c r="AM42" s="42"/>
       <c r="AN42" s="42"/>
       <c r="AO42" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AP42" s="42"/>
       <c r="AQ42" s="42"/>
       <c r="AR42" s="42"/>
       <c r="AS42" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AT42" s="42"/>
       <c r="AU42" s="42"/>
       <c r="AV42" s="42"/>
       <c r="AW42" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AX42" s="42"/>
       <c r="AY42" s="42"/>
@@ -5964,7 +5971,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>17</v>
@@ -5976,7 +5983,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>15</v>
@@ -5988,7 +5995,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J46" s="32" t="s">
         <v>16</v>
@@ -6000,7 +6007,7 @@
         <v>11</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N46" s="32" t="s">
         <v>17</v>
@@ -6012,7 +6019,7 @@
         <v>25</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R46" s="32" t="s">
         <v>16</v>
@@ -6024,7 +6031,7 @@
         <v>11</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V46" s="32" t="s">
         <v>16</v>
@@ -6036,7 +6043,7 @@
         <v>11</v>
       </c>
       <c r="Y46" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z46" s="32" t="s">
         <v>16</v>
@@ -6048,7 +6055,7 @@
         <v>27</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD46" s="32" t="s">
         <v>16</v>
@@ -6060,7 +6067,7 @@
         <v>27</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AH46" s="32" t="s">
         <v>17</v>
@@ -6072,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="AK46" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL46" s="32" t="s">
         <v>17</v>
@@ -6084,7 +6091,7 @@
         <v>27</v>
       </c>
       <c r="AO46" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP46" s="32" t="s">
         <v>16</v>
@@ -6096,7 +6103,7 @@
         <v>25</v>
       </c>
       <c r="AS46" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AT46" s="32" t="s">
         <v>15</v>
@@ -6329,78 +6336,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41" t="s">
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41" t="s">
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41" t="s">
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41" t="s">
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6477,78 +6484,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39" t="s">
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39" t="s">
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39" t="s">
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39" t="s">
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="s">
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39" t="s">
+      <c r="AL51" s="41"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="41"/>
+      <c r="AO51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39" t="s">
+      <c r="AP51" s="41"/>
+      <c r="AQ51" s="41"/>
+      <c r="AR51" s="41"/>
+      <c r="AS51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="41"/>
+      <c r="AV51" s="41"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6625,78 +6632,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="s">
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41" t="s">
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41" t="s">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41" t="s">
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41" t="s">
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="41"/>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="41" t="s">
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="41"/>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="41"/>
-      <c r="AS53" s="41" t="s">
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
+      <c r="AT53" s="39"/>
+      <c r="AU53" s="39"/>
+      <c r="AV53" s="39"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6773,78 +6780,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="s">
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41" t="s">
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41" t="s">
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41" t="s">
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41" t="s">
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="41" t="s">
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="41"/>
-      <c r="AR55" s="41"/>
-      <c r="AS55" s="41" t="s">
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="41"/>
-      <c r="AU55" s="41"/>
-      <c r="AV55" s="41"/>
+      <c r="AT55" s="39"/>
+      <c r="AU55" s="39"/>
+      <c r="AV55" s="39"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -6922,183 +6929,190 @@
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -7123,190 +7137,183 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -1465,16 +1465,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1484,15 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:T12"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2771,7 +2771,9 @@
         <v>50</v>
       </c>
       <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="36">
         <v>40381</v>
       </c>
@@ -2779,7 +2781,9 @@
         <v>50</v>
       </c>
       <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
+      <c r="U6" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="V6" s="36">
         <v>40381</v>
       </c>
@@ -2787,7 +2791,9 @@
         <v>50</v>
       </c>
       <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
+      <c r="Y6" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="Z6" s="36">
         <v>40381</v>
       </c>
@@ -2795,7 +2801,9 @@
         <v>50</v>
       </c>
       <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
+      <c r="AC6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="AD6" s="36">
         <v>40381</v>
       </c>
@@ -2803,7 +2811,9 @@
         <v>50</v>
       </c>
       <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
+      <c r="AG6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="AH6" s="36">
         <v>40381</v>
       </c>
@@ -2811,7 +2821,9 @@
         <v>50</v>
       </c>
       <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
+      <c r="AK6" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="AL6" s="36">
         <v>40381</v>
       </c>
@@ -2821,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39" t="s">
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2910,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2945,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41" t="s">
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3069,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39" t="s">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39" t="s">
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39" t="s">
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3193,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39" t="s">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39" t="s">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39" t="s">
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39" t="s">
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3754,7 +3766,9 @@
       <c r="AZ19" s="35"/>
     </row>
     <row r="20" spans="1:56">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B20" s="36">
         <v>40381</v>
       </c>
@@ -3762,7 +3776,9 @@
         <v>50</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="36">
         <v>40381</v>
       </c>
@@ -3860,84 +3876,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39" t="s">
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39" t="s">
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39" t="s">
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39" t="s">
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39" t="s">
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39" t="s">
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39" t="s">
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39" t="s">
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39" t="s">
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4020,84 +4036,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41" t="s">
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41" t="s">
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41" t="s">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41" t="s">
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41" t="s">
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41" t="s">
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41" t="s">
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41" t="s">
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41" t="s">
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4180,84 +4196,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39" t="s">
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39" t="s">
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39" t="s">
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39" t="s">
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39" t="s">
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39" t="s">
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39" t="s">
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4296,12 +4312,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4340,84 +4356,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39" t="s">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39" t="s">
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39" t="s">
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39" t="s">
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="s">
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39" t="s">
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39" t="s">
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39" t="s">
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5087,84 +5103,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39" t="s">
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39" t="s">
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39" t="s">
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="s">
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39" t="s">
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39" t="s">
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5247,84 +5263,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41" t="s">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41" t="s">
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41" t="s">
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41" t="s">
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41" t="s">
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41" t="s">
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41" t="s">
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41" t="s">
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5405,84 +5421,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39" t="s">
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39" t="s">
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39" t="s">
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39" t="s">
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="s">
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39" t="s">
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39" t="s">
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39" t="s">
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5563,84 +5579,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39" t="s">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39" t="s">
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39" t="s">
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="s">
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39" t="s">
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
-      <c r="AW41" s="39" t="s">
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="39"/>
-      <c r="AY41" s="39"/>
-      <c r="AZ41" s="39"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6336,78 +6352,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39" t="s">
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39" t="s">
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39" t="s">
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39" t="s">
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39" t="s">
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="41"/>
+      <c r="AN49" s="41"/>
+      <c r="AO49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39" t="s">
+      <c r="AP49" s="41"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6484,78 +6500,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41" t="s">
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="s">
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41" t="s">
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41" t="s">
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41" t="s">
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41" t="s">
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41" t="s">
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41" t="s">
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41" t="s">
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="41"/>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
+      <c r="AT51" s="39"/>
+      <c r="AU51" s="39"/>
+      <c r="AV51" s="39"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6632,78 +6648,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39" t="s">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39" t="s">
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39" t="s">
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39" t="s">
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39" t="s">
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39" t="s">
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39" t="s">
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+      <c r="AO53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="39" t="s">
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="39"/>
-      <c r="AU53" s="39"/>
-      <c r="AV53" s="39"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="41"/>
+      <c r="AV53" s="41"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6780,78 +6796,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39" t="s">
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39" t="s">
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39" t="s">
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39" t="s">
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39" t="s">
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39" t="s">
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39" t="s">
+      <c r="AL55" s="41"/>
+      <c r="AM55" s="41"/>
+      <c r="AN55" s="41"/>
+      <c r="AO55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39" t="s">
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="41"/>
+      <c r="AR55" s="41"/>
+      <c r="AS55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
+      <c r="AT55" s="41"/>
+      <c r="AU55" s="41"/>
+      <c r="AV55" s="41"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -6929,6 +6945,367 @@
     </row>
   </sheetData>
   <mergeCells count="385">
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
     <mergeCell ref="AS51:AV51"/>
     <mergeCell ref="AS50:AV50"/>
     <mergeCell ref="AS49:AV49"/>
@@ -6953,367 +7330,6 @@
     <mergeCell ref="AK54:AN54"/>
     <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:L28"/>
+      <selection activeCell="I25" sqref="I25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3786,7 +3786,9 @@
         <v>50</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="J20" s="36">
         <v>40381</v>
       </c>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="19575" windowHeight="10515" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="7575" windowHeight="4215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:L25"/>
+    <sheetView tabSelected="1" topLeftCell="I27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="36">
         <v>40381</v>
@@ -3796,7 +3796,9 @@
         <v>50</v>
       </c>
       <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="M20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="36">
         <v>40381</v>
       </c>
@@ -3804,7 +3806,9 @@
         <v>50</v>
       </c>
       <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="R20" s="36">
         <v>40381</v>
       </c>
@@ -3812,7 +3816,9 @@
         <v>50</v>
       </c>
       <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+      <c r="U20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="V20" s="36">
         <v>40381</v>
       </c>
@@ -3820,7 +3826,9 @@
         <v>50</v>
       </c>
       <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
+      <c r="Y20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="Z20" s="36">
         <v>40381</v>
       </c>
@@ -3828,7 +3836,9 @@
         <v>50</v>
       </c>
       <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="AC20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="AD20" s="36">
         <v>40381</v>
       </c>
@@ -3836,7 +3846,9 @@
         <v>50</v>
       </c>
       <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
+      <c r="AG20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="AH20" s="36">
         <v>40381</v>
       </c>
@@ -3844,7 +3856,9 @@
         <v>50</v>
       </c>
       <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
+      <c r="AK20" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="AL20" s="36">
         <v>40381</v>
       </c>
@@ -3852,7 +3866,9 @@
         <v>50</v>
       </c>
       <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
+      <c r="AO20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="AP20" s="36">
         <v>40381</v>
       </c>
@@ -3860,7 +3876,9 @@
         <v>50</v>
       </c>
       <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
+      <c r="AS20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="AT20" s="36">
         <v>40381</v>
       </c>
@@ -3868,7 +3886,9 @@
         <v>50</v>
       </c>
       <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
+      <c r="AW20" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="AX20" s="36">
         <v>40381</v>
       </c>
@@ -4999,7 +5019,9 @@
       <c r="AZ33" s="33"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B34" s="36">
         <v>40381</v>
       </c>
@@ -5007,7 +5029,9 @@
         <v>50</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="F34" s="36">
         <v>40381</v>
       </c>
@@ -5015,7 +5039,9 @@
         <v>50</v>
       </c>
       <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="I34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="J34" s="36">
         <v>40381</v>
       </c>
@@ -5023,7 +5049,9 @@
         <v>50</v>
       </c>
       <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="N34" s="36">
         <v>40381</v>
       </c>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -1465,25 +1465,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1493,6 +1484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38:P38"/>
+    <sheetView tabSelected="1" topLeftCell="T24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39" t="s">
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="AN20" s="34"/>
       <c r="AO20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP20" s="36">
         <v>40381</v>
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41" t="s">
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41" t="s">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41" t="s">
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41" t="s">
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41" t="s">
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41" t="s">
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39" t="s">
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39" t="s">
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39" t="s">
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39" t="s">
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="s">
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39" t="s">
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39" t="s">
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39" t="s">
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="s">
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41" t="s">
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41" t="s">
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41" t="s">
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41" t="s">
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41" t="s">
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41" t="s">
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="46" t="s">
+      <c r="Y26" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="s">
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41" t="s">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41" t="s">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41" t="s">
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41" t="s">
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41" t="s">
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41" t="s">
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41" t="s">
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N34" s="36">
         <v>40381</v>
@@ -5059,7 +5059,9 @@
         <v>50</v>
       </c>
       <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
+      <c r="Q34" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="R34" s="36">
         <v>40381</v>
       </c>
@@ -5067,7 +5069,9 @@
         <v>50</v>
       </c>
       <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="U34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="V34" s="36">
         <v>40381</v>
       </c>
@@ -5133,84 +5137,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="s">
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41" t="s">
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41" t="s">
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41" t="s">
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41" t="s">
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5293,84 +5297,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39" t="s">
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39" t="s">
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39" t="s">
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39" t="s">
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39" t="s">
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39" t="s">
+      <c r="AT37" s="41"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="41"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5451,84 +5455,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41" t="s">
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41" t="s">
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41" t="s">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41" t="s">
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41" t="s">
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41" t="s">
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41" t="s">
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41" t="s">
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5609,84 +5613,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41" t="s">
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41" t="s">
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41" t="s">
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41" t="s">
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41" t="s">
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41" t="s">
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41" t="s">
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6382,78 +6386,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41" t="s">
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41" t="s">
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41" t="s">
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41" t="s">
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6530,78 +6534,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39" t="s">
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39" t="s">
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39" t="s">
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39" t="s">
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="s">
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39" t="s">
+      <c r="AL51" s="41"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="41"/>
+      <c r="AO51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39" t="s">
+      <c r="AP51" s="41"/>
+      <c r="AQ51" s="41"/>
+      <c r="AR51" s="41"/>
+      <c r="AS51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="41"/>
+      <c r="AV51" s="41"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6678,78 +6682,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="s">
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41" t="s">
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41" t="s">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41" t="s">
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41" t="s">
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="41"/>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="41" t="s">
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="41"/>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="41"/>
-      <c r="AS53" s="41" t="s">
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
+      <c r="AT53" s="39"/>
+      <c r="AU53" s="39"/>
+      <c r="AV53" s="39"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6826,78 +6830,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="s">
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41" t="s">
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41" t="s">
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41" t="s">
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41" t="s">
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="41" t="s">
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="41"/>
-      <c r="AR55" s="41"/>
-      <c r="AS55" s="41" t="s">
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="41"/>
-      <c r="AU55" s="41"/>
-      <c r="AV55" s="41"/>
+      <c r="AT55" s="39"/>
+      <c r="AU55" s="39"/>
+      <c r="AV55" s="39"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -6975,183 +6979,190 @@
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -7176,190 +7187,183 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -1465,16 +1465,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1484,15 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36:X36"/>
+    <sheetView tabSelected="1" topLeftCell="AI40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO50" sqref="AO50:AR50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39" t="s">
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41" t="s">
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39" t="s">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39" t="s">
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39" t="s">
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39" t="s">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39" t="s">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39" t="s">
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39" t="s">
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39" t="s">
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39" t="s">
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39" t="s">
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39" t="s">
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39" t="s">
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39" t="s">
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39" t="s">
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39" t="s">
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39" t="s">
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41" t="s">
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41" t="s">
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41" t="s">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41" t="s">
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41" t="s">
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41" t="s">
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41" t="s">
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41" t="s">
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41" t="s">
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39" t="s">
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39" t="s">
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39" t="s">
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39" t="s">
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39" t="s">
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39" t="s">
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39" t="s">
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39" t="s">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39" t="s">
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39" t="s">
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39" t="s">
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="s">
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39" t="s">
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39" t="s">
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39" t="s">
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5079,7 +5079,9 @@
         <v>50</v>
       </c>
       <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
+      <c r="Y34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="Z34" s="36">
         <v>40381</v>
       </c>
@@ -5087,7 +5089,9 @@
         <v>50</v>
       </c>
       <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
+      <c r="AC34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="AD34" s="36">
         <v>40381</v>
       </c>
@@ -5095,7 +5099,9 @@
         <v>50</v>
       </c>
       <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
+      <c r="AG34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="AH34" s="36">
         <v>40381</v>
       </c>
@@ -5103,7 +5109,9 @@
         <v>50</v>
       </c>
       <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
+      <c r="AK34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="AL34" s="36">
         <v>40381</v>
       </c>
@@ -5111,7 +5119,9 @@
         <v>50</v>
       </c>
       <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
+      <c r="AO34" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="AP34" s="36">
         <v>40381</v>
       </c>
@@ -5119,7 +5129,9 @@
         <v>50</v>
       </c>
       <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
+      <c r="AS34" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="AT34" s="36">
         <v>40381</v>
       </c>
@@ -5127,7 +5139,9 @@
         <v>50</v>
       </c>
       <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
+      <c r="AW34" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="AX34" s="36">
         <v>40381</v>
       </c>
@@ -5137,84 +5151,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39" t="s">
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39" t="s">
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39" t="s">
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="s">
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39" t="s">
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39" t="s">
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5297,84 +5311,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41" t="s">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41" t="s">
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41" t="s">
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41" t="s">
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41" t="s">
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41" t="s">
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41" t="s">
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41" t="s">
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5455,84 +5469,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39" t="s">
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39" t="s">
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39" t="s">
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39" t="s">
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="s">
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39" t="s">
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39" t="s">
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39" t="s">
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5613,84 +5627,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39" t="s">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39" t="s">
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39" t="s">
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="s">
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39" t="s">
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
-      <c r="AW41" s="39" t="s">
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="39"/>
-      <c r="AY41" s="39"/>
-      <c r="AZ41" s="39"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6288,7 +6302,9 @@
       <c r="AV47" s="33"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="12"/>
+      <c r="A48" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="B48" s="36">
         <v>40381</v>
       </c>
@@ -6296,7 +6312,9 @@
         <v>50</v>
       </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="32"/>
+      <c r="E48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="F48" s="36">
         <v>40381</v>
       </c>
@@ -6304,7 +6322,9 @@
         <v>50</v>
       </c>
       <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
+      <c r="I48" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="J48" s="36">
         <v>40381</v>
       </c>
@@ -6320,7 +6340,9 @@
         <v>50</v>
       </c>
       <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
+      <c r="Q48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="R48" s="36">
         <v>40381</v>
       </c>
@@ -6336,7 +6358,9 @@
         <v>50</v>
       </c>
       <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
+      <c r="Y48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="Z48" s="36">
         <v>40381</v>
       </c>
@@ -6344,7 +6368,9 @@
         <v>50</v>
       </c>
       <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
+      <c r="AC48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="AD48" s="36">
         <v>40381</v>
       </c>
@@ -6352,7 +6378,9 @@
         <v>50</v>
       </c>
       <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
+      <c r="AG48" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="AH48" s="36">
         <v>40381</v>
       </c>
@@ -6360,7 +6388,9 @@
         <v>50</v>
       </c>
       <c r="AJ48" s="32"/>
-      <c r="AK48" s="32"/>
+      <c r="AK48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="AL48" s="36">
         <v>40381</v>
       </c>
@@ -6368,7 +6398,9 @@
         <v>50</v>
       </c>
       <c r="AN48" s="32"/>
-      <c r="AO48" s="32"/>
+      <c r="AO48" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="AP48" s="36">
         <v>40381</v>
       </c>
@@ -6376,7 +6408,9 @@
         <v>50</v>
       </c>
       <c r="AR48" s="32"/>
-      <c r="AS48" s="32"/>
+      <c r="AS48" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="AT48" s="36">
         <v>40381</v>
       </c>
@@ -6386,78 +6420,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39" t="s">
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39" t="s">
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39" t="s">
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39" t="s">
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39" t="s">
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="41"/>
+      <c r="AN49" s="41"/>
+      <c r="AO49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39" t="s">
+      <c r="AP49" s="41"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6534,78 +6568,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41" t="s">
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="s">
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41" t="s">
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41" t="s">
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41" t="s">
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41" t="s">
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41" t="s">
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41" t="s">
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41" t="s">
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="41"/>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
+      <c r="AT51" s="39"/>
+      <c r="AU51" s="39"/>
+      <c r="AV51" s="39"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6682,78 +6716,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39" t="s">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39" t="s">
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39" t="s">
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39" t="s">
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39" t="s">
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39" t="s">
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39" t="s">
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+      <c r="AO53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="39" t="s">
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="39"/>
-      <c r="AU53" s="39"/>
-      <c r="AV53" s="39"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="41"/>
+      <c r="AV53" s="41"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6830,78 +6864,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39" t="s">
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39" t="s">
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39" t="s">
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39" t="s">
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39" t="s">
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39" t="s">
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39" t="s">
+      <c r="AL55" s="41"/>
+      <c r="AM55" s="41"/>
+      <c r="AN55" s="41"/>
+      <c r="AO55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39" t="s">
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="41"/>
+      <c r="AR55" s="41"/>
+      <c r="AS55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
+      <c r="AT55" s="41"/>
+      <c r="AU55" s="41"/>
+      <c r="AV55" s="41"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -6979,6 +7013,367 @@
     </row>
   </sheetData>
   <mergeCells count="385">
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
     <mergeCell ref="AS51:AV51"/>
     <mergeCell ref="AS50:AV50"/>
     <mergeCell ref="AS49:AV49"/>
@@ -7003,367 +7398,6 @@
     <mergeCell ref="AK54:AN54"/>
     <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="319">
   <si>
     <t>Category</t>
   </si>
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO50" sqref="AO50:AR50"/>
+    <sheetView tabSelected="1" topLeftCell="AP10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="AV20" s="34"/>
       <c r="AW20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX20" s="36">
         <v>40381</v>
@@ -6332,7 +6332,9 @@
         <v>50</v>
       </c>
       <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="N48" s="36">
         <v>40381</v>
       </c>
@@ -6350,7 +6352,9 @@
         <v>50</v>
       </c>
       <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
+      <c r="U48" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="V48" s="36">
         <v>40381</v>
       </c>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1465,25 +1465,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1493,6 +1484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+    <sheetView tabSelected="1" topLeftCell="AF40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO48" sqref="AO48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39" t="s">
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41" t="s">
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41" t="s">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41" t="s">
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41" t="s">
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41" t="s">
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41" t="s">
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39" t="s">
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39" t="s">
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39" t="s">
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39" t="s">
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="s">
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39" t="s">
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39" t="s">
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39" t="s">
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="s">
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41" t="s">
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41" t="s">
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41" t="s">
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41" t="s">
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41" t="s">
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41" t="s">
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="46" t="s">
+      <c r="Y26" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="s">
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41" t="s">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41" t="s">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41" t="s">
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41" t="s">
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41" t="s">
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41" t="s">
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41" t="s">
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5151,84 +5151,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="s">
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41" t="s">
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41" t="s">
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41" t="s">
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41" t="s">
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5311,84 +5311,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39" t="s">
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39" t="s">
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39" t="s">
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39" t="s">
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39" t="s">
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39" t="s">
+      <c r="AT37" s="41"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="41"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5469,84 +5469,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41" t="s">
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41" t="s">
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41" t="s">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41" t="s">
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41" t="s">
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41" t="s">
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41" t="s">
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41" t="s">
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5627,84 +5627,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41" t="s">
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41" t="s">
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41" t="s">
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41" t="s">
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41" t="s">
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41" t="s">
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41" t="s">
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="AN48" s="32"/>
       <c r="AO48" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP48" s="36">
         <v>40381</v>
@@ -6424,78 +6424,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41" t="s">
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41" t="s">
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41" t="s">
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41" t="s">
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6572,78 +6572,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39" t="s">
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39" t="s">
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39" t="s">
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39" t="s">
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="s">
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39" t="s">
+      <c r="AL51" s="41"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="41"/>
+      <c r="AO51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39" t="s">
+      <c r="AP51" s="41"/>
+      <c r="AQ51" s="41"/>
+      <c r="AR51" s="41"/>
+      <c r="AS51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="41"/>
+      <c r="AV51" s="41"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6720,78 +6720,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="s">
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41" t="s">
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41" t="s">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41" t="s">
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41" t="s">
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="41"/>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="41" t="s">
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="41"/>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="41"/>
-      <c r="AS53" s="41" t="s">
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
+      <c r="AT53" s="39"/>
+      <c r="AU53" s="39"/>
+      <c r="AV53" s="39"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6868,78 +6868,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="s">
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41" t="s">
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41" t="s">
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41" t="s">
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41" t="s">
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="41" t="s">
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="41"/>
-      <c r="AR55" s="41"/>
-      <c r="AS55" s="41" t="s">
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="41"/>
-      <c r="AU55" s="41"/>
-      <c r="AV55" s="41"/>
+      <c r="AT55" s="39"/>
+      <c r="AU55" s="39"/>
+      <c r="AV55" s="39"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -7017,183 +7017,190 @@
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -7218,190 +7225,183 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO48" sqref="AO48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="36">
         <v>40381</v>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="AB6" s="37"/>
       <c r="AC6" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="36">
         <v>40381</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH34" s="36">
         <v>40381</v>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1465,16 +1465,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1484,15 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+    <sheetView tabSelected="1" topLeftCell="AC2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AF6" s="37"/>
       <c r="AG6" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="36">
         <v>40381</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="AJ6" s="37"/>
       <c r="AK6" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL6" s="36">
         <v>40381</v>
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39" t="s">
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41" t="s">
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39" t="s">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39" t="s">
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39" t="s">
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39" t="s">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39" t="s">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39" t="s">
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39" t="s">
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39" t="s">
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39" t="s">
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39" t="s">
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39" t="s">
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39" t="s">
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39" t="s">
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39" t="s">
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39" t="s">
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39" t="s">
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41" t="s">
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41" t="s">
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41" t="s">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41" t="s">
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41" t="s">
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41" t="s">
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41" t="s">
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41" t="s">
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41" t="s">
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39" t="s">
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39" t="s">
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39" t="s">
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39" t="s">
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39" t="s">
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39" t="s">
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39" t="s">
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39" t="s">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39" t="s">
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39" t="s">
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39" t="s">
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="s">
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39" t="s">
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39" t="s">
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39" t="s">
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="AJ34" s="32"/>
       <c r="AK34" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL34" s="36">
         <v>40381</v>
@@ -5151,84 +5151,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39" t="s">
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39" t="s">
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39" t="s">
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="s">
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39" t="s">
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39" t="s">
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5311,84 +5311,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41" t="s">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41" t="s">
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41" t="s">
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41" t="s">
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41" t="s">
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41" t="s">
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41" t="s">
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41" t="s">
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5469,84 +5469,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39" t="s">
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39" t="s">
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39" t="s">
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39" t="s">
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="s">
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39" t="s">
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39" t="s">
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39" t="s">
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5627,84 +5627,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39" t="s">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39" t="s">
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39" t="s">
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="s">
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39" t="s">
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
-      <c r="AW41" s="39" t="s">
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="39"/>
-      <c r="AY41" s="39"/>
-      <c r="AZ41" s="39"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6424,78 +6424,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39" t="s">
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39" t="s">
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39" t="s">
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39" t="s">
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39" t="s">
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="41"/>
+      <c r="AN49" s="41"/>
+      <c r="AO49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39" t="s">
+      <c r="AP49" s="41"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6572,78 +6572,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41" t="s">
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="s">
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41" t="s">
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41" t="s">
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41" t="s">
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41" t="s">
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41" t="s">
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41" t="s">
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41" t="s">
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="41"/>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
+      <c r="AT51" s="39"/>
+      <c r="AU51" s="39"/>
+      <c r="AV51" s="39"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6720,78 +6720,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39" t="s">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39" t="s">
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39" t="s">
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39" t="s">
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39" t="s">
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39" t="s">
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39" t="s">
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+      <c r="AO53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="39" t="s">
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="39"/>
-      <c r="AU53" s="39"/>
-      <c r="AV53" s="39"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="41"/>
+      <c r="AV53" s="41"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6868,78 +6868,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39" t="s">
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39" t="s">
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39" t="s">
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39" t="s">
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39" t="s">
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39" t="s">
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39" t="s">
+      <c r="AL55" s="41"/>
+      <c r="AM55" s="41"/>
+      <c r="AN55" s="41"/>
+      <c r="AO55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39" t="s">
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="41"/>
+      <c r="AR55" s="41"/>
+      <c r="AS55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
+      <c r="AT55" s="41"/>
+      <c r="AU55" s="41"/>
+      <c r="AV55" s="41"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -7017,6 +7017,367 @@
     </row>
   </sheetData>
   <mergeCells count="385">
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
     <mergeCell ref="AS51:AV51"/>
     <mergeCell ref="AS50:AV50"/>
     <mergeCell ref="AS49:AV49"/>
@@ -7041,367 +7402,6 @@
     <mergeCell ref="AK54:AN54"/>
     <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="36">
         <v>40381</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20" s="36">
         <v>40381</v>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="T20" s="34"/>
       <c r="U20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V20" s="36">
         <v>40381</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="X34" s="32"/>
       <c r="Y34" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="36">
         <v>40381</v>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1465,25 +1465,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1493,6 +1484,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39" t="s">
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41" t="s">
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41" t="s">
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="39"/>
+      <c r="AN11" s="39"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="AB20" s="34"/>
       <c r="AC20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD20" s="36">
         <v>40381</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="AR20" s="34"/>
       <c r="AS20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AT20" s="36">
         <v>40381</v>
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41" t="s">
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41" t="s">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41" t="s">
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41" t="s">
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41" t="s">
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41" t="s">
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39" t="s">
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39" t="s">
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39" t="s">
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39" t="s">
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="s">
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39" t="s">
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39" t="s">
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39" t="s">
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="s">
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41" t="s">
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41" t="s">
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41" t="s">
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41" t="s">
+      <c r="AL25" s="39"/>
+      <c r="AM25" s="39"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41" t="s">
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41" t="s">
+      <c r="AT25" s="39"/>
+      <c r="AU25" s="39"/>
+      <c r="AV25" s="39"/>
+      <c r="AW25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
+      <c r="AX25" s="39"/>
+      <c r="AY25" s="39"/>
+      <c r="AZ25" s="39"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="46" t="s">
+      <c r="Y26" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="s">
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41" t="s">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41" t="s">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41" t="s">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41" t="s">
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41" t="s">
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41" t="s">
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41" t="s">
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41" t="s">
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5020,7 +5020,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="36">
         <v>40381</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F34" s="36">
         <v>40381</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J34" s="36">
         <v>40381</v>
@@ -5151,84 +5151,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="s">
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41" t="s">
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41" t="s">
+      <c r="AL35" s="39"/>
+      <c r="AM35" s="39"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41" t="s">
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41" t="s">
+      <c r="AT35" s="39"/>
+      <c r="AU35" s="39"/>
+      <c r="AV35" s="39"/>
+      <c r="AW35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
+      <c r="AX35" s="39"/>
+      <c r="AY35" s="39"/>
+      <c r="AZ35" s="39"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5311,84 +5311,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39" t="s">
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39" t="s">
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39" t="s">
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39" t="s">
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="41"/>
+      <c r="AC37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39" t="s">
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39" t="s">
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="41"/>
+      <c r="AR37" s="41"/>
+      <c r="AS37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39" t="s">
+      <c r="AT37" s="41"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37" s="41"/>
+      <c r="AW37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
+      <c r="AX37" s="41"/>
+      <c r="AY37" s="41"/>
+      <c r="AZ37" s="41"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5469,84 +5469,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41" t="s">
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41" t="s">
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41" t="s">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41" t="s">
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41" t="s">
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41" t="s">
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41" t="s">
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41" t="s">
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5627,84 +5627,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41" t="s">
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41" t="s">
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41" t="s">
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41" t="s">
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41" t="s">
+      <c r="AL41" s="39"/>
+      <c r="AM41" s="39"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41" t="s">
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41" t="s">
+      <c r="AT41" s="39"/>
+      <c r="AU41" s="39"/>
+      <c r="AV41" s="39"/>
+      <c r="AW41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
+      <c r="AX41" s="39"/>
+      <c r="AY41" s="39"/>
+      <c r="AZ41" s="39"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH48" s="36">
         <v>40381</v>
@@ -6424,78 +6424,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41" t="s">
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41" t="s">
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41" t="s">
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41" t="s">
+      <c r="AL49" s="39"/>
+      <c r="AM49" s="39"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41" t="s">
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
+      <c r="AT49" s="39"/>
+      <c r="AU49" s="39"/>
+      <c r="AV49" s="39"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6572,78 +6572,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39" t="s">
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39" t="s">
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39" t="s">
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39" t="s">
+      <c r="Z51" s="41"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="41"/>
+      <c r="AC51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39" t="s">
+      <c r="AD51" s="41"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="s">
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
+      <c r="AJ51" s="41"/>
+      <c r="AK51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39" t="s">
+      <c r="AL51" s="41"/>
+      <c r="AM51" s="41"/>
+      <c r="AN51" s="41"/>
+      <c r="AO51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39" t="s">
+      <c r="AP51" s="41"/>
+      <c r="AQ51" s="41"/>
+      <c r="AR51" s="41"/>
+      <c r="AS51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="41"/>
+      <c r="AV51" s="41"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6720,78 +6720,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="s">
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41" t="s">
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41" t="s">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41" t="s">
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41" t="s">
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="41"/>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="41" t="s">
+      <c r="AL53" s="39"/>
+      <c r="AM53" s="39"/>
+      <c r="AN53" s="39"/>
+      <c r="AO53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="41"/>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="41"/>
-      <c r="AS53" s="41" t="s">
+      <c r="AP53" s="39"/>
+      <c r="AQ53" s="39"/>
+      <c r="AR53" s="39"/>
+      <c r="AS53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
+      <c r="AT53" s="39"/>
+      <c r="AU53" s="39"/>
+      <c r="AV53" s="39"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6868,78 +6868,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="s">
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41" t="s">
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41" t="s">
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41" t="s">
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41" t="s">
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="41" t="s">
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="41"/>
-      <c r="AR55" s="41"/>
-      <c r="AS55" s="41" t="s">
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="41"/>
-      <c r="AU55" s="41"/>
-      <c r="AV55" s="41"/>
+      <c r="AT55" s="39"/>
+      <c r="AU55" s="39"/>
+      <c r="AV55" s="39"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -7017,183 +7017,190 @@
     </row>
   </sheetData>
   <mergeCells count="385">
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -7218,190 +7225,183 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1465,16 +1465,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1484,15 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2228,8 +2228,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2292,11 +2292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2833,66 +2833,66 @@
       <c r="AN6" s="37"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39" t="s">
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39" t="s">
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
       <c r="A8" s="40" t="s">
@@ -2922,9 +2922,9 @@
       <c r="Q8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="40" t="s">
         <v>92</v>
       </c>
@@ -2957,66 +2957,66 @@
       <c r="AN8" s="40"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41" t="s">
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
     </row>
     <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A10" s="42" t="s">
@@ -3081,66 +3081,66 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39" t="s">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39" t="s">
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39" t="s">
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
     </row>
     <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="42" t="s">
@@ -3205,66 +3205,66 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39" t="s">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39" t="s">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39" t="s">
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39" t="s">
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
     </row>
     <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="42" t="s">
@@ -3898,84 +3898,84 @@
       <c r="AZ20" s="34"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39" t="s">
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39" t="s">
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39" t="s">
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39" t="s">
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39" t="s">
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39" t="s">
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39" t="s">
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39" t="s">
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39" t="s">
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="40" t="s">
@@ -4058,84 +4058,84 @@
       <c r="AZ22" s="40"/>
     </row>
     <row r="23" spans="1:56">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41" t="s">
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41" t="s">
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41" t="s">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41" t="s">
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41" t="s">
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41" t="s">
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41" t="s">
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41" t="s">
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41" t="s">
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
     </row>
     <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -4218,84 +4218,84 @@
       <c r="AZ24" s="42"/>
     </row>
     <row r="25" spans="1:56">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39" t="s">
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39" t="s">
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39" t="s">
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39" t="s">
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39" t="s">
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39" t="s">
+      <c r="AL25" s="41"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39" t="s">
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
     </row>
     <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A26" s="42" t="s">
@@ -4334,12 +4334,12 @@
       <c r="V26" s="42"/>
       <c r="W26" s="42"/>
       <c r="X26" s="42"/>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="48"/>
       <c r="AC26" s="42" t="s">
         <v>221</v>
       </c>
@@ -4378,84 +4378,84 @@
       <c r="AZ26" s="42"/>
     </row>
     <row r="27" spans="1:56">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39" t="s">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39" t="s">
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39" t="s">
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39" t="s">
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39" t="s">
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="s">
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AK27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39" t="s">
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39" t="s">
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39" t="s">
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
     </row>
     <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="42" t="s">
@@ -5151,84 +5151,84 @@
       <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39" t="s">
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39" t="s">
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39" t="s">
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39" t="s">
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="s">
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39" t="s">
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39" t="s">
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="40" t="s">
@@ -5311,84 +5311,84 @@
       <c r="AZ36" s="40"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41" t="s">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41" t="s">
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41" t="s">
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41" t="s">
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41" t="s">
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41" t="s">
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41" t="s">
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41" t="s">
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41" t="s">
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41" t="s">
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+      <c r="AV37" s="39"/>
+      <c r="AW37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
+      <c r="AX37" s="39"/>
+      <c r="AY37" s="39"/>
+      <c r="AZ37" s="39"/>
     </row>
     <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="42" t="s">
@@ -5469,84 +5469,84 @@
       <c r="AZ38" s="42"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39" t="s">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39" t="s">
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39" t="s">
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39" t="s">
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39" t="s">
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="41"/>
+      <c r="AC39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="41"/>
+      <c r="AG39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="s">
+      <c r="AH39" s="41"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="41"/>
+      <c r="AK39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39" t="s">
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="41"/>
+      <c r="AO39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39" t="s">
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="41"/>
+      <c r="AR39" s="41"/>
+      <c r="AS39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39" t="s">
+      <c r="AT39" s="41"/>
+      <c r="AU39" s="41"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
+      <c r="AX39" s="41"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="41"/>
     </row>
     <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="42" t="s">
@@ -5627,84 +5627,84 @@
       <c r="AZ40" s="42"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39" t="s">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39" t="s">
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="41"/>
+      <c r="AC41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39" t="s">
+      <c r="AD41" s="41"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="41"/>
+      <c r="AG41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="s">
+      <c r="AH41" s="41"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="41"/>
+      <c r="AK41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39" t="s">
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
-      <c r="AW41" s="39" t="s">
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="39"/>
-      <c r="AY41" s="39"/>
-      <c r="AZ41" s="39"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="41"/>
     </row>
     <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="42" t="s">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="L48" s="32"/>
       <c r="M48" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N48" s="36">
         <v>40381</v>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="T48" s="32"/>
       <c r="U48" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V48" s="36">
         <v>40381</v>
@@ -6424,78 +6424,78 @@
       <c r="AV48" s="32"/>
     </row>
     <row r="49" spans="1:48">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39" t="s">
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39" t="s">
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39" t="s">
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39" t="s">
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39" t="s">
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39" t="s">
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="41"/>
+      <c r="AK49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="39"/>
-      <c r="AM49" s="39"/>
-      <c r="AN49" s="39"/>
-      <c r="AO49" s="39" t="s">
+      <c r="AL49" s="41"/>
+      <c r="AM49" s="41"/>
+      <c r="AN49" s="41"/>
+      <c r="AO49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="39"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="39"/>
-      <c r="AS49" s="39" t="s">
+      <c r="AP49" s="41"/>
+      <c r="AQ49" s="41"/>
+      <c r="AR49" s="41"/>
+      <c r="AS49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="39"/>
-      <c r="AU49" s="39"/>
-      <c r="AV49" s="39"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="41"/>
+      <c r="AV49" s="41"/>
     </row>
     <row r="50" spans="1:48">
       <c r="A50" s="40" t="s">
@@ -6572,78 +6572,78 @@
       <c r="AV50" s="40"/>
     </row>
     <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41" t="s">
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="s">
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41" t="s">
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41" t="s">
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41" t="s">
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41" t="s">
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41" t="s">
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="39"/>
+      <c r="AJ51" s="39"/>
+      <c r="AK51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="41"/>
-      <c r="AN51" s="41"/>
-      <c r="AO51" s="41" t="s">
+      <c r="AL51" s="39"/>
+      <c r="AM51" s="39"/>
+      <c r="AN51" s="39"/>
+      <c r="AO51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="41"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="41"/>
-      <c r="AS51" s="41" t="s">
+      <c r="AP51" s="39"/>
+      <c r="AQ51" s="39"/>
+      <c r="AR51" s="39"/>
+      <c r="AS51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="41"/>
-      <c r="AU51" s="41"/>
-      <c r="AV51" s="41"/>
+      <c r="AT51" s="39"/>
+      <c r="AU51" s="39"/>
+      <c r="AV51" s="39"/>
     </row>
     <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A52" s="42" t="s">
@@ -6720,78 +6720,78 @@
       <c r="AV52" s="42"/>
     </row>
     <row r="53" spans="1:48">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39" t="s">
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39" t="s">
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39" t="s">
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39" t="s">
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39" t="s">
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="41"/>
+      <c r="AC53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39" t="s">
+      <c r="AD53" s="41"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39" t="s">
+      <c r="AH53" s="41"/>
+      <c r="AI53" s="41"/>
+      <c r="AJ53" s="41"/>
+      <c r="AK53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="39"/>
-      <c r="AM53" s="39"/>
-      <c r="AN53" s="39"/>
-      <c r="AO53" s="39" t="s">
+      <c r="AL53" s="41"/>
+      <c r="AM53" s="41"/>
+      <c r="AN53" s="41"/>
+      <c r="AO53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="39"/>
-      <c r="AQ53" s="39"/>
-      <c r="AR53" s="39"/>
-      <c r="AS53" s="39" t="s">
+      <c r="AP53" s="41"/>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="41"/>
+      <c r="AS53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="39"/>
-      <c r="AU53" s="39"/>
-      <c r="AV53" s="39"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="41"/>
+      <c r="AV53" s="41"/>
     </row>
     <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="42" t="s">
@@ -6868,78 +6868,78 @@
       <c r="AV54" s="42"/>
     </row>
     <row r="55" spans="1:48">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39" t="s">
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39" t="s">
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39" t="s">
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39" t="s">
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39" t="s">
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39" t="s">
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="41"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39" t="s">
+      <c r="AL55" s="41"/>
+      <c r="AM55" s="41"/>
+      <c r="AN55" s="41"/>
+      <c r="AO55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39" t="s">
+      <c r="AP55" s="41"/>
+      <c r="AQ55" s="41"/>
+      <c r="AR55" s="41"/>
+      <c r="AS55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
+      <c r="AT55" s="41"/>
+      <c r="AU55" s="41"/>
+      <c r="AV55" s="41"/>
     </row>
     <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="42" t="s">
@@ -7017,6 +7017,367 @@
     </row>
   </sheetData>
   <mergeCells count="385">
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
     <mergeCell ref="AS51:AV51"/>
     <mergeCell ref="AS50:AV50"/>
     <mergeCell ref="AS49:AV49"/>
@@ -7041,367 +7402,6 @@
     <mergeCell ref="AK54:AN54"/>
     <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="36">
         <v>40381</v>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="36">
         <v>40381</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="36">
         <v>40381</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="X20" s="34"/>
       <c r="Y20" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z20" s="36">
         <v>40381</v>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="419">
   <si>
     <t>Category</t>
   </si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>can use heal on enemies</t>
-  </si>
-  <si>
-    <t>alt tab while loading wont release mouse</t>
   </si>
   <si>
     <t>25|66</t>
@@ -1059,6 +1056,359 @@
     <t>1. Select Initiate Sequence on main menu.
 2. Proceed to move units towards enemies.
 3. Engage in combat with enemies.</t>
+  </si>
+  <si>
+    <t>49|66</t>
+  </si>
+  <si>
+    <t>50|66</t>
+  </si>
+  <si>
+    <t>51|66</t>
+  </si>
+  <si>
+    <t>52|66</t>
+  </si>
+  <si>
+    <t>53|66</t>
+  </si>
+  <si>
+    <t>54|66</t>
+  </si>
+  <si>
+    <t>Changing from credits to main menu stops and restarts menu music.</t>
+  </si>
+  <si>
+    <t>1. Go to Officer Recognition from main menu 
+2. Return to main menu</t>
+  </si>
+  <si>
+    <t>Menu Music stopped and restarted</t>
+  </si>
+  <si>
+    <t>For the music to continue playing as it does with every other screen.</t>
+  </si>
+  <si>
+    <t>1. Start the game
+2. Select all units
+3. Select Attack Move targeting an enemy's location
+4. Watch Unit behavior as they stop at the intended target</t>
+  </si>
+  <si>
+    <t>My units continuously collide with each other, preventing some of them from attacking.</t>
+  </si>
+  <si>
+    <t>For my units to find their way around each other and attack.</t>
+  </si>
+  <si>
+    <t>When right clicking to move around obstacles, white pathing lines appear.</t>
+  </si>
+  <si>
+    <t>1. Start the game
+2. Select your units
+3. Have them move towards impassable terrain
+4. Have them move around the terrain.</t>
+  </si>
+  <si>
+    <t>White lines showing my units path is shown.</t>
+  </si>
+  <si>
+    <t>To not see these paths.</t>
+  </si>
+  <si>
+    <t>1. Start the game
+2. Select Scout
+3. Use its cloak ability
+4. Pwn.</t>
+  </si>
+  <si>
+    <t>Scout cloak lasts forever, and no enemy can detect it.</t>
+  </si>
+  <si>
+    <t>For the cloaking ability to either last a certain amount of time or some enemies being able to detect it.</t>
+  </si>
+  <si>
+    <t>1. Start game
+2. Select a unit
+3. Select an ability.
+4. Exit game through the menu
+5. Start a new game</t>
+  </si>
+  <si>
+    <t>If an ability is selected, and you start a new game, the game still recognizes an ability as being selected
+instead of completely clearing it out.</t>
+  </si>
+  <si>
+    <t>When using attack move, sometimes the units get stuck colliding with another unit and will just constantly move into and out of the unit and not attack.</t>
+  </si>
+  <si>
+    <t>The word "Ability" is visible in the top center of the screen as if an ability is still selected.</t>
+  </si>
+  <si>
+    <t>For the game to clear out any information of this nature upon restarting the game.</t>
+  </si>
+  <si>
+    <t>1. Start gameplay
+2. Open the in-game options menu
+3. Change the value of the music volume.
+4. Return to the game.</t>
+  </si>
+  <si>
+    <t>Using the options menu while in gameplay doesn't affect the music volume until returning to the game, making it so I do not know what my current volume settings actually sound like.</t>
+  </si>
+  <si>
+    <t>The music volume doesn’t change until after returning to the game.</t>
+  </si>
+  <si>
+    <t>For the music volume to change as im toggling the value in the menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Full Screen mode, there is no "Camera Right" keybinding option, but 2 camera lefts.
+</t>
+  </si>
+  <si>
+    <t>1. Select Change Parameters
+2. Change to full screen mode.
+3. Look at keybinding options</t>
+  </si>
+  <si>
+    <t>There are two "Camera Left" keybinding options, and no camera right.</t>
+  </si>
+  <si>
+    <t>To have a camera left and camera right option.</t>
+  </si>
+  <si>
+    <t>Scout cloaking ability lasts forever. Enemies cant detect it. Makes it so Scout can kill off everything.</t>
+  </si>
+  <si>
+    <t>55|66</t>
+  </si>
+  <si>
+    <t>56|66</t>
+  </si>
+  <si>
+    <t>57|66</t>
+  </si>
+  <si>
+    <t>58|66</t>
+  </si>
+  <si>
+    <t>59|66</t>
+  </si>
+  <si>
+    <t>60|66</t>
+  </si>
+  <si>
+    <t>61|66</t>
+  </si>
+  <si>
+    <t>62|66</t>
+  </si>
+  <si>
+    <t>63|66</t>
+  </si>
+  <si>
+    <t>64|66</t>
+  </si>
+  <si>
+    <t>65|66</t>
+  </si>
+  <si>
+    <t>66|66</t>
+  </si>
+  <si>
+    <t>67|66</t>
+  </si>
+  <si>
+    <t>68|66</t>
+  </si>
+  <si>
+    <t>Changing voiceover volume provides no sample of newly set voiceover volume</t>
+  </si>
+  <si>
+    <t>If you toggle fullscreen the alt tab out of the game it doesnt relinquish focus (the game wont allow any other windows on top of it at that point)</t>
+  </si>
+  <si>
+    <t>The player units do not continue to attack when there are more available targets in the area</t>
+  </si>
+  <si>
+    <t>Some of the enemies in level one begin in unpassable terrain</t>
+  </si>
+  <si>
+    <t>Units have an inventory, seemingly nothing to go into inventory</t>
+  </si>
+  <si>
+    <t>When a unit dies while an ability is selected, no other units can be selected.</t>
+  </si>
+  <si>
+    <t>Scout is deselected when cloaking is activated or deactivated.</t>
+  </si>
+  <si>
+    <t>Cyclops renders far above the oval on the ground.</t>
+  </si>
+  <si>
+    <t>Keybinding menu shows "Camera right" as the wrong key until "Restore to defaults" is clicked.</t>
+  </si>
+  <si>
+    <t>When in windowed mode, selecting "Restore To Defaults" then "Exit without saving" Changes the game to fullscreen mode.</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select a unit
+3. Select an ability of that unit, but dont use it.
+4. Let that unit die.
+5. Exit and restart the game through the menus.</t>
+  </si>
+  <si>
+    <t>1. Enter gameplay
+2. Select scout
+3. Use cloak</t>
+  </si>
+  <si>
+    <t>1. Enter gameplay
+2. Click on the first enemy to select it.</t>
+  </si>
+  <si>
+    <t>1. Select Change parameters from main menu
+2. Look at the key bound to Camera Right
+3. Select "Restore to Defaults"</t>
+  </si>
+  <si>
+    <t>1. Select Change Parameters from main menu
+2. Select "restore to defaults"
+3. Select "Exit without saving"</t>
+  </si>
+  <si>
+    <t>1. Select Change parameters from main menu
+2. Toggle the value of the voice over option.</t>
+  </si>
+  <si>
+    <t>1. Select Change Parameters from main menu
+2. Toggle the full screen option
+3. Try to alt-tab out of game</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select all units.
+3. Attack move to a group of enemies.
+4. Kill first enemy seen.</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Use the camera to look around the map.
+3. Look at enemy positions.</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select any units
+3. Right click on the ability window</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select a unit to see inventory
+3. Play game.</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select a large enemy to note its selection circle
+3. Select a smaller enemy</t>
+  </si>
+  <si>
+    <t>1. Enter game
+2. Select an enemy</t>
+  </si>
+  <si>
+    <t>Can see enemies inventory</t>
+  </si>
+  <si>
+    <t>Smaller enemies dont get selection circle and larger enemies do</t>
+  </si>
+  <si>
+    <t>Select any of the units and proceed to right click in the ability selection area (even on an ability) and the unit trys to pathfind there</t>
+  </si>
+  <si>
+    <t>Alt tab while loading wont release mouse</t>
+  </si>
+  <si>
+    <t>When changing the value of the voice-over volume, nothing is heard to hear how loud it is.</t>
+  </si>
+  <si>
+    <t>A sound to play to indicate the change in volume.</t>
+  </si>
+  <si>
+    <t>Alt-tabbing will keep the game on top of all other applications instead of losing focus to the currently selected program</t>
+  </si>
+  <si>
+    <t>To be able to alt-tab into another program.</t>
+  </si>
+  <si>
+    <t>Player units will stop attacking if the enemy they were targeting dies, even if others are in range and are attacking players.</t>
+  </si>
+  <si>
+    <t>For the player units to automatically keep attacking units even after their initial target dies.</t>
+  </si>
+  <si>
+    <t>For enemies to not start on impassable terrain</t>
+  </si>
+  <si>
+    <t>Units will still path find even though I did not click on the map</t>
+  </si>
+  <si>
+    <t>For right clicking on that window to not register as an attack-move click.</t>
+  </si>
+  <si>
+    <t>Player units have an inventory, but there are 0 items to be found within the game.</t>
+  </si>
+  <si>
+    <t>For items to be dropped or found to be used.</t>
+  </si>
+  <si>
+    <t>For all enemies to either have or not have a selection circle.</t>
+  </si>
+  <si>
+    <t>Enemies display an inventory</t>
+  </si>
+  <si>
+    <t>To not see an enemy inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once you restart the game, it still behaves as if an ability is still selected. </t>
+  </si>
+  <si>
+    <t>For the game to clear out that information upon restarting.</t>
+  </si>
+  <si>
+    <t>The scout is deselected upon selecting its cloak ability</t>
+  </si>
+  <si>
+    <t>For the scout to still be selected even after using its ability.</t>
+  </si>
+  <si>
+    <t>For the cyclops and selection circle to be closer together.</t>
+  </si>
+  <si>
+    <t>Camera right is initially mapped to the escape key, but once you press restore to defaults it changes to the right arrow.</t>
+  </si>
+  <si>
+    <t>For the correct default key to be shown upon first entering the menu</t>
+  </si>
+  <si>
+    <t>The game changed to full screen mode.</t>
+  </si>
+  <si>
+    <t>For the game to stay in the default windowed mode.</t>
+  </si>
+  <si>
+    <t>Units can be pushed through unmoveable terrain</t>
+  </si>
+  <si>
+    <t>Units to not be pushed through unmoveable terrain.</t>
+  </si>
+  <si>
+    <t>1. Set two units directly adjacent to eachother (either up/down or left/right).
+2. Tell the top unit to move down past the other.
+3. Tell the bottom unit to move up into terrain.
+4. Units will push eachother back.</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1748,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1464,16 +1814,49 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,15 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1798,7 +2172,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2226,10 +2600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BD56"/>
+  <dimension ref="A1:CF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="BM50" sqref="BM50:BP50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,22 +2657,47 @@
     <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.7109375" customWidth="1"/>
     <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.7109375" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" customWidth="1"/>
+    <col min="62" max="62" width="17.42578125" customWidth="1"/>
+    <col min="63" max="63" width="18.28515625" customWidth="1"/>
+    <col min="64" max="64" width="25.140625" customWidth="1"/>
+    <col min="65" max="65" width="16.140625" customWidth="1"/>
+    <col min="66" max="66" width="17.5703125" customWidth="1"/>
+    <col min="67" max="67" width="12.85546875" customWidth="1"/>
+    <col min="68" max="68" width="11.85546875" customWidth="1"/>
+    <col min="69" max="69" width="13.5703125" customWidth="1"/>
+    <col min="70" max="70" width="13.7109375" customWidth="1"/>
+    <col min="71" max="71" width="13" customWidth="1"/>
+    <col min="72" max="72" width="16.42578125" customWidth="1"/>
+    <col min="73" max="73" width="12.28515625" customWidth="1"/>
+    <col min="74" max="74" width="15.7109375" customWidth="1"/>
+    <col min="75" max="75" width="14.140625" customWidth="1"/>
+    <col min="76" max="76" width="16.7109375" customWidth="1"/>
+    <col min="77" max="77" width="11.85546875" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" customWidth="1"/>
+    <col min="79" max="79" width="21.7109375" customWidth="1"/>
+    <col min="80" max="80" width="15.7109375" customWidth="1"/>
+    <col min="81" max="81" width="17.28515625" customWidth="1"/>
+    <col min="82" max="82" width="13.140625" customWidth="1"/>
+    <col min="83" max="83" width="14.28515625" customWidth="1"/>
+    <col min="84" max="84" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:68" ht="15.75" thickBot="1">
+      <c r="A1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
-    <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:68" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
@@ -2384,7 +2783,7 @@
       <c r="AQ2" s="14"/>
       <c r="AR2" s="14"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" thickTop="1">
+    <row r="3" spans="1:68" ht="15.75" thickTop="1">
       <c r="A3" s="38" t="s">
         <v>32</v>
       </c>
@@ -2505,8 +2904,92 @@
       <c r="AN3" s="38" t="s">
         <v>1</v>
       </c>
+      <c r="AO3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:68">
       <c r="A4" s="16" t="s">
         <v>94</v>
       </c>
@@ -2627,8 +3110,92 @@
       <c r="AN4" s="37" t="s">
         <v>27</v>
       </c>
+      <c r="AO4" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS4" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW4" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA4" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="BB4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="BF4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI4" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="BJ4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM4" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP4" s="39" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:68">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -2729,8 +3296,78 @@
         <v>34</v>
       </c>
       <c r="AN5" s="38"/>
+      <c r="AO5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP5" s="40"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:68">
       <c r="A6" s="37" t="s">
         <v>40</v>
       </c>
@@ -2831,505 +3468,911 @@
         <v>50</v>
       </c>
       <c r="AN6" s="37"/>
+      <c r="AO6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="AQ6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="AU6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="AY6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BC6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BG6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BK6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL6" s="39"/>
+      <c r="BM6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BO6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP6" s="39"/>
     </row>
-    <row r="7" spans="1:44">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:68">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="50"/>
+      <c r="BK7" s="50"/>
+      <c r="BL7" s="50"/>
+      <c r="BM7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="43"/>
     </row>
-    <row r="8" spans="1:44" ht="15" customHeight="1">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:68" ht="44.25" customHeight="1">
+      <c r="A8" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="40" t="s">
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="42" t="s">
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN8" s="45"/>
+      <c r="BO8" s="45"/>
+      <c r="BP8" s="46"/>
+    </row>
+    <row r="9" spans="1:68" ht="15" customHeight="1">
+      <c r="A9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ9" s="53"/>
+      <c r="BK9" s="53"/>
+      <c r="BL9" s="53"/>
+      <c r="BM9" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="48"/>
+      <c r="BO9" s="48"/>
+      <c r="BP9" s="49"/>
+    </row>
+    <row r="10" spans="1:68" s="5" customFormat="1" ht="75" customHeight="1">
+      <c r="A10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
+      <c r="AO10" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45"/>
+      <c r="BP10" s="46"/>
     </row>
-    <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
+    <row r="11" spans="1:68">
+      <c r="A11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT11" s="50"/>
+      <c r="AU11" s="50"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB11" s="50"/>
+      <c r="BC11" s="50"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF11" s="50"/>
+      <c r="BG11" s="50"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ11" s="50"/>
+      <c r="BK11" s="50"/>
+      <c r="BL11" s="50"/>
+      <c r="BM11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN11" s="42"/>
+      <c r="BO11" s="42"/>
+      <c r="BP11" s="43"/>
     </row>
-    <row r="10" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42" t="s">
+    <row r="12" spans="1:68" s="5" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A12" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN12" s="45"/>
+      <c r="BO12" s="45"/>
+      <c r="BP12" s="46"/>
     </row>
-    <row r="11" spans="1:44">
-      <c r="A11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
+    <row r="13" spans="1:68">
+      <c r="A13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+      <c r="BM13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN13" s="42"/>
+      <c r="BO13" s="42"/>
+      <c r="BP13" s="43"/>
     </row>
-    <row r="12" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42" t="s">
+    <row r="14" spans="1:68" s="5" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A14" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="46"/>
     </row>
-    <row r="13" spans="1:44">
-      <c r="A13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-    </row>
-    <row r="14" spans="1:44" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-    </row>
-    <row r="15" spans="1:44" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:68" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:68" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
@@ -3343,7 +4386,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:56" ht="15.75" thickTop="1">
+    <row r="17" spans="1:84" ht="15.75" thickTop="1">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -3500,10 +4543,22 @@
       <c r="AZ17" s="35" t="s">
         <v>1</v>
       </c>
+      <c r="BA17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB17" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:84">
       <c r="A18" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>16</v>
@@ -3632,8 +4687,20 @@
       <c r="AZ18" s="34" t="s">
         <v>26</v>
       </c>
+      <c r="BA18" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD18" s="39" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="19" spans="1:56">
+    <row r="19" spans="1:84">
       <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
@@ -3764,8 +4831,18 @@
         <v>34</v>
       </c>
       <c r="AZ19" s="35"/>
+      <c r="BA19" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB19" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD19" s="40"/>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:84">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -3896,649 +4973,707 @@
         <v>50</v>
       </c>
       <c r="AZ20" s="34"/>
+      <c r="BA20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB20" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BC20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD20" s="39"/>
     </row>
-    <row r="21" spans="1:56">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:84">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="s">
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41" t="s">
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41" t="s">
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41" t="s">
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41" t="s">
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41" t="s">
+      <c r="AL21" s="50"/>
+      <c r="AM21" s="50"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41" t="s">
+      <c r="AP21" s="50"/>
+      <c r="AQ21" s="50"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41" t="s">
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="43"/>
     </row>
-    <row r="22" spans="1:56">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:84">
+      <c r="A22" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP22" s="52"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="52"/>
+      <c r="AW22" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX22" s="52"/>
+      <c r="AY22" s="52"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB22" s="45"/>
+      <c r="BC22" s="45"/>
+      <c r="BD22" s="46"/>
+    </row>
+    <row r="23" spans="1:84">
+      <c r="A23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BD23" s="49"/>
+    </row>
+    <row r="24" spans="1:84" s="5" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A24" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="46"/>
+    </row>
+    <row r="25" spans="1:84" ht="15" customHeight="1">
+      <c r="A25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="43"/>
+    </row>
+    <row r="26" spans="1:84" s="5" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A26" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="40"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB26" s="45"/>
+      <c r="BC26" s="45"/>
+      <c r="BD26" s="46"/>
     </row>
-    <row r="23" spans="1:56">
-      <c r="A23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
-      <c r="AK23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL23" s="39"/>
-      <c r="AM23" s="39"/>
-      <c r="AN23" s="39"/>
-      <c r="AO23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT23" s="39"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="39"/>
-      <c r="AW23" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX23" s="39"/>
-      <c r="AY23" s="39"/>
-      <c r="AZ23" s="39"/>
+    <row r="27" spans="1:84">
+      <c r="A27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT27" s="50"/>
+      <c r="AU27" s="50"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX27" s="50"/>
+      <c r="AY27" s="50"/>
+      <c r="AZ27" s="50"/>
+      <c r="BA27" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="43"/>
     </row>
-    <row r="24" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A24" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
+    <row r="28" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A28" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX28" s="51"/>
+      <c r="AY28" s="51"/>
+      <c r="AZ28" s="51"/>
+      <c r="BA28" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB28" s="45"/>
+      <c r="BC28" s="45"/>
+      <c r="BD28" s="46"/>
     </row>
-    <row r="25" spans="1:56">
-      <c r="A25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-    </row>
-    <row r="26" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A26" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-    </row>
-    <row r="27" spans="1:56">
-      <c r="A27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-    </row>
-    <row r="28" spans="1:56" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-    </row>
-    <row r="29" spans="1:56" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:56" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:84" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>60</v>
       </c>
@@ -4648,7 +5783,7 @@
       <c r="BC30" s="14"/>
       <c r="BD30" s="14"/>
     </row>
-    <row r="31" spans="1:56" ht="15.75" thickTop="1">
+    <row r="31" spans="1:84" ht="15.75" thickTop="1">
       <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
@@ -4805,8 +5940,104 @@
       <c r="AZ31" s="33" t="s">
         <v>1</v>
       </c>
+      <c r="BA31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:84">
       <c r="A32" s="16" t="s">
         <v>129</v>
       </c>
@@ -4814,79 +6045,175 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="32"/>
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
       <c r="M32" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
       <c r="X32" s="32"/>
       <c r="Y32" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
       <c r="AB32" s="32"/>
       <c r="AC32" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
       <c r="AJ32" s="32"/>
       <c r="AK32" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL32" s="32"/>
       <c r="AM32" s="32"/>
       <c r="AN32" s="32"/>
       <c r="AO32" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP32" s="32"/>
       <c r="AQ32" s="32"/>
       <c r="AR32" s="32"/>
       <c r="AS32" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AT32" s="32"/>
       <c r="AU32" s="32"/>
       <c r="AV32" s="32"/>
       <c r="AW32" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AX32" s="32"/>
       <c r="AY32" s="32"/>
       <c r="AZ32" s="32"/>
+      <c r="BA32" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="BB32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE32" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="BF32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI32" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="BJ32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL32" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM32" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="BN32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO32" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ32" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="BR32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT32" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU32" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="BV32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX32" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY32" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="BZ32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="CC32" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="CD32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF32" s="39" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:84">
       <c r="A33" s="11" t="s">
         <v>4</v>
       </c>
@@ -5017,8 +6344,88 @@
         <v>34</v>
       </c>
       <c r="AZ33" s="33"/>
+      <c r="BA33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL33" s="40"/>
+      <c r="BM33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP33" s="40"/>
+      <c r="BQ33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT33" s="40"/>
+      <c r="BU33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BX33" s="40"/>
+      <c r="BY33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB33" s="40"/>
+      <c r="CC33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="CE33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF33" s="40"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:84">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -5149,643 +6556,1107 @@
         <v>50</v>
       </c>
       <c r="AZ34" s="32"/>
+      <c r="BA34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BC34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD34" s="39"/>
+      <c r="BE34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BG34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH34" s="39"/>
+      <c r="BI34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BK34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL34" s="39"/>
+      <c r="BM34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BO34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP34" s="39"/>
+      <c r="BQ34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BS34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT34" s="39"/>
+      <c r="BU34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BV34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BW34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX34" s="39"/>
+      <c r="BY34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="CA34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB34" s="39"/>
+      <c r="CC34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="CE34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="CF34" s="39"/>
     </row>
-    <row r="35" spans="1:52">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:84">
+      <c r="A35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41" t="s">
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="s">
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41" t="s">
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41" t="s">
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41" t="s">
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41" t="s">
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41" t="s">
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41" t="s">
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
+      <c r="AS35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41" t="s">
+      <c r="AT35" s="50"/>
+      <c r="AU35" s="50"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
+      <c r="AX35" s="50"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="50"/>
+      <c r="BA35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB35" s="42"/>
+      <c r="BC35" s="42"/>
+      <c r="BD35" s="43"/>
+      <c r="BE35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF35" s="42"/>
+      <c r="BG35" s="42"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ35" s="42"/>
+      <c r="BK35" s="42"/>
+      <c r="BL35" s="43"/>
+      <c r="BM35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN35" s="42"/>
+      <c r="BO35" s="42"/>
+      <c r="BP35" s="43"/>
+      <c r="BQ35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR35" s="42"/>
+      <c r="BS35" s="42"/>
+      <c r="BT35" s="43"/>
+      <c r="BU35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BV35" s="42"/>
+      <c r="BW35" s="42"/>
+      <c r="BX35" s="43"/>
+      <c r="BY35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ35" s="42"/>
+      <c r="CA35" s="42"/>
+      <c r="CB35" s="43"/>
+      <c r="CC35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD35" s="42"/>
+      <c r="CE35" s="42"/>
+      <c r="CF35" s="43"/>
     </row>
-    <row r="36" spans="1:52">
-      <c r="A36" s="40" t="s">
+    <row r="36" spans="1:84" ht="45" customHeight="1">
+      <c r="A36" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="42" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="42" t="s">
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40" t="s">
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40" t="s">
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40" t="s">
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="42" t="s">
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40" t="s">
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="40" t="s">
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="40" t="s">
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="40"/>
-      <c r="AN36" s="40"/>
-      <c r="AO36" s="40" t="s">
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40" t="s">
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52"/>
+      <c r="AR36" s="52"/>
+      <c r="AS36" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
-      <c r="AW36" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX36" s="40"/>
-      <c r="AY36" s="40"/>
-      <c r="AZ36" s="40"/>
+      <c r="AT36" s="52"/>
+      <c r="AU36" s="52"/>
+      <c r="AV36" s="52"/>
+      <c r="AW36" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="AX36" s="52"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="52"/>
+      <c r="BA36" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB36" s="45"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="46"/>
+      <c r="BE36" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF36" s="45"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="46"/>
+      <c r="BI36" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="45"/>
+      <c r="BL36" s="46"/>
+      <c r="BM36" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="BN36" s="45"/>
+      <c r="BO36" s="45"/>
+      <c r="BP36" s="46"/>
+      <c r="BQ36" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR36" s="45"/>
+      <c r="BS36" s="45"/>
+      <c r="BT36" s="46"/>
+      <c r="BU36" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="BV36" s="45"/>
+      <c r="BW36" s="45"/>
+      <c r="BX36" s="46"/>
+      <c r="BY36" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ36" s="45"/>
+      <c r="CA36" s="45"/>
+      <c r="CB36" s="46"/>
+      <c r="CC36" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="CD36" s="45"/>
+      <c r="CE36" s="45"/>
+      <c r="CF36" s="46"/>
     </row>
-    <row r="37" spans="1:52">
-      <c r="A37" s="39" t="s">
+    <row r="37" spans="1:84">
+      <c r="A37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39" t="s">
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39" t="s">
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39" t="s">
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39" t="s">
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39" t="s">
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39" t="s">
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39" t="s">
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39" t="s">
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="39"/>
-      <c r="AM37" s="39"/>
-      <c r="AN37" s="39"/>
-      <c r="AO37" s="39" t="s">
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="39"/>
-      <c r="AS37" s="39" t="s">
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="53"/>
+      <c r="AS37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="39"/>
-      <c r="AW37" s="39" t="s">
+      <c r="AT37" s="53"/>
+      <c r="AU37" s="53"/>
+      <c r="AV37" s="53"/>
+      <c r="AW37" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="39"/>
-      <c r="AY37" s="39"/>
-      <c r="AZ37" s="39"/>
+      <c r="AX37" s="53"/>
+      <c r="AY37" s="53"/>
+      <c r="AZ37" s="53"/>
+      <c r="BA37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB37" s="48"/>
+      <c r="BC37" s="48"/>
+      <c r="BD37" s="49"/>
+      <c r="BE37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF37" s="48"/>
+      <c r="BG37" s="48"/>
+      <c r="BH37" s="49"/>
+      <c r="BI37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ37" s="48"/>
+      <c r="BK37" s="48"/>
+      <c r="BL37" s="49"/>
+      <c r="BM37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="48"/>
+      <c r="BP37" s="49"/>
+      <c r="BQ37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR37" s="48"/>
+      <c r="BS37" s="48"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV37" s="48"/>
+      <c r="BW37" s="48"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ37" s="48"/>
+      <c r="CA37" s="48"/>
+      <c r="CB37" s="49"/>
+      <c r="CC37" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD37" s="48"/>
+      <c r="CE37" s="48"/>
+      <c r="CF37" s="49"/>
     </row>
-    <row r="38" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="42" t="s">
+    <row r="38" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A38" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB38" s="45"/>
+      <c r="BC38" s="45"/>
+      <c r="BD38" s="46"/>
+      <c r="BE38" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF38" s="45"/>
+      <c r="BG38" s="45"/>
+      <c r="BH38" s="46"/>
+      <c r="BI38" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ38" s="45"/>
+      <c r="BK38" s="45"/>
+      <c r="BL38" s="46"/>
+      <c r="BM38" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="BN38" s="45"/>
+      <c r="BO38" s="45"/>
+      <c r="BP38" s="46"/>
+      <c r="BQ38" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="BR38" s="45"/>
+      <c r="BS38" s="45"/>
+      <c r="BT38" s="46"/>
+      <c r="BU38" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV38" s="45"/>
+      <c r="BW38" s="45"/>
+      <c r="BX38" s="46"/>
+      <c r="BY38" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ38" s="45"/>
+      <c r="CA38" s="45"/>
+      <c r="CB38" s="46"/>
+      <c r="CC38" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="CD38" s="45"/>
+      <c r="CE38" s="45"/>
+      <c r="CF38" s="46"/>
+    </row>
+    <row r="39" spans="1:84">
+      <c r="A39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB39" s="42"/>
+      <c r="BC39" s="42"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF39" s="42"/>
+      <c r="BG39" s="42"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ39" s="42"/>
+      <c r="BK39" s="42"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN39" s="42"/>
+      <c r="BO39" s="42"/>
+      <c r="BP39" s="43"/>
+      <c r="BQ39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR39" s="42"/>
+      <c r="BS39" s="42"/>
+      <c r="BT39" s="43"/>
+      <c r="BU39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV39" s="42"/>
+      <c r="BW39" s="42"/>
+      <c r="BX39" s="43"/>
+      <c r="BY39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ39" s="42"/>
+      <c r="CA39" s="42"/>
+      <c r="CB39" s="43"/>
+      <c r="CC39" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD39" s="42"/>
+      <c r="CE39" s="42"/>
+      <c r="CF39" s="43"/>
+    </row>
+    <row r="40" spans="1:84" s="5" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A40" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42" t="s">
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42" t="s">
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42" t="s">
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42" t="s">
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42" t="s">
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="42"/>
-      <c r="AJ38" s="42"/>
-      <c r="AK38" s="42" t="s">
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AL38" s="42"/>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="42"/>
-      <c r="AO38" s="42" t="s">
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="AP38" s="42"/>
-      <c r="AQ38" s="42"/>
-      <c r="AR38" s="42"/>
-      <c r="AS38" s="42" t="s">
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="AT38" s="42"/>
-      <c r="AU38" s="42"/>
-      <c r="AV38" s="42"/>
-      <c r="AW38" s="42" t="s">
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="51"/>
+      <c r="BA40" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="BB40" s="45"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="46"/>
+      <c r="BE40" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="45"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ40" s="45"/>
+      <c r="BK40" s="45"/>
+      <c r="BL40" s="46"/>
+      <c r="BM40" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="BN40" s="45"/>
+      <c r="BO40" s="45"/>
+      <c r="BP40" s="46"/>
+      <c r="BQ40" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="BR40" s="45"/>
+      <c r="BS40" s="45"/>
+      <c r="BT40" s="46"/>
+      <c r="BU40" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="BV40" s="45"/>
+      <c r="BW40" s="45"/>
+      <c r="BX40" s="46"/>
+      <c r="BY40" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="BZ40" s="45"/>
+      <c r="CA40" s="45"/>
+      <c r="CB40" s="46"/>
+      <c r="CC40" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="CD40" s="45"/>
+      <c r="CE40" s="45"/>
+      <c r="CF40" s="46"/>
     </row>
-    <row r="39" spans="1:52">
-      <c r="A39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX39" s="41"/>
-      <c r="AY39" s="41"/>
-      <c r="AZ39" s="41"/>
+    <row r="41" spans="1:84">
+      <c r="A41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="50"/>
+      <c r="AN41" s="50"/>
+      <c r="AO41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP41" s="50"/>
+      <c r="AQ41" s="50"/>
+      <c r="AR41" s="50"/>
+      <c r="AS41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT41" s="50"/>
+      <c r="AU41" s="50"/>
+      <c r="AV41" s="50"/>
+      <c r="AW41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX41" s="50"/>
+      <c r="AY41" s="50"/>
+      <c r="AZ41" s="50"/>
+      <c r="BA41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB41" s="42"/>
+      <c r="BC41" s="42"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="43"/>
+      <c r="BI41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ41" s="42"/>
+      <c r="BK41" s="42"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="42"/>
+      <c r="BP41" s="43"/>
+      <c r="BQ41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR41" s="42"/>
+      <c r="BS41" s="42"/>
+      <c r="BT41" s="43"/>
+      <c r="BU41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV41" s="42"/>
+      <c r="BW41" s="42"/>
+      <c r="BX41" s="43"/>
+      <c r="BY41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ41" s="42"/>
+      <c r="CA41" s="42"/>
+      <c r="CB41" s="43"/>
+      <c r="CC41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD41" s="42"/>
+      <c r="CE41" s="42"/>
+      <c r="CF41" s="43"/>
     </row>
-    <row r="40" spans="1:52" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="42" t="s">
+    <row r="42" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A42" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42" t="s">
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42" t="s">
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42" t="s">
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42" t="s">
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42" t="s">
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42" t="s">
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42" t="s">
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42" t="s">
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42" t="s">
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42" t="s">
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
+      <c r="AX42" s="51"/>
+      <c r="AY42" s="51"/>
+      <c r="AZ42" s="51"/>
+      <c r="BA42" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="BB42" s="45"/>
+      <c r="BC42" s="45"/>
+      <c r="BD42" s="46"/>
+      <c r="BE42" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="BF42" s="45"/>
+      <c r="BG42" s="45"/>
+      <c r="BH42" s="46"/>
+      <c r="BI42" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="BJ42" s="45"/>
+      <c r="BK42" s="45"/>
+      <c r="BL42" s="46"/>
+      <c r="BM42" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="BN42" s="45"/>
+      <c r="BO42" s="45"/>
+      <c r="BP42" s="46"/>
+      <c r="BQ42" s="44" t="s">
+        <v>401</v>
+      </c>
+      <c r="BR42" s="45"/>
+      <c r="BS42" s="45"/>
+      <c r="BT42" s="46"/>
+      <c r="BU42" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="BV42" s="45"/>
+      <c r="BW42" s="45"/>
+      <c r="BX42" s="46"/>
+      <c r="BY42" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="BZ42" s="45"/>
+      <c r="CA42" s="45"/>
+      <c r="CB42" s="46"/>
+      <c r="CC42" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="CD42" s="45"/>
+      <c r="CE42" s="45"/>
+      <c r="CF42" s="46"/>
     </row>
-    <row r="41" spans="1:52">
-      <c r="A41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
-    </row>
-    <row r="42" spans="1:52" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="42"/>
-      <c r="AZ42" s="42"/>
-    </row>
-    <row r="43" spans="1:52" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:52" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:84" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="14" t="s">
         <v>61</v>
       </c>
@@ -5887,7 +7758,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:52" ht="15.75" thickTop="1">
+    <row r="45" spans="1:84" ht="15.75" thickTop="1">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
@@ -6032,10 +7903,70 @@
       <c r="AV45" s="33" t="s">
         <v>1</v>
       </c>
+      <c r="AW45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH45" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL45" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP45" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:84">
       <c r="A46" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>17</v>
@@ -6047,7 +7978,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>15</v>
@@ -6059,7 +7990,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J46" s="32" t="s">
         <v>16</v>
@@ -6071,7 +8002,7 @@
         <v>11</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N46" s="32" t="s">
         <v>17</v>
@@ -6083,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R46" s="32" t="s">
         <v>16</v>
@@ -6095,7 +8026,7 @@
         <v>11</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V46" s="32" t="s">
         <v>16</v>
@@ -6107,7 +8038,7 @@
         <v>11</v>
       </c>
       <c r="Y46" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z46" s="32" t="s">
         <v>16</v>
@@ -6119,7 +8050,7 @@
         <v>27</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD46" s="32" t="s">
         <v>16</v>
@@ -6131,7 +8062,7 @@
         <v>27</v>
       </c>
       <c r="AG46" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AH46" s="32" t="s">
         <v>17</v>
@@ -6143,7 +8074,7 @@
         <v>12</v>
       </c>
       <c r="AK46" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL46" s="32" t="s">
         <v>17</v>
@@ -6155,7 +8086,7 @@
         <v>27</v>
       </c>
       <c r="AO46" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AP46" s="32" t="s">
         <v>16</v>
@@ -6167,7 +8098,7 @@
         <v>25</v>
       </c>
       <c r="AS46" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AT46" s="32" t="s">
         <v>15</v>
@@ -6178,8 +8109,68 @@
       <c r="AV46" s="32" t="s">
         <v>25</v>
       </c>
+      <c r="AW46" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ46" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA46" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="BB46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD46" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE46" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH46" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI46" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="BJ46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK46" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL46" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BM46" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="BN46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP46" s="39" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:84">
       <c r="A47" s="11" t="s">
         <v>4</v>
       </c>
@@ -6300,8 +8291,58 @@
         <v>34</v>
       </c>
       <c r="AV47" s="33"/>
+      <c r="AW47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD47" s="40"/>
+      <c r="BE47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH47" s="40"/>
+      <c r="BI47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP47" s="40"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:84">
       <c r="A48" s="12" t="s">
         <v>38</v>
       </c>
@@ -6422,601 +8463,891 @@
         <v>50</v>
       </c>
       <c r="AV48" s="32"/>
+      <c r="AW48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="AY48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ48" s="39"/>
+      <c r="BA48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BC48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD48" s="39"/>
+      <c r="BE48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BG48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH48" s="39"/>
+      <c r="BI48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BK48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL48" s="39"/>
+      <c r="BM48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BO48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP48" s="39"/>
     </row>
-    <row r="49" spans="1:48">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:68">
+      <c r="A49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41" t="s">
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41" t="s">
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41" t="s">
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41" t="s">
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41" t="s">
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41" t="s">
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
+      <c r="AR49" s="50"/>
+      <c r="AS49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
+      <c r="AT49" s="50"/>
+      <c r="AU49" s="50"/>
+      <c r="AV49" s="50"/>
+      <c r="AW49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX49" s="42"/>
+      <c r="AY49" s="42"/>
+      <c r="AZ49" s="43"/>
+      <c r="BA49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
+      <c r="BD49" s="43"/>
+      <c r="BE49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF49" s="42"/>
+      <c r="BG49" s="42"/>
+      <c r="BH49" s="43"/>
+      <c r="BI49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="42"/>
+      <c r="BL49" s="43"/>
+      <c r="BM49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN49" s="42"/>
+      <c r="BO49" s="42"/>
+      <c r="BP49" s="43"/>
     </row>
-    <row r="50" spans="1:48">
-      <c r="A50" s="40" t="s">
+    <row r="50" spans="1:68" ht="30" customHeight="1">
+      <c r="A50" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40" t="s">
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="52"/>
+      <c r="AO50" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP50" s="52"/>
+      <c r="AQ50" s="52"/>
+      <c r="AR50" s="52"/>
+      <c r="AS50" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT50" s="52"/>
+      <c r="AU50" s="52"/>
+      <c r="AV50" s="52"/>
+      <c r="AW50" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX50" s="45"/>
+      <c r="AY50" s="45"/>
+      <c r="AZ50" s="46"/>
+      <c r="BA50" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB50" s="45"/>
+      <c r="BC50" s="45"/>
+      <c r="BD50" s="46"/>
+      <c r="BE50" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF50" s="45"/>
+      <c r="BG50" s="45"/>
+      <c r="BH50" s="46"/>
+      <c r="BI50" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="BJ50" s="45"/>
+      <c r="BK50" s="45"/>
+      <c r="BL50" s="46"/>
+      <c r="BM50" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN50" s="45"/>
+      <c r="BO50" s="45"/>
+      <c r="BP50" s="46"/>
+    </row>
+    <row r="51" spans="1:68" ht="15" customHeight="1">
+      <c r="A51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="V51" s="53"/>
+      <c r="W51" s="53"/>
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="53"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD51" s="53"/>
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="53"/>
+      <c r="AK51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL51" s="53"/>
+      <c r="AM51" s="53"/>
+      <c r="AN51" s="53"/>
+      <c r="AO51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP51" s="53"/>
+      <c r="AQ51" s="53"/>
+      <c r="AR51" s="53"/>
+      <c r="AS51" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT51" s="53"/>
+      <c r="AU51" s="53"/>
+      <c r="AV51" s="53"/>
+      <c r="AW51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="48"/>
+      <c r="AZ51" s="49"/>
+      <c r="BA51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB51" s="48"/>
+      <c r="BC51" s="48"/>
+      <c r="BD51" s="49"/>
+      <c r="BE51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF51" s="48"/>
+      <c r="BG51" s="48"/>
+      <c r="BH51" s="49"/>
+      <c r="BI51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ51" s="48"/>
+      <c r="BK51" s="48"/>
+      <c r="BL51" s="49"/>
+      <c r="BM51" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN51" s="48"/>
+      <c r="BO51" s="48"/>
+      <c r="BP51" s="49"/>
+    </row>
+    <row r="52" spans="1:68" s="5" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A52" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
+      <c r="AO52" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP52" s="51"/>
+      <c r="AQ52" s="51"/>
+      <c r="AR52" s="51"/>
+      <c r="AS52" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT52" s="51"/>
+      <c r="AU52" s="51"/>
+      <c r="AV52" s="51"/>
+      <c r="AW52" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX52" s="45"/>
+      <c r="AY52" s="45"/>
+      <c r="AZ52" s="46"/>
+      <c r="BA52" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB52" s="45"/>
+      <c r="BC52" s="45"/>
+      <c r="BD52" s="46"/>
+      <c r="BE52" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF52" s="45"/>
+      <c r="BG52" s="45"/>
+      <c r="BH52" s="46"/>
+      <c r="BI52" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="BJ52" s="45"/>
+      <c r="BK52" s="45"/>
+      <c r="BL52" s="46"/>
+      <c r="BM52" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="BN52" s="45"/>
+      <c r="BO52" s="45"/>
+      <c r="BP52" s="46"/>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL53" s="50"/>
+      <c r="AM53" s="50"/>
+      <c r="AN53" s="50"/>
+      <c r="AO53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP53" s="50"/>
+      <c r="AQ53" s="50"/>
+      <c r="AR53" s="50"/>
+      <c r="AS53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT53" s="50"/>
+      <c r="AU53" s="50"/>
+      <c r="AV53" s="50"/>
+      <c r="AW53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX53" s="42"/>
+      <c r="AY53" s="42"/>
+      <c r="AZ53" s="43"/>
+      <c r="BA53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB53" s="42"/>
+      <c r="BC53" s="42"/>
+      <c r="BD53" s="43"/>
+      <c r="BE53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF53" s="42"/>
+      <c r="BG53" s="42"/>
+      <c r="BH53" s="43"/>
+      <c r="BI53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ53" s="42"/>
+      <c r="BK53" s="42"/>
+      <c r="BL53" s="43"/>
+      <c r="BM53" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN53" s="42"/>
+      <c r="BO53" s="42"/>
+      <c r="BP53" s="43"/>
+    </row>
+    <row r="54" spans="1:68" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A54" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40" t="s">
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD50" s="40"/>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH50" s="40"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="40"/>
-      <c r="AK50" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL50" s="40"/>
-      <c r="AM50" s="40"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP50" s="40"/>
-      <c r="AQ50" s="40"/>
-      <c r="AR50" s="40"/>
-      <c r="AS50" s="40" t="s">
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX54" s="45"/>
+      <c r="AY54" s="45"/>
+      <c r="AZ54" s="46"/>
+      <c r="BA54" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="BB54" s="45"/>
+      <c r="BC54" s="45"/>
+      <c r="BD54" s="46"/>
+      <c r="BE54" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF54" s="45"/>
+      <c r="BG54" s="45"/>
+      <c r="BH54" s="46"/>
+      <c r="BI54" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="BJ54" s="45"/>
+      <c r="BK54" s="45"/>
+      <c r="BL54" s="46"/>
+      <c r="BM54" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="BN54" s="45"/>
+      <c r="BO54" s="45"/>
+      <c r="BP54" s="46"/>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP55" s="50"/>
+      <c r="AQ55" s="50"/>
+      <c r="AR55" s="50"/>
+      <c r="AS55" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT55" s="50"/>
+      <c r="AU55" s="50"/>
+      <c r="AV55" s="50"/>
+      <c r="AW55" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX55" s="42"/>
+      <c r="AY55" s="42"/>
+      <c r="AZ55" s="43"/>
+      <c r="BA55" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB55" s="42"/>
+      <c r="BC55" s="42"/>
+      <c r="BD55" s="43"/>
+      <c r="BE55" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF55" s="42"/>
+      <c r="BG55" s="42"/>
+      <c r="BH55" s="43"/>
+      <c r="BI55" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ55" s="42"/>
+      <c r="BK55" s="42"/>
+      <c r="BL55" s="43"/>
+      <c r="BM55" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN55" s="42"/>
+      <c r="BO55" s="42"/>
+      <c r="BP55" s="43"/>
+    </row>
+    <row r="56" spans="1:68" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A56" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AT50" s="40"/>
-      <c r="AU50" s="40"/>
-      <c r="AV50" s="40"/>
-    </row>
-    <row r="51" spans="1:48" ht="15" customHeight="1">
-      <c r="A51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="39"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH51" s="39"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
-      <c r="AK51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="39"/>
-      <c r="AN51" s="39"/>
-      <c r="AO51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP51" s="39"/>
-      <c r="AQ51" s="39"/>
-      <c r="AR51" s="39"/>
-      <c r="AS51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT51" s="39"/>
-      <c r="AU51" s="39"/>
-      <c r="AV51" s="39"/>
-    </row>
-    <row r="52" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A52" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
-      <c r="AJ52" s="42"/>
-      <c r="AK52" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL52" s="42"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="42"/>
-      <c r="AO52" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP52" s="42"/>
-      <c r="AQ52" s="42"/>
-      <c r="AR52" s="42"/>
-      <c r="AS52" s="42" t="s">
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP56" s="51"/>
+      <c r="AQ56" s="51"/>
+      <c r="AR56" s="51"/>
+      <c r="AS56" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AT52" s="42"/>
-      <c r="AU52" s="42"/>
-      <c r="AV52" s="42"/>
-    </row>
-    <row r="53" spans="1:48">
-      <c r="A53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL53" s="41"/>
-      <c r="AM53" s="41"/>
-      <c r="AN53" s="41"/>
-      <c r="AO53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP53" s="41"/>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="41"/>
-      <c r="AS53" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT53" s="41"/>
-      <c r="AU53" s="41"/>
-      <c r="AV53" s="41"/>
-    </row>
-    <row r="54" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A54" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="42"/>
-      <c r="AB54" s="42"/>
-      <c r="AC54" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH54" s="42"/>
-      <c r="AI54" s="42"/>
-      <c r="AJ54" s="42"/>
-      <c r="AK54" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
-      <c r="AO54" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="42"/>
-      <c r="AR54" s="42"/>
-      <c r="AS54" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="42"/>
-    </row>
-    <row r="55" spans="1:48">
-      <c r="A55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP55" s="41"/>
-      <c r="AQ55" s="41"/>
-      <c r="AR55" s="41"/>
-      <c r="AS55" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT55" s="41"/>
-      <c r="AU55" s="41"/>
-      <c r="AV55" s="41"/>
-    </row>
-    <row r="56" spans="1:48" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A56" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="42"/>
-      <c r="AB56" s="42"/>
-      <c r="AC56" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
-      <c r="AG56" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH56" s="42"/>
-      <c r="AI56" s="42"/>
-      <c r="AJ56" s="42"/>
-      <c r="AK56" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="42"/>
-      <c r="AR56" s="42"/>
-      <c r="AS56" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT56" s="42"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="42"/>
+      <c r="AT56" s="51"/>
+      <c r="AU56" s="51"/>
+      <c r="AV56" s="51"/>
+      <c r="AW56" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX56" s="45"/>
+      <c r="AY56" s="45"/>
+      <c r="AZ56" s="46"/>
+      <c r="BA56" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB56" s="45"/>
+      <c r="BC56" s="45"/>
+      <c r="BD56" s="46"/>
+      <c r="BE56" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="BF56" s="45"/>
+      <c r="BG56" s="45"/>
+      <c r="BH56" s="46"/>
+      <c r="BI56" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="BJ56" s="45"/>
+      <c r="BK56" s="45"/>
+      <c r="BL56" s="46"/>
+      <c r="BM56" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="BN56" s="45"/>
+      <c r="BO56" s="45"/>
+      <c r="BP56" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="385">
+  <mergeCells count="553">
     <mergeCell ref="AS21:AV21"/>
     <mergeCell ref="AS22:AV22"/>
     <mergeCell ref="AS23:AV23"/>
@@ -7402,21 +9733,189 @@
     <mergeCell ref="AK54:AN54"/>
     <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BA21:BD21"/>
+    <mergeCell ref="BA22:BD22"/>
+    <mergeCell ref="BA23:BD23"/>
+    <mergeCell ref="BA24:BD24"/>
+    <mergeCell ref="BA25:BD25"/>
+    <mergeCell ref="BA26:BD26"/>
+    <mergeCell ref="BA27:BD27"/>
+    <mergeCell ref="BA28:BD28"/>
+    <mergeCell ref="BA35:BD35"/>
+    <mergeCell ref="BA36:BD36"/>
+    <mergeCell ref="BA37:BD37"/>
+    <mergeCell ref="BA38:BD38"/>
+    <mergeCell ref="BA39:BD39"/>
+    <mergeCell ref="BA40:BD40"/>
+    <mergeCell ref="BA41:BD41"/>
+    <mergeCell ref="BA42:BD42"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BM35:BP35"/>
+    <mergeCell ref="BM36:BP36"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BM39:BP39"/>
+    <mergeCell ref="BM40:BP40"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ35:BT35"/>
+    <mergeCell ref="BQ36:BT36"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BQ38:BT38"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="AW49:AZ49"/>
+    <mergeCell ref="AW50:AZ50"/>
+    <mergeCell ref="AW51:AZ51"/>
+    <mergeCell ref="AW52:AZ52"/>
+    <mergeCell ref="AW53:AZ53"/>
+    <mergeCell ref="AW54:AZ54"/>
+    <mergeCell ref="AW55:AZ55"/>
+    <mergeCell ref="AW56:AZ56"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46 AP4 AT4 AX4 BB4 BF4 BJ4 BN4 BB18 BB32 BF32 BJ32 BN32 BR32 BV32 BZ32 CD32 AX46 BB46 BF46 BJ46 BN46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU46 C4 G4 K4 O4 S4 W4 AA4 AE4 AI4 AM4 G18 C46 O46 K46 G46 AY32 AU32 AQ32 AM32 AI32 AE32 AA32 W32 S32 O32 K32 G32 AY18 C18 C32 AU18 AQ18 AM18 AI18 AE18 AA18 W18 S18 O18 K18 S46 W46 AA46 AE46 AI46 AM46 AQ46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU46 C4 G4 K4 O4 S4 W4 AA4 AE4 AI4 AM4 G18 C46 O46 K46 G46 AY32 AU32 AQ32 AM32 AI32 AE32 AA32 W32 S32 O32 K32 G32 AY18 C18 C32 AU18 AQ18 AM18 AI18 AE18 AA18 W18 S18 O18 K18 S46 W46 AA46 AE46 AI46 AM46 AQ46 AQ4 AU4 AY4 BC4 BG4 BK4 BO4 BC18 BC32 BG32 BK32 BO32 BS32 BW32 CA32 CE32 AY46 BC46 BG46 BK46 BO46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV46 D4 H4 L4 P4 T4 X4 AB4 AF4 AJ4 AN4 H18 D46 P46 L46 H46 AZ32 AV32 AR32 AN32 AJ32 AF32 AB32 X32 T32 P32 L32 H32 AZ18 D18 D32 AV18 AR18 AN18 AJ18 AF18 AB18 X18 T18 P18 L18 T46 X46 AB46 AF46 AJ46 AN46 AR46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV46 D4 H4 L4 P4 T4 X4 AB4 AF4 AJ4 AN4 H18 D46 P46 L46 H46 AZ32 AV32 AR32 AN32 AJ32 AF32 AB32 X32 T32 P32 L32 H32 AZ18 D18 D32 AV18 AR18 AN18 AJ18 AF18 AB18 X18 T18 P18 L18 T46 X46 AB46 AF46 AJ46 AN46 AR46 AR4 AV4 AZ4 BD4 BH4 BL4 BP4 BD18 BD32 BH32 BL32 BP32 BT32 BX32 CB32 CF32 AZ46 BD46 BH46 BL46 BP46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS48 A6 E6 I6 M6 Q6 U6 Y6 AC6 AG6 AK6 E20 A48 M48 I48 E48 AW34 AS34 AO34 AK34 AG34 AC34 Y34 U34 Q34 M34 I34 E34 AW20 A20 A34 AS20 AO20 AK20 AG20 AC20 Y20 U20 Q20 M20 I20 Q48 U48 Y48 AC48 AG48 AK48 AO48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS48 A6 E6 I6 M6 Q6 U6 Y6 AC6 AG6 AK6 E20 A48 M48 I48 E48 AW34 AS34 AO34 AK34 AG34 AC34 Y34 U34 Q34 M34 I34 E34 AW20 A20 A34 AS20 AO20 AK20 AG20 AC20 Y20 U20 Q20 M20 I20 Q48 U48 Y48 AC48 AG48 AK48 AO48 AO6 AS6 AW6 BA6 BE6 BI6 BM6 BA20 BA34 BE34 BI34 BM34 BQ34 BU34 BY34 CC34 AW48 BA48 BE48 BI48 BM48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU48 C6 G6 K6 O6 S6 W6 AA6 AE6 AI6 AM6 G20 C48 O48 K48 G48 AY34 AU34 AQ34 AM34 AI34 AE34 AA34 W34 S34 O34 K34 G34 AY20 C20 C34 AU20 AQ20 AM20 AI20 AE20 AA20 W20 S20 O20 K20 S48 W48 AA48 AE48 AI48 AM48 AQ48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU48 C6 G6 K6 O6 S6 W6 AA6 AE6 AI6 AM6 G20 C48 O48 K48 G48 AY34 AU34 AQ34 AM34 AI34 AE34 AA34 W34 S34 O34 K34 G34 AY20 C20 C34 AU20 AQ20 AM20 AI20 AE20 AA20 W20 S20 O20 K20 S48 W48 AA48 AE48 AI48 AM48 AQ48 AQ6 AU6 AY6 BC6 BG6 BK6 BO6 BC20 BC34 BG34 BK34 BO34 BS34 BW34 CA34 CE34 AY48 BC48 BG48 BK48 BO48">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT44 B2 F2 J2 N2 R2 V2 Z2 AD2 AH2 AL2 V30 R30 N30 J30 F30 B44 B16 B30 N44 J44 F44 AX30 AT30 AP30 AL30 AH30 AD30 Z30 R44 V44 Z44 AD44 AH44 AL44 AP44">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1748,7 +1748,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1820,14 +1820,23 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1838,6 +1847,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1846,27 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2600,10 +2606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CF56"/>
+  <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM50" sqref="BM50:BP50"/>
+    <sheetView tabSelected="1" topLeftCell="BI35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE34" sqref="BE34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2688,16 +2694,20 @@
     <col min="82" max="82" width="13.140625" customWidth="1"/>
     <col min="83" max="83" width="14.28515625" customWidth="1"/>
     <col min="84" max="84" width="16.28515625" customWidth="1"/>
+    <col min="85" max="85" width="17.28515625" customWidth="1"/>
+    <col min="86" max="86" width="13.140625" customWidth="1"/>
+    <col min="87" max="87" width="14.28515625" customWidth="1"/>
+    <col min="88" max="88" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.75" thickBot="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:72" ht="15.75" thickBot="1">
+      <c r="A1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:68" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
@@ -2783,7 +2793,7 @@
       <c r="AQ2" s="14"/>
       <c r="AR2" s="14"/>
     </row>
-    <row r="3" spans="1:68" ht="15.75" thickTop="1">
+    <row r="3" spans="1:72" ht="15.75" thickTop="1">
       <c r="A3" s="38" t="s">
         <v>32</v>
       </c>
@@ -2904,18 +2914,6 @@
       <c r="AN3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AO3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="40" t="s">
-        <v>1</v>
-      </c>
       <c r="AS3" s="40" t="s">
         <v>32</v>
       </c>
@@ -2928,68 +2926,80 @@
       <c r="AV3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="40" t="s">
+      <c r="AW3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="40" t="s">
+      <c r="AX3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="40" t="s">
+      <c r="AY3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="40" t="s">
+      <c r="AZ3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BA3" s="40" t="s">
+      <c r="BA3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="BB3" s="40" t="s">
+      <c r="BB3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="BC3" s="40" t="s">
+      <c r="BC3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="BD3" s="40" t="s">
+      <c r="BD3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="40" t="s">
+      <c r="BE3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="40" t="s">
+      <c r="BF3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="40" t="s">
+      <c r="BG3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="40" t="s">
+      <c r="BH3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BI3" s="40" t="s">
+      <c r="BI3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="BJ3" s="40" t="s">
+      <c r="BJ3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="BK3" s="40" t="s">
+      <c r="BK3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="BL3" s="40" t="s">
+      <c r="BL3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BM3" s="40" t="s">
+      <c r="BM3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="BN3" s="40" t="s">
+      <c r="BN3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="BO3" s="40" t="s">
+      <c r="BO3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="BP3" s="40" t="s">
+      <c r="BP3" s="41" t="s">
         <v>1</v>
       </c>
+      <c r="BQ3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="41" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:72">
       <c r="A4" s="16" t="s">
         <v>94</v>
       </c>
@@ -3110,92 +3120,92 @@
       <c r="AN4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AO4" s="16" t="s">
+      <c r="AS4" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AP4" s="39" t="s">
+      <c r="AT4" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="AQ4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR4" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS4" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AT4" s="39" t="s">
-        <v>16</v>
       </c>
       <c r="AU4" s="39" t="s">
         <v>8</v>
       </c>
       <c r="AV4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW4" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="16" t="s">
+      <c r="BA4" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="AX4" s="39" t="s">
+      <c r="BB4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AY4" s="39" t="s">
+      <c r="BC4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="39" t="s">
+      <c r="BD4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BA4" s="16" t="s">
+      <c r="BE4" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="BB4" s="39" t="s">
+      <c r="BF4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="39" t="s">
+      <c r="BG4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="BD4" s="39" t="s">
+      <c r="BH4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="BE4" s="16" t="s">
+      <c r="BI4" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="BF4" s="39" t="s">
+      <c r="BJ4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BG4" s="39" t="s">
+      <c r="BK4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="39" t="s">
+      <c r="BL4" s="42" t="s">
         <v>25</v>
-      </c>
-      <c r="BI4" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="BJ4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BL4" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="BM4" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="BN4" s="39" t="s">
+      <c r="BN4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BO4" s="39" t="s">
+      <c r="BO4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="BP4" s="39" t="s">
+      <c r="BP4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ4" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="BR4" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="BT4" s="42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:72">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -3296,16 +3306,6 @@
         <v>34</v>
       </c>
       <c r="AN5" s="38"/>
-      <c r="AO5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR5" s="40"/>
       <c r="AS5" s="40" t="s">
         <v>4</v>
       </c>
@@ -3316,58 +3316,68 @@
         <v>34</v>
       </c>
       <c r="AV5" s="40"/>
-      <c r="AW5" s="40" t="s">
+      <c r="AW5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="40" t="s">
+      <c r="AX5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AY5" s="40" t="s">
+      <c r="AY5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40" t="s">
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="40" t="s">
+      <c r="BB5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BC5" s="40" t="s">
+      <c r="BC5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40" t="s">
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="40" t="s">
+      <c r="BF5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BG5" s="40" t="s">
+      <c r="BG5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40" t="s">
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="40" t="s">
+      <c r="BJ5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BK5" s="40" t="s">
+      <c r="BK5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="40" t="s">
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BN5" s="40" t="s">
+      <c r="BN5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="BO5" s="40" t="s">
+      <c r="BO5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="BP5" s="40"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT5" s="41"/>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:72">
       <c r="A6" s="37" t="s">
         <v>40</v>
       </c>
@@ -3468,16 +3478,6 @@
         <v>50</v>
       </c>
       <c r="AN6" s="37"/>
-      <c r="AO6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP6" s="36">
-        <v>40386</v>
-      </c>
-      <c r="AQ6" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR6" s="39"/>
       <c r="AS6" s="39" t="s">
         <v>38</v>
       </c>
@@ -3488,891 +3488,901 @@
         <v>51</v>
       </c>
       <c r="AV6" s="39"/>
-      <c r="AW6" s="39" t="s">
+      <c r="AW6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="AX6" s="36">
         <v>40386</v>
       </c>
-      <c r="AY6" s="39" t="s">
+      <c r="AY6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39" t="s">
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="BB6" s="36">
         <v>40386</v>
       </c>
-      <c r="BC6" s="39" t="s">
+      <c r="BC6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="BD6" s="39"/>
-      <c r="BE6" s="39" t="s">
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="BF6" s="36">
         <v>40386</v>
       </c>
-      <c r="BG6" s="39" t="s">
+      <c r="BG6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="BH6" s="39"/>
-      <c r="BI6" s="39" t="s">
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="BJ6" s="36">
         <v>40386</v>
       </c>
-      <c r="BK6" s="39" t="s">
+      <c r="BK6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="BL6" s="39"/>
-      <c r="BM6" s="39" t="s">
+      <c r="BL6" s="42"/>
+      <c r="BM6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="BN6" s="36">
         <v>40386</v>
       </c>
-      <c r="BO6" s="39" t="s">
+      <c r="BO6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="BP6" s="39"/>
+      <c r="BP6" s="42"/>
+      <c r="BQ6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR6" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BS6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT6" s="42"/>
     </row>
-    <row r="7" spans="1:68">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:72">
+      <c r="A7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50" t="s">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50" t="s">
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50" t="s">
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50" t="s">
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50" t="s">
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50" t="s">
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50" t="s">
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AS7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50" t="s">
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50" t="s">
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50" t="s">
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50" t="s">
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="50" t="s">
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="50"/>
-      <c r="BK7" s="50"/>
-      <c r="BL7" s="50"/>
-      <c r="BM7" s="41" t="s">
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="55"/>
+      <c r="BQ7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="43"/>
+      <c r="BR7" s="54"/>
+      <c r="BS7" s="54"/>
+      <c r="BT7" s="55"/>
     </row>
-    <row r="8" spans="1:68" ht="44.25" customHeight="1">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:72" ht="44.25" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52" t="s">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="52" t="s">
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="51" t="s">
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52" t="s">
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="51" t="s">
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52" t="s">
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52" t="s">
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AS8" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="44" t="s">
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="44" t="s">
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="51" t="s">
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="51" t="s">
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="51" t="s">
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="52"/>
-      <c r="BM8" s="44" t="s">
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="48"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="BN8" s="45"/>
-      <c r="BO8" s="45"/>
-      <c r="BP8" s="46"/>
+      <c r="BR8" s="48"/>
+      <c r="BS8" s="48"/>
+      <c r="BT8" s="49"/>
     </row>
-    <row r="9" spans="1:68" ht="15" customHeight="1">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:72" ht="15" customHeight="1">
+      <c r="A9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53" t="s">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53" t="s">
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53" t="s">
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AS9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53" t="s">
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53" t="s">
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53" t="s">
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="58"/>
+      <c r="BE9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53" t="s">
+      <c r="BF9" s="57"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="58"/>
+      <c r="BI9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="53" t="s">
+      <c r="BJ9" s="57"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="58"/>
+      <c r="BM9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="53"/>
-      <c r="BK9" s="53"/>
-      <c r="BL9" s="53"/>
-      <c r="BM9" s="47" t="s">
+      <c r="BN9" s="57"/>
+      <c r="BO9" s="57"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="48"/>
-      <c r="BO9" s="48"/>
-      <c r="BP9" s="49"/>
+      <c r="BR9" s="57"/>
+      <c r="BS9" s="57"/>
+      <c r="BT9" s="58"/>
     </row>
-    <row r="10" spans="1:68" s="5" customFormat="1" ht="75" customHeight="1">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
+      <c r="A10" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51" t="s">
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51" t="s">
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51" t="s">
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51" t="s">
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51" t="s">
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51" t="s">
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="51" t="s">
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AS10" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51" t="s">
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51" t="s">
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51" t="s">
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51" t="s">
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51" t="s">
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="44" t="s">
+      <c r="BN10" s="48"/>
+      <c r="BO10" s="48"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="46"/>
+      <c r="BR10" s="48"/>
+      <c r="BS10" s="48"/>
+      <c r="BT10" s="49"/>
     </row>
-    <row r="11" spans="1:68">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:72">
+      <c r="A11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50" t="s">
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50" t="s">
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50" t="s">
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50" t="s">
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50" t="s">
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50" t="s">
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50" t="s">
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AS11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50" t="s">
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50" t="s">
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50" t="s">
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50" t="s">
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BH11" s="55"/>
+      <c r="BI11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50" t="s">
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="55"/>
+      <c r="BM11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="41" t="s">
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="55"/>
+      <c r="BQ11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="42"/>
-      <c r="BP11" s="43"/>
+      <c r="BR11" s="54"/>
+      <c r="BS11" s="54"/>
+      <c r="BT11" s="55"/>
     </row>
-    <row r="12" spans="1:68" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A12" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51" t="s">
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51" t="s">
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51" t="s">
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51" t="s">
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51" t="s">
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51" t="s">
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AS12" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51" t="s">
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51" t="s">
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51" t="s">
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51" t="s">
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51" t="s">
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="44" t="s">
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="46"/>
+      <c r="BR12" s="48"/>
+      <c r="BS12" s="48"/>
+      <c r="BT12" s="49"/>
     </row>
-    <row r="13" spans="1:68">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:72">
+      <c r="A13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50" t="s">
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50" t="s">
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50" t="s">
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50" t="s">
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50" t="s">
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50" t="s">
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50" t="s">
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AS13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50" t="s">
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50" t="s">
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50" t="s">
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50" t="s">
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="55"/>
+      <c r="BI13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50" t="s">
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="55"/>
+      <c r="BM13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="50"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="50"/>
-      <c r="BM13" s="41" t="s">
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="55"/>
+      <c r="BQ13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="42"/>
-      <c r="BO13" s="42"/>
-      <c r="BP13" s="43"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="55"/>
     </row>
-    <row r="14" spans="1:68" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A14" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51" t="s">
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51" t="s">
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51" t="s">
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51" t="s">
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51" t="s">
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51" t="s">
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51" t="s">
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AS14" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51" t="s">
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51" t="s">
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51" t="s">
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51" t="s">
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51" t="s">
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="44" t="s">
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="46"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="49"/>
     </row>
-    <row r="15" spans="1:68" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:68" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
@@ -4386,7 +4396,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:84" ht="15.75" thickTop="1">
+    <row r="17" spans="1:88" ht="15.75" thickTop="1">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -4543,20 +4553,20 @@
       <c r="AZ17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BA17" s="40" t="s">
+      <c r="BE17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="BB17" s="40" t="s">
+      <c r="BF17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="BC17" s="40" t="s">
+      <c r="BG17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="BD17" s="40" t="s">
+      <c r="BH17" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:84">
+    <row r="18" spans="1:88">
       <c r="A18" s="16" t="s">
         <v>304</v>
       </c>
@@ -4687,20 +4697,20 @@
       <c r="AZ18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="BA18" s="16" t="s">
+      <c r="BE18" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="BB18" s="39" t="s">
+      <c r="BF18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BC18" s="39" t="s">
+      <c r="BG18" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BD18" s="39" t="s">
+      <c r="BH18" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:84">
+    <row r="19" spans="1:88">
       <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
@@ -4831,18 +4841,18 @@
         <v>34</v>
       </c>
       <c r="AZ19" s="35"/>
-      <c r="BA19" s="40" t="s">
+      <c r="BE19" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="BB19" s="40" t="s">
+      <c r="BF19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="BC19" s="40" t="s">
+      <c r="BG19" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BD19" s="40"/>
+      <c r="BH19" s="40"/>
     </row>
-    <row r="20" spans="1:84">
+    <row r="20" spans="1:88">
       <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
@@ -4973,707 +4983,707 @@
         <v>50</v>
       </c>
       <c r="AZ20" s="34"/>
-      <c r="BA20" s="39" t="s">
+      <c r="BE20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="BB20" s="36">
+      <c r="BF20" s="36">
         <v>40386</v>
       </c>
-      <c r="BC20" s="39" t="s">
+      <c r="BG20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="BD20" s="39"/>
+      <c r="BH20" s="39"/>
     </row>
-    <row r="21" spans="1:84">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:88">
+      <c r="A21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50" t="s">
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50" t="s">
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50" t="s">
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50" t="s">
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50" t="s">
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50" t="s">
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50" t="s">
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="50"/>
-      <c r="AN21" s="50"/>
-      <c r="AO21" s="50" t="s">
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50" t="s">
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="43"/>
+      <c r="AS21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50" t="s">
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="41" t="s">
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BE21" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="43"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="55"/>
     </row>
-    <row r="22" spans="1:84">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:88">
+      <c r="A22" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52" t="s">
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52" t="s">
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52" t="s">
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52" t="s">
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52" t="s">
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52" t="s">
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="52"/>
-      <c r="AO22" s="52" t="s">
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="52"/>
-      <c r="AQ22" s="52"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52" t="s">
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="52" t="s">
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="52"/>
-      <c r="AY22" s="52"/>
-      <c r="AZ22" s="52"/>
-      <c r="BA22" s="44" t="s">
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="44"/>
+      <c r="BE22" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="46"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="49"/>
     </row>
-    <row r="23" spans="1:84">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:88">
+      <c r="A23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53" t="s">
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53" t="s">
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53" t="s">
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53" t="s">
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53" t="s">
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53" t="s">
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53" t="s">
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53" t="s">
+      <c r="AP23" s="45"/>
+      <c r="AQ23" s="45"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53" t="s">
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="47" t="s">
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BE23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
-      <c r="BD23" s="49"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="58"/>
     </row>
-    <row r="24" spans="1:84" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A24" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51" t="s">
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51" t="s">
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51" t="s">
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51" t="s">
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="51" t="s">
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51" t="s">
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
-      <c r="AN24" s="51"/>
-      <c r="AO24" s="51" t="s">
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="AP24" s="51"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
-      <c r="AS24" s="51" t="s">
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="AT24" s="51"/>
-      <c r="AU24" s="51"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51" t="s">
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="44" t="s">
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BE24" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="46"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="49"/>
     </row>
-    <row r="25" spans="1:84" ht="15" customHeight="1">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:88" ht="15" customHeight="1">
+      <c r="A25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50" t="s">
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50" t="s">
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50" t="s">
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50" t="s">
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50" t="s">
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="50"/>
-      <c r="AG25" s="50" t="s">
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50" t="s">
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50" t="s">
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50" t="s">
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50" t="s">
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="41" t="s">
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="43"/>
+      <c r="BE25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="43"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="55"/>
     </row>
-    <row r="26" spans="1:84" s="5" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A26" s="51" t="s">
+    <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A26" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51" t="s">
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51" t="s">
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="44" t="s">
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="51" t="s">
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51" t="s">
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51" t="s">
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51" t="s">
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51" t="s">
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51" t="s">
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="44" t="s">
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BE26" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="BB26" s="45"/>
-      <c r="BC26" s="45"/>
-      <c r="BD26" s="46"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="49"/>
     </row>
-    <row r="27" spans="1:84">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:88">
+      <c r="A27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50" t="s">
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50" t="s">
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50" t="s">
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50" t="s">
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="50"/>
-      <c r="AJ27" s="50"/>
-      <c r="AK27" s="50" t="s">
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="50"/>
-      <c r="AM27" s="50"/>
-      <c r="AN27" s="50"/>
-      <c r="AO27" s="50" t="s">
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="50"/>
-      <c r="AS27" s="50" t="s">
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="50"/>
-      <c r="AV27" s="50"/>
-      <c r="AW27" s="50" t="s">
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="50"/>
-      <c r="AZ27" s="50"/>
-      <c r="BA27" s="41" t="s">
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BE27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="43"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="55"/>
     </row>
-    <row r="28" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A28" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51" t="s">
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51" t="s">
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51" t="s">
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51" t="s">
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51" t="s">
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51" t="s">
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51" t="s">
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51" t="s">
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51" t="s">
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
+      <c r="AS28" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51" t="s">
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="46"/>
+      <c r="AW28" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="44" t="s">
+      <c r="AX28" s="46"/>
+      <c r="AY28" s="46"/>
+      <c r="AZ28" s="46"/>
+      <c r="BE28" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="46"/>
+      <c r="BF28" s="48"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="49"/>
     </row>
-    <row r="29" spans="1:84" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>60</v>
       </c>
@@ -5783,7 +5793,7 @@
       <c r="BC30" s="14"/>
       <c r="BD30" s="14"/>
     </row>
-    <row r="31" spans="1:84" ht="15.75" thickTop="1">
+    <row r="31" spans="1:88" ht="15.75" thickTop="1">
       <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
@@ -5940,18 +5950,6 @@
       <c r="AZ31" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="BA31" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB31" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC31" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="40" t="s">
-        <v>1</v>
-      </c>
       <c r="BE31" s="40" t="s">
         <v>32</v>
       </c>
@@ -6036,8 +6034,20 @@
       <c r="CF31" s="40" t="s">
         <v>1</v>
       </c>
+      <c r="CG31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:84">
+    <row r="32" spans="1:88">
       <c r="A32" s="16" t="s">
         <v>129</v>
       </c>
@@ -6116,20 +6126,8 @@
       <c r="AX32" s="32"/>
       <c r="AY32" s="32"/>
       <c r="AZ32" s="32"/>
-      <c r="BA32" s="16" t="s">
+      <c r="BE32" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="BB32" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC32" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD32" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE32" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="BF32" s="39" t="s">
         <v>17</v>
@@ -6141,7 +6139,7 @@
         <v>26</v>
       </c>
       <c r="BI32" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BJ32" s="39" t="s">
         <v>17</v>
@@ -6150,34 +6148,34 @@
         <v>8</v>
       </c>
       <c r="BL32" s="39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BM32" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BN32" s="39" t="s">
         <v>17</v>
       </c>
       <c r="BO32" s="39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP32" s="39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BQ32" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BR32" s="39" t="s">
         <v>17</v>
       </c>
       <c r="BS32" s="39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT32" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BU32" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BV32" s="39" t="s">
         <v>17</v>
@@ -6186,10 +6184,10 @@
         <v>8</v>
       </c>
       <c r="BX32" s="39" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BY32" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BZ32" s="39" t="s">
         <v>17</v>
@@ -6198,10 +6196,10 @@
         <v>8</v>
       </c>
       <c r="CB32" s="39" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="CC32" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CD32" s="39" t="s">
         <v>17</v>
@@ -6210,10 +6208,22 @@
         <v>8</v>
       </c>
       <c r="CF32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG32" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="CH32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="CI32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ32" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:84">
+    <row r="33" spans="1:88">
       <c r="A33" s="11" t="s">
         <v>4</v>
       </c>
@@ -6344,16 +6354,6 @@
         <v>34</v>
       </c>
       <c r="AZ33" s="33"/>
-      <c r="BA33" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB33" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC33" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD33" s="40"/>
       <c r="BE33" s="40" t="s">
         <v>4</v>
       </c>
@@ -6424,8 +6424,18 @@
         <v>34</v>
       </c>
       <c r="CF33" s="40"/>
+      <c r="CG33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ33" s="40"/>
     </row>
-    <row r="34" spans="1:84">
+    <row r="34" spans="1:88">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -6556,18 +6566,8 @@
         <v>50</v>
       </c>
       <c r="AZ34" s="32"/>
-      <c r="BA34" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB34" s="36">
-        <v>40386</v>
-      </c>
-      <c r="BC34" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD34" s="39"/>
       <c r="BE34" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BF34" s="36">
         <v>40386</v>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="BH34" s="39"/>
       <c r="BI34" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BJ34" s="36">
         <v>40386</v>
@@ -6636,1027 +6636,1037 @@
         <v>51</v>
       </c>
       <c r="CF34" s="39"/>
+      <c r="CG34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH34" s="36">
+        <v>40386</v>
+      </c>
+      <c r="CI34" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ34" s="39"/>
     </row>
-    <row r="35" spans="1:84">
-      <c r="A35" s="50" t="s">
+    <row r="35" spans="1:88">
+      <c r="A35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50" t="s">
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50" t="s">
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50" t="s">
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50" t="s">
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50" t="s">
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50" t="s">
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50" t="s">
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50" t="s">
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50" t="s">
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="50"/>
-      <c r="AR35" s="50"/>
-      <c r="AS35" s="50" t="s">
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="50"/>
-      <c r="AU35" s="50"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="50" t="s">
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="50"/>
-      <c r="AY35" s="50"/>
-      <c r="AZ35" s="50"/>
-      <c r="BA35" s="41" t="s">
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BE35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="43"/>
-      <c r="BE35" s="41" t="s">
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="55"/>
+      <c r="BI35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
-      <c r="BH35" s="43"/>
-      <c r="BI35" s="41" t="s">
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="55"/>
+      <c r="BM35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="42"/>
-      <c r="BK35" s="42"/>
-      <c r="BL35" s="43"/>
-      <c r="BM35" s="41" t="s">
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="55"/>
+      <c r="BQ35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="42"/>
-      <c r="BO35" s="42"/>
-      <c r="BP35" s="43"/>
-      <c r="BQ35" s="41" t="s">
+      <c r="BR35" s="54"/>
+      <c r="BS35" s="54"/>
+      <c r="BT35" s="55"/>
+      <c r="BU35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="42"/>
-      <c r="BS35" s="42"/>
-      <c r="BT35" s="43"/>
-      <c r="BU35" s="41" t="s">
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="54"/>
+      <c r="BX35" s="55"/>
+      <c r="BY35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BV35" s="42"/>
-      <c r="BW35" s="42"/>
-      <c r="BX35" s="43"/>
-      <c r="BY35" s="41" t="s">
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="55"/>
+      <c r="CC35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="42"/>
-      <c r="CA35" s="42"/>
-      <c r="CB35" s="43"/>
-      <c r="CC35" s="41" t="s">
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="55"/>
+      <c r="CG35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="42"/>
-      <c r="CE35" s="42"/>
-      <c r="CF35" s="43"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="55"/>
     </row>
-    <row r="36" spans="1:84" ht="45" customHeight="1">
-      <c r="A36" s="52" t="s">
+    <row r="36" spans="1:88" ht="45" customHeight="1">
+      <c r="A36" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="51" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="51" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52" t="s">
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52" t="s">
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="51" t="s">
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52" t="s">
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52" t="s">
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52" t="s">
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="52" t="s">
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="52"/>
-      <c r="AQ36" s="52"/>
-      <c r="AR36" s="52"/>
-      <c r="AS36" s="52" t="s">
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="52"/>
-      <c r="AU36" s="52"/>
-      <c r="AV36" s="52"/>
-      <c r="AW36" s="52" t="s">
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="52"/>
-      <c r="AY36" s="52"/>
-      <c r="AZ36" s="52"/>
-      <c r="BA36" s="44" t="s">
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BE36" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-      <c r="BD36" s="46"/>
-      <c r="BE36" s="44" t="s">
+      <c r="BF36" s="48"/>
+      <c r="BG36" s="48"/>
+      <c r="BH36" s="49"/>
+      <c r="BI36" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="BF36" s="45"/>
-      <c r="BG36" s="45"/>
-      <c r="BH36" s="46"/>
-      <c r="BI36" s="44" t="s">
+      <c r="BJ36" s="48"/>
+      <c r="BK36" s="48"/>
+      <c r="BL36" s="49"/>
+      <c r="BM36" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="45"/>
-      <c r="BL36" s="46"/>
-      <c r="BM36" s="44" t="s">
+      <c r="BN36" s="48"/>
+      <c r="BO36" s="48"/>
+      <c r="BP36" s="49"/>
+      <c r="BQ36" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="BN36" s="45"/>
-      <c r="BO36" s="45"/>
-      <c r="BP36" s="46"/>
-      <c r="BQ36" s="44" t="s">
+      <c r="BR36" s="48"/>
+      <c r="BS36" s="48"/>
+      <c r="BT36" s="49"/>
+      <c r="BU36" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="BR36" s="45"/>
-      <c r="BS36" s="45"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="44" t="s">
+      <c r="BV36" s="48"/>
+      <c r="BW36" s="48"/>
+      <c r="BX36" s="49"/>
+      <c r="BY36" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="BV36" s="45"/>
-      <c r="BW36" s="45"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="44" t="s">
+      <c r="BZ36" s="48"/>
+      <c r="CA36" s="48"/>
+      <c r="CB36" s="49"/>
+      <c r="CC36" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="BZ36" s="45"/>
-      <c r="CA36" s="45"/>
-      <c r="CB36" s="46"/>
-      <c r="CC36" s="44" t="s">
+      <c r="CD36" s="48"/>
+      <c r="CE36" s="48"/>
+      <c r="CF36" s="49"/>
+      <c r="CG36" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="CD36" s="45"/>
-      <c r="CE36" s="45"/>
-      <c r="CF36" s="46"/>
+      <c r="CH36" s="48"/>
+      <c r="CI36" s="48"/>
+      <c r="CJ36" s="49"/>
     </row>
-    <row r="37" spans="1:84">
-      <c r="A37" s="53" t="s">
+    <row r="37" spans="1:88">
+      <c r="A37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53" t="s">
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53" t="s">
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53" t="s">
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53" t="s">
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53" t="s">
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53" t="s">
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53" t="s">
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53" t="s">
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="53" t="s">
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="53"/>
-      <c r="AR37" s="53"/>
-      <c r="AS37" s="53" t="s">
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="53"/>
-      <c r="AU37" s="53"/>
-      <c r="AV37" s="53"/>
-      <c r="AW37" s="53" t="s">
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
+      <c r="AW37" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="53"/>
-      <c r="AY37" s="53"/>
-      <c r="AZ37" s="53"/>
-      <c r="BA37" s="47" t="s">
+      <c r="AX37" s="45"/>
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="45"/>
+      <c r="BE37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB37" s="48"/>
-      <c r="BC37" s="48"/>
-      <c r="BD37" s="49"/>
-      <c r="BE37" s="47" t="s">
+      <c r="BF37" s="57"/>
+      <c r="BG37" s="57"/>
+      <c r="BH37" s="58"/>
+      <c r="BI37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="48"/>
-      <c r="BG37" s="48"/>
-      <c r="BH37" s="49"/>
-      <c r="BI37" s="47" t="s">
+      <c r="BJ37" s="57"/>
+      <c r="BK37" s="57"/>
+      <c r="BL37" s="58"/>
+      <c r="BM37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="48"/>
-      <c r="BK37" s="48"/>
-      <c r="BL37" s="49"/>
-      <c r="BM37" s="47" t="s">
+      <c r="BN37" s="57"/>
+      <c r="BO37" s="57"/>
+      <c r="BP37" s="58"/>
+      <c r="BQ37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="48"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="49"/>
-      <c r="BQ37" s="47" t="s">
+      <c r="BR37" s="57"/>
+      <c r="BS37" s="57"/>
+      <c r="BT37" s="58"/>
+      <c r="BU37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="48"/>
-      <c r="BS37" s="48"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="47" t="s">
+      <c r="BV37" s="57"/>
+      <c r="BW37" s="57"/>
+      <c r="BX37" s="58"/>
+      <c r="BY37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BV37" s="48"/>
-      <c r="BW37" s="48"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="47" t="s">
+      <c r="BZ37" s="57"/>
+      <c r="CA37" s="57"/>
+      <c r="CB37" s="58"/>
+      <c r="CC37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="48"/>
-      <c r="CA37" s="48"/>
-      <c r="CB37" s="49"/>
-      <c r="CC37" s="47" t="s">
+      <c r="CD37" s="57"/>
+      <c r="CE37" s="57"/>
+      <c r="CF37" s="58"/>
+      <c r="CG37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="48"/>
-      <c r="CE37" s="48"/>
-      <c r="CF37" s="49"/>
+      <c r="CH37" s="57"/>
+      <c r="CI37" s="57"/>
+      <c r="CJ37" s="58"/>
     </row>
-    <row r="38" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="51" t="s">
+    <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A38" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51" t="s">
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51" t="s">
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51" t="s">
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51" t="s">
+      <c r="AD38" s="46"/>
+      <c r="AE38" s="46"/>
+      <c r="AF38" s="46"/>
+      <c r="AG38" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51" t="s">
+      <c r="AH38" s="46"/>
+      <c r="AI38" s="46"/>
+      <c r="AJ38" s="46"/>
+      <c r="AK38" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
-      <c r="AN38" s="51"/>
-      <c r="AO38" s="51" t="s">
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="46"/>
+      <c r="AO38" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
-      <c r="AS38" s="51" t="s">
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
+      <c r="AS38" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="AT38" s="51"/>
-      <c r="AU38" s="51"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="51" t="s">
+      <c r="AT38" s="46"/>
+      <c r="AU38" s="46"/>
+      <c r="AV38" s="46"/>
+      <c r="AW38" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="AX38" s="51"/>
-      <c r="AY38" s="51"/>
-      <c r="AZ38" s="51"/>
-      <c r="BA38" s="44" t="s">
+      <c r="AX38" s="46"/>
+      <c r="AY38" s="46"/>
+      <c r="AZ38" s="46"/>
+      <c r="BE38" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-      <c r="BD38" s="46"/>
-      <c r="BE38" s="44" t="s">
+      <c r="BF38" s="48"/>
+      <c r="BG38" s="48"/>
+      <c r="BH38" s="49"/>
+      <c r="BI38" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="BF38" s="45"/>
-      <c r="BG38" s="45"/>
-      <c r="BH38" s="46"/>
-      <c r="BI38" s="44" t="s">
+      <c r="BJ38" s="48"/>
+      <c r="BK38" s="48"/>
+      <c r="BL38" s="49"/>
+      <c r="BM38" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="BJ38" s="45"/>
-      <c r="BK38" s="45"/>
-      <c r="BL38" s="46"/>
-      <c r="BM38" s="44" t="s">
+      <c r="BN38" s="48"/>
+      <c r="BO38" s="48"/>
+      <c r="BP38" s="49"/>
+      <c r="BQ38" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="BN38" s="45"/>
-      <c r="BO38" s="45"/>
-      <c r="BP38" s="46"/>
-      <c r="BQ38" s="44" t="s">
+      <c r="BR38" s="48"/>
+      <c r="BS38" s="48"/>
+      <c r="BT38" s="49"/>
+      <c r="BU38" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="BR38" s="45"/>
-      <c r="BS38" s="45"/>
-      <c r="BT38" s="46"/>
-      <c r="BU38" s="44" t="s">
+      <c r="BV38" s="48"/>
+      <c r="BW38" s="48"/>
+      <c r="BX38" s="49"/>
+      <c r="BY38" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="BV38" s="45"/>
-      <c r="BW38" s="45"/>
-      <c r="BX38" s="46"/>
-      <c r="BY38" s="44" t="s">
+      <c r="BZ38" s="48"/>
+      <c r="CA38" s="48"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="BZ38" s="45"/>
-      <c r="CA38" s="45"/>
-      <c r="CB38" s="46"/>
-      <c r="CC38" s="44" t="s">
+      <c r="CD38" s="48"/>
+      <c r="CE38" s="48"/>
+      <c r="CF38" s="49"/>
+      <c r="CG38" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="CD38" s="45"/>
-      <c r="CE38" s="45"/>
-      <c r="CF38" s="46"/>
+      <c r="CH38" s="48"/>
+      <c r="CI38" s="48"/>
+      <c r="CJ38" s="49"/>
     </row>
-    <row r="39" spans="1:84">
-      <c r="A39" s="50" t="s">
+    <row r="39" spans="1:88">
+      <c r="A39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50" t="s">
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50" t="s">
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50" t="s">
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50" t="s">
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50" t="s">
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50" t="s">
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50" t="s">
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50" t="s">
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50" t="s">
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50" t="s">
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50" t="s">
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="43"/>
+      <c r="AW39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="41" t="s">
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BE39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="43"/>
-      <c r="BE39" s="41" t="s">
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
-      <c r="BH39" s="43"/>
-      <c r="BI39" s="41" t="s">
+      <c r="BJ39" s="54"/>
+      <c r="BK39" s="54"/>
+      <c r="BL39" s="55"/>
+      <c r="BM39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="42"/>
-      <c r="BK39" s="42"/>
-      <c r="BL39" s="43"/>
-      <c r="BM39" s="41" t="s">
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="54"/>
+      <c r="BP39" s="55"/>
+      <c r="BQ39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="42"/>
-      <c r="BO39" s="42"/>
-      <c r="BP39" s="43"/>
-      <c r="BQ39" s="41" t="s">
+      <c r="BR39" s="54"/>
+      <c r="BS39" s="54"/>
+      <c r="BT39" s="55"/>
+      <c r="BU39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="42"/>
-      <c r="BS39" s="42"/>
-      <c r="BT39" s="43"/>
-      <c r="BU39" s="41" t="s">
+      <c r="BV39" s="54"/>
+      <c r="BW39" s="54"/>
+      <c r="BX39" s="55"/>
+      <c r="BY39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BV39" s="42"/>
-      <c r="BW39" s="42"/>
-      <c r="BX39" s="43"/>
-      <c r="BY39" s="41" t="s">
+      <c r="BZ39" s="54"/>
+      <c r="CA39" s="54"/>
+      <c r="CB39" s="55"/>
+      <c r="CC39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="42"/>
-      <c r="CA39" s="42"/>
-      <c r="CB39" s="43"/>
-      <c r="CC39" s="41" t="s">
+      <c r="CD39" s="54"/>
+      <c r="CE39" s="54"/>
+      <c r="CF39" s="55"/>
+      <c r="CG39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="42"/>
-      <c r="CE39" s="42"/>
-      <c r="CF39" s="43"/>
+      <c r="CH39" s="54"/>
+      <c r="CI39" s="54"/>
+      <c r="CJ39" s="55"/>
     </row>
-    <row r="40" spans="1:84" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="51" t="s">
+    <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A40" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51" t="s">
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51" t="s">
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51" t="s">
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51" t="s">
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51" t="s">
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51" t="s">
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="51" t="s">
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="AP40" s="51"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51" t="s">
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
-      <c r="AV40" s="51"/>
-      <c r="AW40" s="51" t="s">
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="AX40" s="51"/>
-      <c r="AY40" s="51"/>
-      <c r="AZ40" s="51"/>
-      <c r="BA40" s="44" t="s">
+      <c r="AX40" s="46"/>
+      <c r="AY40" s="46"/>
+      <c r="AZ40" s="46"/>
+      <c r="BE40" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="46"/>
-      <c r="BE40" s="44" t="s">
+      <c r="BF40" s="48"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="49"/>
+      <c r="BI40" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="BF40" s="45"/>
-      <c r="BG40" s="45"/>
-      <c r="BH40" s="46"/>
-      <c r="BI40" s="44" t="s">
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="48"/>
+      <c r="BL40" s="49"/>
+      <c r="BM40" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="45"/>
-      <c r="BL40" s="46"/>
-      <c r="BM40" s="44" t="s">
+      <c r="BN40" s="48"/>
+      <c r="BO40" s="48"/>
+      <c r="BP40" s="49"/>
+      <c r="BQ40" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="BN40" s="45"/>
-      <c r="BO40" s="45"/>
-      <c r="BP40" s="46"/>
-      <c r="BQ40" s="44" t="s">
+      <c r="BR40" s="48"/>
+      <c r="BS40" s="48"/>
+      <c r="BT40" s="49"/>
+      <c r="BU40" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="BR40" s="45"/>
-      <c r="BS40" s="45"/>
-      <c r="BT40" s="46"/>
-      <c r="BU40" s="44" t="s">
+      <c r="BV40" s="48"/>
+      <c r="BW40" s="48"/>
+      <c r="BX40" s="49"/>
+      <c r="BY40" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="BV40" s="45"/>
-      <c r="BW40" s="45"/>
-      <c r="BX40" s="46"/>
-      <c r="BY40" s="44" t="s">
+      <c r="BZ40" s="48"/>
+      <c r="CA40" s="48"/>
+      <c r="CB40" s="49"/>
+      <c r="CC40" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="BZ40" s="45"/>
-      <c r="CA40" s="45"/>
-      <c r="CB40" s="46"/>
-      <c r="CC40" s="44" t="s">
+      <c r="CD40" s="48"/>
+      <c r="CE40" s="48"/>
+      <c r="CF40" s="49"/>
+      <c r="CG40" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="CD40" s="45"/>
-      <c r="CE40" s="45"/>
-      <c r="CF40" s="46"/>
+      <c r="CH40" s="48"/>
+      <c r="CI40" s="48"/>
+      <c r="CJ40" s="49"/>
     </row>
-    <row r="41" spans="1:84">
-      <c r="A41" s="50" t="s">
+    <row r="41" spans="1:88">
+      <c r="A41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50" t="s">
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50" t="s">
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50" t="s">
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50" t="s">
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50" t="s">
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50" t="s">
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50" t="s">
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50" t="s">
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="50"/>
-      <c r="AU41" s="50"/>
-      <c r="AV41" s="50"/>
-      <c r="AW41" s="50" t="s">
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="50"/>
-      <c r="AY41" s="50"/>
-      <c r="AZ41" s="50"/>
-      <c r="BA41" s="41" t="s">
+      <c r="AX41" s="43"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BE41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="43"/>
-      <c r="BE41" s="41" t="s">
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="55"/>
+      <c r="BI41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="42"/>
-      <c r="BH41" s="43"/>
-      <c r="BI41" s="41" t="s">
+      <c r="BJ41" s="54"/>
+      <c r="BK41" s="54"/>
+      <c r="BL41" s="55"/>
+      <c r="BM41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="42"/>
-      <c r="BL41" s="43"/>
-      <c r="BM41" s="41" t="s">
+      <c r="BN41" s="54"/>
+      <c r="BO41" s="54"/>
+      <c r="BP41" s="55"/>
+      <c r="BQ41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="42"/>
-      <c r="BO41" s="42"/>
-      <c r="BP41" s="43"/>
-      <c r="BQ41" s="41" t="s">
+      <c r="BR41" s="54"/>
+      <c r="BS41" s="54"/>
+      <c r="BT41" s="55"/>
+      <c r="BU41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="42"/>
-      <c r="BS41" s="42"/>
-      <c r="BT41" s="43"/>
-      <c r="BU41" s="41" t="s">
+      <c r="BV41" s="54"/>
+      <c r="BW41" s="54"/>
+      <c r="BX41" s="55"/>
+      <c r="BY41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BV41" s="42"/>
-      <c r="BW41" s="42"/>
-      <c r="BX41" s="43"/>
-      <c r="BY41" s="41" t="s">
+      <c r="BZ41" s="54"/>
+      <c r="CA41" s="54"/>
+      <c r="CB41" s="55"/>
+      <c r="CC41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="42"/>
-      <c r="CA41" s="42"/>
-      <c r="CB41" s="43"/>
-      <c r="CC41" s="41" t="s">
+      <c r="CD41" s="54"/>
+      <c r="CE41" s="54"/>
+      <c r="CF41" s="55"/>
+      <c r="CG41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="42"/>
-      <c r="CE41" s="42"/>
-      <c r="CF41" s="43"/>
+      <c r="CH41" s="54"/>
+      <c r="CI41" s="54"/>
+      <c r="CJ41" s="55"/>
     </row>
-    <row r="42" spans="1:84" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="51" t="s">
+    <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A42" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51" t="s">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51" t="s">
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51" t="s">
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51" t="s">
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51" t="s">
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51" t="s">
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51" t="s">
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51" t="s">
+      <c r="AL42" s="46"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="46"/>
+      <c r="AO42" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="51" t="s">
+      <c r="AP42" s="46"/>
+      <c r="AQ42" s="46"/>
+      <c r="AR42" s="46"/>
+      <c r="AS42" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
-      <c r="AW42" s="51" t="s">
+      <c r="AT42" s="46"/>
+      <c r="AU42" s="46"/>
+      <c r="AV42" s="46"/>
+      <c r="AW42" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="AX42" s="51"/>
-      <c r="AY42" s="51"/>
-      <c r="AZ42" s="51"/>
-      <c r="BA42" s="44" t="s">
+      <c r="AX42" s="46"/>
+      <c r="AY42" s="46"/>
+      <c r="AZ42" s="46"/>
+      <c r="BE42" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="BB42" s="45"/>
-      <c r="BC42" s="45"/>
-      <c r="BD42" s="46"/>
-      <c r="BE42" s="44" t="s">
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="49"/>
+      <c r="BI42" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="BF42" s="45"/>
-      <c r="BG42" s="45"/>
-      <c r="BH42" s="46"/>
-      <c r="BI42" s="44" t="s">
+      <c r="BJ42" s="48"/>
+      <c r="BK42" s="48"/>
+      <c r="BL42" s="49"/>
+      <c r="BM42" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="45"/>
-      <c r="BL42" s="46"/>
-      <c r="BM42" s="44" t="s">
+      <c r="BN42" s="48"/>
+      <c r="BO42" s="48"/>
+      <c r="BP42" s="49"/>
+      <c r="BQ42" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="BN42" s="45"/>
-      <c r="BO42" s="45"/>
-      <c r="BP42" s="46"/>
-      <c r="BQ42" s="44" t="s">
+      <c r="BR42" s="48"/>
+      <c r="BS42" s="48"/>
+      <c r="BT42" s="49"/>
+      <c r="BU42" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="BR42" s="45"/>
-      <c r="BS42" s="45"/>
-      <c r="BT42" s="46"/>
-      <c r="BU42" s="44" t="s">
+      <c r="BV42" s="48"/>
+      <c r="BW42" s="48"/>
+      <c r="BX42" s="49"/>
+      <c r="BY42" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="BV42" s="45"/>
-      <c r="BW42" s="45"/>
-      <c r="BX42" s="46"/>
-      <c r="BY42" s="44" t="s">
+      <c r="BZ42" s="48"/>
+      <c r="CA42" s="48"/>
+      <c r="CB42" s="49"/>
+      <c r="CC42" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="BZ42" s="45"/>
-      <c r="CA42" s="45"/>
-      <c r="CB42" s="46"/>
-      <c r="CC42" s="44" t="s">
+      <c r="CD42" s="48"/>
+      <c r="CE42" s="48"/>
+      <c r="CF42" s="49"/>
+      <c r="CG42" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="CD42" s="45"/>
-      <c r="CE42" s="45"/>
-      <c r="CF42" s="46"/>
+      <c r="CH42" s="48"/>
+      <c r="CI42" s="48"/>
+      <c r="CJ42" s="49"/>
     </row>
-    <row r="43" spans="1:84" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:88" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="14" t="s">
         <v>61</v>
       </c>
@@ -7758,7 +7768,7 @@
       <c r="AY44" s="14"/>
       <c r="AZ44" s="14"/>
     </row>
-    <row r="45" spans="1:84" ht="15.75" thickTop="1">
+    <row r="45" spans="1:88" ht="15.75" thickTop="1">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
@@ -7903,18 +7913,6 @@
       <c r="AV45" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AW45" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX45" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY45" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="40" t="s">
-        <v>1</v>
-      </c>
       <c r="BA45" s="40" t="s">
         <v>32</v>
       </c>
@@ -7963,8 +7961,20 @@
       <c r="BP45" s="40" t="s">
         <v>1</v>
       </c>
+      <c r="BQ45" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR45" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS45" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT45" s="40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:84">
+    <row r="46" spans="1:88">
       <c r="A46" s="16" t="s">
         <v>306</v>
       </c>
@@ -8109,20 +8119,8 @@
       <c r="AV46" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AW46" s="16" t="s">
+      <c r="BA46" s="16" t="s">
         <v>361</v>
-      </c>
-      <c r="AX46" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY46" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ46" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA46" s="16" t="s">
-        <v>362</v>
       </c>
       <c r="BB46" s="39" t="s">
         <v>17</v>
@@ -8131,10 +8129,10 @@
         <v>8</v>
       </c>
       <c r="BD46" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BE46" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BF46" s="39" t="s">
         <v>17</v>
@@ -8143,34 +8141,46 @@
         <v>8</v>
       </c>
       <c r="BH46" s="39" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BI46" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BJ46" s="39" t="s">
         <v>17</v>
       </c>
       <c r="BK46" s="39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL46" s="39" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="BM46" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BN46" s="39" t="s">
         <v>17</v>
       </c>
       <c r="BO46" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP46" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ46" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="BR46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS46" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BP46" s="39" t="s">
+      <c r="BT46" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:84">
+    <row r="47" spans="1:88">
       <c r="A47" s="11" t="s">
         <v>4</v>
       </c>
@@ -8291,16 +8301,6 @@
         <v>34</v>
       </c>
       <c r="AV47" s="33"/>
-      <c r="AW47" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX47" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY47" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AZ47" s="40"/>
       <c r="BA47" s="40" t="s">
         <v>4</v>
       </c>
@@ -8341,8 +8341,18 @@
         <v>34</v>
       </c>
       <c r="BP47" s="40"/>
+      <c r="BQ47" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR47" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="BS47" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT47" s="40"/>
     </row>
-    <row r="48" spans="1:84">
+    <row r="48" spans="1:88">
       <c r="A48" s="12" t="s">
         <v>38</v>
       </c>
@@ -8463,16 +8473,6 @@
         <v>50</v>
       </c>
       <c r="AV48" s="32"/>
-      <c r="AW48" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX48" s="36">
-        <v>40386</v>
-      </c>
-      <c r="AY48" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ48" s="39"/>
       <c r="BA48" s="39" t="s">
         <v>38</v>
       </c>
@@ -8513,1018 +8513,1203 @@
         <v>51</v>
       </c>
       <c r="BP48" s="39"/>
+      <c r="BQ48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR48" s="36">
+        <v>40386</v>
+      </c>
+      <c r="BS48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT48" s="39"/>
     </row>
-    <row r="49" spans="1:68">
-      <c r="A49" s="50" t="s">
+    <row r="49" spans="1:72">
+      <c r="A49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50" t="s">
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50" t="s">
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50" t="s">
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50" t="s">
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50" t="s">
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50" t="s">
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
+      <c r="AB49" s="43"/>
+      <c r="AC49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50" t="s">
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="50" t="s">
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="50"/>
-      <c r="AM49" s="50"/>
-      <c r="AN49" s="50"/>
-      <c r="AO49" s="50" t="s">
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="43"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="50"/>
-      <c r="AQ49" s="50"/>
-      <c r="AR49" s="50"/>
-      <c r="AS49" s="50" t="s">
+      <c r="AP49" s="43"/>
+      <c r="AQ49" s="43"/>
+      <c r="AR49" s="43"/>
+      <c r="AS49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="50"/>
-      <c r="AU49" s="50"/>
-      <c r="AV49" s="50"/>
-      <c r="AW49" s="41" t="s">
+      <c r="AT49" s="43"/>
+      <c r="AU49" s="43"/>
+      <c r="AV49" s="43"/>
+      <c r="BA49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="43"/>
-      <c r="BA49" s="41" t="s">
+      <c r="BB49" s="54"/>
+      <c r="BC49" s="54"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
-      <c r="BD49" s="43"/>
-      <c r="BE49" s="41" t="s">
+      <c r="BF49" s="54"/>
+      <c r="BG49" s="54"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="43"/>
-      <c r="BI49" s="41" t="s">
+      <c r="BJ49" s="54"/>
+      <c r="BK49" s="54"/>
+      <c r="BL49" s="55"/>
+      <c r="BM49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ49" s="42"/>
-      <c r="BK49" s="42"/>
-      <c r="BL49" s="43"/>
-      <c r="BM49" s="41" t="s">
+      <c r="BN49" s="54"/>
+      <c r="BO49" s="54"/>
+      <c r="BP49" s="55"/>
+      <c r="BQ49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN49" s="42"/>
-      <c r="BO49" s="42"/>
-      <c r="BP49" s="43"/>
+      <c r="BR49" s="54"/>
+      <c r="BS49" s="54"/>
+      <c r="BT49" s="55"/>
     </row>
-    <row r="50" spans="1:68" ht="30" customHeight="1">
-      <c r="A50" s="52" t="s">
+    <row r="50" spans="1:72" ht="30" customHeight="1">
+      <c r="A50" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52" t="s">
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52" t="s">
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52" t="s">
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52" t="s">
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52" t="s">
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52" t="s">
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52" t="s">
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52" t="s">
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
-      <c r="AO50" s="52" t="s">
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="AP50" s="52"/>
-      <c r="AQ50" s="52"/>
-      <c r="AR50" s="52"/>
-      <c r="AS50" s="52" t="s">
+      <c r="AP50" s="44"/>
+      <c r="AQ50" s="44"/>
+      <c r="AR50" s="44"/>
+      <c r="AS50" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="AT50" s="52"/>
-      <c r="AU50" s="52"/>
-      <c r="AV50" s="52"/>
-      <c r="AW50" s="44" t="s">
+      <c r="AT50" s="44"/>
+      <c r="AU50" s="44"/>
+      <c r="AV50" s="44"/>
+      <c r="BA50" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="AX50" s="45"/>
-      <c r="AY50" s="45"/>
-      <c r="AZ50" s="46"/>
-      <c r="BA50" s="44" t="s">
+      <c r="BB50" s="48"/>
+      <c r="BC50" s="48"/>
+      <c r="BD50" s="49"/>
+      <c r="BE50" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="BB50" s="45"/>
-      <c r="BC50" s="45"/>
-      <c r="BD50" s="46"/>
-      <c r="BE50" s="44" t="s">
+      <c r="BF50" s="48"/>
+      <c r="BG50" s="48"/>
+      <c r="BH50" s="49"/>
+      <c r="BI50" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="BF50" s="45"/>
-      <c r="BG50" s="45"/>
-      <c r="BH50" s="46"/>
-      <c r="BI50" s="44" t="s">
+      <c r="BJ50" s="48"/>
+      <c r="BK50" s="48"/>
+      <c r="BL50" s="49"/>
+      <c r="BM50" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="BJ50" s="45"/>
-      <c r="BK50" s="45"/>
-      <c r="BL50" s="46"/>
-      <c r="BM50" s="44" t="s">
+      <c r="BN50" s="48"/>
+      <c r="BO50" s="48"/>
+      <c r="BP50" s="49"/>
+      <c r="BQ50" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="BN50" s="45"/>
-      <c r="BO50" s="45"/>
-      <c r="BP50" s="46"/>
+      <c r="BR50" s="48"/>
+      <c r="BS50" s="48"/>
+      <c r="BT50" s="49"/>
     </row>
-    <row r="51" spans="1:68" ht="15" customHeight="1">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:72" ht="15" customHeight="1">
+      <c r="A51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53" t="s">
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53" t="s">
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53" t="s">
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53" t="s">
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53" t="s">
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53" t="s">
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53" t="s">
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="45"/>
+      <c r="AF51" s="45"/>
+      <c r="AG51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="53"/>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53" t="s">
+      <c r="AH51" s="45"/>
+      <c r="AI51" s="45"/>
+      <c r="AJ51" s="45"/>
+      <c r="AK51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="53"/>
-      <c r="AN51" s="53"/>
-      <c r="AO51" s="53" t="s">
+      <c r="AL51" s="45"/>
+      <c r="AM51" s="45"/>
+      <c r="AN51" s="45"/>
+      <c r="AO51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="53"/>
-      <c r="AQ51" s="53"/>
-      <c r="AR51" s="53"/>
-      <c r="AS51" s="53" t="s">
+      <c r="AP51" s="45"/>
+      <c r="AQ51" s="45"/>
+      <c r="AR51" s="45"/>
+      <c r="AS51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="53"/>
-      <c r="AU51" s="53"/>
-      <c r="AV51" s="53"/>
-      <c r="AW51" s="47" t="s">
+      <c r="AT51" s="45"/>
+      <c r="AU51" s="45"/>
+      <c r="AV51" s="45"/>
+      <c r="BA51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AX51" s="48"/>
-      <c r="AY51" s="48"/>
-      <c r="AZ51" s="49"/>
-      <c r="BA51" s="47" t="s">
+      <c r="BB51" s="57"/>
+      <c r="BC51" s="57"/>
+      <c r="BD51" s="58"/>
+      <c r="BE51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB51" s="48"/>
-      <c r="BC51" s="48"/>
-      <c r="BD51" s="49"/>
-      <c r="BE51" s="47" t="s">
+      <c r="BF51" s="57"/>
+      <c r="BG51" s="57"/>
+      <c r="BH51" s="58"/>
+      <c r="BI51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="48"/>
-      <c r="BG51" s="48"/>
-      <c r="BH51" s="49"/>
-      <c r="BI51" s="47" t="s">
+      <c r="BJ51" s="57"/>
+      <c r="BK51" s="57"/>
+      <c r="BL51" s="58"/>
+      <c r="BM51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ51" s="48"/>
-      <c r="BK51" s="48"/>
-      <c r="BL51" s="49"/>
-      <c r="BM51" s="47" t="s">
+      <c r="BN51" s="57"/>
+      <c r="BO51" s="57"/>
+      <c r="BP51" s="58"/>
+      <c r="BQ51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="48"/>
-      <c r="BO51" s="48"/>
-      <c r="BP51" s="49"/>
+      <c r="BR51" s="57"/>
+      <c r="BS51" s="57"/>
+      <c r="BT51" s="58"/>
     </row>
-    <row r="52" spans="1:68" s="5" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A52" s="51" t="s">
+    <row r="52" spans="1:72" s="5" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A52" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51" t="s">
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51" t="s">
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51" t="s">
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51" t="s">
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="V52" s="51"/>
-      <c r="W52" s="51"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51" t="s">
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="51"/>
-      <c r="AC52" s="51" t="s">
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="AD52" s="51"/>
-      <c r="AE52" s="51"/>
-      <c r="AF52" s="51"/>
-      <c r="AG52" s="51" t="s">
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="AH52" s="51"/>
-      <c r="AI52" s="51"/>
-      <c r="AJ52" s="51"/>
-      <c r="AK52" s="51" t="s">
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="AL52" s="51"/>
-      <c r="AM52" s="51"/>
-      <c r="AN52" s="51"/>
-      <c r="AO52" s="51" t="s">
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="46"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="AP52" s="51"/>
-      <c r="AQ52" s="51"/>
-      <c r="AR52" s="51"/>
-      <c r="AS52" s="51" t="s">
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="AT52" s="51"/>
-      <c r="AU52" s="51"/>
-      <c r="AV52" s="51"/>
-      <c r="AW52" s="44" t="s">
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="46"/>
+      <c r="BA52" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="AX52" s="45"/>
-      <c r="AY52" s="45"/>
-      <c r="AZ52" s="46"/>
-      <c r="BA52" s="44" t="s">
+      <c r="BB52" s="48"/>
+      <c r="BC52" s="48"/>
+      <c r="BD52" s="49"/>
+      <c r="BE52" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="BB52" s="45"/>
-      <c r="BC52" s="45"/>
-      <c r="BD52" s="46"/>
-      <c r="BE52" s="44" t="s">
+      <c r="BF52" s="48"/>
+      <c r="BG52" s="48"/>
+      <c r="BH52" s="49"/>
+      <c r="BI52" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="BF52" s="45"/>
-      <c r="BG52" s="45"/>
-      <c r="BH52" s="46"/>
-      <c r="BI52" s="44" t="s">
+      <c r="BJ52" s="48"/>
+      <c r="BK52" s="48"/>
+      <c r="BL52" s="49"/>
+      <c r="BM52" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="BJ52" s="45"/>
-      <c r="BK52" s="45"/>
-      <c r="BL52" s="46"/>
-      <c r="BM52" s="44" t="s">
+      <c r="BN52" s="48"/>
+      <c r="BO52" s="48"/>
+      <c r="BP52" s="49"/>
+      <c r="BQ52" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="BN52" s="45"/>
-      <c r="BO52" s="45"/>
-      <c r="BP52" s="46"/>
+      <c r="BR52" s="48"/>
+      <c r="BS52" s="48"/>
+      <c r="BT52" s="49"/>
     </row>
-    <row r="53" spans="1:68">
-      <c r="A53" s="50" t="s">
+    <row r="53" spans="1:72">
+      <c r="A53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50" t="s">
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50" t="s">
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50" t="s">
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50" t="s">
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50" t="s">
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50" t="s">
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50" t="s">
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
+      <c r="AC53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50" t="s">
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="43"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="50"/>
-      <c r="AK53" s="50" t="s">
+      <c r="AH53" s="43"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="43"/>
+      <c r="AK53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="50"/>
-      <c r="AM53" s="50"/>
-      <c r="AN53" s="50"/>
-      <c r="AO53" s="50" t="s">
+      <c r="AL53" s="43"/>
+      <c r="AM53" s="43"/>
+      <c r="AN53" s="43"/>
+      <c r="AO53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="50"/>
-      <c r="AQ53" s="50"/>
-      <c r="AR53" s="50"/>
-      <c r="AS53" s="50" t="s">
+      <c r="AP53" s="43"/>
+      <c r="AQ53" s="43"/>
+      <c r="AR53" s="43"/>
+      <c r="AS53" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="50"/>
-      <c r="AU53" s="50"/>
-      <c r="AV53" s="50"/>
-      <c r="AW53" s="41" t="s">
+      <c r="AT53" s="43"/>
+      <c r="AU53" s="43"/>
+      <c r="AV53" s="43"/>
+      <c r="BA53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="42"/>
-      <c r="AZ53" s="43"/>
-      <c r="BA53" s="41" t="s">
+      <c r="BB53" s="54"/>
+      <c r="BC53" s="54"/>
+      <c r="BD53" s="55"/>
+      <c r="BE53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB53" s="42"/>
-      <c r="BC53" s="42"/>
-      <c r="BD53" s="43"/>
-      <c r="BE53" s="41" t="s">
+      <c r="BF53" s="54"/>
+      <c r="BG53" s="54"/>
+      <c r="BH53" s="55"/>
+      <c r="BI53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF53" s="42"/>
-      <c r="BG53" s="42"/>
-      <c r="BH53" s="43"/>
-      <c r="BI53" s="41" t="s">
+      <c r="BJ53" s="54"/>
+      <c r="BK53" s="54"/>
+      <c r="BL53" s="55"/>
+      <c r="BM53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ53" s="42"/>
-      <c r="BK53" s="42"/>
-      <c r="BL53" s="43"/>
-      <c r="BM53" s="41" t="s">
+      <c r="BN53" s="54"/>
+      <c r="BO53" s="54"/>
+      <c r="BP53" s="55"/>
+      <c r="BQ53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN53" s="42"/>
-      <c r="BO53" s="42"/>
-      <c r="BP53" s="43"/>
+      <c r="BR53" s="54"/>
+      <c r="BS53" s="54"/>
+      <c r="BT53" s="55"/>
     </row>
-    <row r="54" spans="1:68" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A54" s="51" t="s">
+    <row r="54" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A54" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51" t="s">
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51" t="s">
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51" t="s">
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="51" t="s">
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="V54" s="51"/>
-      <c r="W54" s="51"/>
-      <c r="X54" s="51"/>
-      <c r="Y54" s="51" t="s">
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="Z54" s="51"/>
-      <c r="AA54" s="51"/>
-      <c r="AB54" s="51"/>
-      <c r="AC54" s="51" t="s">
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="AD54" s="51"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="51"/>
-      <c r="AG54" s="51" t="s">
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="46"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="AH54" s="51"/>
-      <c r="AI54" s="51"/>
-      <c r="AJ54" s="51"/>
-      <c r="AK54" s="51" t="s">
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="46"/>
+      <c r="AJ54" s="46"/>
+      <c r="AK54" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="AL54" s="51"/>
-      <c r="AM54" s="51"/>
-      <c r="AN54" s="51"/>
-      <c r="AO54" s="51" t="s">
+      <c r="AL54" s="46"/>
+      <c r="AM54" s="46"/>
+      <c r="AN54" s="46"/>
+      <c r="AO54" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="AP54" s="51"/>
-      <c r="AQ54" s="51"/>
-      <c r="AR54" s="51"/>
-      <c r="AS54" s="51" t="s">
+      <c r="AP54" s="46"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="46"/>
+      <c r="AS54" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="AT54" s="51"/>
-      <c r="AU54" s="51"/>
-      <c r="AV54" s="51"/>
-      <c r="AW54" s="44" t="s">
+      <c r="AT54" s="46"/>
+      <c r="AU54" s="46"/>
+      <c r="AV54" s="46"/>
+      <c r="BA54" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="AX54" s="45"/>
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="46"/>
-      <c r="BA54" s="44" t="s">
+      <c r="BB54" s="48"/>
+      <c r="BC54" s="48"/>
+      <c r="BD54" s="49"/>
+      <c r="BE54" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="BB54" s="45"/>
-      <c r="BC54" s="45"/>
-      <c r="BD54" s="46"/>
-      <c r="BE54" s="44" t="s">
+      <c r="BF54" s="48"/>
+      <c r="BG54" s="48"/>
+      <c r="BH54" s="49"/>
+      <c r="BI54" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="BF54" s="45"/>
-      <c r="BG54" s="45"/>
-      <c r="BH54" s="46"/>
-      <c r="BI54" s="44" t="s">
+      <c r="BJ54" s="48"/>
+      <c r="BK54" s="48"/>
+      <c r="BL54" s="49"/>
+      <c r="BM54" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="BJ54" s="45"/>
-      <c r="BK54" s="45"/>
-      <c r="BL54" s="46"/>
-      <c r="BM54" s="44" t="s">
+      <c r="BN54" s="48"/>
+      <c r="BO54" s="48"/>
+      <c r="BP54" s="49"/>
+      <c r="BQ54" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="BN54" s="45"/>
-      <c r="BO54" s="45"/>
-      <c r="BP54" s="46"/>
+      <c r="BR54" s="48"/>
+      <c r="BS54" s="48"/>
+      <c r="BT54" s="49"/>
     </row>
-    <row r="55" spans="1:68">
-      <c r="A55" s="50" t="s">
+    <row r="55" spans="1:72">
+      <c r="A55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50" t="s">
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50" t="s">
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50" t="s">
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50" t="s">
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50" t="s">
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50" t="s">
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50" t="s">
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50" t="s">
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
-      <c r="AK55" s="50" t="s">
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="50"/>
-      <c r="AM55" s="50"/>
-      <c r="AN55" s="50"/>
-      <c r="AO55" s="50" t="s">
+      <c r="AL55" s="43"/>
+      <c r="AM55" s="43"/>
+      <c r="AN55" s="43"/>
+      <c r="AO55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="50"/>
-      <c r="AQ55" s="50"/>
-      <c r="AR55" s="50"/>
-      <c r="AS55" s="50" t="s">
+      <c r="AP55" s="43"/>
+      <c r="AQ55" s="43"/>
+      <c r="AR55" s="43"/>
+      <c r="AS55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="50"/>
-      <c r="AU55" s="50"/>
-      <c r="AV55" s="50"/>
-      <c r="AW55" s="41" t="s">
+      <c r="AT55" s="43"/>
+      <c r="AU55" s="43"/>
+      <c r="AV55" s="43"/>
+      <c r="BA55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="42"/>
-      <c r="AZ55" s="43"/>
-      <c r="BA55" s="41" t="s">
+      <c r="BB55" s="54"/>
+      <c r="BC55" s="54"/>
+      <c r="BD55" s="55"/>
+      <c r="BE55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB55" s="42"/>
-      <c r="BC55" s="42"/>
-      <c r="BD55" s="43"/>
-      <c r="BE55" s="41" t="s">
+      <c r="BF55" s="54"/>
+      <c r="BG55" s="54"/>
+      <c r="BH55" s="55"/>
+      <c r="BI55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF55" s="42"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="43"/>
-      <c r="BI55" s="41" t="s">
+      <c r="BJ55" s="54"/>
+      <c r="BK55" s="54"/>
+      <c r="BL55" s="55"/>
+      <c r="BM55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ55" s="42"/>
-      <c r="BK55" s="42"/>
-      <c r="BL55" s="43"/>
-      <c r="BM55" s="41" t="s">
+      <c r="BN55" s="54"/>
+      <c r="BO55" s="54"/>
+      <c r="BP55" s="55"/>
+      <c r="BQ55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN55" s="42"/>
-      <c r="BO55" s="42"/>
-      <c r="BP55" s="43"/>
+      <c r="BR55" s="54"/>
+      <c r="BS55" s="54"/>
+      <c r="BT55" s="55"/>
     </row>
-    <row r="56" spans="1:68" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A56" s="51" t="s">
+    <row r="56" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A56" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51" t="s">
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51" t="s">
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51" t="s">
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="51" t="s">
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="V56" s="51"/>
-      <c r="W56" s="51"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="51" t="s">
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="Z56" s="51"/>
-      <c r="AA56" s="51"/>
-      <c r="AB56" s="51"/>
-      <c r="AC56" s="51" t="s">
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="AD56" s="51"/>
-      <c r="AE56" s="51"/>
-      <c r="AF56" s="51"/>
-      <c r="AG56" s="51" t="s">
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AH56" s="51"/>
-      <c r="AI56" s="51"/>
-      <c r="AJ56" s="51"/>
-      <c r="AK56" s="51" t="s">
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="46"/>
+      <c r="AK56" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="AL56" s="51"/>
-      <c r="AM56" s="51"/>
-      <c r="AN56" s="51"/>
-      <c r="AO56" s="51" t="s">
+      <c r="AL56" s="46"/>
+      <c r="AM56" s="46"/>
+      <c r="AN56" s="46"/>
+      <c r="AO56" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AP56" s="51"/>
-      <c r="AQ56" s="51"/>
-      <c r="AR56" s="51"/>
-      <c r="AS56" s="51" t="s">
+      <c r="AP56" s="46"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="46"/>
+      <c r="AS56" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="AT56" s="51"/>
-      <c r="AU56" s="51"/>
-      <c r="AV56" s="51"/>
-      <c r="AW56" s="44" t="s">
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="46"/>
+      <c r="AV56" s="46"/>
+      <c r="BA56" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="AX56" s="45"/>
-      <c r="AY56" s="45"/>
-      <c r="AZ56" s="46"/>
-      <c r="BA56" s="44" t="s">
+      <c r="BB56" s="48"/>
+      <c r="BC56" s="48"/>
+      <c r="BD56" s="49"/>
+      <c r="BE56" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="BB56" s="45"/>
-      <c r="BC56" s="45"/>
-      <c r="BD56" s="46"/>
-      <c r="BE56" s="44" t="s">
+      <c r="BF56" s="48"/>
+      <c r="BG56" s="48"/>
+      <c r="BH56" s="49"/>
+      <c r="BI56" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="BF56" s="45"/>
-      <c r="BG56" s="45"/>
-      <c r="BH56" s="46"/>
-      <c r="BI56" s="44" t="s">
+      <c r="BJ56" s="48"/>
+      <c r="BK56" s="48"/>
+      <c r="BL56" s="49"/>
+      <c r="BM56" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="BJ56" s="45"/>
-      <c r="BK56" s="45"/>
-      <c r="BL56" s="46"/>
-      <c r="BM56" s="44" t="s">
+      <c r="BN56" s="48"/>
+      <c r="BO56" s="48"/>
+      <c r="BP56" s="49"/>
+      <c r="BQ56" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="BN56" s="45"/>
-      <c r="BO56" s="45"/>
-      <c r="BP56" s="46"/>
+      <c r="BR56" s="48"/>
+      <c r="BS56" s="48"/>
+      <c r="BT56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="553">
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BQ49:BT49"/>
+    <mergeCell ref="BQ50:BT50"/>
+    <mergeCell ref="BQ51:BT51"/>
+    <mergeCell ref="BQ52:BT52"/>
+    <mergeCell ref="BQ53:BT53"/>
+    <mergeCell ref="BQ54:BT54"/>
+    <mergeCell ref="BQ55:BT55"/>
+    <mergeCell ref="BQ56:BT56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="CG35:CJ35"/>
+    <mergeCell ref="CG36:CJ36"/>
+    <mergeCell ref="CG37:CJ37"/>
+    <mergeCell ref="CG38:CJ38"/>
+    <mergeCell ref="CG39:CJ39"/>
+    <mergeCell ref="CG40:CJ40"/>
+    <mergeCell ref="CG41:CJ41"/>
+    <mergeCell ref="CG42:CJ42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="BM35:BP35"/>
+    <mergeCell ref="BM36:BP36"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BM39:BP39"/>
+    <mergeCell ref="BM40:BP40"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ35:BT35"/>
+    <mergeCell ref="BQ36:BT36"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BQ38:BT38"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ8:BT8"/>
+    <mergeCell ref="BQ9:BT9"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="BQ11:BT11"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BQ13:BT13"/>
+    <mergeCell ref="BQ14:BT14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -9549,376 +9734,201 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BA21:BD21"/>
-    <mergeCell ref="BA22:BD22"/>
-    <mergeCell ref="BA23:BD23"/>
-    <mergeCell ref="BA24:BD24"/>
-    <mergeCell ref="BA25:BD25"/>
-    <mergeCell ref="BA26:BD26"/>
-    <mergeCell ref="BA27:BD27"/>
-    <mergeCell ref="BA28:BD28"/>
-    <mergeCell ref="BA35:BD35"/>
-    <mergeCell ref="BA36:BD36"/>
-    <mergeCell ref="BA37:BD37"/>
-    <mergeCell ref="BA38:BD38"/>
-    <mergeCell ref="BA39:BD39"/>
-    <mergeCell ref="BA40:BD40"/>
-    <mergeCell ref="BA41:BD41"/>
-    <mergeCell ref="BA42:BD42"/>
-    <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="BE42:BH42"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BI42:BL42"/>
-    <mergeCell ref="BM35:BP35"/>
-    <mergeCell ref="BM36:BP36"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BM38:BP38"/>
-    <mergeCell ref="BM39:BP39"/>
-    <mergeCell ref="BM40:BP40"/>
-    <mergeCell ref="BM41:BP41"/>
-    <mergeCell ref="BM42:BP42"/>
-    <mergeCell ref="BQ35:BT35"/>
-    <mergeCell ref="BQ36:BT36"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BQ38:BT38"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="BQ40:BT40"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BQ42:BT42"/>
-    <mergeCell ref="BU35:BX35"/>
-    <mergeCell ref="BU36:BX36"/>
-    <mergeCell ref="BU37:BX37"/>
-    <mergeCell ref="BU38:BX38"/>
-    <mergeCell ref="BU39:BX39"/>
-    <mergeCell ref="BU40:BX40"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BU42:BX42"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY36:CB36"/>
-    <mergeCell ref="BY37:CB37"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY39:CB39"/>
-    <mergeCell ref="BY40:CB40"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY42:CB42"/>
-    <mergeCell ref="CC35:CF35"/>
-    <mergeCell ref="CC36:CF36"/>
-    <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="CC38:CF38"/>
-    <mergeCell ref="CC39:CF39"/>
-    <mergeCell ref="CC40:CF40"/>
-    <mergeCell ref="CC41:CF41"/>
-    <mergeCell ref="CC42:CF42"/>
-    <mergeCell ref="AW49:AZ49"/>
-    <mergeCell ref="AW50:AZ50"/>
-    <mergeCell ref="AW51:AZ51"/>
-    <mergeCell ref="AW52:AZ52"/>
-    <mergeCell ref="AW53:AZ53"/>
-    <mergeCell ref="AW54:AZ54"/>
-    <mergeCell ref="AW55:AZ55"/>
-    <mergeCell ref="AW56:AZ56"/>
-    <mergeCell ref="BA49:BD49"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="BA51:BD51"/>
-    <mergeCell ref="BA52:BD52"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="BA54:BD54"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BM49:BP49"/>
-    <mergeCell ref="BM50:BP50"/>
-    <mergeCell ref="BM51:BP51"/>
-    <mergeCell ref="BM52:BP52"/>
-    <mergeCell ref="BM53:BP53"/>
-    <mergeCell ref="BM54:BP54"/>
-    <mergeCell ref="BM55:BP55"/>
-    <mergeCell ref="BM56:BP56"/>
-    <mergeCell ref="BE49:BH49"/>
-    <mergeCell ref="BE50:BH50"/>
-    <mergeCell ref="BE51:BH51"/>
-    <mergeCell ref="BE52:BH52"/>
-    <mergeCell ref="BE53:BH53"/>
-    <mergeCell ref="BE54:BH54"/>
-    <mergeCell ref="BE55:BH55"/>
-    <mergeCell ref="BE56:BH56"/>
-    <mergeCell ref="BI49:BL49"/>
-    <mergeCell ref="BI50:BL50"/>
-    <mergeCell ref="BI51:BL51"/>
-    <mergeCell ref="BI52:BL52"/>
-    <mergeCell ref="BI53:BL53"/>
-    <mergeCell ref="BI54:BL54"/>
-    <mergeCell ref="BI55:BL55"/>
-    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT46 B4 F4 J4 N4 R4 V4 Z4 AD4 AH4 AL4 F18 B46 N46 J46 F46 AX32 AT32 AP32 AL32 AH32 AD32 Z32 V32 R32 N32 J32 F32 AX18 B18 B32 AT18 AP18 AL18 AH18 AD18 Z18 V18 R18 N18 J18 R46 V46 Z46 AD46 AH46 AL46 AP46 AP4 AT4 AX4 BB4 BF4 BJ4 BN4 BB18 BB32 BF32 BJ32 BN32 BR32 BV32 BZ32 CD32 AX46 BB46 BF46 BJ46 BN46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB46 BJ46 BR46 BJ32 BR32 BZ32 CH32 AX4 BF4 BN4 BF18 AP46 AL46 AH46 AD46 Z46 V46 R46 J18 N18 R18 V18 Z18 AD18 AH18 AL18 AP18 AT18 B32 B18 AX18 F32 J32 N32 R32 V32 Z32 AD32 AH32 AL32 AP32 AT32 AX32 F46 J46 N46 B46 F18 AL4 AH4 AD4 Z4 V4 R4 N4 J4 F4 B4 AT46 BR4 BJ4 BB4 AT4 CD32 BV32 BN32 BF32 BN46 BF46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU46 C4 G4 K4 O4 S4 W4 AA4 AE4 AI4 AM4 G18 C46 O46 K46 G46 AY32 AU32 AQ32 AM32 AI32 AE32 AA32 W32 S32 O32 K32 G32 AY18 C18 C32 AU18 AQ18 AM18 AI18 AE18 AA18 W18 S18 O18 K18 S46 W46 AA46 AE46 AI46 AM46 AQ46 AQ4 AU4 AY4 BC4 BG4 BK4 BO4 BC18 BC32 BG32 BK32 BO32 BS32 BW32 CA32 CE32 AY46 BC46 BG46 BK46 BO46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC46 BK46 BS46 BK32 BS32 CA32 CI32 AY4 BG4 BO4 BG18 AQ46 AM46 AI46 AE46 AA46 W46 S46 K18 O18 S18 W18 AA18 AE18 AI18 AM18 AQ18 AU18 C32 C18 AY18 G32 K32 O32 S32 W32 AA32 AE32 AI32 AM32 AQ32 AU32 AY32 G46 K46 O46 C46 G18 AM4 AI4 AE4 AA4 W4 S4 O4 K4 G4 C4 AU46 BS4 BK4 BC4 AU4 CE32 BW32 BO32 BG32 BO46 BG46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV46 D4 H4 L4 P4 T4 X4 AB4 AF4 AJ4 AN4 H18 D46 P46 L46 H46 AZ32 AV32 AR32 AN32 AJ32 AF32 AB32 X32 T32 P32 L32 H32 AZ18 D18 D32 AV18 AR18 AN18 AJ18 AF18 AB18 X18 T18 P18 L18 T46 X46 AB46 AF46 AJ46 AN46 AR46 AR4 AV4 AZ4 BD4 BH4 BL4 BP4 BD18 BD32 BH32 BL32 BP32 BT32 BX32 CB32 CF32 AZ46 BD46 BH46 BL46 BP46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD46 BL46 BT46 BL32 BT32 CB32 CJ32 AZ4 BH4 BP4 BH18 AR46 AN46 AJ46 AF46 AB46 X46 T46 L18 P18 T18 X18 AB18 AF18 AJ18 AN18 AR18 AV18 D32 D18 AZ18 H32 L32 P32 T32 X32 AB32 AF32 AJ32 AN32 AR32 AV32 AZ32 H46 L46 P46 D46 H18 AN4 AJ4 AF4 AB4 X4 T4 P4 L4 H4 D4 AV46 BT4 BL4 BD4 AV4 CF32 BX32 BP32 BH32 BP46 BH46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS48 A6 E6 I6 M6 Q6 U6 Y6 AC6 AG6 AK6 E20 A48 M48 I48 E48 AW34 AS34 AO34 AK34 AG34 AC34 Y34 U34 Q34 M34 I34 E34 AW20 A20 A34 AS20 AO20 AK20 AG20 AC20 Y20 U20 Q20 M20 I20 Q48 U48 Y48 AC48 AG48 AK48 AO48 AO6 AS6 AW6 BA6 BE6 BI6 BM6 BA20 BA34 BE34 BI34 BM34 BQ34 BU34 BY34 CC34 AW48 BA48 BE48 BI48 BM48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA48 BI48 BQ48 BI34 BQ34 BY34 CG34 AW6 BE6 BM6 BE20 AO48 AK48 AG48 AC48 Y48 U48 Q48 I20 M20 Q20 U20 Y20 AC20 AG20 AK20 AO20 AS20 A34 A20 AW20 E34 I34 M34 Q34 U34 Y34 AC34 AG34 AK34 AO34 AS34 AW34 E48 I48 M48 A48 E20 AK6 AG6 AC6 Y6 U6 Q6 M6 I6 E6 A6 AS48 BQ6 BI6 BA6 AS6 CC34 BU34 BM34 BE34 BM48 BE48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU48 C6 G6 K6 O6 S6 W6 AA6 AE6 AI6 AM6 G20 C48 O48 K48 G48 AY34 AU34 AQ34 AM34 AI34 AE34 AA34 W34 S34 O34 K34 G34 AY20 C20 C34 AU20 AQ20 AM20 AI20 AE20 AA20 W20 S20 O20 K20 S48 W48 AA48 AE48 AI48 AM48 AQ48 AQ6 AU6 AY6 BC6 BG6 BK6 BO6 BC20 BC34 BG34 BK34 BO34 BS34 BW34 CA34 CE34 AY48 BC48 BG48 BK48 BO48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC48 BK48 BS48 BK34 BS34 CA34 CI34 AY6 BG6 BO6 BG20 AQ48 AM48 AI48 AE48 AA48 W48 S48 K20 O20 S20 W20 AA20 AE20 AI20 AM20 AQ20 AU20 C34 C20 AY20 G34 K34 O34 S34 W34 AA34 AE34 AI34 AM34 AQ34 AU34 AY34 G48 K48 O48 C48 G20 AM6 AI6 AE6 AA6 W6 S6 O6 K6 G6 C6 AU48 BS6 BK6 BC6 AU6 CE34 BW34 BO34 BG34 BO48 BG48">
       <formula1>build_found</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT44 B2 F2 J2 N2 R2 V2 Z2 AD2 AH2 AL2 V30 R30 N30 J30 F30 B44 B16 B30 N44 J44 F44 AX30 AT30 AP30 AL30 AH30 AD30 Z30 R44 V44 Z44 AD44 AH44 AL44 AP44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT44 AP44 AL44 AH44 AD44 Z44 V44 R44 Z30 AD30 AH30 AL30 AP30 AT30 AX30 F44 J44 N44 B30 B16 B44 F30 J30 N30 R30 V30 AL2 AH2 AD2 Z2 V2 R2 N2 J2 F2 B2">
       <formula1>tester_team</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1826,18 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1846,15 +1834,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1873,6 +1852,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2608,8 +2608,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE34" sqref="BE34"/>
+    <sheetView tabSelected="1" topLeftCell="BJ37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA48" sqref="BA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2701,11 +2701,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="AN6" s="37"/>
       <c r="AS6" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AT6" s="36">
         <v>40386</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="BH6" s="42"/>
       <c r="BI6" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BJ6" s="36">
         <v>40386</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="BL6" s="42"/>
       <c r="BM6" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BN6" s="36">
         <v>40386</v>
@@ -3550,836 +3550,836 @@
       <c r="BT6" s="42"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43" t="s">
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43" t="s">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43" t="s">
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43" t="s">
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AS7" s="43" t="s">
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AS7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="53" t="s">
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="53" t="s">
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="53" t="s">
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="53" t="s">
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="53" t="s">
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="48"/>
+      <c r="BM7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="55"/>
-      <c r="BQ7" s="53" t="s">
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="48"/>
+      <c r="BQ7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="55"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="47"/>
+      <c r="BT7" s="48"/>
     </row>
     <row r="8" spans="1:72" ht="44.25" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="44" t="s">
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="46" t="s">
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="46" t="s">
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44" t="s">
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AS8" s="44" t="s">
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AS8" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="47" t="s">
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="47" t="s">
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="47" t="s">
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="47" t="s">
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="45"/>
+      <c r="BI8" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="47" t="s">
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="48"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="47" t="s">
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="BR8" s="48"/>
-      <c r="BS8" s="48"/>
-      <c r="BT8" s="49"/>
+      <c r="BR8" s="44"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="45"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45" t="s">
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45" t="s">
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45" t="s">
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45" t="s">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AS9" s="45" t="s">
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AS9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="56" t="s">
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="56" t="s">
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="58"/>
-      <c r="BE9" s="56" t="s">
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="58"/>
-      <c r="BI9" s="56" t="s">
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="58"/>
-      <c r="BM9" s="56" t="s">
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="57"/>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="58"/>
-      <c r="BQ9" s="56" t="s">
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="57"/>
-      <c r="BS9" s="57"/>
-      <c r="BT9" s="58"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="51"/>
     </row>
     <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46" t="s">
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46" t="s">
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46" t="s">
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="46" t="s">
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="46"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="46" t="s">
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="46"/>
-      <c r="AS10" s="46" t="s">
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AS10" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="AT10" s="46"/>
-      <c r="AU10" s="46"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="47" t="s">
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="47" t="s">
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="45"/>
+      <c r="BA10" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="47" t="s">
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="45"/>
+      <c r="BE10" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="47" t="s">
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="45"/>
+      <c r="BI10" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
-      <c r="BL10" s="49"/>
-      <c r="BM10" s="47" t="s">
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="45"/>
+      <c r="BM10" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="48"/>
-      <c r="BO10" s="48"/>
-      <c r="BP10" s="49"/>
-      <c r="BQ10" s="47" t="s">
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="BR10" s="48"/>
-      <c r="BS10" s="48"/>
-      <c r="BT10" s="49"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="45"/>
     </row>
     <row r="11" spans="1:72">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43" t="s">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43" t="s">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43" t="s">
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43" t="s">
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43" t="s">
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43" t="s">
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="43"/>
-      <c r="AS11" s="43" t="s">
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AS11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="43"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="43"/>
-      <c r="AW11" s="53" t="s">
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="53" t="s">
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="53" t="s">
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="53" t="s">
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="53" t="s">
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
-      <c r="BP11" s="55"/>
-      <c r="BQ11" s="53" t="s">
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="54"/>
-      <c r="BS11" s="54"/>
-      <c r="BT11" s="55"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="48"/>
     </row>
     <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46" t="s">
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46" t="s">
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46" t="s">
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46" t="s">
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46" t="s">
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46" t="s">
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AS12" s="46" t="s">
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AS12" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="47" t="s">
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="47" t="s">
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="47" t="s">
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="47" t="s">
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="49"/>
-      <c r="BM12" s="47" t="s">
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="45"/>
+      <c r="BM12" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="48"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="47" t="s">
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="45"/>
+      <c r="BQ12" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="BR12" s="48"/>
-      <c r="BS12" s="48"/>
-      <c r="BT12" s="49"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="44"/>
+      <c r="BT12" s="45"/>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43" t="s">
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43" t="s">
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43" t="s">
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="43"/>
-      <c r="AS13" s="43" t="s">
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AS13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="53" t="s">
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="53" t="s">
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="55"/>
-      <c r="BE13" s="53" t="s">
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="55"/>
-      <c r="BI13" s="53" t="s">
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="48"/>
+      <c r="BI13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="55"/>
-      <c r="BM13" s="53" t="s">
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="53" t="s">
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="48"/>
+      <c r="BQ13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="54"/>
-      <c r="BS13" s="54"/>
-      <c r="BT13" s="55"/>
+      <c r="BR13" s="47"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="48"/>
     </row>
     <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46" t="s">
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46" t="s">
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46" t="s">
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46" t="s">
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46" t="s">
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AS14" s="46" t="s">
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AS14" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="47" t="s">
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="47" t="s">
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="47" t="s">
+      <c r="BB14" s="44"/>
+      <c r="BC14" s="44"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="47" t="s">
+      <c r="BF14" s="44"/>
+      <c r="BG14" s="44"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="49"/>
-      <c r="BM14" s="47" t="s">
+      <c r="BJ14" s="44"/>
+      <c r="BK14" s="44"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="48"/>
-      <c r="BP14" s="49"/>
-      <c r="BQ14" s="47" t="s">
+      <c r="BN14" s="44"/>
+      <c r="BO14" s="44"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="BR14" s="48"/>
-      <c r="BS14" s="48"/>
-      <c r="BT14" s="49"/>
+      <c r="BR14" s="44"/>
+      <c r="BS14" s="44"/>
+      <c r="BT14" s="45"/>
     </row>
     <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
@@ -4995,692 +4995,692 @@
       <c r="BH20" s="39"/>
     </row>
     <row r="21" spans="1:88">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43" t="s">
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43" t="s">
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43" t="s">
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43" t="s">
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="43" t="s">
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="43"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="43"/>
-      <c r="AK21" s="43" t="s">
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="43" t="s">
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="43" t="s">
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="43"/>
-      <c r="AV21" s="43"/>
-      <c r="AW21" s="43" t="s">
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="43"/>
-      <c r="AY21" s="43"/>
-      <c r="AZ21" s="43"/>
-      <c r="BE21" s="53" t="s">
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BE21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="55"/>
+      <c r="BF21" s="47"/>
+      <c r="BG21" s="47"/>
+      <c r="BH21" s="48"/>
     </row>
     <row r="22" spans="1:88">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44" t="s">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44" t="s">
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44" t="s">
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44" t="s">
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44" t="s">
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44" t="s">
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44" t="s">
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44" t="s">
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44" t="s">
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44" t="s">
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BE22" s="47" t="s">
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BE22" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="49"/>
+      <c r="BF22" s="44"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="45"/>
     </row>
     <row r="23" spans="1:88">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45" t="s">
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45" t="s">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45" t="s">
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45" t="s">
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45" t="s">
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45" t="s">
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45" t="s">
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45" t="s">
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45" t="s">
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BE23" s="56" t="s">
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BE23" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="57"/>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="58"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="51"/>
     </row>
     <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46" t="s">
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46" t="s">
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46" t="s">
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46" t="s">
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46" t="s">
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46" t="s">
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46" t="s">
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46" t="s">
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46" t="s">
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BE24" s="47" t="s">
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BE24" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="49"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="45"/>
     </row>
     <row r="25" spans="1:88" ht="15" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43" t="s">
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43" t="s">
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43" t="s">
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43" t="s">
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43" t="s">
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43" t="s">
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43" t="s">
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43" t="s">
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BE25" s="53" t="s">
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BE25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="55"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="48"/>
     </row>
     <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46" t="s">
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46" t="s">
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="47" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="46" t="s">
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46" t="s">
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46" t="s">
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46" t="s">
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46" t="s">
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46" t="s">
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AX26" s="46"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BE26" s="47" t="s">
+      <c r="AX26" s="55"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BE26" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="49"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="45"/>
     </row>
     <row r="27" spans="1:88">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43" t="s">
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43" t="s">
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43" t="s">
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43" t="s">
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43" t="s">
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43" t="s">
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43" t="s">
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="43"/>
-      <c r="AS27" s="43" t="s">
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43" t="s">
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="43"/>
-      <c r="AZ27" s="43"/>
-      <c r="BE27" s="53" t="s">
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BE27" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="55"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="47"/>
+      <c r="BH27" s="48"/>
     </row>
     <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46" t="s">
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46" t="s">
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46" t="s">
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46" t="s">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46" t="s">
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46" t="s">
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46" t="s">
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46" t="s">
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46" t="s">
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
-      <c r="AR28" s="46"/>
-      <c r="AS28" s="46" t="s">
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="55"/>
+      <c r="AR28" s="55"/>
+      <c r="AS28" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AT28" s="46"/>
-      <c r="AU28" s="46"/>
-      <c r="AV28" s="46"/>
-      <c r="AW28" s="46" t="s">
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="AX28" s="46"/>
-      <c r="AY28" s="46"/>
-      <c r="AZ28" s="46"/>
-      <c r="BE28" s="47" t="s">
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BE28" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="49"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="45"/>
     </row>
     <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -6648,1022 +6648,1022 @@
       <c r="CJ34" s="39"/>
     </row>
     <row r="35" spans="1:88">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43" t="s">
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43" t="s">
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="43"/>
-      <c r="AC35" s="43" t="s">
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="43"/>
-      <c r="AF35" s="43"/>
-      <c r="AG35" s="43" t="s">
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="43"/>
-      <c r="AK35" s="43" t="s">
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="43"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="43"/>
-      <c r="AO35" s="43" t="s">
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="43"/>
-      <c r="AQ35" s="43"/>
-      <c r="AR35" s="43"/>
-      <c r="AS35" s="43" t="s">
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="43"/>
-      <c r="AU35" s="43"/>
-      <c r="AV35" s="43"/>
-      <c r="AW35" s="43" t="s">
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="43"/>
-      <c r="AY35" s="43"/>
-      <c r="AZ35" s="43"/>
-      <c r="BE35" s="53" t="s">
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BE35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="54"/>
-      <c r="BH35" s="55"/>
-      <c r="BI35" s="53" t="s">
+      <c r="BF35" s="47"/>
+      <c r="BG35" s="47"/>
+      <c r="BH35" s="48"/>
+      <c r="BI35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="54"/>
-      <c r="BK35" s="54"/>
-      <c r="BL35" s="55"/>
-      <c r="BM35" s="53" t="s">
+      <c r="BJ35" s="47"/>
+      <c r="BK35" s="47"/>
+      <c r="BL35" s="48"/>
+      <c r="BM35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="55"/>
-      <c r="BQ35" s="53" t="s">
+      <c r="BN35" s="47"/>
+      <c r="BO35" s="47"/>
+      <c r="BP35" s="48"/>
+      <c r="BQ35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="54"/>
-      <c r="BS35" s="54"/>
-      <c r="BT35" s="55"/>
-      <c r="BU35" s="53" t="s">
+      <c r="BR35" s="47"/>
+      <c r="BS35" s="47"/>
+      <c r="BT35" s="48"/>
+      <c r="BU35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BV35" s="54"/>
-      <c r="BW35" s="54"/>
-      <c r="BX35" s="55"/>
-      <c r="BY35" s="53" t="s">
+      <c r="BV35" s="47"/>
+      <c r="BW35" s="47"/>
+      <c r="BX35" s="48"/>
+      <c r="BY35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="54"/>
-      <c r="CA35" s="54"/>
-      <c r="CB35" s="55"/>
-      <c r="CC35" s="53" t="s">
+      <c r="BZ35" s="47"/>
+      <c r="CA35" s="47"/>
+      <c r="CB35" s="48"/>
+      <c r="CC35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="55"/>
-      <c r="CG35" s="53" t="s">
+      <c r="CD35" s="47"/>
+      <c r="CE35" s="47"/>
+      <c r="CF35" s="48"/>
+      <c r="CG35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="CH35" s="54"/>
-      <c r="CI35" s="54"/>
-      <c r="CJ35" s="55"/>
+      <c r="CH35" s="47"/>
+      <c r="CI35" s="47"/>
+      <c r="CJ35" s="48"/>
     </row>
     <row r="36" spans="1:88" ht="45" customHeight="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="46" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="46" t="s">
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44" t="s">
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44" t="s">
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44" t="s">
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="46" t="s">
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="44" t="s">
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="44" t="s">
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="44" t="s">
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
-      <c r="AN36" s="44"/>
-      <c r="AO36" s="44" t="s">
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="44"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="44"/>
-      <c r="AS36" s="44" t="s">
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="53"/>
+      <c r="AS36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="44"/>
-      <c r="AU36" s="44"/>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44" t="s">
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BE36" s="47" t="s">
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BE36" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="BF36" s="48"/>
-      <c r="BG36" s="48"/>
-      <c r="BH36" s="49"/>
-      <c r="BI36" s="47" t="s">
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="BJ36" s="48"/>
-      <c r="BK36" s="48"/>
-      <c r="BL36" s="49"/>
-      <c r="BM36" s="47" t="s">
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="45"/>
+      <c r="BM36" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="BN36" s="48"/>
-      <c r="BO36" s="48"/>
-      <c r="BP36" s="49"/>
-      <c r="BQ36" s="47" t="s">
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44"/>
+      <c r="BP36" s="45"/>
+      <c r="BQ36" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="BR36" s="48"/>
-      <c r="BS36" s="48"/>
-      <c r="BT36" s="49"/>
-      <c r="BU36" s="47" t="s">
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="45"/>
+      <c r="BU36" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="BV36" s="48"/>
-      <c r="BW36" s="48"/>
-      <c r="BX36" s="49"/>
-      <c r="BY36" s="47" t="s">
+      <c r="BV36" s="44"/>
+      <c r="BW36" s="44"/>
+      <c r="BX36" s="45"/>
+      <c r="BY36" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="BZ36" s="48"/>
-      <c r="CA36" s="48"/>
-      <c r="CB36" s="49"/>
-      <c r="CC36" s="47" t="s">
+      <c r="BZ36" s="44"/>
+      <c r="CA36" s="44"/>
+      <c r="CB36" s="45"/>
+      <c r="CC36" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="CD36" s="48"/>
-      <c r="CE36" s="48"/>
-      <c r="CF36" s="49"/>
-      <c r="CG36" s="47" t="s">
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="44"/>
+      <c r="CF36" s="45"/>
+      <c r="CG36" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="CH36" s="48"/>
-      <c r="CI36" s="48"/>
-      <c r="CJ36" s="49"/>
+      <c r="CH36" s="44"/>
+      <c r="CI36" s="44"/>
+      <c r="CJ36" s="45"/>
     </row>
     <row r="37" spans="1:88">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45" t="s">
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45" t="s">
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45" t="s">
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45" t="s">
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45" t="s">
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45" t="s">
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45" t="s">
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45" t="s">
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45" t="s">
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="45"/>
-      <c r="AQ37" s="45"/>
-      <c r="AR37" s="45"/>
-      <c r="AS37" s="45" t="s">
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="45"/>
-      <c r="AU37" s="45"/>
-      <c r="AV37" s="45"/>
-      <c r="AW37" s="45" t="s">
+      <c r="AT37" s="54"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="54"/>
+      <c r="AW37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BE37" s="56" t="s">
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BE37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="57"/>
-      <c r="BG37" s="57"/>
-      <c r="BH37" s="58"/>
-      <c r="BI37" s="56" t="s">
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="57"/>
-      <c r="BK37" s="57"/>
-      <c r="BL37" s="58"/>
-      <c r="BM37" s="56" t="s">
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="51"/>
+      <c r="BM37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="57"/>
-      <c r="BO37" s="57"/>
-      <c r="BP37" s="58"/>
-      <c r="BQ37" s="56" t="s">
+      <c r="BN37" s="50"/>
+      <c r="BO37" s="50"/>
+      <c r="BP37" s="51"/>
+      <c r="BQ37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="57"/>
-      <c r="BS37" s="57"/>
-      <c r="BT37" s="58"/>
-      <c r="BU37" s="56" t="s">
+      <c r="BR37" s="50"/>
+      <c r="BS37" s="50"/>
+      <c r="BT37" s="51"/>
+      <c r="BU37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BV37" s="57"/>
-      <c r="BW37" s="57"/>
-      <c r="BX37" s="58"/>
-      <c r="BY37" s="56" t="s">
+      <c r="BV37" s="50"/>
+      <c r="BW37" s="50"/>
+      <c r="BX37" s="51"/>
+      <c r="BY37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="57"/>
-      <c r="CA37" s="57"/>
-      <c r="CB37" s="58"/>
-      <c r="CC37" s="56" t="s">
+      <c r="BZ37" s="50"/>
+      <c r="CA37" s="50"/>
+      <c r="CB37" s="51"/>
+      <c r="CC37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="57"/>
-      <c r="CE37" s="57"/>
-      <c r="CF37" s="58"/>
-      <c r="CG37" s="56" t="s">
+      <c r="CD37" s="50"/>
+      <c r="CE37" s="50"/>
+      <c r="CF37" s="51"/>
+      <c r="CG37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="CH37" s="57"/>
-      <c r="CI37" s="57"/>
-      <c r="CJ37" s="58"/>
+      <c r="CH37" s="50"/>
+      <c r="CI37" s="50"/>
+      <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46" t="s">
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46" t="s">
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46" t="s">
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46" t="s">
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46" t="s">
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46" t="s">
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="46"/>
-      <c r="AO38" s="46" t="s">
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="AP38" s="46"/>
-      <c r="AQ38" s="46"/>
-      <c r="AR38" s="46"/>
-      <c r="AS38" s="46" t="s">
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="AT38" s="46"/>
-      <c r="AU38" s="46"/>
-      <c r="AV38" s="46"/>
-      <c r="AW38" s="46" t="s">
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="AX38" s="46"/>
-      <c r="AY38" s="46"/>
-      <c r="AZ38" s="46"/>
-      <c r="BE38" s="47" t="s">
+      <c r="AX38" s="55"/>
+      <c r="AY38" s="55"/>
+      <c r="AZ38" s="55"/>
+      <c r="BE38" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="BF38" s="48"/>
-      <c r="BG38" s="48"/>
-      <c r="BH38" s="49"/>
-      <c r="BI38" s="47" t="s">
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="45"/>
+      <c r="BI38" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="BJ38" s="48"/>
-      <c r="BK38" s="48"/>
-      <c r="BL38" s="49"/>
-      <c r="BM38" s="47" t="s">
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="45"/>
+      <c r="BM38" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="BN38" s="48"/>
-      <c r="BO38" s="48"/>
-      <c r="BP38" s="49"/>
-      <c r="BQ38" s="47" t="s">
+      <c r="BN38" s="44"/>
+      <c r="BO38" s="44"/>
+      <c r="BP38" s="45"/>
+      <c r="BQ38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="BR38" s="48"/>
-      <c r="BS38" s="48"/>
-      <c r="BT38" s="49"/>
-      <c r="BU38" s="47" t="s">
+      <c r="BR38" s="44"/>
+      <c r="BS38" s="44"/>
+      <c r="BT38" s="45"/>
+      <c r="BU38" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="BV38" s="48"/>
-      <c r="BW38" s="48"/>
-      <c r="BX38" s="49"/>
-      <c r="BY38" s="47" t="s">
+      <c r="BV38" s="44"/>
+      <c r="BW38" s="44"/>
+      <c r="BX38" s="45"/>
+      <c r="BY38" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="BZ38" s="48"/>
-      <c r="CA38" s="48"/>
-      <c r="CB38" s="49"/>
-      <c r="CC38" s="47" t="s">
+      <c r="BZ38" s="44"/>
+      <c r="CA38" s="44"/>
+      <c r="CB38" s="45"/>
+      <c r="CC38" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="CD38" s="48"/>
-      <c r="CE38" s="48"/>
-      <c r="CF38" s="49"/>
-      <c r="CG38" s="47" t="s">
+      <c r="CD38" s="44"/>
+      <c r="CE38" s="44"/>
+      <c r="CF38" s="45"/>
+      <c r="CG38" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="CH38" s="48"/>
-      <c r="CI38" s="48"/>
-      <c r="CJ38" s="49"/>
+      <c r="CH38" s="44"/>
+      <c r="CI38" s="44"/>
+      <c r="CJ38" s="45"/>
     </row>
     <row r="39" spans="1:88">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43" t="s">
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43" t="s">
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43" t="s">
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43" t="s">
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43" t="s">
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43" t="s">
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43" t="s">
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="43"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="43"/>
-      <c r="AS39" s="43" t="s">
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="43"/>
-      <c r="AV39" s="43"/>
-      <c r="AW39" s="43" t="s">
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="43"/>
-      <c r="AY39" s="43"/>
-      <c r="AZ39" s="43"/>
-      <c r="BE39" s="53" t="s">
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BE39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="54"/>
-      <c r="BG39" s="54"/>
-      <c r="BH39" s="55"/>
-      <c r="BI39" s="53" t="s">
+      <c r="BF39" s="47"/>
+      <c r="BG39" s="47"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="54"/>
-      <c r="BK39" s="54"/>
-      <c r="BL39" s="55"/>
-      <c r="BM39" s="53" t="s">
+      <c r="BJ39" s="47"/>
+      <c r="BK39" s="47"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="54"/>
-      <c r="BO39" s="54"/>
-      <c r="BP39" s="55"/>
-      <c r="BQ39" s="53" t="s">
+      <c r="BN39" s="47"/>
+      <c r="BO39" s="47"/>
+      <c r="BP39" s="48"/>
+      <c r="BQ39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="54"/>
-      <c r="BS39" s="54"/>
-      <c r="BT39" s="55"/>
-      <c r="BU39" s="53" t="s">
+      <c r="BR39" s="47"/>
+      <c r="BS39" s="47"/>
+      <c r="BT39" s="48"/>
+      <c r="BU39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BV39" s="54"/>
-      <c r="BW39" s="54"/>
-      <c r="BX39" s="55"/>
-      <c r="BY39" s="53" t="s">
+      <c r="BV39" s="47"/>
+      <c r="BW39" s="47"/>
+      <c r="BX39" s="48"/>
+      <c r="BY39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="54"/>
-      <c r="CA39" s="54"/>
-      <c r="CB39" s="55"/>
-      <c r="CC39" s="53" t="s">
+      <c r="BZ39" s="47"/>
+      <c r="CA39" s="47"/>
+      <c r="CB39" s="48"/>
+      <c r="CC39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="54"/>
-      <c r="CE39" s="54"/>
-      <c r="CF39" s="55"/>
-      <c r="CG39" s="53" t="s">
+      <c r="CD39" s="47"/>
+      <c r="CE39" s="47"/>
+      <c r="CF39" s="48"/>
+      <c r="CG39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="CH39" s="54"/>
-      <c r="CI39" s="54"/>
-      <c r="CJ39" s="55"/>
+      <c r="CH39" s="47"/>
+      <c r="CI39" s="47"/>
+      <c r="CJ39" s="48"/>
     </row>
     <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46" t="s">
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46" t="s">
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46" t="s">
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46" t="s">
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="46" t="s">
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="AL40" s="46"/>
-      <c r="AM40" s="46"/>
-      <c r="AN40" s="46"/>
-      <c r="AO40" s="46" t="s">
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="AP40" s="46"/>
-      <c r="AQ40" s="46"/>
-      <c r="AR40" s="46"/>
-      <c r="AS40" s="46" t="s">
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="AT40" s="46"/>
-      <c r="AU40" s="46"/>
-      <c r="AV40" s="46"/>
-      <c r="AW40" s="46" t="s">
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="AX40" s="46"/>
-      <c r="AY40" s="46"/>
-      <c r="AZ40" s="46"/>
-      <c r="BE40" s="47" t="s">
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BE40" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="BF40" s="48"/>
-      <c r="BG40" s="48"/>
-      <c r="BH40" s="49"/>
-      <c r="BI40" s="47" t="s">
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="BJ40" s="48"/>
-      <c r="BK40" s="48"/>
-      <c r="BL40" s="49"/>
-      <c r="BM40" s="47" t="s">
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="45"/>
+      <c r="BM40" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="BN40" s="48"/>
-      <c r="BO40" s="48"/>
-      <c r="BP40" s="49"/>
-      <c r="BQ40" s="47" t="s">
+      <c r="BN40" s="44"/>
+      <c r="BO40" s="44"/>
+      <c r="BP40" s="45"/>
+      <c r="BQ40" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="BR40" s="48"/>
-      <c r="BS40" s="48"/>
-      <c r="BT40" s="49"/>
-      <c r="BU40" s="47" t="s">
+      <c r="BR40" s="44"/>
+      <c r="BS40" s="44"/>
+      <c r="BT40" s="45"/>
+      <c r="BU40" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="BV40" s="48"/>
-      <c r="BW40" s="48"/>
-      <c r="BX40" s="49"/>
-      <c r="BY40" s="47" t="s">
+      <c r="BV40" s="44"/>
+      <c r="BW40" s="44"/>
+      <c r="BX40" s="45"/>
+      <c r="BY40" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="BZ40" s="48"/>
-      <c r="CA40" s="48"/>
-      <c r="CB40" s="49"/>
-      <c r="CC40" s="47" t="s">
+      <c r="BZ40" s="44"/>
+      <c r="CA40" s="44"/>
+      <c r="CB40" s="45"/>
+      <c r="CC40" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="48"/>
-      <c r="CE40" s="48"/>
-      <c r="CF40" s="49"/>
-      <c r="CG40" s="47" t="s">
+      <c r="CD40" s="44"/>
+      <c r="CE40" s="44"/>
+      <c r="CF40" s="45"/>
+      <c r="CG40" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="CH40" s="48"/>
-      <c r="CI40" s="48"/>
-      <c r="CJ40" s="49"/>
+      <c r="CH40" s="44"/>
+      <c r="CI40" s="44"/>
+      <c r="CJ40" s="45"/>
     </row>
     <row r="41" spans="1:88">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43" t="s">
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43" t="s">
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43" t="s">
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43" t="s">
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43" t="s">
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43" t="s">
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43" t="s">
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="43" t="s">
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="43"/>
-      <c r="AQ41" s="43"/>
-      <c r="AR41" s="43"/>
-      <c r="AS41" s="43" t="s">
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="43"/>
-      <c r="AU41" s="43"/>
-      <c r="AV41" s="43"/>
-      <c r="AW41" s="43" t="s">
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="43"/>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="43"/>
-      <c r="BE41" s="53" t="s">
+      <c r="AX41" s="52"/>
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BE41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="54"/>
-      <c r="BH41" s="55"/>
-      <c r="BI41" s="53" t="s">
+      <c r="BF41" s="47"/>
+      <c r="BG41" s="47"/>
+      <c r="BH41" s="48"/>
+      <c r="BI41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="54"/>
-      <c r="BK41" s="54"/>
-      <c r="BL41" s="55"/>
-      <c r="BM41" s="53" t="s">
+      <c r="BJ41" s="47"/>
+      <c r="BK41" s="47"/>
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="55"/>
-      <c r="BQ41" s="53" t="s">
+      <c r="BN41" s="47"/>
+      <c r="BO41" s="47"/>
+      <c r="BP41" s="48"/>
+      <c r="BQ41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="54"/>
-      <c r="BS41" s="54"/>
-      <c r="BT41" s="55"/>
-      <c r="BU41" s="53" t="s">
+      <c r="BR41" s="47"/>
+      <c r="BS41" s="47"/>
+      <c r="BT41" s="48"/>
+      <c r="BU41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BV41" s="54"/>
-      <c r="BW41" s="54"/>
-      <c r="BX41" s="55"/>
-      <c r="BY41" s="53" t="s">
+      <c r="BV41" s="47"/>
+      <c r="BW41" s="47"/>
+      <c r="BX41" s="48"/>
+      <c r="BY41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="54"/>
-      <c r="CA41" s="54"/>
-      <c r="CB41" s="55"/>
-      <c r="CC41" s="53" t="s">
+      <c r="BZ41" s="47"/>
+      <c r="CA41" s="47"/>
+      <c r="CB41" s="48"/>
+      <c r="CC41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="54"/>
-      <c r="CE41" s="54"/>
-      <c r="CF41" s="55"/>
-      <c r="CG41" s="53" t="s">
+      <c r="CD41" s="47"/>
+      <c r="CE41" s="47"/>
+      <c r="CF41" s="48"/>
+      <c r="CG41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="CH41" s="54"/>
-      <c r="CI41" s="54"/>
-      <c r="CJ41" s="55"/>
+      <c r="CH41" s="47"/>
+      <c r="CI41" s="47"/>
+      <c r="CJ41" s="48"/>
     </row>
     <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46" t="s">
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46" t="s">
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46" t="s">
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46" t="s">
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="46" t="s">
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="55"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="AL42" s="46"/>
-      <c r="AM42" s="46"/>
-      <c r="AN42" s="46"/>
-      <c r="AO42" s="46" t="s">
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="AP42" s="46"/>
-      <c r="AQ42" s="46"/>
-      <c r="AR42" s="46"/>
-      <c r="AS42" s="46" t="s">
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="AT42" s="46"/>
-      <c r="AU42" s="46"/>
-      <c r="AV42" s="46"/>
-      <c r="AW42" s="46" t="s">
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="AX42" s="46"/>
-      <c r="AY42" s="46"/>
-      <c r="AZ42" s="46"/>
-      <c r="BE42" s="47" t="s">
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="55"/>
+      <c r="AZ42" s="55"/>
+      <c r="BE42" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="BF42" s="48"/>
-      <c r="BG42" s="48"/>
-      <c r="BH42" s="49"/>
-      <c r="BI42" s="47" t="s">
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="BJ42" s="48"/>
-      <c r="BK42" s="48"/>
-      <c r="BL42" s="49"/>
-      <c r="BM42" s="47" t="s">
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="45"/>
+      <c r="BM42" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="BN42" s="48"/>
-      <c r="BO42" s="48"/>
-      <c r="BP42" s="49"/>
-      <c r="BQ42" s="47" t="s">
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44"/>
+      <c r="BP42" s="45"/>
+      <c r="BQ42" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="BR42" s="48"/>
-      <c r="BS42" s="48"/>
-      <c r="BT42" s="49"/>
-      <c r="BU42" s="47" t="s">
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="45"/>
+      <c r="BU42" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="BV42" s="48"/>
-      <c r="BW42" s="48"/>
-      <c r="BX42" s="49"/>
-      <c r="BY42" s="47" t="s">
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44"/>
+      <c r="BX42" s="45"/>
+      <c r="BY42" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="BZ42" s="48"/>
-      <c r="CA42" s="48"/>
-      <c r="CB42" s="49"/>
-      <c r="CC42" s="47" t="s">
+      <c r="BZ42" s="44"/>
+      <c r="CA42" s="44"/>
+      <c r="CB42" s="45"/>
+      <c r="CC42" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="CD42" s="48"/>
-      <c r="CE42" s="48"/>
-      <c r="CF42" s="49"/>
-      <c r="CG42" s="47" t="s">
+      <c r="CD42" s="44"/>
+      <c r="CE42" s="44"/>
+      <c r="CF42" s="45"/>
+      <c r="CG42" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="CH42" s="48"/>
-      <c r="CI42" s="48"/>
-      <c r="CJ42" s="49"/>
+      <c r="CH42" s="44"/>
+      <c r="CI42" s="44"/>
+      <c r="CJ42" s="45"/>
     </row>
     <row r="43" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="AV48" s="32"/>
       <c r="BA48" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB48" s="36">
         <v>40386</v>
@@ -8525,959 +8525,1248 @@
       <c r="BT48" s="39"/>
     </row>
     <row r="49" spans="1:72">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43" t="s">
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43" t="s">
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43" t="s">
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43" t="s">
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="43"/>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="43"/>
-      <c r="AC49" s="43" t="s">
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="43"/>
-      <c r="AE49" s="43"/>
-      <c r="AF49" s="43"/>
-      <c r="AG49" s="43" t="s">
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="43"/>
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="43" t="s">
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="43"/>
-      <c r="AM49" s="43"/>
-      <c r="AN49" s="43"/>
-      <c r="AO49" s="43" t="s">
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="43"/>
-      <c r="AQ49" s="43"/>
-      <c r="AR49" s="43"/>
-      <c r="AS49" s="43" t="s">
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="43"/>
-      <c r="AU49" s="43"/>
-      <c r="AV49" s="43"/>
-      <c r="BA49" s="53" t="s">
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="BA49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BB49" s="54"/>
-      <c r="BC49" s="54"/>
-      <c r="BD49" s="55"/>
-      <c r="BE49" s="53" t="s">
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
+      <c r="BD49" s="48"/>
+      <c r="BE49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BF49" s="54"/>
-      <c r="BG49" s="54"/>
-      <c r="BH49" s="55"/>
-      <c r="BI49" s="53" t="s">
+      <c r="BF49" s="47"/>
+      <c r="BG49" s="47"/>
+      <c r="BH49" s="48"/>
+      <c r="BI49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BJ49" s="54"/>
-      <c r="BK49" s="54"/>
-      <c r="BL49" s="55"/>
-      <c r="BM49" s="53" t="s">
+      <c r="BJ49" s="47"/>
+      <c r="BK49" s="47"/>
+      <c r="BL49" s="48"/>
+      <c r="BM49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BN49" s="54"/>
-      <c r="BO49" s="54"/>
-      <c r="BP49" s="55"/>
-      <c r="BQ49" s="53" t="s">
+      <c r="BN49" s="47"/>
+      <c r="BO49" s="47"/>
+      <c r="BP49" s="48"/>
+      <c r="BQ49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR49" s="54"/>
-      <c r="BS49" s="54"/>
-      <c r="BT49" s="55"/>
+      <c r="BR49" s="47"/>
+      <c r="BS49" s="47"/>
+      <c r="BT49" s="48"/>
     </row>
     <row r="50" spans="1:72" ht="30" customHeight="1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44" t="s">
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44" t="s">
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44" t="s">
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44" t="s">
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44" t="s">
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44" t="s">
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="AD50" s="44"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44" t="s">
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44" t="s">
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="44"/>
-      <c r="AN50" s="44"/>
-      <c r="AO50" s="44" t="s">
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="AP50" s="44"/>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
-      <c r="AS50" s="44" t="s">
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AT50" s="44"/>
-      <c r="AU50" s="44"/>
-      <c r="AV50" s="44"/>
-      <c r="BA50" s="47" t="s">
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="53"/>
+      <c r="AV50" s="53"/>
+      <c r="BA50" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="BB50" s="48"/>
-      <c r="BC50" s="48"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="47" t="s">
+      <c r="BB50" s="44"/>
+      <c r="BC50" s="44"/>
+      <c r="BD50" s="45"/>
+      <c r="BE50" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="BF50" s="48"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="49"/>
-      <c r="BI50" s="47" t="s">
+      <c r="BF50" s="44"/>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="45"/>
+      <c r="BI50" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="BJ50" s="48"/>
-      <c r="BK50" s="48"/>
-      <c r="BL50" s="49"/>
-      <c r="BM50" s="47" t="s">
+      <c r="BJ50" s="44"/>
+      <c r="BK50" s="44"/>
+      <c r="BL50" s="45"/>
+      <c r="BM50" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="BN50" s="48"/>
-      <c r="BO50" s="48"/>
-      <c r="BP50" s="49"/>
-      <c r="BQ50" s="47" t="s">
+      <c r="BN50" s="44"/>
+      <c r="BO50" s="44"/>
+      <c r="BP50" s="45"/>
+      <c r="BQ50" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="BR50" s="48"/>
-      <c r="BS50" s="48"/>
-      <c r="BT50" s="49"/>
+      <c r="BR50" s="44"/>
+      <c r="BS50" s="44"/>
+      <c r="BT50" s="45"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45" t="s">
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45" t="s">
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45" t="s">
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45" t="s">
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45" t="s">
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45" t="s">
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45" t="s">
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="45"/>
-      <c r="AK51" s="45" t="s">
+      <c r="AH51" s="54"/>
+      <c r="AI51" s="54"/>
+      <c r="AJ51" s="54"/>
+      <c r="AK51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="45"/>
-      <c r="AN51" s="45"/>
-      <c r="AO51" s="45" t="s">
+      <c r="AL51" s="54"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="54"/>
+      <c r="AO51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="45"/>
-      <c r="AQ51" s="45"/>
-      <c r="AR51" s="45"/>
-      <c r="AS51" s="45" t="s">
+      <c r="AP51" s="54"/>
+      <c r="AQ51" s="54"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="45"/>
-      <c r="AU51" s="45"/>
-      <c r="AV51" s="45"/>
-      <c r="BA51" s="56" t="s">
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
+      <c r="AV51" s="54"/>
+      <c r="BA51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BB51" s="57"/>
-      <c r="BC51" s="57"/>
-      <c r="BD51" s="58"/>
-      <c r="BE51" s="56" t="s">
+      <c r="BB51" s="50"/>
+      <c r="BC51" s="50"/>
+      <c r="BD51" s="51"/>
+      <c r="BE51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="57"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="58"/>
-      <c r="BI51" s="56" t="s">
+      <c r="BF51" s="50"/>
+      <c r="BG51" s="50"/>
+      <c r="BH51" s="51"/>
+      <c r="BI51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ51" s="57"/>
-      <c r="BK51" s="57"/>
-      <c r="BL51" s="58"/>
-      <c r="BM51" s="56" t="s">
+      <c r="BJ51" s="50"/>
+      <c r="BK51" s="50"/>
+      <c r="BL51" s="51"/>
+      <c r="BM51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="57"/>
-      <c r="BO51" s="57"/>
-      <c r="BP51" s="58"/>
-      <c r="BQ51" s="56" t="s">
+      <c r="BN51" s="50"/>
+      <c r="BO51" s="50"/>
+      <c r="BP51" s="51"/>
+      <c r="BQ51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR51" s="57"/>
-      <c r="BS51" s="57"/>
-      <c r="BT51" s="58"/>
+      <c r="BR51" s="50"/>
+      <c r="BS51" s="50"/>
+      <c r="BT51" s="51"/>
     </row>
     <row r="52" spans="1:72" s="5" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46" t="s">
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46" t="s">
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46" t="s">
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46" t="s">
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46" t="s">
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46" t="s">
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46" t="s">
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46" t="s">
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="55"/>
+      <c r="AK52" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="46"/>
-      <c r="AN52" s="46"/>
-      <c r="AO52" s="46" t="s">
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="55"/>
+      <c r="AO52" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="AP52" s="46"/>
-      <c r="AQ52" s="46"/>
-      <c r="AR52" s="46"/>
-      <c r="AS52" s="46" t="s">
+      <c r="AP52" s="55"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="55"/>
+      <c r="AS52" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AT52" s="46"/>
-      <c r="AU52" s="46"/>
-      <c r="AV52" s="46"/>
-      <c r="BA52" s="47" t="s">
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="55"/>
+      <c r="BA52" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="BB52" s="48"/>
-      <c r="BC52" s="48"/>
-      <c r="BD52" s="49"/>
-      <c r="BE52" s="47" t="s">
+      <c r="BB52" s="44"/>
+      <c r="BC52" s="44"/>
+      <c r="BD52" s="45"/>
+      <c r="BE52" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="BF52" s="48"/>
-      <c r="BG52" s="48"/>
-      <c r="BH52" s="49"/>
-      <c r="BI52" s="47" t="s">
+      <c r="BF52" s="44"/>
+      <c r="BG52" s="44"/>
+      <c r="BH52" s="45"/>
+      <c r="BI52" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="BJ52" s="48"/>
-      <c r="BK52" s="48"/>
-      <c r="BL52" s="49"/>
-      <c r="BM52" s="47" t="s">
+      <c r="BJ52" s="44"/>
+      <c r="BK52" s="44"/>
+      <c r="BL52" s="45"/>
+      <c r="BM52" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="BN52" s="48"/>
-      <c r="BO52" s="48"/>
-      <c r="BP52" s="49"/>
-      <c r="BQ52" s="47" t="s">
+      <c r="BN52" s="44"/>
+      <c r="BO52" s="44"/>
+      <c r="BP52" s="45"/>
+      <c r="BQ52" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="BR52" s="48"/>
-      <c r="BS52" s="48"/>
-      <c r="BT52" s="49"/>
+      <c r="BR52" s="44"/>
+      <c r="BS52" s="44"/>
+      <c r="BT52" s="45"/>
     </row>
     <row r="53" spans="1:72">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43" t="s">
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43" t="s">
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43" t="s">
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43" t="s">
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="43" t="s">
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="43"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="43" t="s">
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="43"/>
-      <c r="AJ53" s="43"/>
-      <c r="AK53" s="43" t="s">
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="43"/>
-      <c r="AM53" s="43"/>
-      <c r="AN53" s="43"/>
-      <c r="AO53" s="43" t="s">
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
+      <c r="AO53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="43"/>
-      <c r="AQ53" s="43"/>
-      <c r="AR53" s="43"/>
-      <c r="AS53" s="43" t="s">
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="52"/>
+      <c r="AS53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="43"/>
-      <c r="AU53" s="43"/>
-      <c r="AV53" s="43"/>
-      <c r="BA53" s="53" t="s">
+      <c r="AT53" s="52"/>
+      <c r="AU53" s="52"/>
+      <c r="AV53" s="52"/>
+      <c r="BA53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BB53" s="54"/>
-      <c r="BC53" s="54"/>
-      <c r="BD53" s="55"/>
-      <c r="BE53" s="53" t="s">
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
+      <c r="BD53" s="48"/>
+      <c r="BE53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BF53" s="54"/>
-      <c r="BG53" s="54"/>
-      <c r="BH53" s="55"/>
-      <c r="BI53" s="53" t="s">
+      <c r="BF53" s="47"/>
+      <c r="BG53" s="47"/>
+      <c r="BH53" s="48"/>
+      <c r="BI53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ53" s="54"/>
-      <c r="BK53" s="54"/>
-      <c r="BL53" s="55"/>
-      <c r="BM53" s="53" t="s">
+      <c r="BJ53" s="47"/>
+      <c r="BK53" s="47"/>
+      <c r="BL53" s="48"/>
+      <c r="BM53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BN53" s="54"/>
-      <c r="BO53" s="54"/>
-      <c r="BP53" s="55"/>
-      <c r="BQ53" s="53" t="s">
+      <c r="BN53" s="47"/>
+      <c r="BO53" s="47"/>
+      <c r="BP53" s="48"/>
+      <c r="BQ53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR53" s="54"/>
-      <c r="BS53" s="54"/>
-      <c r="BT53" s="55"/>
+      <c r="BR53" s="47"/>
+      <c r="BS53" s="47"/>
+      <c r="BT53" s="48"/>
     </row>
     <row r="54" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46" t="s">
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46" t="s">
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46" t="s">
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46" t="s">
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46" t="s">
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46" t="s">
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="46"/>
-      <c r="AF54" s="46"/>
-      <c r="AG54" s="46" t="s">
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="AH54" s="46"/>
-      <c r="AI54" s="46"/>
-      <c r="AJ54" s="46"/>
-      <c r="AK54" s="46" t="s">
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="55"/>
+      <c r="AK54" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="AL54" s="46"/>
-      <c r="AM54" s="46"/>
-      <c r="AN54" s="46"/>
-      <c r="AO54" s="46" t="s">
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="55"/>
+      <c r="AO54" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="AP54" s="46"/>
-      <c r="AQ54" s="46"/>
-      <c r="AR54" s="46"/>
-      <c r="AS54" s="46" t="s">
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="55"/>
+      <c r="AS54" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="AT54" s="46"/>
-      <c r="AU54" s="46"/>
-      <c r="AV54" s="46"/>
-      <c r="BA54" s="47" t="s">
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="55"/>
+      <c r="BA54" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="BB54" s="48"/>
-      <c r="BC54" s="48"/>
-      <c r="BD54" s="49"/>
-      <c r="BE54" s="47" t="s">
+      <c r="BB54" s="44"/>
+      <c r="BC54" s="44"/>
+      <c r="BD54" s="45"/>
+      <c r="BE54" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="BF54" s="48"/>
-      <c r="BG54" s="48"/>
-      <c r="BH54" s="49"/>
-      <c r="BI54" s="47" t="s">
+      <c r="BF54" s="44"/>
+      <c r="BG54" s="44"/>
+      <c r="BH54" s="45"/>
+      <c r="BI54" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="BJ54" s="48"/>
-      <c r="BK54" s="48"/>
-      <c r="BL54" s="49"/>
-      <c r="BM54" s="47" t="s">
+      <c r="BJ54" s="44"/>
+      <c r="BK54" s="44"/>
+      <c r="BL54" s="45"/>
+      <c r="BM54" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="BN54" s="48"/>
-      <c r="BO54" s="48"/>
-      <c r="BP54" s="49"/>
-      <c r="BQ54" s="47" t="s">
+      <c r="BN54" s="44"/>
+      <c r="BO54" s="44"/>
+      <c r="BP54" s="45"/>
+      <c r="BQ54" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="BR54" s="48"/>
-      <c r="BS54" s="48"/>
-      <c r="BT54" s="49"/>
+      <c r="BR54" s="44"/>
+      <c r="BS54" s="44"/>
+      <c r="BT54" s="45"/>
     </row>
     <row r="55" spans="1:72">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43" t="s">
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43" t="s">
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43" t="s">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43" t="s">
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43" t="s">
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="43"/>
-      <c r="AC55" s="43" t="s">
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="43"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
-      <c r="AG55" s="43" t="s">
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="43"/>
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="43" t="s">
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="43"/>
-      <c r="AM55" s="43"/>
-      <c r="AN55" s="43"/>
-      <c r="AO55" s="43" t="s">
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="43"/>
-      <c r="AQ55" s="43"/>
-      <c r="AR55" s="43"/>
-      <c r="AS55" s="43" t="s">
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="52"/>
+      <c r="AS55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="43"/>
-      <c r="AU55" s="43"/>
-      <c r="AV55" s="43"/>
-      <c r="BA55" s="53" t="s">
+      <c r="AT55" s="52"/>
+      <c r="AU55" s="52"/>
+      <c r="AV55" s="52"/>
+      <c r="BA55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BB55" s="54"/>
-      <c r="BC55" s="54"/>
-      <c r="BD55" s="55"/>
-      <c r="BE55" s="53" t="s">
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
+      <c r="BD55" s="48"/>
+      <c r="BE55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BF55" s="54"/>
-      <c r="BG55" s="54"/>
-      <c r="BH55" s="55"/>
-      <c r="BI55" s="53" t="s">
+      <c r="BF55" s="47"/>
+      <c r="BG55" s="47"/>
+      <c r="BH55" s="48"/>
+      <c r="BI55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BJ55" s="54"/>
-      <c r="BK55" s="54"/>
-      <c r="BL55" s="55"/>
-      <c r="BM55" s="53" t="s">
+      <c r="BJ55" s="47"/>
+      <c r="BK55" s="47"/>
+      <c r="BL55" s="48"/>
+      <c r="BM55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BN55" s="54"/>
-      <c r="BO55" s="54"/>
-      <c r="BP55" s="55"/>
-      <c r="BQ55" s="53" t="s">
+      <c r="BN55" s="47"/>
+      <c r="BO55" s="47"/>
+      <c r="BP55" s="48"/>
+      <c r="BQ55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR55" s="54"/>
-      <c r="BS55" s="54"/>
-      <c r="BT55" s="55"/>
+      <c r="BR55" s="47"/>
+      <c r="BS55" s="47"/>
+      <c r="BT55" s="48"/>
     </row>
     <row r="56" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46" t="s">
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46" t="s">
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46" t="s">
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46" t="s">
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46" t="s">
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46" t="s">
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
-      <c r="AC56" s="46" t="s">
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AD56" s="46"/>
-      <c r="AE56" s="46"/>
-      <c r="AF56" s="46"/>
-      <c r="AG56" s="46" t="s">
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="46"/>
-      <c r="AJ56" s="46"/>
-      <c r="AK56" s="46" t="s">
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="55"/>
+      <c r="AK56" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="AL56" s="46"/>
-      <c r="AM56" s="46"/>
-      <c r="AN56" s="46"/>
-      <c r="AO56" s="46" t="s">
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="AP56" s="46"/>
-      <c r="AQ56" s="46"/>
-      <c r="AR56" s="46"/>
-      <c r="AS56" s="46" t="s">
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AT56" s="46"/>
-      <c r="AU56" s="46"/>
-      <c r="AV56" s="46"/>
-      <c r="BA56" s="47" t="s">
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
+      <c r="BA56" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="BB56" s="48"/>
-      <c r="BC56" s="48"/>
-      <c r="BD56" s="49"/>
-      <c r="BE56" s="47" t="s">
+      <c r="BB56" s="44"/>
+      <c r="BC56" s="44"/>
+      <c r="BD56" s="45"/>
+      <c r="BE56" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="BF56" s="48"/>
-      <c r="BG56" s="48"/>
-      <c r="BH56" s="49"/>
-      <c r="BI56" s="47" t="s">
+      <c r="BF56" s="44"/>
+      <c r="BG56" s="44"/>
+      <c r="BH56" s="45"/>
+      <c r="BI56" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="BJ56" s="48"/>
-      <c r="BK56" s="48"/>
-      <c r="BL56" s="49"/>
-      <c r="BM56" s="47" t="s">
+      <c r="BJ56" s="44"/>
+      <c r="BK56" s="44"/>
+      <c r="BL56" s="45"/>
+      <c r="BM56" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="BN56" s="48"/>
-      <c r="BO56" s="48"/>
-      <c r="BP56" s="49"/>
-      <c r="BQ56" s="47" t="s">
+      <c r="BN56" s="44"/>
+      <c r="BO56" s="44"/>
+      <c r="BP56" s="45"/>
+      <c r="BQ56" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="BR56" s="48"/>
-      <c r="BS56" s="48"/>
-      <c r="BT56" s="49"/>
+      <c r="BR56" s="44"/>
+      <c r="BS56" s="44"/>
+      <c r="BT56" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="553">
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BQ49:BT49"/>
-    <mergeCell ref="BQ50:BT50"/>
-    <mergeCell ref="BQ51:BT51"/>
-    <mergeCell ref="BQ52:BT52"/>
-    <mergeCell ref="BQ53:BT53"/>
-    <mergeCell ref="BQ54:BT54"/>
-    <mergeCell ref="BQ55:BT55"/>
-    <mergeCell ref="BQ56:BT56"/>
-    <mergeCell ref="BI49:BL49"/>
-    <mergeCell ref="BI50:BL50"/>
-    <mergeCell ref="BI51:BL51"/>
-    <mergeCell ref="BI52:BL52"/>
-    <mergeCell ref="BI53:BL53"/>
-    <mergeCell ref="BI54:BL54"/>
-    <mergeCell ref="BI55:BL55"/>
-    <mergeCell ref="BI56:BL56"/>
-    <mergeCell ref="BM49:BP49"/>
-    <mergeCell ref="BM50:BP50"/>
-    <mergeCell ref="BM51:BP51"/>
-    <mergeCell ref="BM52:BP52"/>
-    <mergeCell ref="BM53:BP53"/>
-    <mergeCell ref="BM54:BP54"/>
-    <mergeCell ref="BM55:BP55"/>
-    <mergeCell ref="BM56:BP56"/>
-    <mergeCell ref="BA49:BD49"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="BA51:BD51"/>
-    <mergeCell ref="BA52:BD52"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="BA54:BD54"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BE49:BH49"/>
-    <mergeCell ref="BE50:BH50"/>
-    <mergeCell ref="BE51:BH51"/>
-    <mergeCell ref="BE52:BH52"/>
-    <mergeCell ref="BE53:BH53"/>
-    <mergeCell ref="BE54:BH54"/>
-    <mergeCell ref="BE55:BH55"/>
-    <mergeCell ref="BE56:BH56"/>
-    <mergeCell ref="CC35:CF35"/>
-    <mergeCell ref="CC36:CF36"/>
-    <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="CC38:CF38"/>
-    <mergeCell ref="CC39:CF39"/>
-    <mergeCell ref="CC40:CF40"/>
-    <mergeCell ref="CC41:CF41"/>
-    <mergeCell ref="CC42:CF42"/>
-    <mergeCell ref="CG35:CJ35"/>
-    <mergeCell ref="CG36:CJ36"/>
-    <mergeCell ref="CG37:CJ37"/>
-    <mergeCell ref="CG38:CJ38"/>
-    <mergeCell ref="CG39:CJ39"/>
-    <mergeCell ref="CG40:CJ40"/>
-    <mergeCell ref="CG41:CJ41"/>
-    <mergeCell ref="CG42:CJ42"/>
-    <mergeCell ref="BU35:BX35"/>
-    <mergeCell ref="BU36:BX36"/>
-    <mergeCell ref="BU37:BX37"/>
-    <mergeCell ref="BU38:BX38"/>
-    <mergeCell ref="BU39:BX39"/>
-    <mergeCell ref="BU40:BX40"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BU42:BX42"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY36:CB36"/>
-    <mergeCell ref="BY37:CB37"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY39:CB39"/>
-    <mergeCell ref="BY40:CB40"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY42:CB42"/>
-    <mergeCell ref="BM35:BP35"/>
-    <mergeCell ref="BM36:BP36"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BM38:BP38"/>
-    <mergeCell ref="BM39:BP39"/>
-    <mergeCell ref="BM40:BP40"/>
-    <mergeCell ref="BM41:BP41"/>
-    <mergeCell ref="BM42:BP42"/>
-    <mergeCell ref="BQ35:BT35"/>
-    <mergeCell ref="BQ36:BT36"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BQ38:BT38"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="BQ40:BT40"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BQ42:BT42"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="BE42:BH42"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BI42:BL42"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
     <mergeCell ref="BQ7:BT7"/>
     <mergeCell ref="BQ8:BT8"/>
     <mergeCell ref="BQ9:BT9"/>
@@ -9502,415 +9791,126 @@
     <mergeCell ref="BM12:BP12"/>
     <mergeCell ref="BM13:BP13"/>
     <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="CG35:CJ35"/>
+    <mergeCell ref="CG36:CJ36"/>
+    <mergeCell ref="CG37:CJ37"/>
+    <mergeCell ref="CG38:CJ38"/>
+    <mergeCell ref="CG39:CJ39"/>
+    <mergeCell ref="CG40:CJ40"/>
+    <mergeCell ref="CG41:CJ41"/>
+    <mergeCell ref="CG42:CJ42"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="BQ50:BT50"/>
+    <mergeCell ref="BQ51:BT51"/>
+    <mergeCell ref="BQ52:BT52"/>
+    <mergeCell ref="BQ53:BT53"/>
+    <mergeCell ref="BQ54:BT54"/>
+    <mergeCell ref="BQ55:BT55"/>
+    <mergeCell ref="BQ56:BT56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BQ49:BT49"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="BM35:BP35"/>
+    <mergeCell ref="BM36:BP36"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BM39:BP39"/>
+    <mergeCell ref="BM40:BP40"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ35:BT35"/>
+    <mergeCell ref="BQ36:BT36"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BQ38:BT38"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="BQ40:BT40"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB46 BJ46 BR46 BJ32 BR32 BZ32 CH32 AX4 BF4 BN4 BF18 AP46 AL46 AH46 AD46 Z46 V46 R46 J18 N18 R18 V18 Z18 AD18 AH18 AL18 AP18 AT18 B32 B18 AX18 F32 J32 N32 R32 V32 Z32 AD32 AH32 AL32 AP32 AT32 AX32 F46 J46 N46 B46 F18 AL4 AH4 AD4 Z4 V4 R4 N4 J4 F4 B4 AT46 BR4 BJ4 BB4 AT4 CD32 BV32 BN32 BF32 BN46 BF46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1826,6 +1826,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1834,6 +1846,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1852,27 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2608,8 +2608,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA48" sqref="BA48"/>
+    <sheetView tabSelected="1" topLeftCell="BW25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CF29" sqref="CF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2701,11 +2701,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3550,836 +3550,836 @@
       <c r="BT6" s="42"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52" t="s">
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52" t="s">
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AS7" s="52" t="s">
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AS7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="46" t="s">
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="47"/>
-      <c r="AY7" s="47"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="46" t="s">
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="46" t="s">
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="46" t="s">
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="46" t="s">
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="47"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="48"/>
-      <c r="BQ7" s="46" t="s">
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="55"/>
+      <c r="BQ7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="48"/>
+      <c r="BR7" s="54"/>
+      <c r="BS7" s="54"/>
+      <c r="BT7" s="55"/>
     </row>
     <row r="8" spans="1:72" ht="44.25" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="53" t="s">
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="55" t="s">
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53" t="s">
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="55" t="s">
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53" t="s">
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AS8" s="53" t="s">
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AS8" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="43" t="s">
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="43" t="s">
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="43" t="s">
+      <c r="BB8" s="48"/>
+      <c r="BC8" s="48"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="43" t="s">
+      <c r="BF8" s="48"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="43" t="s">
+      <c r="BJ8" s="48"/>
+      <c r="BK8" s="48"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="43" t="s">
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="48"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="45"/>
+      <c r="BR8" s="48"/>
+      <c r="BS8" s="48"/>
+      <c r="BT8" s="49"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54" t="s">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54" t="s">
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54" t="s">
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54" t="s">
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AS9" s="54" t="s">
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AS9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="49" t="s">
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="49" t="s">
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="49" t="s">
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="58"/>
+      <c r="BE9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="49" t="s">
+      <c r="BF9" s="57"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="58"/>
+      <c r="BI9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="49" t="s">
+      <c r="BJ9" s="57"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="58"/>
+      <c r="BM9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="51"/>
-      <c r="BQ9" s="49" t="s">
+      <c r="BN9" s="57"/>
+      <c r="BO9" s="57"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="50"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="51"/>
+      <c r="BR9" s="57"/>
+      <c r="BS9" s="57"/>
+      <c r="BT9" s="58"/>
     </row>
     <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55" t="s">
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55" t="s">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55" t="s">
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55" t="s">
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55" t="s">
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AS10" s="55" t="s">
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AS10" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="43" t="s">
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="43" t="s">
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="45"/>
-      <c r="BE10" s="43" t="s">
+      <c r="BB10" s="48"/>
+      <c r="BC10" s="48"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="45"/>
-      <c r="BI10" s="43" t="s">
+      <c r="BF10" s="48"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="43" t="s">
+      <c r="BJ10" s="48"/>
+      <c r="BK10" s="48"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="43" t="s">
+      <c r="BN10" s="48"/>
+      <c r="BO10" s="48"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="45"/>
+      <c r="BR10" s="48"/>
+      <c r="BS10" s="48"/>
+      <c r="BT10" s="49"/>
     </row>
     <row r="11" spans="1:72">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52" t="s">
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52" t="s">
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52" t="s">
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52" t="s">
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52" t="s">
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AS11" s="52" t="s">
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AS11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="46" t="s">
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="46" t="s">
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="46" t="s">
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="46" t="s">
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BH11" s="55"/>
+      <c r="BI11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="46" t="s">
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="55"/>
+      <c r="BM11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="48"/>
-      <c r="BQ11" s="46" t="s">
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="55"/>
+      <c r="BQ11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="48"/>
+      <c r="BR11" s="54"/>
+      <c r="BS11" s="54"/>
+      <c r="BT11" s="55"/>
     </row>
     <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55" t="s">
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55" t="s">
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55" t="s">
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55" t="s">
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55" t="s">
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55" t="s">
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AS12" s="55" t="s">
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AS12" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="43" t="s">
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="43" t="s">
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="43" t="s">
+      <c r="BB12" s="48"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="43" t="s">
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="43" t="s">
+      <c r="BJ12" s="48"/>
+      <c r="BK12" s="48"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="43" t="s">
+      <c r="BN12" s="48"/>
+      <c r="BO12" s="48"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="BR12" s="44"/>
-      <c r="BS12" s="44"/>
-      <c r="BT12" s="45"/>
+      <c r="BR12" s="48"/>
+      <c r="BS12" s="48"/>
+      <c r="BT12" s="49"/>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52" t="s">
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52" t="s">
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52" t="s">
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52" t="s">
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52" t="s">
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AS13" s="52" t="s">
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AS13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="46" t="s">
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="46" t="s">
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="46" t="s">
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="46" t="s">
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="55"/>
+      <c r="BI13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="46" t="s">
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="55"/>
+      <c r="BM13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="48"/>
-      <c r="BQ13" s="46" t="s">
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="55"/>
+      <c r="BQ13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="48"/>
+      <c r="BR13" s="54"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="55"/>
     </row>
     <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55" t="s">
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55" t="s">
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55" t="s">
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55" t="s">
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55" t="s">
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55" t="s">
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AS14" s="55" t="s">
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AS14" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="43" t="s">
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="43" t="s">
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="43" t="s">
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="43" t="s">
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="43" t="s">
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="BN14" s="44"/>
-      <c r="BO14" s="44"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="43" t="s">
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="BR14" s="44"/>
-      <c r="BS14" s="44"/>
-      <c r="BT14" s="45"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="49"/>
     </row>
     <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
@@ -4995,692 +4995,692 @@
       <c r="BH20" s="39"/>
     </row>
     <row r="21" spans="1:88">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52" t="s">
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52" t="s">
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52" t="s">
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52" t="s">
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52" t="s">
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52" t="s">
+      <c r="AP21" s="44"/>
+      <c r="AQ21" s="44"/>
+      <c r="AR21" s="44"/>
+      <c r="AS21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52" t="s">
+      <c r="AT21" s="44"/>
+      <c r="AU21" s="44"/>
+      <c r="AV21" s="44"/>
+      <c r="AW21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BE21" s="46" t="s">
+      <c r="AX21" s="44"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="44"/>
+      <c r="BE21" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="47"/>
-      <c r="BG21" s="47"/>
-      <c r="BH21" s="48"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="55"/>
     </row>
     <row r="22" spans="1:88">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53" t="s">
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53" t="s">
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53" t="s">
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53" t="s">
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53" t="s">
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53" t="s">
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53" t="s">
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53" t="s">
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53" t="s">
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BE22" s="43" t="s">
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BE22" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="45"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="49"/>
     </row>
     <row r="23" spans="1:88">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54" t="s">
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54" t="s">
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54" t="s">
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54" t="s">
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54" t="s">
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54" t="s">
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54" t="s">
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54" t="s">
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
+      <c r="AS23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54" t="s">
+      <c r="AT23" s="46"/>
+      <c r="AU23" s="46"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BE23" s="49" t="s">
+      <c r="AX23" s="46"/>
+      <c r="AY23" s="46"/>
+      <c r="AZ23" s="46"/>
+      <c r="BE23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="50"/>
-      <c r="BG23" s="50"/>
-      <c r="BH23" s="51"/>
+      <c r="BF23" s="57"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="58"/>
     </row>
     <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55" t="s">
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55" t="s">
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55" t="s">
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55" t="s">
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55" t="s">
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55" t="s">
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55" t="s">
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55" t="s">
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55" t="s">
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55" t="s">
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BE24" s="43" t="s">
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43"/>
+      <c r="BE24" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="45"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="49"/>
     </row>
     <row r="25" spans="1:88" ht="15" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52" t="s">
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52" t="s">
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52" t="s">
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52" t="s">
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52" t="s">
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52" t="s">
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52" t="s">
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52" t="s">
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BE25" s="46" t="s">
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BE25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="47"/>
-      <c r="BG25" s="47"/>
-      <c r="BH25" s="48"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="55"/>
     </row>
     <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55" t="s">
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55" t="s">
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="43" t="s">
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="55" t="s">
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55" t="s">
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55" t="s">
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55" t="s">
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55" t="s">
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="55"/>
-      <c r="AW26" s="55" t="s">
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="AX26" s="55"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BE26" s="43" t="s">
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BE26" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="45"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="49"/>
     </row>
     <row r="27" spans="1:88">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52" t="s">
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52" t="s">
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52" t="s">
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52" t="s">
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52" t="s">
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52" t="s">
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52" t="s">
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52" t="s">
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="44"/>
+      <c r="AW27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BE27" s="46" t="s">
+      <c r="AX27" s="44"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="44"/>
+      <c r="BE27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="47"/>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="48"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="55"/>
     </row>
     <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55" t="s">
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55" t="s">
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55" t="s">
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55" t="s">
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55" t="s">
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55" t="s">
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55" t="s">
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55" t="s">
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
-      <c r="AW28" s="55" t="s">
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BE28" s="43" t="s">
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BE28" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="45"/>
+      <c r="BF28" s="48"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="49"/>
     </row>
     <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -6648,1022 +6648,1022 @@
       <c r="CJ34" s="39"/>
     </row>
     <row r="35" spans="1:88">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52" t="s">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52" t="s">
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52" t="s">
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52" t="s">
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52" t="s">
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52" t="s">
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="52"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="52"/>
-      <c r="AO35" s="52" t="s">
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="52"/>
-      <c r="AR35" s="52"/>
-      <c r="AS35" s="52" t="s">
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="52"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="52"/>
-      <c r="AW35" s="52" t="s">
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="52"/>
-      <c r="AY35" s="52"/>
-      <c r="AZ35" s="52"/>
-      <c r="BE35" s="46" t="s">
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BE35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="47"/>
-      <c r="BG35" s="47"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="46" t="s">
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="55"/>
+      <c r="BI35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="47"/>
-      <c r="BK35" s="47"/>
-      <c r="BL35" s="48"/>
-      <c r="BM35" s="46" t="s">
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="55"/>
+      <c r="BM35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="47"/>
-      <c r="BO35" s="47"/>
-      <c r="BP35" s="48"/>
-      <c r="BQ35" s="46" t="s">
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="55"/>
+      <c r="BQ35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="47"/>
-      <c r="BS35" s="47"/>
-      <c r="BT35" s="48"/>
-      <c r="BU35" s="46" t="s">
+      <c r="BR35" s="54"/>
+      <c r="BS35" s="54"/>
+      <c r="BT35" s="55"/>
+      <c r="BU35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BV35" s="47"/>
-      <c r="BW35" s="47"/>
-      <c r="BX35" s="48"/>
-      <c r="BY35" s="46" t="s">
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="54"/>
+      <c r="BX35" s="55"/>
+      <c r="BY35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="47"/>
-      <c r="CA35" s="47"/>
-      <c r="CB35" s="48"/>
-      <c r="CC35" s="46" t="s">
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="55"/>
+      <c r="CC35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="47"/>
-      <c r="CE35" s="47"/>
-      <c r="CF35" s="48"/>
-      <c r="CG35" s="46" t="s">
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="55"/>
+      <c r="CG35" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="CH35" s="47"/>
-      <c r="CI35" s="47"/>
-      <c r="CJ35" s="48"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="55"/>
     </row>
     <row r="36" spans="1:88" ht="45" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="55" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="55" t="s">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53" t="s">
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53" t="s">
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53" t="s">
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="55" t="s">
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53" t="s">
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53" t="s">
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53" t="s">
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53" t="s">
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="53"/>
-      <c r="AS36" s="53" t="s">
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="53"/>
-      <c r="AU36" s="53"/>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53" t="s">
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BE36" s="43" t="s">
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BE36" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="BF36" s="44"/>
-      <c r="BG36" s="44"/>
-      <c r="BH36" s="45"/>
-      <c r="BI36" s="43" t="s">
+      <c r="BF36" s="48"/>
+      <c r="BG36" s="48"/>
+      <c r="BH36" s="49"/>
+      <c r="BI36" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="BJ36" s="44"/>
-      <c r="BK36" s="44"/>
-      <c r="BL36" s="45"/>
-      <c r="BM36" s="43" t="s">
+      <c r="BJ36" s="48"/>
+      <c r="BK36" s="48"/>
+      <c r="BL36" s="49"/>
+      <c r="BM36" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="BN36" s="44"/>
-      <c r="BO36" s="44"/>
-      <c r="BP36" s="45"/>
-      <c r="BQ36" s="43" t="s">
+      <c r="BN36" s="48"/>
+      <c r="BO36" s="48"/>
+      <c r="BP36" s="49"/>
+      <c r="BQ36" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="BR36" s="44"/>
-      <c r="BS36" s="44"/>
-      <c r="BT36" s="45"/>
-      <c r="BU36" s="43" t="s">
+      <c r="BR36" s="48"/>
+      <c r="BS36" s="48"/>
+      <c r="BT36" s="49"/>
+      <c r="BU36" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="BV36" s="44"/>
-      <c r="BW36" s="44"/>
-      <c r="BX36" s="45"/>
-      <c r="BY36" s="43" t="s">
+      <c r="BV36" s="48"/>
+      <c r="BW36" s="48"/>
+      <c r="BX36" s="49"/>
+      <c r="BY36" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="BZ36" s="44"/>
-      <c r="CA36" s="44"/>
-      <c r="CB36" s="45"/>
-      <c r="CC36" s="43" t="s">
+      <c r="BZ36" s="48"/>
+      <c r="CA36" s="48"/>
+      <c r="CB36" s="49"/>
+      <c r="CC36" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="CD36" s="44"/>
-      <c r="CE36" s="44"/>
-      <c r="CF36" s="45"/>
-      <c r="CG36" s="43" t="s">
+      <c r="CD36" s="48"/>
+      <c r="CE36" s="48"/>
+      <c r="CF36" s="49"/>
+      <c r="CG36" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="CH36" s="44"/>
-      <c r="CI36" s="44"/>
-      <c r="CJ36" s="45"/>
+      <c r="CH36" s="48"/>
+      <c r="CI36" s="48"/>
+      <c r="CJ36" s="49"/>
     </row>
     <row r="37" spans="1:88">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54" t="s">
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54" t="s">
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54" t="s">
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54" t="s">
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54" t="s">
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54" t="s">
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54" t="s">
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54" t="s">
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="54" t="s">
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="54"/>
-      <c r="AU37" s="54"/>
-      <c r="AV37" s="54"/>
-      <c r="AW37" s="54" t="s">
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="54"/>
-      <c r="AZ37" s="54"/>
-      <c r="BE37" s="49" t="s">
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BE37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="50"/>
-      <c r="BG37" s="50"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="49" t="s">
+      <c r="BF37" s="57"/>
+      <c r="BG37" s="57"/>
+      <c r="BH37" s="58"/>
+      <c r="BI37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="50"/>
-      <c r="BK37" s="50"/>
-      <c r="BL37" s="51"/>
-      <c r="BM37" s="49" t="s">
+      <c r="BJ37" s="57"/>
+      <c r="BK37" s="57"/>
+      <c r="BL37" s="58"/>
+      <c r="BM37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="50"/>
-      <c r="BO37" s="50"/>
-      <c r="BP37" s="51"/>
-      <c r="BQ37" s="49" t="s">
+      <c r="BN37" s="57"/>
+      <c r="BO37" s="57"/>
+      <c r="BP37" s="58"/>
+      <c r="BQ37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="50"/>
-      <c r="BS37" s="50"/>
-      <c r="BT37" s="51"/>
-      <c r="BU37" s="49" t="s">
+      <c r="BR37" s="57"/>
+      <c r="BS37" s="57"/>
+      <c r="BT37" s="58"/>
+      <c r="BU37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BV37" s="50"/>
-      <c r="BW37" s="50"/>
-      <c r="BX37" s="51"/>
-      <c r="BY37" s="49" t="s">
+      <c r="BV37" s="57"/>
+      <c r="BW37" s="57"/>
+      <c r="BX37" s="58"/>
+      <c r="BY37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="50"/>
-      <c r="CA37" s="50"/>
-      <c r="CB37" s="51"/>
-      <c r="CC37" s="49" t="s">
+      <c r="BZ37" s="57"/>
+      <c r="CA37" s="57"/>
+      <c r="CB37" s="58"/>
+      <c r="CC37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="50"/>
-      <c r="CE37" s="50"/>
-      <c r="CF37" s="51"/>
-      <c r="CG37" s="49" t="s">
+      <c r="CD37" s="57"/>
+      <c r="CE37" s="57"/>
+      <c r="CF37" s="58"/>
+      <c r="CG37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="CH37" s="50"/>
-      <c r="CI37" s="50"/>
-      <c r="CJ37" s="51"/>
+      <c r="CH37" s="57"/>
+      <c r="CI37" s="57"/>
+      <c r="CJ37" s="58"/>
     </row>
     <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55" t="s">
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55" t="s">
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55" t="s">
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55" t="s">
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55" t="s">
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55" t="s">
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55" t="s">
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55" t="s">
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55" t="s">
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="AT38" s="55"/>
-      <c r="AU38" s="55"/>
-      <c r="AV38" s="55"/>
-      <c r="AW38" s="55" t="s">
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="AX38" s="55"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BE38" s="43" t="s">
+      <c r="AX38" s="43"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BE38" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="BF38" s="44"/>
-      <c r="BG38" s="44"/>
-      <c r="BH38" s="45"/>
-      <c r="BI38" s="43" t="s">
+      <c r="BF38" s="48"/>
+      <c r="BG38" s="48"/>
+      <c r="BH38" s="49"/>
+      <c r="BI38" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="BJ38" s="44"/>
-      <c r="BK38" s="44"/>
-      <c r="BL38" s="45"/>
-      <c r="BM38" s="43" t="s">
+      <c r="BJ38" s="48"/>
+      <c r="BK38" s="48"/>
+      <c r="BL38" s="49"/>
+      <c r="BM38" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="BN38" s="44"/>
-      <c r="BO38" s="44"/>
-      <c r="BP38" s="45"/>
-      <c r="BQ38" s="43" t="s">
+      <c r="BN38" s="48"/>
+      <c r="BO38" s="48"/>
+      <c r="BP38" s="49"/>
+      <c r="BQ38" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="BR38" s="44"/>
-      <c r="BS38" s="44"/>
-      <c r="BT38" s="45"/>
-      <c r="BU38" s="43" t="s">
+      <c r="BR38" s="48"/>
+      <c r="BS38" s="48"/>
+      <c r="BT38" s="49"/>
+      <c r="BU38" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="BV38" s="44"/>
-      <c r="BW38" s="44"/>
-      <c r="BX38" s="45"/>
-      <c r="BY38" s="43" t="s">
+      <c r="BV38" s="48"/>
+      <c r="BW38" s="48"/>
+      <c r="BX38" s="49"/>
+      <c r="BY38" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="BZ38" s="44"/>
-      <c r="CA38" s="44"/>
-      <c r="CB38" s="45"/>
-      <c r="CC38" s="43" t="s">
+      <c r="BZ38" s="48"/>
+      <c r="CA38" s="48"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="CD38" s="44"/>
-      <c r="CE38" s="44"/>
-      <c r="CF38" s="45"/>
-      <c r="CG38" s="43" t="s">
+      <c r="CD38" s="48"/>
+      <c r="CE38" s="48"/>
+      <c r="CF38" s="49"/>
+      <c r="CG38" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="CH38" s="44"/>
-      <c r="CI38" s="44"/>
-      <c r="CJ38" s="45"/>
+      <c r="CH38" s="48"/>
+      <c r="CI38" s="48"/>
+      <c r="CJ38" s="49"/>
     </row>
     <row r="39" spans="1:88">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52" t="s">
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52" t="s">
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52" t="s">
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52" t="s">
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52" t="s">
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52" t="s">
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52" t="s">
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52" t="s">
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="44"/>
+      <c r="AR39" s="44"/>
+      <c r="AS39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52" t="s">
+      <c r="AT39" s="44"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BE39" s="46" t="s">
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="44"/>
+      <c r="AZ39" s="44"/>
+      <c r="BE39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="48"/>
-      <c r="BI39" s="46" t="s">
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="48"/>
-      <c r="BM39" s="46" t="s">
+      <c r="BJ39" s="54"/>
+      <c r="BK39" s="54"/>
+      <c r="BL39" s="55"/>
+      <c r="BM39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="47"/>
-      <c r="BO39" s="47"/>
-      <c r="BP39" s="48"/>
-      <c r="BQ39" s="46" t="s">
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="54"/>
+      <c r="BP39" s="55"/>
+      <c r="BQ39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="47"/>
-      <c r="BS39" s="47"/>
-      <c r="BT39" s="48"/>
-      <c r="BU39" s="46" t="s">
+      <c r="BR39" s="54"/>
+      <c r="BS39" s="54"/>
+      <c r="BT39" s="55"/>
+      <c r="BU39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BV39" s="47"/>
-      <c r="BW39" s="47"/>
-      <c r="BX39" s="48"/>
-      <c r="BY39" s="46" t="s">
+      <c r="BV39" s="54"/>
+      <c r="BW39" s="54"/>
+      <c r="BX39" s="55"/>
+      <c r="BY39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="47"/>
-      <c r="CA39" s="47"/>
-      <c r="CB39" s="48"/>
-      <c r="CC39" s="46" t="s">
+      <c r="BZ39" s="54"/>
+      <c r="CA39" s="54"/>
+      <c r="CB39" s="55"/>
+      <c r="CC39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="47"/>
-      <c r="CE39" s="47"/>
-      <c r="CF39" s="48"/>
-      <c r="CG39" s="46" t="s">
+      <c r="CD39" s="54"/>
+      <c r="CE39" s="54"/>
+      <c r="CF39" s="55"/>
+      <c r="CG39" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="CH39" s="47"/>
-      <c r="CI39" s="47"/>
-      <c r="CJ39" s="48"/>
+      <c r="CH39" s="54"/>
+      <c r="CI39" s="54"/>
+      <c r="CJ39" s="55"/>
     </row>
     <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55" t="s">
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55" t="s">
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55" t="s">
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55" t="s">
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55" t="s">
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="43"/>
+      <c r="AC40" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55" t="s">
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55" t="s">
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55" t="s">
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="43"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55" t="s">
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="43"/>
+      <c r="AR40" s="43"/>
+      <c r="AS40" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55" t="s">
+      <c r="AT40" s="43"/>
+      <c r="AU40" s="43"/>
+      <c r="AV40" s="43"/>
+      <c r="AW40" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BE40" s="43" t="s">
+      <c r="AX40" s="43"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BE40" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="BF40" s="44"/>
-      <c r="BG40" s="44"/>
-      <c r="BH40" s="45"/>
-      <c r="BI40" s="43" t="s">
+      <c r="BF40" s="48"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="49"/>
+      <c r="BI40" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="BJ40" s="44"/>
-      <c r="BK40" s="44"/>
-      <c r="BL40" s="45"/>
-      <c r="BM40" s="43" t="s">
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="48"/>
+      <c r="BL40" s="49"/>
+      <c r="BM40" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="BN40" s="44"/>
-      <c r="BO40" s="44"/>
-      <c r="BP40" s="45"/>
-      <c r="BQ40" s="43" t="s">
+      <c r="BN40" s="48"/>
+      <c r="BO40" s="48"/>
+      <c r="BP40" s="49"/>
+      <c r="BQ40" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="BR40" s="44"/>
-      <c r="BS40" s="44"/>
-      <c r="BT40" s="45"/>
-      <c r="BU40" s="43" t="s">
+      <c r="BR40" s="48"/>
+      <c r="BS40" s="48"/>
+      <c r="BT40" s="49"/>
+      <c r="BU40" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="BV40" s="44"/>
-      <c r="BW40" s="44"/>
-      <c r="BX40" s="45"/>
-      <c r="BY40" s="43" t="s">
+      <c r="BV40" s="48"/>
+      <c r="BW40" s="48"/>
+      <c r="BX40" s="49"/>
+      <c r="BY40" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="BZ40" s="44"/>
-      <c r="CA40" s="44"/>
-      <c r="CB40" s="45"/>
-      <c r="CC40" s="43" t="s">
+      <c r="BZ40" s="48"/>
+      <c r="CA40" s="48"/>
+      <c r="CB40" s="49"/>
+      <c r="CC40" s="47" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="44"/>
-      <c r="CE40" s="44"/>
-      <c r="CF40" s="45"/>
-      <c r="CG40" s="43" t="s">
+      <c r="CD40" s="48"/>
+      <c r="CE40" s="48"/>
+      <c r="CF40" s="49"/>
+      <c r="CG40" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="CH40" s="44"/>
-      <c r="CI40" s="44"/>
-      <c r="CJ40" s="45"/>
+      <c r="CH40" s="48"/>
+      <c r="CI40" s="48"/>
+      <c r="CJ40" s="49"/>
     </row>
     <row r="41" spans="1:88">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52" t="s">
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52" t="s">
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52" t="s">
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52" t="s">
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52" t="s">
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52" t="s">
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52" t="s">
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
-      <c r="AO41" s="52" t="s">
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="52"/>
-      <c r="AQ41" s="52"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52" t="s">
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="52"/>
-      <c r="AU41" s="52"/>
-      <c r="AV41" s="52"/>
-      <c r="AW41" s="52" t="s">
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
+      <c r="AW41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="52"/>
-      <c r="AY41" s="52"/>
-      <c r="AZ41" s="52"/>
-      <c r="BE41" s="46" t="s">
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BE41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="47"/>
-      <c r="BG41" s="47"/>
-      <c r="BH41" s="48"/>
-      <c r="BI41" s="46" t="s">
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="55"/>
+      <c r="BI41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="47"/>
-      <c r="BK41" s="47"/>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="46" t="s">
+      <c r="BJ41" s="54"/>
+      <c r="BK41" s="54"/>
+      <c r="BL41" s="55"/>
+      <c r="BM41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="47"/>
-      <c r="BO41" s="47"/>
-      <c r="BP41" s="48"/>
-      <c r="BQ41" s="46" t="s">
+      <c r="BN41" s="54"/>
+      <c r="BO41" s="54"/>
+      <c r="BP41" s="55"/>
+      <c r="BQ41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="47"/>
-      <c r="BS41" s="47"/>
-      <c r="BT41" s="48"/>
-      <c r="BU41" s="46" t="s">
+      <c r="BR41" s="54"/>
+      <c r="BS41" s="54"/>
+      <c r="BT41" s="55"/>
+      <c r="BU41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BV41" s="47"/>
-      <c r="BW41" s="47"/>
-      <c r="BX41" s="48"/>
-      <c r="BY41" s="46" t="s">
+      <c r="BV41" s="54"/>
+      <c r="BW41" s="54"/>
+      <c r="BX41" s="55"/>
+      <c r="BY41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="47"/>
-      <c r="CA41" s="47"/>
-      <c r="CB41" s="48"/>
-      <c r="CC41" s="46" t="s">
+      <c r="BZ41" s="54"/>
+      <c r="CA41" s="54"/>
+      <c r="CB41" s="55"/>
+      <c r="CC41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="47"/>
-      <c r="CE41" s="47"/>
-      <c r="CF41" s="48"/>
-      <c r="CG41" s="46" t="s">
+      <c r="CD41" s="54"/>
+      <c r="CE41" s="54"/>
+      <c r="CF41" s="55"/>
+      <c r="CG41" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="CH41" s="47"/>
-      <c r="CI41" s="47"/>
-      <c r="CJ41" s="48"/>
+      <c r="CH41" s="54"/>
+      <c r="CI41" s="54"/>
+      <c r="CJ41" s="55"/>
     </row>
     <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55" t="s">
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55" t="s">
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55" t="s">
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55" t="s">
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55" t="s">
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
+      <c r="AB42" s="43"/>
+      <c r="AC42" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55" t="s">
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55" t="s">
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55" t="s">
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="43"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55" t="s">
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="43"/>
+      <c r="AR42" s="43"/>
+      <c r="AS42" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55" t="s">
+      <c r="AT42" s="43"/>
+      <c r="AU42" s="43"/>
+      <c r="AV42" s="43"/>
+      <c r="AW42" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="AX42" s="55"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
-      <c r="BE42" s="43" t="s">
+      <c r="AX42" s="43"/>
+      <c r="AY42" s="43"/>
+      <c r="AZ42" s="43"/>
+      <c r="BE42" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="BF42" s="44"/>
-      <c r="BG42" s="44"/>
-      <c r="BH42" s="45"/>
-      <c r="BI42" s="43" t="s">
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="49"/>
+      <c r="BI42" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="BJ42" s="44"/>
-      <c r="BK42" s="44"/>
-      <c r="BL42" s="45"/>
-      <c r="BM42" s="43" t="s">
+      <c r="BJ42" s="48"/>
+      <c r="BK42" s="48"/>
+      <c r="BL42" s="49"/>
+      <c r="BM42" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="BN42" s="44"/>
-      <c r="BO42" s="44"/>
-      <c r="BP42" s="45"/>
-      <c r="BQ42" s="43" t="s">
+      <c r="BN42" s="48"/>
+      <c r="BO42" s="48"/>
+      <c r="BP42" s="49"/>
+      <c r="BQ42" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="BR42" s="44"/>
-      <c r="BS42" s="44"/>
-      <c r="BT42" s="45"/>
-      <c r="BU42" s="43" t="s">
+      <c r="BR42" s="48"/>
+      <c r="BS42" s="48"/>
+      <c r="BT42" s="49"/>
+      <c r="BU42" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="BV42" s="44"/>
-      <c r="BW42" s="44"/>
-      <c r="BX42" s="45"/>
-      <c r="BY42" s="43" t="s">
+      <c r="BV42" s="48"/>
+      <c r="BW42" s="48"/>
+      <c r="BX42" s="49"/>
+      <c r="BY42" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="BZ42" s="44"/>
-      <c r="CA42" s="44"/>
-      <c r="CB42" s="45"/>
-      <c r="CC42" s="43" t="s">
+      <c r="BZ42" s="48"/>
+      <c r="CA42" s="48"/>
+      <c r="CB42" s="49"/>
+      <c r="CC42" s="47" t="s">
         <v>404</v>
       </c>
-      <c r="CD42" s="44"/>
-      <c r="CE42" s="44"/>
-      <c r="CF42" s="45"/>
-      <c r="CG42" s="43" t="s">
+      <c r="CD42" s="48"/>
+      <c r="CE42" s="48"/>
+      <c r="CF42" s="49"/>
+      <c r="CG42" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="CH42" s="44"/>
-      <c r="CI42" s="44"/>
-      <c r="CJ42" s="45"/>
+      <c r="CH42" s="48"/>
+      <c r="CI42" s="48"/>
+      <c r="CJ42" s="49"/>
     </row>
     <row r="43" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="BL48" s="39"/>
       <c r="BM48" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BN48" s="36">
         <v>40386</v>
@@ -8514,7 +8514,7 @@
       </c>
       <c r="BP48" s="39"/>
       <c r="BQ48" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BR48" s="36">
         <v>40386</v>
@@ -8525,1011 +8525,1196 @@
       <c r="BT48" s="39"/>
     </row>
     <row r="49" spans="1:72">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52" t="s">
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52" t="s">
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52" t="s">
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52" t="s">
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52" t="s">
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52" t="s">
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52" t="s">
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52" t="s">
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="52" t="s">
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="52"/>
-      <c r="AQ49" s="52"/>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52" t="s">
+      <c r="AP49" s="44"/>
+      <c r="AQ49" s="44"/>
+      <c r="AR49" s="44"/>
+      <c r="AS49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="BA49" s="46" t="s">
+      <c r="AT49" s="44"/>
+      <c r="AU49" s="44"/>
+      <c r="AV49" s="44"/>
+      <c r="BA49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="47"/>
-      <c r="BD49" s="48"/>
-      <c r="BE49" s="46" t="s">
+      <c r="BB49" s="54"/>
+      <c r="BC49" s="54"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BF49" s="47"/>
-      <c r="BG49" s="47"/>
-      <c r="BH49" s="48"/>
-      <c r="BI49" s="46" t="s">
+      <c r="BF49" s="54"/>
+      <c r="BG49" s="54"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BJ49" s="47"/>
-      <c r="BK49" s="47"/>
-      <c r="BL49" s="48"/>
-      <c r="BM49" s="46" t="s">
+      <c r="BJ49" s="54"/>
+      <c r="BK49" s="54"/>
+      <c r="BL49" s="55"/>
+      <c r="BM49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BN49" s="47"/>
-      <c r="BO49" s="47"/>
-      <c r="BP49" s="48"/>
-      <c r="BQ49" s="46" t="s">
+      <c r="BN49" s="54"/>
+      <c r="BO49" s="54"/>
+      <c r="BP49" s="55"/>
+      <c r="BQ49" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BR49" s="47"/>
-      <c r="BS49" s="47"/>
-      <c r="BT49" s="48"/>
+      <c r="BR49" s="54"/>
+      <c r="BS49" s="54"/>
+      <c r="BT49" s="55"/>
     </row>
     <row r="50" spans="1:72" ht="30" customHeight="1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53" t="s">
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53" t="s">
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53" t="s">
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53" t="s">
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53" t="s">
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53" t="s">
+      <c r="AD50" s="45"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="53"/>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53" t="s">
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53" t="s">
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="45"/>
+      <c r="AN50" s="45"/>
+      <c r="AO50" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AP50" s="53"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="53"/>
-      <c r="AS50" s="53" t="s">
+      <c r="AP50" s="45"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="45"/>
+      <c r="AS50" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="AT50" s="53"/>
-      <c r="AU50" s="53"/>
-      <c r="AV50" s="53"/>
-      <c r="BA50" s="43" t="s">
+      <c r="AT50" s="45"/>
+      <c r="AU50" s="45"/>
+      <c r="AV50" s="45"/>
+      <c r="BA50" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="BB50" s="44"/>
-      <c r="BC50" s="44"/>
-      <c r="BD50" s="45"/>
-      <c r="BE50" s="43" t="s">
+      <c r="BB50" s="48"/>
+      <c r="BC50" s="48"/>
+      <c r="BD50" s="49"/>
+      <c r="BE50" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="BF50" s="44"/>
-      <c r="BG50" s="44"/>
-      <c r="BH50" s="45"/>
-      <c r="BI50" s="43" t="s">
+      <c r="BF50" s="48"/>
+      <c r="BG50" s="48"/>
+      <c r="BH50" s="49"/>
+      <c r="BI50" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="BJ50" s="44"/>
-      <c r="BK50" s="44"/>
-      <c r="BL50" s="45"/>
-      <c r="BM50" s="43" t="s">
+      <c r="BJ50" s="48"/>
+      <c r="BK50" s="48"/>
+      <c r="BL50" s="49"/>
+      <c r="BM50" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="BN50" s="44"/>
-      <c r="BO50" s="44"/>
-      <c r="BP50" s="45"/>
-      <c r="BQ50" s="43" t="s">
+      <c r="BN50" s="48"/>
+      <c r="BO50" s="48"/>
+      <c r="BP50" s="49"/>
+      <c r="BQ50" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="BR50" s="44"/>
-      <c r="BS50" s="44"/>
-      <c r="BT50" s="45"/>
+      <c r="BR50" s="48"/>
+      <c r="BS50" s="48"/>
+      <c r="BT50" s="49"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54" t="s">
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54" t="s">
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54" t="s">
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54" t="s">
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54" t="s">
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54" t="s">
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54" t="s">
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="54"/>
-      <c r="AI51" s="54"/>
-      <c r="AJ51" s="54"/>
-      <c r="AK51" s="54" t="s">
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="54"/>
-      <c r="AM51" s="54"/>
-      <c r="AN51" s="54"/>
-      <c r="AO51" s="54" t="s">
+      <c r="AL51" s="46"/>
+      <c r="AM51" s="46"/>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54" t="s">
+      <c r="AP51" s="46"/>
+      <c r="AQ51" s="46"/>
+      <c r="AR51" s="46"/>
+      <c r="AS51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="54"/>
-      <c r="AU51" s="54"/>
-      <c r="AV51" s="54"/>
-      <c r="BA51" s="49" t="s">
+      <c r="AT51" s="46"/>
+      <c r="AU51" s="46"/>
+      <c r="AV51" s="46"/>
+      <c r="BA51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BB51" s="50"/>
-      <c r="BC51" s="50"/>
-      <c r="BD51" s="51"/>
-      <c r="BE51" s="49" t="s">
+      <c r="BB51" s="57"/>
+      <c r="BC51" s="57"/>
+      <c r="BD51" s="58"/>
+      <c r="BE51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="50"/>
-      <c r="BG51" s="50"/>
-      <c r="BH51" s="51"/>
-      <c r="BI51" s="49" t="s">
+      <c r="BF51" s="57"/>
+      <c r="BG51" s="57"/>
+      <c r="BH51" s="58"/>
+      <c r="BI51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BJ51" s="50"/>
-      <c r="BK51" s="50"/>
-      <c r="BL51" s="51"/>
-      <c r="BM51" s="49" t="s">
+      <c r="BJ51" s="57"/>
+      <c r="BK51" s="57"/>
+      <c r="BL51" s="58"/>
+      <c r="BM51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="50"/>
-      <c r="BO51" s="50"/>
-      <c r="BP51" s="51"/>
-      <c r="BQ51" s="49" t="s">
+      <c r="BN51" s="57"/>
+      <c r="BO51" s="57"/>
+      <c r="BP51" s="58"/>
+      <c r="BQ51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BR51" s="50"/>
-      <c r="BS51" s="50"/>
-      <c r="BT51" s="51"/>
+      <c r="BR51" s="57"/>
+      <c r="BS51" s="57"/>
+      <c r="BT51" s="58"/>
     </row>
     <row r="52" spans="1:72" s="5" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55" t="s">
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55" t="s">
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55" t="s">
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55" t="s">
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55" t="s">
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="Z52" s="55"/>
-      <c r="AA52" s="55"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55" t="s">
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55" t="s">
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="55"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="55" t="s">
+      <c r="AH52" s="43"/>
+      <c r="AI52" s="43"/>
+      <c r="AJ52" s="43"/>
+      <c r="AK52" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AL52" s="55"/>
-      <c r="AM52" s="55"/>
-      <c r="AN52" s="55"/>
-      <c r="AO52" s="55" t="s">
+      <c r="AL52" s="43"/>
+      <c r="AM52" s="43"/>
+      <c r="AN52" s="43"/>
+      <c r="AO52" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="AP52" s="55"/>
-      <c r="AQ52" s="55"/>
-      <c r="AR52" s="55"/>
-      <c r="AS52" s="55" t="s">
+      <c r="AP52" s="43"/>
+      <c r="AQ52" s="43"/>
+      <c r="AR52" s="43"/>
+      <c r="AS52" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="AT52" s="55"/>
-      <c r="AU52" s="55"/>
-      <c r="AV52" s="55"/>
-      <c r="BA52" s="43" t="s">
+      <c r="AT52" s="43"/>
+      <c r="AU52" s="43"/>
+      <c r="AV52" s="43"/>
+      <c r="BA52" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="BB52" s="44"/>
-      <c r="BC52" s="44"/>
-      <c r="BD52" s="45"/>
-      <c r="BE52" s="43" t="s">
+      <c r="BB52" s="48"/>
+      <c r="BC52" s="48"/>
+      <c r="BD52" s="49"/>
+      <c r="BE52" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="BF52" s="44"/>
-      <c r="BG52" s="44"/>
-      <c r="BH52" s="45"/>
-      <c r="BI52" s="43" t="s">
+      <c r="BF52" s="48"/>
+      <c r="BG52" s="48"/>
+      <c r="BH52" s="49"/>
+      <c r="BI52" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="BJ52" s="44"/>
-      <c r="BK52" s="44"/>
-      <c r="BL52" s="45"/>
-      <c r="BM52" s="43" t="s">
+      <c r="BJ52" s="48"/>
+      <c r="BK52" s="48"/>
+      <c r="BL52" s="49"/>
+      <c r="BM52" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="BN52" s="44"/>
-      <c r="BO52" s="44"/>
-      <c r="BP52" s="45"/>
-      <c r="BQ52" s="43" t="s">
+      <c r="BN52" s="48"/>
+      <c r="BO52" s="48"/>
+      <c r="BP52" s="49"/>
+      <c r="BQ52" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="BR52" s="44"/>
-      <c r="BS52" s="44"/>
-      <c r="BT52" s="45"/>
+      <c r="BR52" s="48"/>
+      <c r="BS52" s="48"/>
+      <c r="BT52" s="49"/>
     </row>
     <row r="53" spans="1:72">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52" t="s">
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52" t="s">
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52" t="s">
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52" t="s">
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52" t="s">
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52" t="s">
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52" t="s">
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52" t="s">
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52" t="s">
+      <c r="AL53" s="44"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="52"/>
-      <c r="AS53" s="52" t="s">
+      <c r="AP53" s="44"/>
+      <c r="AQ53" s="44"/>
+      <c r="AR53" s="44"/>
+      <c r="AS53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="52"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="52"/>
-      <c r="BA53" s="46" t="s">
+      <c r="AT53" s="44"/>
+      <c r="AU53" s="44"/>
+      <c r="AV53" s="44"/>
+      <c r="BA53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BB53" s="47"/>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="48"/>
-      <c r="BE53" s="46" t="s">
+      <c r="BB53" s="54"/>
+      <c r="BC53" s="54"/>
+      <c r="BD53" s="55"/>
+      <c r="BE53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BF53" s="47"/>
-      <c r="BG53" s="47"/>
-      <c r="BH53" s="48"/>
-      <c r="BI53" s="46" t="s">
+      <c r="BF53" s="54"/>
+      <c r="BG53" s="54"/>
+      <c r="BH53" s="55"/>
+      <c r="BI53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BJ53" s="47"/>
-      <c r="BK53" s="47"/>
-      <c r="BL53" s="48"/>
-      <c r="BM53" s="46" t="s">
+      <c r="BJ53" s="54"/>
+      <c r="BK53" s="54"/>
+      <c r="BL53" s="55"/>
+      <c r="BM53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BN53" s="47"/>
-      <c r="BO53" s="47"/>
-      <c r="BP53" s="48"/>
-      <c r="BQ53" s="46" t="s">
+      <c r="BN53" s="54"/>
+      <c r="BO53" s="54"/>
+      <c r="BP53" s="55"/>
+      <c r="BQ53" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="BR53" s="47"/>
-      <c r="BS53" s="47"/>
-      <c r="BT53" s="48"/>
+      <c r="BR53" s="54"/>
+      <c r="BS53" s="54"/>
+      <c r="BT53" s="55"/>
     </row>
     <row r="54" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55" t="s">
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55" t="s">
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55" t="s">
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55" t="s">
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55" t="s">
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="55" t="s">
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55" t="s">
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55" t="s">
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="43"/>
+      <c r="AF54" s="43"/>
+      <c r="AG54" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="55" t="s">
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="43"/>
+      <c r="AJ54" s="43"/>
+      <c r="AK54" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="AL54" s="55"/>
-      <c r="AM54" s="55"/>
-      <c r="AN54" s="55"/>
-      <c r="AO54" s="55" t="s">
+      <c r="AL54" s="43"/>
+      <c r="AM54" s="43"/>
+      <c r="AN54" s="43"/>
+      <c r="AO54" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="AP54" s="55"/>
-      <c r="AQ54" s="55"/>
-      <c r="AR54" s="55"/>
-      <c r="AS54" s="55" t="s">
+      <c r="AP54" s="43"/>
+      <c r="AQ54" s="43"/>
+      <c r="AR54" s="43"/>
+      <c r="AS54" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="AT54" s="55"/>
-      <c r="AU54" s="55"/>
-      <c r="AV54" s="55"/>
-      <c r="BA54" s="43" t="s">
+      <c r="AT54" s="43"/>
+      <c r="AU54" s="43"/>
+      <c r="AV54" s="43"/>
+      <c r="BA54" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="BB54" s="44"/>
-      <c r="BC54" s="44"/>
-      <c r="BD54" s="45"/>
-      <c r="BE54" s="43" t="s">
+      <c r="BB54" s="48"/>
+      <c r="BC54" s="48"/>
+      <c r="BD54" s="49"/>
+      <c r="BE54" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="BF54" s="44"/>
-      <c r="BG54" s="44"/>
-      <c r="BH54" s="45"/>
-      <c r="BI54" s="43" t="s">
+      <c r="BF54" s="48"/>
+      <c r="BG54" s="48"/>
+      <c r="BH54" s="49"/>
+      <c r="BI54" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="BJ54" s="44"/>
-      <c r="BK54" s="44"/>
-      <c r="BL54" s="45"/>
-      <c r="BM54" s="43" t="s">
+      <c r="BJ54" s="48"/>
+      <c r="BK54" s="48"/>
+      <c r="BL54" s="49"/>
+      <c r="BM54" s="47" t="s">
         <v>412</v>
       </c>
-      <c r="BN54" s="44"/>
-      <c r="BO54" s="44"/>
-      <c r="BP54" s="45"/>
-      <c r="BQ54" s="43" t="s">
+      <c r="BN54" s="48"/>
+      <c r="BO54" s="48"/>
+      <c r="BP54" s="49"/>
+      <c r="BQ54" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="BR54" s="44"/>
-      <c r="BS54" s="44"/>
-      <c r="BT54" s="45"/>
+      <c r="BR54" s="48"/>
+      <c r="BS54" s="48"/>
+      <c r="BT54" s="49"/>
     </row>
     <row r="55" spans="1:72">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52" t="s">
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52" t="s">
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52" t="s">
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52" t="s">
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52" t="s">
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52" t="s">
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="44"/>
+      <c r="AC55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52" t="s">
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52" t="s">
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="44"/>
+      <c r="AJ55" s="44"/>
+      <c r="AK55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
-      <c r="AO55" s="52" t="s">
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="52"/>
-      <c r="AQ55" s="52"/>
-      <c r="AR55" s="52"/>
-      <c r="AS55" s="52" t="s">
+      <c r="AP55" s="44"/>
+      <c r="AQ55" s="44"/>
+      <c r="AR55" s="44"/>
+      <c r="AS55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="52"/>
-      <c r="AU55" s="52"/>
-      <c r="AV55" s="52"/>
-      <c r="BA55" s="46" t="s">
+      <c r="AT55" s="44"/>
+      <c r="AU55" s="44"/>
+      <c r="AV55" s="44"/>
+      <c r="BA55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BB55" s="47"/>
-      <c r="BC55" s="47"/>
-      <c r="BD55" s="48"/>
-      <c r="BE55" s="46" t="s">
+      <c r="BB55" s="54"/>
+      <c r="BC55" s="54"/>
+      <c r="BD55" s="55"/>
+      <c r="BE55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BF55" s="47"/>
-      <c r="BG55" s="47"/>
-      <c r="BH55" s="48"/>
-      <c r="BI55" s="46" t="s">
+      <c r="BF55" s="54"/>
+      <c r="BG55" s="54"/>
+      <c r="BH55" s="55"/>
+      <c r="BI55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BJ55" s="47"/>
-      <c r="BK55" s="47"/>
-      <c r="BL55" s="48"/>
-      <c r="BM55" s="46" t="s">
+      <c r="BJ55" s="54"/>
+      <c r="BK55" s="54"/>
+      <c r="BL55" s="55"/>
+      <c r="BM55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BN55" s="47"/>
-      <c r="BO55" s="47"/>
-      <c r="BP55" s="48"/>
-      <c r="BQ55" s="46" t="s">
+      <c r="BN55" s="54"/>
+      <c r="BO55" s="54"/>
+      <c r="BP55" s="55"/>
+      <c r="BQ55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="BR55" s="47"/>
-      <c r="BS55" s="47"/>
-      <c r="BT55" s="48"/>
+      <c r="BR55" s="54"/>
+      <c r="BS55" s="54"/>
+      <c r="BT55" s="55"/>
     </row>
     <row r="56" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55" t="s">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55" t="s">
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55" t="s">
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55" t="s">
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55" t="s">
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55" t="s">
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55" t="s">
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55" t="s">
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="43"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="55" t="s">
+      <c r="AH56" s="43"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="43"/>
+      <c r="AK56" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="AL56" s="55"/>
-      <c r="AM56" s="55"/>
-      <c r="AN56" s="55"/>
-      <c r="AO56" s="55" t="s">
+      <c r="AL56" s="43"/>
+      <c r="AM56" s="43"/>
+      <c r="AN56" s="43"/>
+      <c r="AO56" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AP56" s="55"/>
-      <c r="AQ56" s="55"/>
-      <c r="AR56" s="55"/>
-      <c r="AS56" s="55" t="s">
+      <c r="AP56" s="43"/>
+      <c r="AQ56" s="43"/>
+      <c r="AR56" s="43"/>
+      <c r="AS56" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="AT56" s="55"/>
-      <c r="AU56" s="55"/>
-      <c r="AV56" s="55"/>
-      <c r="BA56" s="43" t="s">
+      <c r="AT56" s="43"/>
+      <c r="AU56" s="43"/>
+      <c r="AV56" s="43"/>
+      <c r="BA56" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="BB56" s="44"/>
-      <c r="BC56" s="44"/>
-      <c r="BD56" s="45"/>
-      <c r="BE56" s="43" t="s">
+      <c r="BB56" s="48"/>
+      <c r="BC56" s="48"/>
+      <c r="BD56" s="49"/>
+      <c r="BE56" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="BF56" s="44"/>
-      <c r="BG56" s="44"/>
-      <c r="BH56" s="45"/>
-      <c r="BI56" s="43" t="s">
+      <c r="BF56" s="48"/>
+      <c r="BG56" s="48"/>
+      <c r="BH56" s="49"/>
+      <c r="BI56" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="BJ56" s="44"/>
-      <c r="BK56" s="44"/>
-      <c r="BL56" s="45"/>
-      <c r="BM56" s="43" t="s">
+      <c r="BJ56" s="48"/>
+      <c r="BK56" s="48"/>
+      <c r="BL56" s="49"/>
+      <c r="BM56" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="BN56" s="44"/>
-      <c r="BO56" s="44"/>
-      <c r="BP56" s="45"/>
-      <c r="BQ56" s="43" t="s">
+      <c r="BN56" s="48"/>
+      <c r="BO56" s="48"/>
+      <c r="BP56" s="49"/>
+      <c r="BQ56" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="BR56" s="44"/>
-      <c r="BS56" s="44"/>
-      <c r="BT56" s="45"/>
+      <c r="BR56" s="48"/>
+      <c r="BS56" s="48"/>
+      <c r="BT56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="553">
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BQ49:BT49"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="BM35:BP35"/>
+    <mergeCell ref="BM36:BP36"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BM39:BP39"/>
+    <mergeCell ref="BM40:BP40"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ35:BT35"/>
+    <mergeCell ref="BQ36:BT36"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BQ38:BT38"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="BQ50:BT50"/>
+    <mergeCell ref="BQ51:BT51"/>
+    <mergeCell ref="BQ52:BT52"/>
+    <mergeCell ref="BQ53:BT53"/>
+    <mergeCell ref="BQ54:BT54"/>
+    <mergeCell ref="BQ55:BT55"/>
+    <mergeCell ref="BQ56:BT56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="CG35:CJ35"/>
+    <mergeCell ref="CG36:CJ36"/>
+    <mergeCell ref="CG37:CJ37"/>
+    <mergeCell ref="CG38:CJ38"/>
+    <mergeCell ref="CG39:CJ39"/>
+    <mergeCell ref="CG40:CJ40"/>
+    <mergeCell ref="CG41:CJ41"/>
+    <mergeCell ref="CG42:CJ42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ8:BT8"/>
+    <mergeCell ref="BQ9:BT9"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="BQ11:BT11"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BQ13:BT13"/>
+    <mergeCell ref="BQ14:BT14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -9554,363 +9739,178 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="BQ8:BT8"/>
-    <mergeCell ref="BQ9:BT9"/>
-    <mergeCell ref="BQ10:BT10"/>
-    <mergeCell ref="BQ11:BT11"/>
-    <mergeCell ref="BQ12:BT12"/>
-    <mergeCell ref="BQ13:BT13"/>
-    <mergeCell ref="BQ14:BT14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BI42:BL42"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BQ42:BT42"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="BE42:BH42"/>
-    <mergeCell ref="BU35:BX35"/>
-    <mergeCell ref="BU36:BX36"/>
-    <mergeCell ref="BU37:BX37"/>
-    <mergeCell ref="BU38:BX38"/>
-    <mergeCell ref="BU39:BX39"/>
-    <mergeCell ref="BU40:BX40"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BU42:BX42"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY36:CB36"/>
-    <mergeCell ref="BY37:CB37"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY39:CB39"/>
-    <mergeCell ref="BY40:CB40"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY42:CB42"/>
-    <mergeCell ref="CC35:CF35"/>
-    <mergeCell ref="CC36:CF36"/>
-    <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="CC38:CF38"/>
-    <mergeCell ref="CC39:CF39"/>
-    <mergeCell ref="CC40:CF40"/>
-    <mergeCell ref="CC41:CF41"/>
-    <mergeCell ref="CC42:CF42"/>
-    <mergeCell ref="CG35:CJ35"/>
-    <mergeCell ref="CG36:CJ36"/>
-    <mergeCell ref="CG37:CJ37"/>
-    <mergeCell ref="CG38:CJ38"/>
-    <mergeCell ref="CG39:CJ39"/>
-    <mergeCell ref="CG40:CJ40"/>
-    <mergeCell ref="CG41:CJ41"/>
-    <mergeCell ref="CG42:CJ42"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="BA51:BD51"/>
-    <mergeCell ref="BA52:BD52"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="BA54:BD54"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BE49:BH49"/>
-    <mergeCell ref="BE50:BH50"/>
-    <mergeCell ref="BE51:BH51"/>
-    <mergeCell ref="BE52:BH52"/>
-    <mergeCell ref="BE53:BH53"/>
-    <mergeCell ref="BE54:BH54"/>
-    <mergeCell ref="BE55:BH55"/>
-    <mergeCell ref="BE56:BH56"/>
-    <mergeCell ref="BQ50:BT50"/>
-    <mergeCell ref="BQ51:BT51"/>
-    <mergeCell ref="BQ52:BT52"/>
-    <mergeCell ref="BQ53:BT53"/>
-    <mergeCell ref="BQ54:BT54"/>
-    <mergeCell ref="BQ55:BT55"/>
-    <mergeCell ref="BQ56:BT56"/>
-    <mergeCell ref="BI49:BL49"/>
-    <mergeCell ref="BI50:BL50"/>
-    <mergeCell ref="BI51:BL51"/>
-    <mergeCell ref="BI52:BL52"/>
-    <mergeCell ref="BI53:BL53"/>
-    <mergeCell ref="BI54:BL54"/>
-    <mergeCell ref="BI55:BL55"/>
-    <mergeCell ref="BI56:BL56"/>
-    <mergeCell ref="BM49:BP49"/>
-    <mergeCell ref="BM50:BP50"/>
-    <mergeCell ref="BM51:BP51"/>
-    <mergeCell ref="BM52:BP52"/>
-    <mergeCell ref="BM53:BP53"/>
-    <mergeCell ref="BM54:BP54"/>
-    <mergeCell ref="BM55:BP55"/>
-    <mergeCell ref="BM56:BP56"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BQ49:BT49"/>
-    <mergeCell ref="BA49:BD49"/>
-    <mergeCell ref="BM35:BP35"/>
-    <mergeCell ref="BM36:BP36"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BM38:BP38"/>
-    <mergeCell ref="BM39:BP39"/>
-    <mergeCell ref="BM40:BP40"/>
-    <mergeCell ref="BM41:BP41"/>
-    <mergeCell ref="BM42:BP42"/>
-    <mergeCell ref="BQ35:BT35"/>
-    <mergeCell ref="BQ36:BT36"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BQ38:BT38"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB46 BJ46 BR46 BJ32 BR32 BZ32 CH32 AX4 BF4 BN4 BF18 AP46 AL46 AH46 AD46 Z46 V46 R46 J18 N18 R18 V18 Z18 AD18 AH18 AL18 AP18 AT18 B32 B18 AX18 F32 J32 N32 R32 V32 Z32 AD32 AH32 AL32 AP32 AT32 AX32 F46 J46 N46 B46 F18 AL4 AH4 AD4 Z4 V4 R4 N4 J4 F4 B4 AT46 BR4 BJ4 BB4 AT4 CD32 BV32 BN32 BF32 BN46 BF46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1492,7 +1492,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1522,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1748,7 +1766,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1826,18 +1844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1846,15 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1872,6 +1869,144 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2608,8 +2743,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CF29" sqref="CF29"/>
+    <sheetView tabSelected="1" topLeftCell="BN27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CA45" sqref="CA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2701,11 +2836,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -2926,16 +3061,16 @@
       <c r="AV3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="41" t="s">
+      <c r="AW3" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="41" t="s">
+      <c r="AX3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="41" t="s">
+      <c r="AY3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="41" t="s">
+      <c r="AZ3" s="59" t="s">
         <v>1</v>
       </c>
       <c r="BA3" s="41" t="s">
@@ -2950,16 +3085,16 @@
       <c r="BD3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="41" t="s">
+      <c r="BE3" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="41" t="s">
+      <c r="BF3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="41" t="s">
+      <c r="BG3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="41" t="s">
+      <c r="BH3" s="72" t="s">
         <v>1</v>
       </c>
       <c r="BI3" s="41" t="s">
@@ -3132,16 +3267,16 @@
       <c r="AV4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" s="16" t="s">
+      <c r="AW4" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="AX4" s="42" t="s">
+      <c r="AX4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="42" t="s">
+      <c r="AY4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="42" t="s">
+      <c r="AZ4" s="61" t="s">
         <v>28</v>
       </c>
       <c r="BA4" s="16" t="s">
@@ -3156,16 +3291,16 @@
       <c r="BD4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="16" t="s">
+      <c r="BE4" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="BF4" s="42" t="s">
+      <c r="BF4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="42" t="s">
+      <c r="BG4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="42" t="s">
+      <c r="BH4" s="74" t="s">
         <v>28</v>
       </c>
       <c r="BI4" s="16" t="s">
@@ -3316,16 +3451,16 @@
         <v>34</v>
       </c>
       <c r="AV5" s="40"/>
-      <c r="AW5" s="41" t="s">
+      <c r="AW5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="41" t="s">
+      <c r="AX5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AY5" s="41" t="s">
+      <c r="AY5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="AZ5" s="41"/>
+      <c r="AZ5" s="59"/>
       <c r="BA5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3336,16 +3471,16 @@
         <v>34</v>
       </c>
       <c r="BD5" s="41"/>
-      <c r="BE5" s="41" t="s">
+      <c r="BE5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="41" t="s">
+      <c r="BF5" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BG5" s="41" t="s">
+      <c r="BG5" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BH5" s="41"/>
+      <c r="BH5" s="72"/>
       <c r="BI5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3488,18 +3623,18 @@
         <v>51</v>
       </c>
       <c r="AV6" s="39"/>
-      <c r="AW6" s="42" t="s">
+      <c r="AW6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="AX6" s="36">
+      <c r="AX6" s="62">
         <v>40386</v>
       </c>
-      <c r="AY6" s="42" t="s">
+      <c r="AY6" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="42"/>
+      <c r="AZ6" s="61"/>
       <c r="BA6" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB6" s="36">
         <v>40386</v>
@@ -3508,16 +3643,16 @@
         <v>51</v>
       </c>
       <c r="BD6" s="42"/>
-      <c r="BE6" s="42" t="s">
+      <c r="BE6" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="BF6" s="36">
+      <c r="BF6" s="75">
         <v>40386</v>
       </c>
-      <c r="BG6" s="42" t="s">
+      <c r="BG6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="BH6" s="42"/>
+      <c r="BH6" s="74"/>
       <c r="BI6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3539,7 +3674,7 @@
       </c>
       <c r="BP6" s="42"/>
       <c r="BQ6" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BR6" s="36">
         <v>40386</v>
@@ -3550,836 +3685,836 @@
       <c r="BT6" s="42"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44" t="s">
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44" t="s">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44" t="s">
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44" t="s">
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AS7" s="44" t="s">
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AS7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="53" t="s">
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="53" t="s">
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="54"/>
-      <c r="BC7" s="54"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="53" t="s">
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="53" t="s">
+      <c r="BF7" s="77"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="55"/>
-      <c r="BM7" s="53" t="s">
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+      <c r="BL7" s="48"/>
+      <c r="BM7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="55"/>
-      <c r="BQ7" s="53" t="s">
+      <c r="BN7" s="47"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="48"/>
+      <c r="BQ7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="55"/>
+      <c r="BR7" s="47"/>
+      <c r="BS7" s="47"/>
+      <c r="BT7" s="48"/>
     </row>
     <row r="8" spans="1:72" ht="44.25" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="45" t="s">
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="43" t="s">
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="43" t="s">
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45" t="s">
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AS8" s="45" t="s">
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AS8" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="47" t="s">
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="47" t="s">
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="BB8" s="48"/>
-      <c r="BC8" s="48"/>
-      <c r="BD8" s="49"/>
-      <c r="BE8" s="47" t="s">
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="48"/>
-      <c r="BG8" s="48"/>
-      <c r="BH8" s="49"/>
-      <c r="BI8" s="47" t="s">
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="81"/>
+      <c r="BI8" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="BJ8" s="48"/>
-      <c r="BK8" s="48"/>
-      <c r="BL8" s="49"/>
-      <c r="BM8" s="47" t="s">
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="45"/>
+      <c r="BM8" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="BN8" s="48"/>
-      <c r="BO8" s="48"/>
-      <c r="BP8" s="49"/>
-      <c r="BQ8" s="47" t="s">
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
+      <c r="BP8" s="45"/>
+      <c r="BQ8" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="BR8" s="48"/>
-      <c r="BS8" s="48"/>
-      <c r="BT8" s="49"/>
+      <c r="BR8" s="44"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="45"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46" t="s">
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46" t="s">
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="46" t="s">
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46" t="s">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AS9" s="46" t="s">
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AS9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="56" t="s">
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="56" t="s">
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="57"/>
-      <c r="BD9" s="58"/>
-      <c r="BE9" s="56" t="s">
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="58"/>
-      <c r="BI9" s="56" t="s">
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="84"/>
+      <c r="BI9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="58"/>
-      <c r="BM9" s="56" t="s">
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="57"/>
-      <c r="BO9" s="57"/>
-      <c r="BP9" s="58"/>
-      <c r="BQ9" s="56" t="s">
+      <c r="BN9" s="50"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="57"/>
-      <c r="BS9" s="57"/>
-      <c r="BT9" s="58"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="51"/>
     </row>
     <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43" t="s">
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43" t="s">
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43" t="s">
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43" t="s">
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43" t="s">
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="43"/>
-      <c r="AS10" s="43" t="s">
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AS10" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="47" t="s">
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="47" t="s">
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="BB10" s="48"/>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="47" t="s">
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="45"/>
+      <c r="BE10" s="79" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="47" t="s">
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="81"/>
+      <c r="BI10" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="BJ10" s="48"/>
-      <c r="BK10" s="48"/>
-      <c r="BL10" s="49"/>
-      <c r="BM10" s="47" t="s">
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="45"/>
+      <c r="BM10" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="48"/>
-      <c r="BO10" s="48"/>
-      <c r="BP10" s="49"/>
-      <c r="BQ10" s="47" t="s">
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="45"/>
+      <c r="BQ10" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="BR10" s="48"/>
-      <c r="BS10" s="48"/>
-      <c r="BT10" s="49"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="45"/>
     </row>
     <row r="11" spans="1:72">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44" t="s">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44" t="s">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44" t="s">
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44" t="s">
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44" t="s">
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44" t="s">
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AS11" s="44" t="s">
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AS11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="53" t="s">
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="53" t="s">
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="53" t="s">
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="55"/>
-      <c r="BI11" s="53" t="s">
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="53" t="s">
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
-      <c r="BP11" s="55"/>
-      <c r="BQ11" s="53" t="s">
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="54"/>
-      <c r="BS11" s="54"/>
-      <c r="BT11" s="55"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="48"/>
     </row>
     <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43" t="s">
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43" t="s">
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43" t="s">
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43" t="s">
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43" t="s">
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43" t="s">
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AS12" s="43" t="s">
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AS12" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="47" t="s">
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="47" t="s">
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="BB12" s="48"/>
-      <c r="BC12" s="48"/>
-      <c r="BD12" s="49"/>
-      <c r="BE12" s="47" t="s">
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="48"/>
-      <c r="BG12" s="48"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="47" t="s">
+      <c r="BF12" s="80"/>
+      <c r="BG12" s="80"/>
+      <c r="BH12" s="81"/>
+      <c r="BI12" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="BJ12" s="48"/>
-      <c r="BK12" s="48"/>
-      <c r="BL12" s="49"/>
-      <c r="BM12" s="47" t="s">
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="45"/>
+      <c r="BM12" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="48"/>
-      <c r="BO12" s="48"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="47" t="s">
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
+      <c r="BP12" s="45"/>
+      <c r="BQ12" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="BR12" s="48"/>
-      <c r="BS12" s="48"/>
-      <c r="BT12" s="49"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="44"/>
+      <c r="BT12" s="45"/>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44" t="s">
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44" t="s">
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44" t="s">
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AS13" s="44" t="s">
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AS13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="53" t="s">
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="53" t="s">
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="55"/>
-      <c r="BE13" s="53" t="s">
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="48"/>
+      <c r="BE13" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="55"/>
-      <c r="BI13" s="53" t="s">
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="78"/>
+      <c r="BI13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="55"/>
-      <c r="BM13" s="53" t="s">
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="48"/>
+      <c r="BM13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="53" t="s">
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="48"/>
+      <c r="BQ13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="54"/>
-      <c r="BS13" s="54"/>
-      <c r="BT13" s="55"/>
+      <c r="BR13" s="47"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="48"/>
     </row>
     <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43" t="s">
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43" t="s">
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43" t="s">
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43" t="s">
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43" t="s">
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AS14" s="43" t="s">
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AS14" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="47" t="s">
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="47" t="s">
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="BB14" s="48"/>
-      <c r="BC14" s="48"/>
-      <c r="BD14" s="49"/>
-      <c r="BE14" s="47" t="s">
+      <c r="BB14" s="44"/>
+      <c r="BC14" s="44"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="48"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="49"/>
-      <c r="BI14" s="47" t="s">
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="80"/>
+      <c r="BH14" s="81"/>
+      <c r="BI14" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="BJ14" s="48"/>
-      <c r="BK14" s="48"/>
-      <c r="BL14" s="49"/>
-      <c r="BM14" s="47" t="s">
+      <c r="BJ14" s="44"/>
+      <c r="BK14" s="44"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="BN14" s="48"/>
-      <c r="BO14" s="48"/>
-      <c r="BP14" s="49"/>
-      <c r="BQ14" s="47" t="s">
+      <c r="BN14" s="44"/>
+      <c r="BO14" s="44"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="BR14" s="48"/>
-      <c r="BS14" s="48"/>
-      <c r="BT14" s="49"/>
+      <c r="BR14" s="44"/>
+      <c r="BS14" s="44"/>
+      <c r="BT14" s="45"/>
     </row>
     <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
@@ -4553,16 +4688,16 @@
       <c r="AZ17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BE17" s="40" t="s">
+      <c r="BE17" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="BF17" s="40" t="s">
+      <c r="BF17" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="BG17" s="40" t="s">
+      <c r="BG17" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="BH17" s="40" t="s">
+      <c r="BH17" s="72" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4697,16 +4832,16 @@
       <c r="AZ18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="BE18" s="16" t="s">
+      <c r="BE18" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="BF18" s="39" t="s">
+      <c r="BF18" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BG18" s="39" t="s">
+      <c r="BG18" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="BH18" s="39" t="s">
+      <c r="BH18" s="74" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4841,16 +4976,16 @@
         <v>34</v>
       </c>
       <c r="AZ19" s="35"/>
-      <c r="BE19" s="40" t="s">
+      <c r="BE19" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BF19" s="40" t="s">
+      <c r="BF19" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="BG19" s="40" t="s">
+      <c r="BG19" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="BH19" s="40"/>
+      <c r="BH19" s="72"/>
     </row>
     <row r="20" spans="1:88">
       <c r="A20" s="12" t="s">
@@ -4983,704 +5118,704 @@
         <v>50</v>
       </c>
       <c r="AZ20" s="34"/>
-      <c r="BE20" s="39" t="s">
+      <c r="BE20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="BF20" s="36">
+      <c r="BF20" s="75">
         <v>40386</v>
       </c>
-      <c r="BG20" s="39" t="s">
+      <c r="BG20" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="BH20" s="39"/>
+      <c r="BH20" s="74"/>
     </row>
     <row r="21" spans="1:88">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44" t="s">
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44" t="s">
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44" t="s">
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44" t="s">
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44" t="s">
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44" t="s">
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44" t="s">
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44" t="s">
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44" t="s">
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BE21" s="53" t="s">
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BE21" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="55"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="78"/>
     </row>
     <row r="22" spans="1:88">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45" t="s">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45" t="s">
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45" t="s">
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45" t="s">
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45" t="s">
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45" t="s">
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45" t="s">
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45" t="s">
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45" t="s">
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45" t="s">
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BE22" s="47" t="s">
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BE22" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="49"/>
+      <c r="BF22" s="80"/>
+      <c r="BG22" s="80"/>
+      <c r="BH22" s="81"/>
     </row>
     <row r="23" spans="1:88">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46" t="s">
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46" t="s">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46" t="s">
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46" t="s">
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46" t="s">
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46" t="s">
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="46"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="46"/>
-      <c r="AO23" s="46" t="s">
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="46"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="46"/>
-      <c r="AS23" s="46" t="s">
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="46"/>
-      <c r="AU23" s="46"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="46" t="s">
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="46"/>
-      <c r="AY23" s="46"/>
-      <c r="AZ23" s="46"/>
-      <c r="BE23" s="56" t="s">
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BE23" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="57"/>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="58"/>
+      <c r="BF23" s="83"/>
+      <c r="BG23" s="83"/>
+      <c r="BH23" s="84"/>
     </row>
     <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43" t="s">
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43" t="s">
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43" t="s">
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43" t="s">
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43" t="s">
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43" t="s">
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43" t="s">
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="43"/>
-      <c r="AS24" s="43" t="s">
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AT24" s="43"/>
-      <c r="AU24" s="43"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43" t="s">
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="43"/>
-      <c r="AZ24" s="43"/>
-      <c r="BE24" s="47" t="s">
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BE24" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="49"/>
+      <c r="BF24" s="80"/>
+      <c r="BG24" s="80"/>
+      <c r="BH24" s="81"/>
     </row>
     <row r="25" spans="1:88" ht="15" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44" t="s">
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44" t="s">
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44" t="s">
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44" t="s">
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44" t="s">
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44" t="s">
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44" t="s">
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44" t="s">
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BE25" s="53" t="s">
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
+      <c r="BE25" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="55"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="78"/>
     </row>
     <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43" t="s">
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43" t="s">
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="47" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="43" t="s">
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43" t="s">
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43" t="s">
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43" t="s">
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43" t="s">
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="43" t="s">
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="43"/>
-      <c r="BE26" s="47" t="s">
+      <c r="AX26" s="55"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BE26" s="79" t="s">
         <v>416</v>
       </c>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="49"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="81"/>
     </row>
     <row r="27" spans="1:88">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44" t="s">
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44" t="s">
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44" t="s">
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44" t="s">
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44" t="s">
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44" t="s">
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44" t="s">
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44" t="s">
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44" t="s">
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BE27" s="53" t="s">
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BE27" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="54"/>
-      <c r="BG27" s="54"/>
-      <c r="BH27" s="55"/>
+      <c r="BF27" s="77"/>
+      <c r="BG27" s="77"/>
+      <c r="BH27" s="78"/>
     </row>
     <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43" t="s">
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43" t="s">
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43" t="s">
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43" t="s">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43" t="s">
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43" t="s">
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43" t="s">
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43" t="s">
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43" t="s">
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43" t="s">
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="55"/>
+      <c r="AR28" s="55"/>
+      <c r="AS28" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43" t="s">
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="55"/>
+      <c r="AV28" s="55"/>
+      <c r="AW28" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="43"/>
-      <c r="BE28" s="47" t="s">
+      <c r="AX28" s="55"/>
+      <c r="AY28" s="55"/>
+      <c r="AZ28" s="55"/>
+      <c r="BE28" s="79" t="s">
         <v>417</v>
       </c>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="48"/>
-      <c r="BH28" s="49"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="81"/>
     </row>
     <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -5974,16 +6109,16 @@
       <c r="BL31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BM31" s="40" t="s">
+      <c r="BM31" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="BN31" s="40" t="s">
+      <c r="BN31" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="BO31" s="40" t="s">
+      <c r="BO31" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="BP31" s="40" t="s">
+      <c r="BP31" s="85" t="s">
         <v>1</v>
       </c>
       <c r="BQ31" s="40" t="s">
@@ -5998,52 +6133,52 @@
       <c r="BT31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BU31" s="40" t="s">
+      <c r="BU31" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="BV31" s="40" t="s">
+      <c r="BV31" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="BW31" s="40" t="s">
+      <c r="BW31" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="BX31" s="40" t="s">
+      <c r="BX31" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="BY31" s="40" t="s">
+      <c r="BY31" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="BZ31" s="40" t="s">
+      <c r="BZ31" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="CA31" s="40" t="s">
+      <c r="CA31" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="CB31" s="40" t="s">
+      <c r="CB31" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="CC31" s="40" t="s">
+      <c r="CC31" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="CD31" s="40" t="s">
+      <c r="CD31" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="CE31" s="40" t="s">
+      <c r="CE31" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="CF31" s="40" t="s">
+      <c r="CF31" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="CG31" s="40" t="s">
+      <c r="CG31" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="CH31" s="40" t="s">
+      <c r="CH31" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="CI31" s="40" t="s">
+      <c r="CI31" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="CJ31" s="40" t="s">
+      <c r="CJ31" s="85" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6150,16 +6285,16 @@
       <c r="BL32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BM32" s="16" t="s">
+      <c r="BM32" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="BN32" s="39" t="s">
+      <c r="BN32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="BO32" s="39" t="s">
+      <c r="BO32" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BP32" s="39" t="s">
+      <c r="BP32" s="87" t="s">
         <v>28</v>
       </c>
       <c r="BQ32" s="16" t="s">
@@ -6174,52 +6309,52 @@
       <c r="BT32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BU32" s="16" t="s">
+      <c r="BU32" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="BV32" s="39" t="s">
+      <c r="BV32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="BW32" s="39" t="s">
+      <c r="BW32" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="BX32" s="39" t="s">
+      <c r="BX32" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="BY32" s="16" t="s">
+      <c r="BY32" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="BZ32" s="39" t="s">
+      <c r="BZ32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="CA32" s="39" t="s">
+      <c r="CA32" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="CB32" s="39" t="s">
+      <c r="CB32" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="CC32" s="16" t="s">
+      <c r="CC32" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="CD32" s="39" t="s">
+      <c r="CD32" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="CE32" s="39" t="s">
+      <c r="CE32" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="CF32" s="39" t="s">
+      <c r="CF32" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="CG32" s="16" t="s">
+      <c r="CG32" s="86" t="s">
         <v>360</v>
       </c>
-      <c r="CH32" s="39" t="s">
+      <c r="CH32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="CI32" s="39" t="s">
+      <c r="CI32" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="CJ32" s="39" t="s">
+      <c r="CJ32" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6374,16 +6509,16 @@
         <v>34</v>
       </c>
       <c r="BL33" s="40"/>
-      <c r="BM33" s="40" t="s">
+      <c r="BM33" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="BN33" s="40" t="s">
+      <c r="BN33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="BO33" s="40" t="s">
+      <c r="BO33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="BP33" s="40"/>
+      <c r="BP33" s="85"/>
       <c r="BQ33" s="40" t="s">
         <v>4</v>
       </c>
@@ -6394,46 +6529,46 @@
         <v>34</v>
       </c>
       <c r="BT33" s="40"/>
-      <c r="BU33" s="40" t="s">
+      <c r="BU33" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="BV33" s="40" t="s">
+      <c r="BV33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="BW33" s="40" t="s">
+      <c r="BW33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="BX33" s="40"/>
-      <c r="BY33" s="40" t="s">
+      <c r="BX33" s="85"/>
+      <c r="BY33" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="BZ33" s="40" t="s">
+      <c r="BZ33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="CA33" s="40" t="s">
+      <c r="CA33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="CB33" s="40"/>
-      <c r="CC33" s="40" t="s">
+      <c r="CB33" s="85"/>
+      <c r="CC33" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="CD33" s="40" t="s">
+      <c r="CD33" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="CE33" s="40" t="s">
+      <c r="CE33" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="CF33" s="40"/>
-      <c r="CG33" s="40" t="s">
+      <c r="CF33" s="59"/>
+      <c r="CG33" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="CH33" s="40" t="s">
+      <c r="CH33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="CI33" s="40" t="s">
+      <c r="CI33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="CJ33" s="40"/>
+      <c r="CJ33" s="85"/>
     </row>
     <row r="34" spans="1:88">
       <c r="A34" s="12" t="s">
@@ -6586,18 +6721,18 @@
         <v>51</v>
       </c>
       <c r="BL34" s="39"/>
-      <c r="BM34" s="39" t="s">
+      <c r="BM34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="BN34" s="36">
+      <c r="BN34" s="88">
         <v>40386</v>
       </c>
-      <c r="BO34" s="39" t="s">
+      <c r="BO34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="BP34" s="39"/>
+      <c r="BP34" s="87"/>
       <c r="BQ34" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BR34" s="36">
         <v>40386</v>
@@ -6606,1064 +6741,1064 @@
         <v>51</v>
       </c>
       <c r="BT34" s="39"/>
-      <c r="BU34" s="39" t="s">
+      <c r="BU34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="BV34" s="36">
+      <c r="BV34" s="88">
         <v>40386</v>
       </c>
-      <c r="BW34" s="39" t="s">
+      <c r="BW34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="BX34" s="39"/>
-      <c r="BY34" s="39" t="s">
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="BZ34" s="36">
+      <c r="BZ34" s="88">
         <v>40386</v>
       </c>
-      <c r="CA34" s="39" t="s">
+      <c r="CA34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="CB34" s="39"/>
-      <c r="CC34" s="39" t="s">
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="CD34" s="36">
+      <c r="CD34" s="62">
         <v>40386</v>
       </c>
-      <c r="CE34" s="39" t="s">
+      <c r="CE34" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="CF34" s="39"/>
-      <c r="CG34" s="39" t="s">
+      <c r="CF34" s="61"/>
+      <c r="CG34" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="CH34" s="36">
+      <c r="CH34" s="88">
         <v>40386</v>
       </c>
-      <c r="CI34" s="39" t="s">
+      <c r="CI34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="CJ34" s="39"/>
+      <c r="CJ34" s="87"/>
     </row>
     <row r="35" spans="1:88">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44" t="s">
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44" t="s">
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44" t="s">
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44" t="s">
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="44"/>
-      <c r="AI35" s="44"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44" t="s">
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44" t="s">
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44" t="s">
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44" t="s">
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="52"/>
+      <c r="AV35" s="52"/>
+      <c r="AW35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="44"/>
-      <c r="BE35" s="53" t="s">
+      <c r="AX35" s="52"/>
+      <c r="AY35" s="52"/>
+      <c r="AZ35" s="52"/>
+      <c r="BE35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="54"/>
-      <c r="BH35" s="55"/>
-      <c r="BI35" s="53" t="s">
+      <c r="BF35" s="47"/>
+      <c r="BG35" s="47"/>
+      <c r="BH35" s="48"/>
+      <c r="BI35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="54"/>
-      <c r="BK35" s="54"/>
-      <c r="BL35" s="55"/>
-      <c r="BM35" s="53" t="s">
+      <c r="BJ35" s="47"/>
+      <c r="BK35" s="47"/>
+      <c r="BL35" s="48"/>
+      <c r="BM35" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="55"/>
-      <c r="BQ35" s="53" t="s">
+      <c r="BN35" s="90"/>
+      <c r="BO35" s="90"/>
+      <c r="BP35" s="91"/>
+      <c r="BQ35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="54"/>
-      <c r="BS35" s="54"/>
-      <c r="BT35" s="55"/>
-      <c r="BU35" s="53" t="s">
+      <c r="BR35" s="47"/>
+      <c r="BS35" s="47"/>
+      <c r="BT35" s="48"/>
+      <c r="BU35" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BV35" s="54"/>
-      <c r="BW35" s="54"/>
-      <c r="BX35" s="55"/>
-      <c r="BY35" s="53" t="s">
+      <c r="BV35" s="90"/>
+      <c r="BW35" s="90"/>
+      <c r="BX35" s="91"/>
+      <c r="BY35" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="54"/>
-      <c r="CA35" s="54"/>
-      <c r="CB35" s="55"/>
-      <c r="CC35" s="53" t="s">
+      <c r="BZ35" s="90"/>
+      <c r="CA35" s="90"/>
+      <c r="CB35" s="91"/>
+      <c r="CC35" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="55"/>
-      <c r="CG35" s="53" t="s">
+      <c r="CD35" s="64"/>
+      <c r="CE35" s="64"/>
+      <c r="CF35" s="65"/>
+      <c r="CG35" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="CH35" s="54"/>
-      <c r="CI35" s="54"/>
-      <c r="CJ35" s="55"/>
+      <c r="CH35" s="90"/>
+      <c r="CI35" s="90"/>
+      <c r="CJ35" s="91"/>
     </row>
     <row r="36" spans="1:88" ht="45" customHeight="1">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="43" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="43" t="s">
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45" t="s">
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45" t="s">
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="43" t="s">
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45" t="s">
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45" t="s">
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45" t="s">
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="45" t="s">
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="45"/>
-      <c r="AQ36" s="45"/>
-      <c r="AR36" s="45"/>
-      <c r="AS36" s="45" t="s">
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="53"/>
+      <c r="AS36" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="45"/>
-      <c r="AU36" s="45"/>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45" t="s">
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BE36" s="47" t="s">
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BE36" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="BF36" s="48"/>
-      <c r="BG36" s="48"/>
-      <c r="BH36" s="49"/>
-      <c r="BI36" s="47" t="s">
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="BJ36" s="48"/>
-      <c r="BK36" s="48"/>
-      <c r="BL36" s="49"/>
-      <c r="BM36" s="47" t="s">
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
+      <c r="BL36" s="45"/>
+      <c r="BM36" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="BN36" s="48"/>
-      <c r="BO36" s="48"/>
-      <c r="BP36" s="49"/>
-      <c r="BQ36" s="47" t="s">
+      <c r="BN36" s="93"/>
+      <c r="BO36" s="93"/>
+      <c r="BP36" s="94"/>
+      <c r="BQ36" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="BR36" s="48"/>
-      <c r="BS36" s="48"/>
-      <c r="BT36" s="49"/>
-      <c r="BU36" s="47" t="s">
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="45"/>
+      <c r="BU36" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="BV36" s="48"/>
-      <c r="BW36" s="48"/>
-      <c r="BX36" s="49"/>
-      <c r="BY36" s="47" t="s">
+      <c r="BV36" s="93"/>
+      <c r="BW36" s="93"/>
+      <c r="BX36" s="94"/>
+      <c r="BY36" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="BZ36" s="48"/>
-      <c r="CA36" s="48"/>
-      <c r="CB36" s="49"/>
-      <c r="CC36" s="47" t="s">
+      <c r="BZ36" s="93"/>
+      <c r="CA36" s="93"/>
+      <c r="CB36" s="94"/>
+      <c r="CC36" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="CD36" s="48"/>
-      <c r="CE36" s="48"/>
-      <c r="CF36" s="49"/>
-      <c r="CG36" s="47" t="s">
+      <c r="CD36" s="67"/>
+      <c r="CE36" s="67"/>
+      <c r="CF36" s="68"/>
+      <c r="CG36" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="CH36" s="48"/>
-      <c r="CI36" s="48"/>
-      <c r="CJ36" s="49"/>
+      <c r="CH36" s="93"/>
+      <c r="CI36" s="93"/>
+      <c r="CJ36" s="94"/>
     </row>
     <row r="37" spans="1:88">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46" t="s">
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46" t="s">
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46" t="s">
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46" t="s">
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46" t="s">
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46" t="s">
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46" t="s">
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46" t="s">
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
-      <c r="AO37" s="46" t="s">
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="46"/>
-      <c r="AS37" s="46" t="s">
+      <c r="AP37" s="54"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="46"/>
-      <c r="AU37" s="46"/>
-      <c r="AV37" s="46"/>
-      <c r="AW37" s="46" t="s">
+      <c r="AT37" s="54"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="54"/>
+      <c r="AW37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="46"/>
-      <c r="AY37" s="46"/>
-      <c r="AZ37" s="46"/>
-      <c r="BE37" s="56" t="s">
+      <c r="AX37" s="54"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BE37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="57"/>
-      <c r="BG37" s="57"/>
-      <c r="BH37" s="58"/>
-      <c r="BI37" s="56" t="s">
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="57"/>
-      <c r="BK37" s="57"/>
-      <c r="BL37" s="58"/>
-      <c r="BM37" s="56" t="s">
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="51"/>
+      <c r="BM37" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="57"/>
-      <c r="BO37" s="57"/>
-      <c r="BP37" s="58"/>
-      <c r="BQ37" s="56" t="s">
+      <c r="BN37" s="96"/>
+      <c r="BO37" s="96"/>
+      <c r="BP37" s="97"/>
+      <c r="BQ37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="57"/>
-      <c r="BS37" s="57"/>
-      <c r="BT37" s="58"/>
-      <c r="BU37" s="56" t="s">
+      <c r="BR37" s="50"/>
+      <c r="BS37" s="50"/>
+      <c r="BT37" s="51"/>
+      <c r="BU37" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BV37" s="57"/>
-      <c r="BW37" s="57"/>
-      <c r="BX37" s="58"/>
-      <c r="BY37" s="56" t="s">
+      <c r="BV37" s="96"/>
+      <c r="BW37" s="96"/>
+      <c r="BX37" s="97"/>
+      <c r="BY37" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="57"/>
-      <c r="CA37" s="57"/>
-      <c r="CB37" s="58"/>
-      <c r="CC37" s="56" t="s">
+      <c r="BZ37" s="96"/>
+      <c r="CA37" s="96"/>
+      <c r="CB37" s="97"/>
+      <c r="CC37" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="57"/>
-      <c r="CE37" s="57"/>
-      <c r="CF37" s="58"/>
-      <c r="CG37" s="56" t="s">
+      <c r="CD37" s="70"/>
+      <c r="CE37" s="70"/>
+      <c r="CF37" s="71"/>
+      <c r="CG37" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="CH37" s="57"/>
-      <c r="CI37" s="57"/>
-      <c r="CJ37" s="58"/>
+      <c r="CH37" s="96"/>
+      <c r="CI37" s="96"/>
+      <c r="CJ37" s="97"/>
     </row>
     <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43" t="s">
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43" t="s">
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43" t="s">
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43" t="s">
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43" t="s">
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43" t="s">
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="AL38" s="43"/>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="43" t="s">
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="AP38" s="43"/>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="43"/>
-      <c r="AS38" s="43" t="s">
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="55"/>
+      <c r="AR38" s="55"/>
+      <c r="AS38" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="AT38" s="43"/>
-      <c r="AU38" s="43"/>
-      <c r="AV38" s="43"/>
-      <c r="AW38" s="43" t="s">
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="55"/>
+      <c r="AV38" s="55"/>
+      <c r="AW38" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="AX38" s="43"/>
-      <c r="AY38" s="43"/>
-      <c r="AZ38" s="43"/>
-      <c r="BE38" s="47" t="s">
+      <c r="AX38" s="55"/>
+      <c r="AY38" s="55"/>
+      <c r="AZ38" s="55"/>
+      <c r="BE38" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="BF38" s="48"/>
-      <c r="BG38" s="48"/>
-      <c r="BH38" s="49"/>
-      <c r="BI38" s="47" t="s">
+      <c r="BF38" s="44"/>
+      <c r="BG38" s="44"/>
+      <c r="BH38" s="45"/>
+      <c r="BI38" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="BJ38" s="48"/>
-      <c r="BK38" s="48"/>
-      <c r="BL38" s="49"/>
-      <c r="BM38" s="47" t="s">
+      <c r="BJ38" s="44"/>
+      <c r="BK38" s="44"/>
+      <c r="BL38" s="45"/>
+      <c r="BM38" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="BN38" s="48"/>
-      <c r="BO38" s="48"/>
-      <c r="BP38" s="49"/>
-      <c r="BQ38" s="47" t="s">
+      <c r="BN38" s="93"/>
+      <c r="BO38" s="93"/>
+      <c r="BP38" s="94"/>
+      <c r="BQ38" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="BR38" s="48"/>
-      <c r="BS38" s="48"/>
-      <c r="BT38" s="49"/>
-      <c r="BU38" s="47" t="s">
+      <c r="BR38" s="44"/>
+      <c r="BS38" s="44"/>
+      <c r="BT38" s="45"/>
+      <c r="BU38" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="BV38" s="48"/>
-      <c r="BW38" s="48"/>
-      <c r="BX38" s="49"/>
-      <c r="BY38" s="47" t="s">
+      <c r="BV38" s="93"/>
+      <c r="BW38" s="93"/>
+      <c r="BX38" s="94"/>
+      <c r="BY38" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="BZ38" s="48"/>
-      <c r="CA38" s="48"/>
-      <c r="CB38" s="49"/>
-      <c r="CC38" s="47" t="s">
+      <c r="BZ38" s="93"/>
+      <c r="CA38" s="93"/>
+      <c r="CB38" s="94"/>
+      <c r="CC38" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="CD38" s="48"/>
-      <c r="CE38" s="48"/>
-      <c r="CF38" s="49"/>
-      <c r="CG38" s="47" t="s">
+      <c r="CD38" s="67"/>
+      <c r="CE38" s="67"/>
+      <c r="CF38" s="68"/>
+      <c r="CG38" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="CH38" s="48"/>
-      <c r="CI38" s="48"/>
-      <c r="CJ38" s="49"/>
+      <c r="CH38" s="93"/>
+      <c r="CI38" s="93"/>
+      <c r="CJ38" s="94"/>
     </row>
     <row r="39" spans="1:88">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44" t="s">
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44" t="s">
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44" t="s">
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44" t="s">
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44" t="s">
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44" t="s">
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44" t="s">
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44" t="s">
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="44" t="s">
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="44"/>
-      <c r="AY39" s="44"/>
-      <c r="AZ39" s="44"/>
-      <c r="BE39" s="53" t="s">
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BE39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="54"/>
-      <c r="BG39" s="54"/>
-      <c r="BH39" s="55"/>
-      <c r="BI39" s="53" t="s">
+      <c r="BF39" s="47"/>
+      <c r="BG39" s="47"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="54"/>
-      <c r="BK39" s="54"/>
-      <c r="BL39" s="55"/>
-      <c r="BM39" s="53" t="s">
+      <c r="BJ39" s="47"/>
+      <c r="BK39" s="47"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="54"/>
-      <c r="BO39" s="54"/>
-      <c r="BP39" s="55"/>
-      <c r="BQ39" s="53" t="s">
+      <c r="BN39" s="90"/>
+      <c r="BO39" s="90"/>
+      <c r="BP39" s="91"/>
+      <c r="BQ39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="54"/>
-      <c r="BS39" s="54"/>
-      <c r="BT39" s="55"/>
-      <c r="BU39" s="53" t="s">
+      <c r="BR39" s="47"/>
+      <c r="BS39" s="47"/>
+      <c r="BT39" s="48"/>
+      <c r="BU39" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BV39" s="54"/>
-      <c r="BW39" s="54"/>
-      <c r="BX39" s="55"/>
-      <c r="BY39" s="53" t="s">
+      <c r="BV39" s="90"/>
+      <c r="BW39" s="90"/>
+      <c r="BX39" s="91"/>
+      <c r="BY39" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="54"/>
-      <c r="CA39" s="54"/>
-      <c r="CB39" s="55"/>
-      <c r="CC39" s="53" t="s">
+      <c r="BZ39" s="90"/>
+      <c r="CA39" s="90"/>
+      <c r="CB39" s="91"/>
+      <c r="CC39" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="54"/>
-      <c r="CE39" s="54"/>
-      <c r="CF39" s="55"/>
-      <c r="CG39" s="53" t="s">
+      <c r="CD39" s="64"/>
+      <c r="CE39" s="64"/>
+      <c r="CF39" s="65"/>
+      <c r="CG39" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="CH39" s="54"/>
-      <c r="CI39" s="54"/>
-      <c r="CJ39" s="55"/>
+      <c r="CH39" s="90"/>
+      <c r="CI39" s="90"/>
+      <c r="CJ39" s="91"/>
     </row>
     <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43" t="s">
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43" t="s">
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43" t="s">
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43" t="s">
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43" t="s">
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="AL40" s="43"/>
-      <c r="AM40" s="43"/>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="43" t="s">
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="AP40" s="43"/>
-      <c r="AQ40" s="43"/>
-      <c r="AR40" s="43"/>
-      <c r="AS40" s="43" t="s">
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
+      <c r="AR40" s="55"/>
+      <c r="AS40" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="AT40" s="43"/>
-      <c r="AU40" s="43"/>
-      <c r="AV40" s="43"/>
-      <c r="AW40" s="43" t="s">
+      <c r="AT40" s="55"/>
+      <c r="AU40" s="55"/>
+      <c r="AV40" s="55"/>
+      <c r="AW40" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="AX40" s="43"/>
-      <c r="AY40" s="43"/>
-      <c r="AZ40" s="43"/>
-      <c r="BE40" s="47" t="s">
+      <c r="AX40" s="55"/>
+      <c r="AY40" s="55"/>
+      <c r="AZ40" s="55"/>
+      <c r="BE40" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="BF40" s="48"/>
-      <c r="BG40" s="48"/>
-      <c r="BH40" s="49"/>
-      <c r="BI40" s="47" t="s">
+      <c r="BF40" s="44"/>
+      <c r="BG40" s="44"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="BJ40" s="48"/>
-      <c r="BK40" s="48"/>
-      <c r="BL40" s="49"/>
-      <c r="BM40" s="47" t="s">
+      <c r="BJ40" s="44"/>
+      <c r="BK40" s="44"/>
+      <c r="BL40" s="45"/>
+      <c r="BM40" s="92" t="s">
         <v>397</v>
       </c>
-      <c r="BN40" s="48"/>
-      <c r="BO40" s="48"/>
-      <c r="BP40" s="49"/>
-      <c r="BQ40" s="47" t="s">
+      <c r="BN40" s="93"/>
+      <c r="BO40" s="93"/>
+      <c r="BP40" s="94"/>
+      <c r="BQ40" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="BR40" s="48"/>
-      <c r="BS40" s="48"/>
-      <c r="BT40" s="49"/>
-      <c r="BU40" s="47" t="s">
+      <c r="BR40" s="44"/>
+      <c r="BS40" s="44"/>
+      <c r="BT40" s="45"/>
+      <c r="BU40" s="92" t="s">
         <v>400</v>
       </c>
-      <c r="BV40" s="48"/>
-      <c r="BW40" s="48"/>
-      <c r="BX40" s="49"/>
-      <c r="BY40" s="47" t="s">
+      <c r="BV40" s="93"/>
+      <c r="BW40" s="93"/>
+      <c r="BX40" s="94"/>
+      <c r="BY40" s="92" t="s">
         <v>402</v>
       </c>
-      <c r="BZ40" s="48"/>
-      <c r="CA40" s="48"/>
-      <c r="CB40" s="49"/>
-      <c r="CC40" s="47" t="s">
+      <c r="BZ40" s="93"/>
+      <c r="CA40" s="93"/>
+      <c r="CB40" s="94"/>
+      <c r="CC40" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="48"/>
-      <c r="CE40" s="48"/>
-      <c r="CF40" s="49"/>
-      <c r="CG40" s="47" t="s">
+      <c r="CD40" s="67"/>
+      <c r="CE40" s="67"/>
+      <c r="CF40" s="68"/>
+      <c r="CG40" s="92" t="s">
         <v>405</v>
       </c>
-      <c r="CH40" s="48"/>
-      <c r="CI40" s="48"/>
-      <c r="CJ40" s="49"/>
+      <c r="CH40" s="93"/>
+      <c r="CI40" s="93"/>
+      <c r="CJ40" s="94"/>
     </row>
     <row r="41" spans="1:88">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44" t="s">
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44" t="s">
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44" t="s">
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44" t="s">
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44" t="s">
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44" t="s">
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44" t="s">
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="44"/>
-      <c r="AN41" s="44"/>
-      <c r="AO41" s="44" t="s">
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
+      <c r="AO41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="44"/>
-      <c r="AR41" s="44"/>
-      <c r="AS41" s="44" t="s">
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="52"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="44"/>
-      <c r="AW41" s="44" t="s">
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="44"/>
-      <c r="AY41" s="44"/>
-      <c r="AZ41" s="44"/>
-      <c r="BE41" s="53" t="s">
+      <c r="AX41" s="52"/>
+      <c r="AY41" s="52"/>
+      <c r="AZ41" s="52"/>
+      <c r="BE41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="54"/>
-      <c r="BG41" s="54"/>
-      <c r="BH41" s="55"/>
-      <c r="BI41" s="53" t="s">
+      <c r="BF41" s="47"/>
+      <c r="BG41" s="47"/>
+      <c r="BH41" s="48"/>
+      <c r="BI41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="54"/>
-      <c r="BK41" s="54"/>
-      <c r="BL41" s="55"/>
-      <c r="BM41" s="53" t="s">
+      <c r="BJ41" s="47"/>
+      <c r="BK41" s="47"/>
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="54"/>
-      <c r="BO41" s="54"/>
-      <c r="BP41" s="55"/>
-      <c r="BQ41" s="53" t="s">
+      <c r="BN41" s="90"/>
+      <c r="BO41" s="90"/>
+      <c r="BP41" s="91"/>
+      <c r="BQ41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="54"/>
-      <c r="BS41" s="54"/>
-      <c r="BT41" s="55"/>
-      <c r="BU41" s="53" t="s">
+      <c r="BR41" s="47"/>
+      <c r="BS41" s="47"/>
+      <c r="BT41" s="48"/>
+      <c r="BU41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BV41" s="54"/>
-      <c r="BW41" s="54"/>
-      <c r="BX41" s="55"/>
-      <c r="BY41" s="53" t="s">
+      <c r="BV41" s="90"/>
+      <c r="BW41" s="90"/>
+      <c r="BX41" s="91"/>
+      <c r="BY41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="54"/>
-      <c r="CA41" s="54"/>
-      <c r="CB41" s="55"/>
-      <c r="CC41" s="53" t="s">
+      <c r="BZ41" s="90"/>
+      <c r="CA41" s="90"/>
+      <c r="CB41" s="91"/>
+      <c r="CC41" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="54"/>
-      <c r="CE41" s="54"/>
-      <c r="CF41" s="55"/>
-      <c r="CG41" s="53" t="s">
+      <c r="CD41" s="64"/>
+      <c r="CE41" s="64"/>
+      <c r="CF41" s="65"/>
+      <c r="CG41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="CH41" s="54"/>
-      <c r="CI41" s="54"/>
-      <c r="CJ41" s="55"/>
+      <c r="CH41" s="90"/>
+      <c r="CI41" s="90"/>
+      <c r="CJ41" s="91"/>
     </row>
     <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43" t="s">
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43" t="s">
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43" t="s">
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43" t="s">
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43" t="s">
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="55"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43" t="s">
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
-      <c r="AS42" s="43" t="s">
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
+      <c r="AR42" s="55"/>
+      <c r="AS42" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="AT42" s="43"/>
-      <c r="AU42" s="43"/>
-      <c r="AV42" s="43"/>
-      <c r="AW42" s="43" t="s">
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="55"/>
+      <c r="AV42" s="55"/>
+      <c r="AW42" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="AX42" s="43"/>
-      <c r="AY42" s="43"/>
-      <c r="AZ42" s="43"/>
-      <c r="BE42" s="47" t="s">
+      <c r="AX42" s="55"/>
+      <c r="AY42" s="55"/>
+      <c r="AZ42" s="55"/>
+      <c r="BE42" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="BF42" s="48"/>
-      <c r="BG42" s="48"/>
-      <c r="BH42" s="49"/>
-      <c r="BI42" s="47" t="s">
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="BJ42" s="48"/>
-      <c r="BK42" s="48"/>
-      <c r="BL42" s="49"/>
-      <c r="BM42" s="47" t="s">
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="45"/>
+      <c r="BM42" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="BN42" s="48"/>
-      <c r="BO42" s="48"/>
-      <c r="BP42" s="49"/>
-      <c r="BQ42" s="47" t="s">
+      <c r="BN42" s="93"/>
+      <c r="BO42" s="93"/>
+      <c r="BP42" s="94"/>
+      <c r="BQ42" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="BR42" s="48"/>
-      <c r="BS42" s="48"/>
-      <c r="BT42" s="49"/>
-      <c r="BU42" s="47" t="s">
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="45"/>
+      <c r="BU42" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="BV42" s="48"/>
-      <c r="BW42" s="48"/>
-      <c r="BX42" s="49"/>
-      <c r="BY42" s="47" t="s">
+      <c r="BV42" s="93"/>
+      <c r="BW42" s="93"/>
+      <c r="BX42" s="94"/>
+      <c r="BY42" s="92" t="s">
         <v>403</v>
       </c>
-      <c r="BZ42" s="48"/>
-      <c r="CA42" s="48"/>
-      <c r="CB42" s="49"/>
-      <c r="CC42" s="47" t="s">
+      <c r="BZ42" s="93"/>
+      <c r="CA42" s="93"/>
+      <c r="CB42" s="94"/>
+      <c r="CC42" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="CD42" s="48"/>
-      <c r="CE42" s="48"/>
-      <c r="CF42" s="49"/>
-      <c r="CG42" s="47" t="s">
+      <c r="CD42" s="67"/>
+      <c r="CE42" s="67"/>
+      <c r="CF42" s="68"/>
+      <c r="CG42" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="CH42" s="48"/>
-      <c r="CI42" s="48"/>
-      <c r="CJ42" s="49"/>
+      <c r="CH42" s="93"/>
+      <c r="CI42" s="93"/>
+      <c r="CJ42" s="94"/>
     </row>
     <row r="43" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -7925,28 +8060,28 @@
       <c r="BD45" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BE45" s="40" t="s">
+      <c r="BE45" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BF45" s="40" t="s">
+      <c r="BF45" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="BG45" s="40" t="s">
+      <c r="BG45" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="BH45" s="40" t="s">
+      <c r="BH45" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BI45" s="40" t="s">
+      <c r="BI45" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BJ45" s="40" t="s">
+      <c r="BJ45" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="BK45" s="40" t="s">
+      <c r="BK45" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="BL45" s="40" t="s">
+      <c r="BL45" s="59" t="s">
         <v>1</v>
       </c>
       <c r="BM45" s="40" t="s">
@@ -8131,28 +8266,28 @@
       <c r="BD46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BE46" s="16" t="s">
+      <c r="BE46" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="BF46" s="39" t="s">
+      <c r="BF46" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="BG46" s="39" t="s">
+      <c r="BG46" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="BH46" s="39" t="s">
+      <c r="BH46" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BI46" s="16" t="s">
+      <c r="BI46" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="BJ46" s="39" t="s">
+      <c r="BJ46" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="BK46" s="39" t="s">
+      <c r="BK46" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="BL46" s="39" t="s">
+      <c r="BL46" s="61" t="s">
         <v>11</v>
       </c>
       <c r="BM46" s="16" t="s">
@@ -8311,26 +8446,26 @@
         <v>34</v>
       </c>
       <c r="BD47" s="40"/>
-      <c r="BE47" s="40" t="s">
+      <c r="BE47" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF47" s="40" t="s">
+      <c r="BF47" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="BG47" s="40" t="s">
+      <c r="BG47" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="BH47" s="40"/>
-      <c r="BI47" s="40" t="s">
+      <c r="BH47" s="59"/>
+      <c r="BI47" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BJ47" s="40" t="s">
+      <c r="BJ47" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="BK47" s="40" t="s">
+      <c r="BK47" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="BL47" s="40"/>
+      <c r="BL47" s="59"/>
       <c r="BM47" s="40" t="s">
         <v>4</v>
       </c>
@@ -8483,26 +8618,26 @@
         <v>51</v>
       </c>
       <c r="BD48" s="39"/>
-      <c r="BE48" s="39" t="s">
+      <c r="BE48" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="BF48" s="36">
+      <c r="BF48" s="62">
         <v>40386</v>
       </c>
-      <c r="BG48" s="39" t="s">
+      <c r="BG48" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BH48" s="39"/>
-      <c r="BI48" s="39" t="s">
+      <c r="BH48" s="61"/>
+      <c r="BI48" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="BJ48" s="36">
+      <c r="BJ48" s="62">
         <v>40386</v>
       </c>
-      <c r="BK48" s="39" t="s">
+      <c r="BK48" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BL48" s="39"/>
+      <c r="BL48" s="61"/>
       <c r="BM48" s="39" t="s">
         <v>40</v>
       </c>
@@ -8525,839 +8660,1368 @@
       <c r="BT48" s="39"/>
     </row>
     <row r="49" spans="1:72">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44" t="s">
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44" t="s">
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44" t="s">
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44" t="s">
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="44" t="s">
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="44"/>
-      <c r="AE49" s="44"/>
-      <c r="AF49" s="44"/>
-      <c r="AG49" s="44" t="s">
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="44"/>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44" t="s">
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="44"/>
-      <c r="AM49" s="44"/>
-      <c r="AN49" s="44"/>
-      <c r="AO49" s="44" t="s">
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
+      <c r="AO49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="44"/>
-      <c r="AQ49" s="44"/>
-      <c r="AR49" s="44"/>
-      <c r="AS49" s="44" t="s">
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="52"/>
+      <c r="AR49" s="52"/>
+      <c r="AS49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="44"/>
-      <c r="AU49" s="44"/>
-      <c r="AV49" s="44"/>
-      <c r="BA49" s="53" t="s">
+      <c r="AT49" s="52"/>
+      <c r="AU49" s="52"/>
+      <c r="AV49" s="52"/>
+      <c r="BA49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BB49" s="54"/>
-      <c r="BC49" s="54"/>
-      <c r="BD49" s="55"/>
-      <c r="BE49" s="53" t="s">
+      <c r="BB49" s="47"/>
+      <c r="BC49" s="47"/>
+      <c r="BD49" s="48"/>
+      <c r="BE49" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BF49" s="54"/>
-      <c r="BG49" s="54"/>
-      <c r="BH49" s="55"/>
-      <c r="BI49" s="53" t="s">
+      <c r="BF49" s="64"/>
+      <c r="BG49" s="64"/>
+      <c r="BH49" s="65"/>
+      <c r="BI49" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BJ49" s="54"/>
-      <c r="BK49" s="54"/>
-      <c r="BL49" s="55"/>
-      <c r="BM49" s="53" t="s">
+      <c r="BJ49" s="64"/>
+      <c r="BK49" s="64"/>
+      <c r="BL49" s="65"/>
+      <c r="BM49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BN49" s="54"/>
-      <c r="BO49" s="54"/>
-      <c r="BP49" s="55"/>
-      <c r="BQ49" s="53" t="s">
+      <c r="BN49" s="47"/>
+      <c r="BO49" s="47"/>
+      <c r="BP49" s="48"/>
+      <c r="BQ49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BR49" s="54"/>
-      <c r="BS49" s="54"/>
-      <c r="BT49" s="55"/>
+      <c r="BR49" s="47"/>
+      <c r="BS49" s="47"/>
+      <c r="BT49" s="48"/>
     </row>
     <row r="50" spans="1:72" ht="30" customHeight="1">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45" t="s">
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45" t="s">
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45" t="s">
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45" t="s">
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45" t="s">
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45" t="s">
+      <c r="Z50" s="53"/>
+      <c r="AA50" s="53"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45" t="s">
+      <c r="AD50" s="53"/>
+      <c r="AE50" s="53"/>
+      <c r="AF50" s="53"/>
+      <c r="AG50" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45" t="s">
+      <c r="AH50" s="53"/>
+      <c r="AI50" s="53"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="45"/>
-      <c r="AO50" s="45" t="s">
+      <c r="AL50" s="53"/>
+      <c r="AM50" s="53"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="AP50" s="45"/>
-      <c r="AQ50" s="45"/>
-      <c r="AR50" s="45"/>
-      <c r="AS50" s="45" t="s">
+      <c r="AP50" s="53"/>
+      <c r="AQ50" s="53"/>
+      <c r="AR50" s="53"/>
+      <c r="AS50" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AT50" s="45"/>
-      <c r="AU50" s="45"/>
-      <c r="AV50" s="45"/>
-      <c r="BA50" s="47" t="s">
+      <c r="AT50" s="53"/>
+      <c r="AU50" s="53"/>
+      <c r="AV50" s="53"/>
+      <c r="BA50" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="BB50" s="48"/>
-      <c r="BC50" s="48"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="47" t="s">
+      <c r="BB50" s="44"/>
+      <c r="BC50" s="44"/>
+      <c r="BD50" s="45"/>
+      <c r="BE50" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="BF50" s="48"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="49"/>
-      <c r="BI50" s="47" t="s">
+      <c r="BF50" s="67"/>
+      <c r="BG50" s="67"/>
+      <c r="BH50" s="68"/>
+      <c r="BI50" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="BJ50" s="48"/>
-      <c r="BK50" s="48"/>
-      <c r="BL50" s="49"/>
-      <c r="BM50" s="47" t="s">
+      <c r="BJ50" s="67"/>
+      <c r="BK50" s="67"/>
+      <c r="BL50" s="68"/>
+      <c r="BM50" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="BN50" s="48"/>
-      <c r="BO50" s="48"/>
-      <c r="BP50" s="49"/>
-      <c r="BQ50" s="47" t="s">
+      <c r="BN50" s="44"/>
+      <c r="BO50" s="44"/>
+      <c r="BP50" s="45"/>
+      <c r="BQ50" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="BR50" s="48"/>
-      <c r="BS50" s="48"/>
-      <c r="BT50" s="49"/>
+      <c r="BR50" s="44"/>
+      <c r="BS50" s="44"/>
+      <c r="BT50" s="45"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46" t="s">
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46" t="s">
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46" t="s">
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46" t="s">
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46" t="s">
+      <c r="V51" s="54"/>
+      <c r="W51" s="54"/>
+      <c r="X51" s="54"/>
+      <c r="Y51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46" t="s">
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="54"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46" t="s">
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46" t="s">
+      <c r="AH51" s="54"/>
+      <c r="AI51" s="54"/>
+      <c r="AJ51" s="54"/>
+      <c r="AK51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="46"/>
-      <c r="AO51" s="46" t="s">
+      <c r="AL51" s="54"/>
+      <c r="AM51" s="54"/>
+      <c r="AN51" s="54"/>
+      <c r="AO51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="46"/>
-      <c r="AQ51" s="46"/>
-      <c r="AR51" s="46"/>
-      <c r="AS51" s="46" t="s">
+      <c r="AP51" s="54"/>
+      <c r="AQ51" s="54"/>
+      <c r="AR51" s="54"/>
+      <c r="AS51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="46"/>
-      <c r="AU51" s="46"/>
-      <c r="AV51" s="46"/>
-      <c r="BA51" s="56" t="s">
+      <c r="AT51" s="54"/>
+      <c r="AU51" s="54"/>
+      <c r="AV51" s="54"/>
+      <c r="BA51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BB51" s="57"/>
-      <c r="BC51" s="57"/>
-      <c r="BD51" s="58"/>
-      <c r="BE51" s="56" t="s">
+      <c r="BB51" s="50"/>
+      <c r="BC51" s="50"/>
+      <c r="BD51" s="51"/>
+      <c r="BE51" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="57"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="58"/>
-      <c r="BI51" s="56" t="s">
+      <c r="BF51" s="70"/>
+      <c r="BG51" s="70"/>
+      <c r="BH51" s="71"/>
+      <c r="BI51" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BJ51" s="57"/>
-      <c r="BK51" s="57"/>
-      <c r="BL51" s="58"/>
-      <c r="BM51" s="56" t="s">
+      <c r="BJ51" s="70"/>
+      <c r="BK51" s="70"/>
+      <c r="BL51" s="71"/>
+      <c r="BM51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="57"/>
-      <c r="BO51" s="57"/>
-      <c r="BP51" s="58"/>
-      <c r="BQ51" s="56" t="s">
+      <c r="BN51" s="50"/>
+      <c r="BO51" s="50"/>
+      <c r="BP51" s="51"/>
+      <c r="BQ51" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BR51" s="57"/>
-      <c r="BS51" s="57"/>
-      <c r="BT51" s="58"/>
+      <c r="BR51" s="50"/>
+      <c r="BS51" s="50"/>
+      <c r="BT51" s="51"/>
     </row>
     <row r="52" spans="1:72" s="5" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43" t="s">
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43" t="s">
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43" t="s">
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43" t="s">
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43" t="s">
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="43"/>
-      <c r="AB52" s="43"/>
-      <c r="AC52" s="43" t="s">
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="AD52" s="43"/>
-      <c r="AE52" s="43"/>
-      <c r="AF52" s="43"/>
-      <c r="AG52" s="43" t="s">
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="AH52" s="43"/>
-      <c r="AI52" s="43"/>
-      <c r="AJ52" s="43"/>
-      <c r="AK52" s="43" t="s">
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="55"/>
+      <c r="AK52" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="AL52" s="43"/>
-      <c r="AM52" s="43"/>
-      <c r="AN52" s="43"/>
-      <c r="AO52" s="43" t="s">
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="55"/>
+      <c r="AO52" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="AP52" s="43"/>
-      <c r="AQ52" s="43"/>
-      <c r="AR52" s="43"/>
-      <c r="AS52" s="43" t="s">
+      <c r="AP52" s="55"/>
+      <c r="AQ52" s="55"/>
+      <c r="AR52" s="55"/>
+      <c r="AS52" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AT52" s="43"/>
-      <c r="AU52" s="43"/>
-      <c r="AV52" s="43"/>
-      <c r="BA52" s="47" t="s">
+      <c r="AT52" s="55"/>
+      <c r="AU52" s="55"/>
+      <c r="AV52" s="55"/>
+      <c r="BA52" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="BB52" s="48"/>
-      <c r="BC52" s="48"/>
-      <c r="BD52" s="49"/>
-      <c r="BE52" s="47" t="s">
+      <c r="BB52" s="44"/>
+      <c r="BC52" s="44"/>
+      <c r="BD52" s="45"/>
+      <c r="BE52" s="66" t="s">
         <v>377</v>
       </c>
-      <c r="BF52" s="48"/>
-      <c r="BG52" s="48"/>
-      <c r="BH52" s="49"/>
-      <c r="BI52" s="47" t="s">
+      <c r="BF52" s="67"/>
+      <c r="BG52" s="67"/>
+      <c r="BH52" s="68"/>
+      <c r="BI52" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="BJ52" s="48"/>
-      <c r="BK52" s="48"/>
-      <c r="BL52" s="49"/>
-      <c r="BM52" s="47" t="s">
+      <c r="BJ52" s="67"/>
+      <c r="BK52" s="67"/>
+      <c r="BL52" s="68"/>
+      <c r="BM52" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="BN52" s="48"/>
-      <c r="BO52" s="48"/>
-      <c r="BP52" s="49"/>
-      <c r="BQ52" s="47" t="s">
+      <c r="BN52" s="44"/>
+      <c r="BO52" s="44"/>
+      <c r="BP52" s="45"/>
+      <c r="BQ52" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="BR52" s="48"/>
-      <c r="BS52" s="48"/>
-      <c r="BT52" s="49"/>
+      <c r="BR52" s="44"/>
+      <c r="BS52" s="44"/>
+      <c r="BT52" s="45"/>
     </row>
     <row r="53" spans="1:72">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44" t="s">
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44" t="s">
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44" t="s">
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44" t="s">
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="44" t="s">
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="44"/>
-      <c r="AE53" s="44"/>
-      <c r="AF53" s="44"/>
-      <c r="AG53" s="44" t="s">
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="44"/>
-      <c r="AI53" s="44"/>
-      <c r="AJ53" s="44"/>
-      <c r="AK53" s="44" t="s">
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="44"/>
-      <c r="AM53" s="44"/>
-      <c r="AN53" s="44"/>
-      <c r="AO53" s="44" t="s">
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
+      <c r="AO53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="44"/>
-      <c r="AQ53" s="44"/>
-      <c r="AR53" s="44"/>
-      <c r="AS53" s="44" t="s">
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="52"/>
+      <c r="AS53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="44"/>
-      <c r="AU53" s="44"/>
-      <c r="AV53" s="44"/>
-      <c r="BA53" s="53" t="s">
+      <c r="AT53" s="52"/>
+      <c r="AU53" s="52"/>
+      <c r="AV53" s="52"/>
+      <c r="BA53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BB53" s="54"/>
-      <c r="BC53" s="54"/>
-      <c r="BD53" s="55"/>
-      <c r="BE53" s="53" t="s">
+      <c r="BB53" s="47"/>
+      <c r="BC53" s="47"/>
+      <c r="BD53" s="48"/>
+      <c r="BE53" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BF53" s="54"/>
-      <c r="BG53" s="54"/>
-      <c r="BH53" s="55"/>
-      <c r="BI53" s="53" t="s">
+      <c r="BF53" s="64"/>
+      <c r="BG53" s="64"/>
+      <c r="BH53" s="65"/>
+      <c r="BI53" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="BJ53" s="54"/>
-      <c r="BK53" s="54"/>
-      <c r="BL53" s="55"/>
-      <c r="BM53" s="53" t="s">
+      <c r="BJ53" s="64"/>
+      <c r="BK53" s="64"/>
+      <c r="BL53" s="65"/>
+      <c r="BM53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BN53" s="54"/>
-      <c r="BO53" s="54"/>
-      <c r="BP53" s="55"/>
-      <c r="BQ53" s="53" t="s">
+      <c r="BN53" s="47"/>
+      <c r="BO53" s="47"/>
+      <c r="BP53" s="48"/>
+      <c r="BQ53" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="BR53" s="54"/>
-      <c r="BS53" s="54"/>
-      <c r="BT53" s="55"/>
+      <c r="BR53" s="47"/>
+      <c r="BS53" s="47"/>
+      <c r="BT53" s="48"/>
     </row>
     <row r="54" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43" t="s">
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43" t="s">
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43" t="s">
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43" t="s">
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
+      <c r="U54" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43" t="s">
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="43"/>
-      <c r="AB54" s="43"/>
-      <c r="AC54" s="43" t="s">
+      <c r="Z54" s="55"/>
+      <c r="AA54" s="55"/>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="AD54" s="43"/>
-      <c r="AE54" s="43"/>
-      <c r="AF54" s="43"/>
-      <c r="AG54" s="43" t="s">
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="AH54" s="43"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="43"/>
-      <c r="AK54" s="43" t="s">
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="55"/>
+      <c r="AK54" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="AL54" s="43"/>
-      <c r="AM54" s="43"/>
-      <c r="AN54" s="43"/>
-      <c r="AO54" s="43" t="s">
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="55"/>
+      <c r="AO54" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="AP54" s="43"/>
-      <c r="AQ54" s="43"/>
-      <c r="AR54" s="43"/>
-      <c r="AS54" s="43" t="s">
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="55"/>
+      <c r="AR54" s="55"/>
+      <c r="AS54" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="AT54" s="43"/>
-      <c r="AU54" s="43"/>
-      <c r="AV54" s="43"/>
-      <c r="BA54" s="47" t="s">
+      <c r="AT54" s="55"/>
+      <c r="AU54" s="55"/>
+      <c r="AV54" s="55"/>
+      <c r="BA54" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="BB54" s="48"/>
-      <c r="BC54" s="48"/>
-      <c r="BD54" s="49"/>
-      <c r="BE54" s="47" t="s">
+      <c r="BB54" s="44"/>
+      <c r="BC54" s="44"/>
+      <c r="BD54" s="45"/>
+      <c r="BE54" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="BF54" s="48"/>
-      <c r="BG54" s="48"/>
-      <c r="BH54" s="49"/>
-      <c r="BI54" s="47" t="s">
+      <c r="BF54" s="67"/>
+      <c r="BG54" s="67"/>
+      <c r="BH54" s="68"/>
+      <c r="BI54" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="BJ54" s="48"/>
-      <c r="BK54" s="48"/>
-      <c r="BL54" s="49"/>
-      <c r="BM54" s="47" t="s">
+      <c r="BJ54" s="67"/>
+      <c r="BK54" s="67"/>
+      <c r="BL54" s="68"/>
+      <c r="BM54" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="BN54" s="48"/>
-      <c r="BO54" s="48"/>
-      <c r="BP54" s="49"/>
-      <c r="BQ54" s="47" t="s">
+      <c r="BN54" s="44"/>
+      <c r="BO54" s="44"/>
+      <c r="BP54" s="45"/>
+      <c r="BQ54" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="BR54" s="48"/>
-      <c r="BS54" s="48"/>
-      <c r="BT54" s="49"/>
+      <c r="BR54" s="44"/>
+      <c r="BS54" s="44"/>
+      <c r="BT54" s="45"/>
     </row>
     <row r="55" spans="1:72">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44" t="s">
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44" t="s">
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44" t="s">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44" t="s">
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="44" t="s">
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="44"/>
-      <c r="AB55" s="44"/>
-      <c r="AC55" s="44" t="s">
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="44"/>
-      <c r="AE55" s="44"/>
-      <c r="AF55" s="44"/>
-      <c r="AG55" s="44" t="s">
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="44"/>
-      <c r="AI55" s="44"/>
-      <c r="AJ55" s="44"/>
-      <c r="AK55" s="44" t="s">
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="44"/>
-      <c r="AM55" s="44"/>
-      <c r="AN55" s="44"/>
-      <c r="AO55" s="44" t="s">
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="44"/>
-      <c r="AQ55" s="44"/>
-      <c r="AR55" s="44"/>
-      <c r="AS55" s="44" t="s">
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="52"/>
+      <c r="AS55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="44"/>
-      <c r="AU55" s="44"/>
-      <c r="AV55" s="44"/>
-      <c r="BA55" s="53" t="s">
+      <c r="AT55" s="52"/>
+      <c r="AU55" s="52"/>
+      <c r="AV55" s="52"/>
+      <c r="BA55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BB55" s="54"/>
-      <c r="BC55" s="54"/>
-      <c r="BD55" s="55"/>
-      <c r="BE55" s="53" t="s">
+      <c r="BB55" s="47"/>
+      <c r="BC55" s="47"/>
+      <c r="BD55" s="48"/>
+      <c r="BE55" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BF55" s="54"/>
-      <c r="BG55" s="54"/>
-      <c r="BH55" s="55"/>
-      <c r="BI55" s="53" t="s">
+      <c r="BF55" s="64"/>
+      <c r="BG55" s="64"/>
+      <c r="BH55" s="65"/>
+      <c r="BI55" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="BJ55" s="54"/>
-      <c r="BK55" s="54"/>
-      <c r="BL55" s="55"/>
-      <c r="BM55" s="53" t="s">
+      <c r="BJ55" s="64"/>
+      <c r="BK55" s="64"/>
+      <c r="BL55" s="65"/>
+      <c r="BM55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BN55" s="54"/>
-      <c r="BO55" s="54"/>
-      <c r="BP55" s="55"/>
-      <c r="BQ55" s="53" t="s">
+      <c r="BN55" s="47"/>
+      <c r="BO55" s="47"/>
+      <c r="BP55" s="48"/>
+      <c r="BQ55" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="BR55" s="54"/>
-      <c r="BS55" s="54"/>
-      <c r="BT55" s="55"/>
+      <c r="BR55" s="47"/>
+      <c r="BS55" s="47"/>
+      <c r="BT55" s="48"/>
     </row>
     <row r="56" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43" t="s">
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43" t="s">
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43" t="s">
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43" t="s">
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43" t="s">
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43" t="s">
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="Z56" s="43"/>
-      <c r="AA56" s="43"/>
-      <c r="AB56" s="43"/>
-      <c r="AC56" s="43" t="s">
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="AD56" s="43"/>
-      <c r="AE56" s="43"/>
-      <c r="AF56" s="43"/>
-      <c r="AG56" s="43" t="s">
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="AH56" s="43"/>
-      <c r="AI56" s="43"/>
-      <c r="AJ56" s="43"/>
-      <c r="AK56" s="43" t="s">
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="55"/>
+      <c r="AK56" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="AL56" s="43"/>
-      <c r="AM56" s="43"/>
-      <c r="AN56" s="43"/>
-      <c r="AO56" s="43" t="s">
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="AP56" s="43"/>
-      <c r="AQ56" s="43"/>
-      <c r="AR56" s="43"/>
-      <c r="AS56" s="43" t="s">
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AT56" s="43"/>
-      <c r="AU56" s="43"/>
-      <c r="AV56" s="43"/>
-      <c r="BA56" s="47" t="s">
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
+      <c r="BA56" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="BB56" s="48"/>
-      <c r="BC56" s="48"/>
-      <c r="BD56" s="49"/>
-      <c r="BE56" s="47" t="s">
+      <c r="BB56" s="44"/>
+      <c r="BC56" s="44"/>
+      <c r="BD56" s="45"/>
+      <c r="BE56" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="BF56" s="48"/>
-      <c r="BG56" s="48"/>
-      <c r="BH56" s="49"/>
-      <c r="BI56" s="47" t="s">
+      <c r="BF56" s="67"/>
+      <c r="BG56" s="67"/>
+      <c r="BH56" s="68"/>
+      <c r="BI56" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="BJ56" s="48"/>
-      <c r="BK56" s="48"/>
-      <c r="BL56" s="49"/>
-      <c r="BM56" s="47" t="s">
+      <c r="BJ56" s="67"/>
+      <c r="BK56" s="67"/>
+      <c r="BL56" s="68"/>
+      <c r="BM56" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="BN56" s="48"/>
-      <c r="BO56" s="48"/>
-      <c r="BP56" s="49"/>
-      <c r="BQ56" s="47" t="s">
+      <c r="BN56" s="44"/>
+      <c r="BO56" s="44"/>
+      <c r="BP56" s="45"/>
+      <c r="BQ56" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="BR56" s="48"/>
-      <c r="BS56" s="48"/>
-      <c r="BT56" s="49"/>
+      <c r="BR56" s="44"/>
+      <c r="BS56" s="44"/>
+      <c r="BT56" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="553">
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ8:BT8"/>
+    <mergeCell ref="BQ9:BT9"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="BQ11:BT11"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BQ13:BT13"/>
+    <mergeCell ref="BQ14:BT14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="CG35:CJ35"/>
+    <mergeCell ref="CG36:CJ36"/>
+    <mergeCell ref="CG37:CJ37"/>
+    <mergeCell ref="CG38:CJ38"/>
+    <mergeCell ref="CG39:CJ39"/>
+    <mergeCell ref="CG40:CJ40"/>
+    <mergeCell ref="CG41:CJ41"/>
+    <mergeCell ref="CG42:CJ42"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="BQ50:BT50"/>
+    <mergeCell ref="BQ51:BT51"/>
+    <mergeCell ref="BQ52:BT52"/>
+    <mergeCell ref="BQ53:BT53"/>
+    <mergeCell ref="BQ54:BT54"/>
+    <mergeCell ref="BQ55:BT55"/>
+    <mergeCell ref="BQ56:BT56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
     <mergeCell ref="AW14:AZ14"/>
     <mergeCell ref="AW13:AZ13"/>
     <mergeCell ref="AW12:AZ12"/>
@@ -9382,535 +10046,6 @@
     <mergeCell ref="BQ38:BT38"/>
     <mergeCell ref="BQ39:BT39"/>
     <mergeCell ref="BQ40:BT40"/>
-    <mergeCell ref="BQ50:BT50"/>
-    <mergeCell ref="BQ51:BT51"/>
-    <mergeCell ref="BQ52:BT52"/>
-    <mergeCell ref="BQ53:BT53"/>
-    <mergeCell ref="BQ54:BT54"/>
-    <mergeCell ref="BQ55:BT55"/>
-    <mergeCell ref="BQ56:BT56"/>
-    <mergeCell ref="BI49:BL49"/>
-    <mergeCell ref="BI50:BL50"/>
-    <mergeCell ref="BI51:BL51"/>
-    <mergeCell ref="BI52:BL52"/>
-    <mergeCell ref="BI53:BL53"/>
-    <mergeCell ref="BI54:BL54"/>
-    <mergeCell ref="BI55:BL55"/>
-    <mergeCell ref="BI56:BL56"/>
-    <mergeCell ref="BM49:BP49"/>
-    <mergeCell ref="BM50:BP50"/>
-    <mergeCell ref="BM51:BP51"/>
-    <mergeCell ref="BM52:BP52"/>
-    <mergeCell ref="BM53:BP53"/>
-    <mergeCell ref="BM54:BP54"/>
-    <mergeCell ref="BM55:BP55"/>
-    <mergeCell ref="BM56:BP56"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="BA51:BD51"/>
-    <mergeCell ref="BA52:BD52"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="BA54:BD54"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BE49:BH49"/>
-    <mergeCell ref="BE50:BH50"/>
-    <mergeCell ref="BE51:BH51"/>
-    <mergeCell ref="BE52:BH52"/>
-    <mergeCell ref="BE53:BH53"/>
-    <mergeCell ref="BE54:BH54"/>
-    <mergeCell ref="BE55:BH55"/>
-    <mergeCell ref="BE56:BH56"/>
-    <mergeCell ref="CC35:CF35"/>
-    <mergeCell ref="CC36:CF36"/>
-    <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="CC38:CF38"/>
-    <mergeCell ref="CC39:CF39"/>
-    <mergeCell ref="CC40:CF40"/>
-    <mergeCell ref="CC41:CF41"/>
-    <mergeCell ref="CC42:CF42"/>
-    <mergeCell ref="CG35:CJ35"/>
-    <mergeCell ref="CG36:CJ36"/>
-    <mergeCell ref="CG37:CJ37"/>
-    <mergeCell ref="CG38:CJ38"/>
-    <mergeCell ref="CG39:CJ39"/>
-    <mergeCell ref="CG40:CJ40"/>
-    <mergeCell ref="CG41:CJ41"/>
-    <mergeCell ref="CG42:CJ42"/>
-    <mergeCell ref="BU35:BX35"/>
-    <mergeCell ref="BU36:BX36"/>
-    <mergeCell ref="BU37:BX37"/>
-    <mergeCell ref="BU38:BX38"/>
-    <mergeCell ref="BU39:BX39"/>
-    <mergeCell ref="BU40:BX40"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BU42:BX42"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY36:CB36"/>
-    <mergeCell ref="BY37:CB37"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY39:CB39"/>
-    <mergeCell ref="BY40:CB40"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY42:CB42"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BQ42:BT42"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="BE42:BH42"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BI42:BL42"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="BQ8:BT8"/>
-    <mergeCell ref="BQ9:BT9"/>
-    <mergeCell ref="BQ10:BT10"/>
-    <mergeCell ref="BQ11:BT11"/>
-    <mergeCell ref="BQ12:BT12"/>
-    <mergeCell ref="BQ13:BT13"/>
-    <mergeCell ref="BQ14:BT14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB46 BJ46 BR46 BJ32 BR32 BZ32 CH32 AX4 BF4 BN4 BF18 AP46 AL46 AH46 AD46 Z46 V46 R46 J18 N18 R18 V18 Z18 AD18 AH18 AL18 AP18 AT18 B32 B18 AX18 F32 J32 N32 R32 V32 Z32 AD32 AH32 AL32 AP32 AT32 AX32 F46 J46 N46 B46 F18 AL4 AH4 AD4 Z4 V4 R4 N4 J4 F4 B4 AT46 BR4 BJ4 BB4 AT4 CD32 BV32 BN32 BF32 BN46 BF46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1844,6 +1844,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1852,6 +1900,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1870,78 +1927,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1970,18 +1955,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,6 +1980,33 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2744,7 +2744,7 @@
   <dimension ref="A1:CJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BN27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CA45" sqref="CA45"/>
+      <selection activeCell="BU31" sqref="BU31:BX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2836,11 +2836,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3061,16 +3061,16 @@
       <c r="AV3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="59" t="s">
+      <c r="AW3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="59" t="s">
+      <c r="AX3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="59" t="s">
+      <c r="AY3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="59" t="s">
+      <c r="AZ3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="BA3" s="41" t="s">
@@ -3085,16 +3085,16 @@
       <c r="BD3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="72" t="s">
+      <c r="BE3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="72" t="s">
+      <c r="BF3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="72" t="s">
+      <c r="BG3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="72" t="s">
+      <c r="BH3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="BI3" s="41" t="s">
@@ -3267,16 +3267,16 @@
       <c r="AV4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" s="60" t="s">
+      <c r="AW4" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AX4" s="61" t="s">
+      <c r="AX4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="61" t="s">
+      <c r="AY4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="61" t="s">
+      <c r="AZ4" s="45" t="s">
         <v>28</v>
       </c>
       <c r="BA4" s="16" t="s">
@@ -3291,16 +3291,16 @@
       <c r="BD4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="73" t="s">
+      <c r="BE4" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="BF4" s="74" t="s">
+      <c r="BF4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="74" t="s">
+      <c r="BG4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="74" t="s">
+      <c r="BH4" s="49" t="s">
         <v>28</v>
       </c>
       <c r="BI4" s="16" t="s">
@@ -3451,16 +3451,16 @@
         <v>34</v>
       </c>
       <c r="AV5" s="40"/>
-      <c r="AW5" s="59" t="s">
+      <c r="AW5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="59" t="s">
+      <c r="AX5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="AY5" s="59" t="s">
+      <c r="AY5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AZ5" s="59"/>
+      <c r="AZ5" s="43"/>
       <c r="BA5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3471,16 +3471,16 @@
         <v>34</v>
       </c>
       <c r="BD5" s="41"/>
-      <c r="BE5" s="72" t="s">
+      <c r="BE5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="72" t="s">
+      <c r="BF5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BG5" s="72" t="s">
+      <c r="BG5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="BH5" s="72"/>
+      <c r="BH5" s="47"/>
       <c r="BI5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3623,16 +3623,16 @@
         <v>51</v>
       </c>
       <c r="AV6" s="39"/>
-      <c r="AW6" s="61" t="s">
+      <c r="AW6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AX6" s="62">
+      <c r="AX6" s="46">
         <v>40386</v>
       </c>
-      <c r="AY6" s="61" t="s">
+      <c r="AY6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="61"/>
+      <c r="AZ6" s="45"/>
       <c r="BA6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3643,16 +3643,16 @@
         <v>51</v>
       </c>
       <c r="BD6" s="42"/>
-      <c r="BE6" s="74" t="s">
+      <c r="BE6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="BF6" s="75">
+      <c r="BF6" s="50">
         <v>40386</v>
       </c>
-      <c r="BG6" s="74" t="s">
+      <c r="BG6" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="BH6" s="74"/>
+      <c r="BH6" s="49"/>
       <c r="BI6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3685,316 +3685,316 @@
       <c r="BT6" s="42"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52" t="s">
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52" t="s">
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52" t="s">
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52" t="s">
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AS7" s="52" t="s">
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AS7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="52"/>
-      <c r="AV7" s="52"/>
-      <c r="AW7" s="63" t="s">
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="46" t="s">
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="47"/>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="76" t="s">
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="66"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="46" t="s">
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="48"/>
-      <c r="BM7" s="46" t="s">
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="66"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="47"/>
-      <c r="BO7" s="47"/>
-      <c r="BP7" s="48"/>
-      <c r="BQ7" s="46" t="s">
+      <c r="BN7" s="66"/>
+      <c r="BO7" s="66"/>
+      <c r="BP7" s="67"/>
+      <c r="BQ7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="48"/>
+      <c r="BR7" s="66"/>
+      <c r="BS7" s="66"/>
+      <c r="BT7" s="67"/>
     </row>
     <row r="8" spans="1:72" ht="44.25" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="53" t="s">
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
       <c r="Y8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53" t="s">
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
       <c r="AG8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53" t="s">
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AS8" s="53" t="s">
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AS8" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="66" t="s">
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="43" t="s">
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="79" t="s">
+      <c r="BB8" s="60"/>
+      <c r="BC8" s="60"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="80"/>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="43" t="s">
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="75"/>
+      <c r="BH8" s="76"/>
+      <c r="BI8" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="45"/>
-      <c r="BM8" s="43" t="s">
+      <c r="BJ8" s="60"/>
+      <c r="BK8" s="60"/>
+      <c r="BL8" s="61"/>
+      <c r="BM8" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="45"/>
-      <c r="BQ8" s="43" t="s">
+      <c r="BN8" s="60"/>
+      <c r="BO8" s="60"/>
+      <c r="BP8" s="61"/>
+      <c r="BQ8" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="45"/>
+      <c r="BR8" s="60"/>
+      <c r="BS8" s="60"/>
+      <c r="BT8" s="61"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54" t="s">
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54" t="s">
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54" t="s">
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54" t="s">
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54" t="s">
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54" t="s">
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AS9" s="54" t="s">
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AS9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="69" t="s">
+      <c r="AT9" s="58"/>
+      <c r="AU9" s="58"/>
+      <c r="AV9" s="58"/>
+      <c r="AW9" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="49" t="s">
+      <c r="AX9" s="96"/>
+      <c r="AY9" s="96"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="82" t="s">
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="84"/>
-      <c r="BI9" s="49" t="s">
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="79"/>
+      <c r="BI9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="50"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="49" t="s">
+      <c r="BJ9" s="69"/>
+      <c r="BK9" s="69"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="51"/>
-      <c r="BQ9" s="49" t="s">
+      <c r="BN9" s="69"/>
+      <c r="BO9" s="69"/>
+      <c r="BP9" s="70"/>
+      <c r="BQ9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="50"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="51"/>
+      <c r="BR9" s="69"/>
+      <c r="BS9" s="69"/>
+      <c r="BT9" s="70"/>
     </row>
     <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
       <c r="A10" s="55" t="s">
@@ -4063,146 +4063,146 @@
       <c r="AT10" s="55"/>
       <c r="AU10" s="55"/>
       <c r="AV10" s="55"/>
-      <c r="AW10" s="66" t="s">
+      <c r="AW10" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="67"/>
-      <c r="AY10" s="67"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="43" t="s">
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="45"/>
-      <c r="BE10" s="79" t="s">
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="80"/>
-      <c r="BG10" s="80"/>
-      <c r="BH10" s="81"/>
-      <c r="BI10" s="43" t="s">
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="43" t="s">
+      <c r="BJ10" s="60"/>
+      <c r="BK10" s="60"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="43" t="s">
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="60"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="45"/>
+      <c r="BR10" s="60"/>
+      <c r="BS10" s="60"/>
+      <c r="BT10" s="61"/>
     </row>
     <row r="11" spans="1:72">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52" t="s">
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52" t="s">
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52" t="s">
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52" t="s">
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AS11" s="52" t="s">
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AS11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="63" t="s">
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="65"/>
-      <c r="BA11" s="46" t="s">
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="76" t="s">
+      <c r="BB11" s="66"/>
+      <c r="BC11" s="66"/>
+      <c r="BD11" s="67"/>
+      <c r="BE11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="78"/>
-      <c r="BI11" s="46" t="s">
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="46" t="s">
+      <c r="BJ11" s="66"/>
+      <c r="BK11" s="66"/>
+      <c r="BL11" s="67"/>
+      <c r="BM11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="48"/>
-      <c r="BQ11" s="46" t="s">
+      <c r="BN11" s="66"/>
+      <c r="BO11" s="66"/>
+      <c r="BP11" s="67"/>
+      <c r="BQ11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="48"/>
+      <c r="BR11" s="66"/>
+      <c r="BS11" s="66"/>
+      <c r="BT11" s="67"/>
     </row>
     <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A12" s="55" t="s">
@@ -4271,146 +4271,146 @@
       <c r="AT12" s="55"/>
       <c r="AU12" s="55"/>
       <c r="AV12" s="55"/>
-      <c r="AW12" s="66" t="s">
+      <c r="AW12" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="43" t="s">
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="45"/>
-      <c r="BE12" s="79" t="s">
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="60"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="80"/>
-      <c r="BG12" s="80"/>
-      <c r="BH12" s="81"/>
-      <c r="BI12" s="43" t="s">
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="45"/>
-      <c r="BM12" s="43" t="s">
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="45"/>
-      <c r="BQ12" s="43" t="s">
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="60"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="BR12" s="44"/>
-      <c r="BS12" s="44"/>
-      <c r="BT12" s="45"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="60"/>
+      <c r="BT12" s="61"/>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52" t="s">
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52" t="s">
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52" t="s">
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52" t="s">
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52" t="s">
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52" t="s">
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AS13" s="52" t="s">
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AS13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="52"/>
-      <c r="AU13" s="52"/>
-      <c r="AV13" s="52"/>
-      <c r="AW13" s="63" t="s">
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="46" t="s">
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="76" t="s">
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="66"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="78"/>
-      <c r="BI13" s="46" t="s">
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="46" t="s">
+      <c r="BJ13" s="66"/>
+      <c r="BK13" s="66"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="48"/>
-      <c r="BQ13" s="46" t="s">
+      <c r="BN13" s="66"/>
+      <c r="BO13" s="66"/>
+      <c r="BP13" s="67"/>
+      <c r="BQ13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="48"/>
+      <c r="BR13" s="66"/>
+      <c r="BS13" s="66"/>
+      <c r="BT13" s="67"/>
     </row>
     <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
       <c r="A14" s="55" t="s">
@@ -4479,42 +4479,42 @@
       <c r="AT14" s="55"/>
       <c r="AU14" s="55"/>
       <c r="AV14" s="55"/>
-      <c r="AW14" s="66" t="s">
+      <c r="AW14" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="43" t="s">
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="45"/>
-      <c r="BE14" s="79" t="s">
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="74" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="80"/>
-      <c r="BH14" s="81"/>
-      <c r="BI14" s="43" t="s">
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="75"/>
+      <c r="BH14" s="76"/>
+      <c r="BI14" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="45"/>
-      <c r="BM14" s="43" t="s">
+      <c r="BJ14" s="60"/>
+      <c r="BK14" s="60"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="BN14" s="44"/>
-      <c r="BO14" s="44"/>
-      <c r="BP14" s="45"/>
-      <c r="BQ14" s="43" t="s">
+      <c r="BN14" s="60"/>
+      <c r="BO14" s="60"/>
+      <c r="BP14" s="61"/>
+      <c r="BQ14" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="BR14" s="44"/>
-      <c r="BS14" s="44"/>
-      <c r="BT14" s="45"/>
+      <c r="BR14" s="60"/>
+      <c r="BS14" s="60"/>
+      <c r="BT14" s="61"/>
     </row>
     <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
@@ -4688,16 +4688,16 @@
       <c r="AZ17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="BE17" s="72" t="s">
+      <c r="BE17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BF17" s="72" t="s">
+      <c r="BF17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="BG17" s="72" t="s">
+      <c r="BG17" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="BH17" s="72" t="s">
+      <c r="BH17" s="47" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4832,16 +4832,16 @@
       <c r="AZ18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="BE18" s="73" t="s">
+      <c r="BE18" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="BF18" s="74" t="s">
+      <c r="BF18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="BG18" s="74" t="s">
+      <c r="BG18" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="BH18" s="74" t="s">
+      <c r="BH18" s="49" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4976,16 +4976,16 @@
         <v>34</v>
       </c>
       <c r="AZ19" s="35"/>
-      <c r="BE19" s="72" t="s">
+      <c r="BE19" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="BF19" s="72" t="s">
+      <c r="BF19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="BG19" s="72" t="s">
+      <c r="BG19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="BH19" s="72"/>
+      <c r="BH19" s="47"/>
     </row>
     <row r="20" spans="1:88">
       <c r="A20" s="12" t="s">
@@ -5118,274 +5118,274 @@
         <v>50</v>
       </c>
       <c r="AZ20" s="34"/>
-      <c r="BE20" s="74" t="s">
+      <c r="BE20" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="BF20" s="75">
+      <c r="BF20" s="50">
         <v>40386</v>
       </c>
-      <c r="BG20" s="74" t="s">
+      <c r="BG20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="BH20" s="74"/>
+      <c r="BH20" s="49"/>
     </row>
     <row r="21" spans="1:88">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52" t="s">
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52" t="s">
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52" t="s">
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52" t="s">
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52" t="s">
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52" t="s">
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52" t="s">
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BE21" s="76" t="s">
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="56"/>
+      <c r="AZ21" s="56"/>
+      <c r="BE21" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="78"/>
+      <c r="BF21" s="72"/>
+      <c r="BG21" s="72"/>
+      <c r="BH21" s="73"/>
     </row>
     <row r="22" spans="1:88">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53" t="s">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53" t="s">
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53" t="s">
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53" t="s">
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53" t="s">
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53" t="s">
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53" t="s">
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53" t="s">
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53" t="s">
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53" t="s">
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BE22" s="79" t="s">
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="57"/>
+      <c r="AZ22" s="57"/>
+      <c r="BE22" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="BF22" s="80"/>
-      <c r="BG22" s="80"/>
-      <c r="BH22" s="81"/>
+      <c r="BF22" s="75"/>
+      <c r="BG22" s="75"/>
+      <c r="BH22" s="76"/>
     </row>
     <row r="23" spans="1:88">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54" t="s">
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54" t="s">
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54" t="s">
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54" t="s">
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54" t="s">
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54" t="s">
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54" t="s">
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54" t="s">
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
+      <c r="AO23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54" t="s">
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="58"/>
+      <c r="AS23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54" t="s">
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23" s="58"/>
+      <c r="AW23" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BE23" s="82" t="s">
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BE23" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="83"/>
-      <c r="BG23" s="83"/>
-      <c r="BH23" s="84"/>
+      <c r="BF23" s="78"/>
+      <c r="BG23" s="78"/>
+      <c r="BH23" s="79"/>
     </row>
     <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
       <c r="A24" s="55" t="s">
@@ -5466,98 +5466,98 @@
       <c r="AX24" s="55"/>
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
-      <c r="BE24" s="79" t="s">
+      <c r="BE24" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="BF24" s="80"/>
-      <c r="BG24" s="80"/>
-      <c r="BH24" s="81"/>
+      <c r="BF24" s="75"/>
+      <c r="BG24" s="75"/>
+      <c r="BH24" s="76"/>
     </row>
     <row r="25" spans="1:88" ht="15" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52" t="s">
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52" t="s">
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52" t="s">
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52" t="s">
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52" t="s">
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52" t="s">
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52" t="s">
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52" t="s">
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52" t="s">
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BE25" s="76" t="s">
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BE25" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="78"/>
+      <c r="BF25" s="72"/>
+      <c r="BG25" s="72"/>
+      <c r="BH25" s="73"/>
     </row>
     <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
       <c r="A26" s="55" t="s">
@@ -5596,12 +5596,12 @@
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="61"/>
       <c r="AC26" s="55" t="s">
         <v>220</v>
       </c>
@@ -5638,98 +5638,98 @@
       <c r="AX26" s="55"/>
       <c r="AY26" s="55"/>
       <c r="AZ26" s="55"/>
-      <c r="BE26" s="79" t="s">
+      <c r="BE26" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="BF26" s="80"/>
-      <c r="BG26" s="80"/>
-      <c r="BH26" s="81"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="75"/>
+      <c r="BH26" s="76"/>
     </row>
     <row r="27" spans="1:88">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52" t="s">
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52" t="s">
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52" t="s">
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52" t="s">
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52" t="s">
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52" t="s">
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52" t="s">
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52" t="s">
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52" t="s">
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52" t="s">
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BE27" s="76" t="s">
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BE27" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="77"/>
-      <c r="BG27" s="77"/>
-      <c r="BH27" s="78"/>
+      <c r="BF27" s="72"/>
+      <c r="BG27" s="72"/>
+      <c r="BH27" s="73"/>
     </row>
     <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A28" s="55" t="s">
@@ -5810,12 +5810,12 @@
       <c r="AX28" s="55"/>
       <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
-      <c r="BE28" s="79" t="s">
+      <c r="BE28" s="74" t="s">
         <v>417</v>
       </c>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="81"/>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="75"/>
+      <c r="BH28" s="76"/>
     </row>
     <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -6109,16 +6109,16 @@
       <c r="BL31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BM31" s="85" t="s">
+      <c r="BM31" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BN31" s="85" t="s">
+      <c r="BN31" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="BO31" s="85" t="s">
+      <c r="BO31" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="BP31" s="85" t="s">
+      <c r="BP31" s="51" t="s">
         <v>1</v>
       </c>
       <c r="BQ31" s="40" t="s">
@@ -6133,52 +6133,52 @@
       <c r="BT31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BU31" s="85" t="s">
+      <c r="BU31" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BV31" s="85" t="s">
+      <c r="BV31" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BW31" s="85" t="s">
+      <c r="BW31" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BX31" s="85" t="s">
+      <c r="BX31" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BY31" s="85" t="s">
+      <c r="BY31" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BZ31" s="85" t="s">
+      <c r="BZ31" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="CA31" s="85" t="s">
+      <c r="CA31" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CB31" s="85" t="s">
+      <c r="CB31" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="CC31" s="59" t="s">
+      <c r="CC31" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="CD31" s="59" t="s">
+      <c r="CD31" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="CE31" s="59" t="s">
+      <c r="CE31" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="CF31" s="59" t="s">
+      <c r="CF31" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="CG31" s="85" t="s">
+      <c r="CG31" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="CH31" s="85" t="s">
+      <c r="CH31" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="CI31" s="85" t="s">
+      <c r="CI31" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="CJ31" s="85" t="s">
+      <c r="CJ31" s="51" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6285,16 +6285,16 @@
       <c r="BL32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BM32" s="86" t="s">
+      <c r="BM32" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="BN32" s="87" t="s">
+      <c r="BN32" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="BO32" s="87" t="s">
+      <c r="BO32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="BP32" s="87" t="s">
+      <c r="BP32" s="53" t="s">
         <v>28</v>
       </c>
       <c r="BQ32" s="16" t="s">
@@ -6309,52 +6309,52 @@
       <c r="BT32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BU32" s="86" t="s">
+      <c r="BU32" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="BV32" s="87" t="s">
+      <c r="BV32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="BW32" s="87" t="s">
+      <c r="BW32" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="BX32" s="87" t="s">
+      <c r="BX32" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="BY32" s="86" t="s">
+      <c r="BY32" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="BZ32" s="87" t="s">
+      <c r="BZ32" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="CA32" s="87" t="s">
+      <c r="CA32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="CB32" s="87" t="s">
+      <c r="CB32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="CC32" s="60" t="s">
+      <c r="CC32" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="CD32" s="61" t="s">
+      <c r="CD32" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="CE32" s="61" t="s">
+      <c r="CE32" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="CF32" s="61" t="s">
+      <c r="CF32" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="CG32" s="86" t="s">
+      <c r="CG32" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="CH32" s="87" t="s">
+      <c r="CH32" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="CI32" s="87" t="s">
+      <c r="CI32" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="CJ32" s="87" t="s">
+      <c r="CJ32" s="53" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6509,16 +6509,16 @@
         <v>34</v>
       </c>
       <c r="BL33" s="40"/>
-      <c r="BM33" s="85" t="s">
+      <c r="BM33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BN33" s="85" t="s">
+      <c r="BN33" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BO33" s="85" t="s">
+      <c r="BO33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="BP33" s="85"/>
+      <c r="BP33" s="51"/>
       <c r="BQ33" s="40" t="s">
         <v>4</v>
       </c>
@@ -6529,46 +6529,46 @@
         <v>34</v>
       </c>
       <c r="BT33" s="40"/>
-      <c r="BU33" s="85" t="s">
+      <c r="BU33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BV33" s="85" t="s">
+      <c r="BV33" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BW33" s="85" t="s">
+      <c r="BW33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BX33" s="85"/>
-      <c r="BY33" s="85" t="s">
+      <c r="BX33" s="43"/>
+      <c r="BY33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BZ33" s="85" t="s">
+      <c r="BZ33" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="CA33" s="85" t="s">
+      <c r="CA33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="CB33" s="85"/>
-      <c r="CC33" s="59" t="s">
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="CD33" s="59" t="s">
+      <c r="CD33" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="CE33" s="59" t="s">
+      <c r="CE33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CF33" s="59"/>
-      <c r="CG33" s="85" t="s">
+      <c r="CF33" s="43"/>
+      <c r="CG33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="CH33" s="85" t="s">
+      <c r="CH33" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="CI33" s="85" t="s">
+      <c r="CI33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="CJ33" s="85"/>
+      <c r="CJ33" s="51"/>
     </row>
     <row r="34" spans="1:88">
       <c r="A34" s="12" t="s">
@@ -6721,16 +6721,16 @@
         <v>51</v>
       </c>
       <c r="BL34" s="39"/>
-      <c r="BM34" s="87" t="s">
+      <c r="BM34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="BN34" s="88">
+      <c r="BN34" s="54">
         <v>40386</v>
       </c>
-      <c r="BO34" s="87" t="s">
+      <c r="BO34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="BP34" s="87"/>
+      <c r="BP34" s="53"/>
       <c r="BQ34" s="39" t="s">
         <v>40</v>
       </c>
@@ -6741,430 +6741,430 @@
         <v>51</v>
       </c>
       <c r="BT34" s="39"/>
-      <c r="BU34" s="87" t="s">
+      <c r="BU34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="BV34" s="88">
+      <c r="BV34" s="46">
         <v>40386</v>
       </c>
-      <c r="BW34" s="87" t="s">
+      <c r="BW34" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BX34" s="87"/>
-      <c r="BY34" s="87" t="s">
+      <c r="BX34" s="45"/>
+      <c r="BY34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="BZ34" s="88">
+      <c r="BZ34" s="54">
         <v>40386</v>
       </c>
-      <c r="CA34" s="87" t="s">
+      <c r="CA34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="CB34" s="87"/>
-      <c r="CC34" s="61" t="s">
+      <c r="CB34" s="53"/>
+      <c r="CC34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="CD34" s="62">
+      <c r="CD34" s="46">
         <v>40386</v>
       </c>
-      <c r="CE34" s="61" t="s">
+      <c r="CE34" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="CF34" s="61"/>
-      <c r="CG34" s="87" t="s">
+      <c r="CF34" s="45"/>
+      <c r="CG34" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="CH34" s="88">
+      <c r="CH34" s="54">
         <v>40386</v>
       </c>
-      <c r="CI34" s="87" t="s">
+      <c r="CI34" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="CJ34" s="87"/>
+      <c r="CJ34" s="53"/>
     </row>
     <row r="35" spans="1:88">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52" t="s">
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52" t="s">
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52" t="s">
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52" t="s">
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52" t="s">
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52" t="s">
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="52"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="52"/>
-      <c r="AO35" s="52" t="s">
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="52"/>
-      <c r="AR35" s="52"/>
-      <c r="AS35" s="52" t="s">
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="52"/>
-      <c r="AU35" s="52"/>
-      <c r="AV35" s="52"/>
-      <c r="AW35" s="52" t="s">
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="52"/>
-      <c r="AY35" s="52"/>
-      <c r="AZ35" s="52"/>
-      <c r="BE35" s="46" t="s">
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BE35" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="47"/>
-      <c r="BG35" s="47"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="46" t="s">
+      <c r="BF35" s="66"/>
+      <c r="BG35" s="66"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="47"/>
-      <c r="BK35" s="47"/>
-      <c r="BL35" s="48"/>
-      <c r="BM35" s="89" t="s">
+      <c r="BJ35" s="66"/>
+      <c r="BK35" s="66"/>
+      <c r="BL35" s="67"/>
+      <c r="BM35" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="90"/>
-      <c r="BO35" s="90"/>
-      <c r="BP35" s="91"/>
-      <c r="BQ35" s="46" t="s">
+      <c r="BN35" s="81"/>
+      <c r="BO35" s="81"/>
+      <c r="BP35" s="82"/>
+      <c r="BQ35" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="47"/>
-      <c r="BS35" s="47"/>
-      <c r="BT35" s="48"/>
+      <c r="BR35" s="66"/>
+      <c r="BS35" s="66"/>
+      <c r="BT35" s="67"/>
       <c r="BU35" s="89" t="s">
         <v>5</v>
       </c>
       <c r="BV35" s="90"/>
       <c r="BW35" s="90"/>
       <c r="BX35" s="91"/>
-      <c r="BY35" s="89" t="s">
+      <c r="BY35" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="90"/>
-      <c r="CA35" s="90"/>
-      <c r="CB35" s="91"/>
-      <c r="CC35" s="63" t="s">
+      <c r="BZ35" s="81"/>
+      <c r="CA35" s="81"/>
+      <c r="CB35" s="82"/>
+      <c r="CC35" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="64"/>
-      <c r="CE35" s="64"/>
-      <c r="CF35" s="65"/>
-      <c r="CG35" s="89" t="s">
+      <c r="CD35" s="90"/>
+      <c r="CE35" s="90"/>
+      <c r="CF35" s="91"/>
+      <c r="CG35" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="CH35" s="90"/>
-      <c r="CI35" s="90"/>
-      <c r="CJ35" s="91"/>
+      <c r="CH35" s="81"/>
+      <c r="CI35" s="81"/>
+      <c r="CJ35" s="82"/>
     </row>
     <row r="36" spans="1:88" ht="45" customHeight="1">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53" t="s">
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53" t="s">
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53" t="s">
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
       <c r="Y36" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53" t="s">
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53" t="s">
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53" t="s">
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53" t="s">
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="53"/>
-      <c r="AS36" s="53" t="s">
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="53"/>
-      <c r="AU36" s="53"/>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53" t="s">
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BE36" s="43" t="s">
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BE36" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="BF36" s="44"/>
-      <c r="BG36" s="44"/>
-      <c r="BH36" s="45"/>
-      <c r="BI36" s="43" t="s">
+      <c r="BF36" s="60"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="61"/>
+      <c r="BI36" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="BJ36" s="44"/>
-      <c r="BK36" s="44"/>
-      <c r="BL36" s="45"/>
-      <c r="BM36" s="92" t="s">
+      <c r="BJ36" s="60"/>
+      <c r="BK36" s="60"/>
+      <c r="BL36" s="61"/>
+      <c r="BM36" s="83" t="s">
         <v>368</v>
       </c>
-      <c r="BN36" s="93"/>
-      <c r="BO36" s="93"/>
-      <c r="BP36" s="94"/>
-      <c r="BQ36" s="43" t="s">
+      <c r="BN36" s="84"/>
+      <c r="BO36" s="84"/>
+      <c r="BP36" s="85"/>
+      <c r="BQ36" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="BR36" s="44"/>
-      <c r="BS36" s="44"/>
-      <c r="BT36" s="45"/>
+      <c r="BR36" s="60"/>
+      <c r="BS36" s="60"/>
+      <c r="BT36" s="61"/>
       <c r="BU36" s="92" t="s">
         <v>391</v>
       </c>
       <c r="BV36" s="93"/>
       <c r="BW36" s="93"/>
       <c r="BX36" s="94"/>
-      <c r="BY36" s="92" t="s">
+      <c r="BY36" s="83" t="s">
         <v>370</v>
       </c>
-      <c r="BZ36" s="93"/>
-      <c r="CA36" s="93"/>
-      <c r="CB36" s="94"/>
-      <c r="CC36" s="66" t="s">
+      <c r="BZ36" s="84"/>
+      <c r="CA36" s="84"/>
+      <c r="CB36" s="85"/>
+      <c r="CC36" s="92" t="s">
         <v>390</v>
       </c>
-      <c r="CD36" s="67"/>
-      <c r="CE36" s="67"/>
-      <c r="CF36" s="68"/>
-      <c r="CG36" s="92" t="s">
+      <c r="CD36" s="93"/>
+      <c r="CE36" s="93"/>
+      <c r="CF36" s="94"/>
+      <c r="CG36" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="CH36" s="93"/>
-      <c r="CI36" s="93"/>
-      <c r="CJ36" s="94"/>
+      <c r="CH36" s="84"/>
+      <c r="CI36" s="84"/>
+      <c r="CJ36" s="85"/>
     </row>
     <row r="37" spans="1:88">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54" t="s">
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54" t="s">
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54" t="s">
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54" t="s">
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54" t="s">
+      <c r="V37" s="58"/>
+      <c r="W37" s="58"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54" t="s">
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54" t="s">
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="54"/>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54" t="s">
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
+      <c r="AJ37" s="58"/>
+      <c r="AK37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54" t="s">
+      <c r="AL37" s="58"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="54" t="s">
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="54"/>
-      <c r="AU37" s="54"/>
-      <c r="AV37" s="54"/>
-      <c r="AW37" s="54" t="s">
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="58"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="54"/>
-      <c r="AZ37" s="54"/>
-      <c r="BE37" s="49" t="s">
+      <c r="AX37" s="58"/>
+      <c r="AY37" s="58"/>
+      <c r="AZ37" s="58"/>
+      <c r="BE37" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="50"/>
-      <c r="BG37" s="50"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="49" t="s">
+      <c r="BF37" s="69"/>
+      <c r="BG37" s="69"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="50"/>
-      <c r="BK37" s="50"/>
-      <c r="BL37" s="51"/>
-      <c r="BM37" s="95" t="s">
+      <c r="BJ37" s="69"/>
+      <c r="BK37" s="69"/>
+      <c r="BL37" s="70"/>
+      <c r="BM37" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="96"/>
-      <c r="BO37" s="96"/>
-      <c r="BP37" s="97"/>
-      <c r="BQ37" s="49" t="s">
+      <c r="BN37" s="87"/>
+      <c r="BO37" s="87"/>
+      <c r="BP37" s="88"/>
+      <c r="BQ37" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="50"/>
-      <c r="BS37" s="50"/>
-      <c r="BT37" s="51"/>
+      <c r="BR37" s="69"/>
+      <c r="BS37" s="69"/>
+      <c r="BT37" s="70"/>
       <c r="BU37" s="95" t="s">
         <v>3</v>
       </c>
       <c r="BV37" s="96"/>
       <c r="BW37" s="96"/>
       <c r="BX37" s="97"/>
-      <c r="BY37" s="95" t="s">
+      <c r="BY37" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="96"/>
-      <c r="CA37" s="96"/>
-      <c r="CB37" s="97"/>
-      <c r="CC37" s="69" t="s">
+      <c r="BZ37" s="87"/>
+      <c r="CA37" s="87"/>
+      <c r="CB37" s="88"/>
+      <c r="CC37" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="70"/>
-      <c r="CE37" s="70"/>
-      <c r="CF37" s="71"/>
-      <c r="CG37" s="95" t="s">
+      <c r="CD37" s="96"/>
+      <c r="CE37" s="96"/>
+      <c r="CF37" s="97"/>
+      <c r="CG37" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="CH37" s="96"/>
-      <c r="CI37" s="96"/>
-      <c r="CJ37" s="97"/>
+      <c r="CH37" s="87"/>
+      <c r="CI37" s="87"/>
+      <c r="CJ37" s="88"/>
     </row>
     <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A38" s="55" t="s">
@@ -7243,182 +7243,182 @@
       <c r="AX38" s="55"/>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="55"/>
-      <c r="BE38" s="43" t="s">
+      <c r="BE38" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="BF38" s="44"/>
-      <c r="BG38" s="44"/>
-      <c r="BH38" s="45"/>
-      <c r="BI38" s="43" t="s">
+      <c r="BF38" s="60"/>
+      <c r="BG38" s="60"/>
+      <c r="BH38" s="61"/>
+      <c r="BI38" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="BJ38" s="44"/>
-      <c r="BK38" s="44"/>
-      <c r="BL38" s="45"/>
-      <c r="BM38" s="92" t="s">
+      <c r="BJ38" s="60"/>
+      <c r="BK38" s="60"/>
+      <c r="BL38" s="61"/>
+      <c r="BM38" s="83" t="s">
         <v>383</v>
       </c>
-      <c r="BN38" s="93"/>
-      <c r="BO38" s="93"/>
-      <c r="BP38" s="94"/>
-      <c r="BQ38" s="43" t="s">
+      <c r="BN38" s="84"/>
+      <c r="BO38" s="84"/>
+      <c r="BP38" s="85"/>
+      <c r="BQ38" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="BR38" s="44"/>
-      <c r="BS38" s="44"/>
-      <c r="BT38" s="45"/>
+      <c r="BR38" s="60"/>
+      <c r="BS38" s="60"/>
+      <c r="BT38" s="61"/>
       <c r="BU38" s="92" t="s">
         <v>385</v>
       </c>
       <c r="BV38" s="93"/>
       <c r="BW38" s="93"/>
       <c r="BX38" s="94"/>
-      <c r="BY38" s="92" t="s">
+      <c r="BY38" s="83" t="s">
         <v>386</v>
       </c>
-      <c r="BZ38" s="93"/>
-      <c r="CA38" s="93"/>
-      <c r="CB38" s="94"/>
-      <c r="CC38" s="66" t="s">
+      <c r="BZ38" s="84"/>
+      <c r="CA38" s="84"/>
+      <c r="CB38" s="85"/>
+      <c r="CC38" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="CD38" s="67"/>
-      <c r="CE38" s="67"/>
-      <c r="CF38" s="68"/>
-      <c r="CG38" s="92" t="s">
+      <c r="CD38" s="93"/>
+      <c r="CE38" s="93"/>
+      <c r="CF38" s="94"/>
+      <c r="CG38" s="83" t="s">
         <v>388</v>
       </c>
-      <c r="CH38" s="93"/>
-      <c r="CI38" s="93"/>
-      <c r="CJ38" s="94"/>
+      <c r="CH38" s="84"/>
+      <c r="CI38" s="84"/>
+      <c r="CJ38" s="85"/>
     </row>
     <row r="39" spans="1:88">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52" t="s">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52" t="s">
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52" t="s">
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52" t="s">
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52" t="s">
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52" t="s">
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52" t="s">
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52" t="s">
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52" t="s">
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="56"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52" t="s">
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BE39" s="46" t="s">
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="56"/>
+      <c r="BE39" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="48"/>
-      <c r="BI39" s="46" t="s">
+      <c r="BF39" s="66"/>
+      <c r="BG39" s="66"/>
+      <c r="BH39" s="67"/>
+      <c r="BI39" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="48"/>
-      <c r="BM39" s="89" t="s">
+      <c r="BJ39" s="66"/>
+      <c r="BK39" s="66"/>
+      <c r="BL39" s="67"/>
+      <c r="BM39" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="90"/>
-      <c r="BO39" s="90"/>
-      <c r="BP39" s="91"/>
-      <c r="BQ39" s="46" t="s">
+      <c r="BN39" s="81"/>
+      <c r="BO39" s="81"/>
+      <c r="BP39" s="82"/>
+      <c r="BQ39" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="47"/>
-      <c r="BS39" s="47"/>
-      <c r="BT39" s="48"/>
+      <c r="BR39" s="66"/>
+      <c r="BS39" s="66"/>
+      <c r="BT39" s="67"/>
       <c r="BU39" s="89" t="s">
         <v>33</v>
       </c>
       <c r="BV39" s="90"/>
       <c r="BW39" s="90"/>
       <c r="BX39" s="91"/>
-      <c r="BY39" s="89" t="s">
+      <c r="BY39" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="90"/>
-      <c r="CA39" s="90"/>
-      <c r="CB39" s="91"/>
-      <c r="CC39" s="63" t="s">
+      <c r="BZ39" s="81"/>
+      <c r="CA39" s="81"/>
+      <c r="CB39" s="82"/>
+      <c r="CC39" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="64"/>
-      <c r="CE39" s="64"/>
-      <c r="CF39" s="65"/>
-      <c r="CG39" s="89" t="s">
+      <c r="CD39" s="90"/>
+      <c r="CE39" s="90"/>
+      <c r="CF39" s="91"/>
+      <c r="CG39" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="CH39" s="90"/>
-      <c r="CI39" s="90"/>
-      <c r="CJ39" s="91"/>
+      <c r="CH39" s="81"/>
+      <c r="CI39" s="81"/>
+      <c r="CJ39" s="82"/>
     </row>
     <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
       <c r="A40" s="55" t="s">
@@ -7497,182 +7497,182 @@
       <c r="AX40" s="55"/>
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
-      <c r="BE40" s="43" t="s">
+      <c r="BE40" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="BF40" s="44"/>
-      <c r="BG40" s="44"/>
-      <c r="BH40" s="45"/>
-      <c r="BI40" s="43" t="s">
+      <c r="BF40" s="60"/>
+      <c r="BG40" s="60"/>
+      <c r="BH40" s="61"/>
+      <c r="BI40" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="BJ40" s="44"/>
-      <c r="BK40" s="44"/>
-      <c r="BL40" s="45"/>
-      <c r="BM40" s="92" t="s">
+      <c r="BJ40" s="60"/>
+      <c r="BK40" s="60"/>
+      <c r="BL40" s="61"/>
+      <c r="BM40" s="83" t="s">
         <v>397</v>
       </c>
-      <c r="BN40" s="93"/>
-      <c r="BO40" s="93"/>
-      <c r="BP40" s="94"/>
-      <c r="BQ40" s="43" t="s">
+      <c r="BN40" s="84"/>
+      <c r="BO40" s="84"/>
+      <c r="BP40" s="85"/>
+      <c r="BQ40" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="BR40" s="44"/>
-      <c r="BS40" s="44"/>
-      <c r="BT40" s="45"/>
+      <c r="BR40" s="60"/>
+      <c r="BS40" s="60"/>
+      <c r="BT40" s="61"/>
       <c r="BU40" s="92" t="s">
         <v>400</v>
       </c>
       <c r="BV40" s="93"/>
       <c r="BW40" s="93"/>
       <c r="BX40" s="94"/>
-      <c r="BY40" s="92" t="s">
+      <c r="BY40" s="83" t="s">
         <v>402</v>
       </c>
-      <c r="BZ40" s="93"/>
-      <c r="CA40" s="93"/>
-      <c r="CB40" s="94"/>
-      <c r="CC40" s="66" t="s">
+      <c r="BZ40" s="84"/>
+      <c r="CA40" s="84"/>
+      <c r="CB40" s="85"/>
+      <c r="CC40" s="92" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="67"/>
-      <c r="CE40" s="67"/>
-      <c r="CF40" s="68"/>
-      <c r="CG40" s="92" t="s">
+      <c r="CD40" s="93"/>
+      <c r="CE40" s="93"/>
+      <c r="CF40" s="94"/>
+      <c r="CG40" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="CH40" s="93"/>
-      <c r="CI40" s="93"/>
-      <c r="CJ40" s="94"/>
+      <c r="CH40" s="84"/>
+      <c r="CI40" s="84"/>
+      <c r="CJ40" s="85"/>
     </row>
     <row r="41" spans="1:88">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52" t="s">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52" t="s">
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52" t="s">
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52" t="s">
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52" t="s">
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52" t="s">
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52" t="s">
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52" t="s">
+      <c r="AD41" s="56"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="56"/>
+      <c r="AG41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="52"/>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52" t="s">
+      <c r="AH41" s="56"/>
+      <c r="AI41" s="56"/>
+      <c r="AJ41" s="56"/>
+      <c r="AK41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
-      <c r="AO41" s="52" t="s">
+      <c r="AL41" s="56"/>
+      <c r="AM41" s="56"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="52"/>
-      <c r="AQ41" s="52"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52" t="s">
+      <c r="AP41" s="56"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="56"/>
+      <c r="AS41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="52"/>
-      <c r="AU41" s="52"/>
-      <c r="AV41" s="52"/>
-      <c r="AW41" s="52" t="s">
+      <c r="AT41" s="56"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="56"/>
+      <c r="AW41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="52"/>
-      <c r="AY41" s="52"/>
-      <c r="AZ41" s="52"/>
-      <c r="BE41" s="46" t="s">
+      <c r="AX41" s="56"/>
+      <c r="AY41" s="56"/>
+      <c r="AZ41" s="56"/>
+      <c r="BE41" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="47"/>
-      <c r="BG41" s="47"/>
-      <c r="BH41" s="48"/>
-      <c r="BI41" s="46" t="s">
+      <c r="BF41" s="66"/>
+      <c r="BG41" s="66"/>
+      <c r="BH41" s="67"/>
+      <c r="BI41" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="47"/>
-      <c r="BK41" s="47"/>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="89" t="s">
+      <c r="BJ41" s="66"/>
+      <c r="BK41" s="66"/>
+      <c r="BL41" s="67"/>
+      <c r="BM41" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="90"/>
-      <c r="BO41" s="90"/>
-      <c r="BP41" s="91"/>
-      <c r="BQ41" s="46" t="s">
+      <c r="BN41" s="81"/>
+      <c r="BO41" s="81"/>
+      <c r="BP41" s="82"/>
+      <c r="BQ41" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="47"/>
-      <c r="BS41" s="47"/>
-      <c r="BT41" s="48"/>
+      <c r="BR41" s="66"/>
+      <c r="BS41" s="66"/>
+      <c r="BT41" s="67"/>
       <c r="BU41" s="89" t="s">
         <v>36</v>
       </c>
       <c r="BV41" s="90"/>
       <c r="BW41" s="90"/>
       <c r="BX41" s="91"/>
-      <c r="BY41" s="89" t="s">
+      <c r="BY41" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="90"/>
-      <c r="CA41" s="90"/>
-      <c r="CB41" s="91"/>
-      <c r="CC41" s="63" t="s">
+      <c r="BZ41" s="81"/>
+      <c r="CA41" s="81"/>
+      <c r="CB41" s="82"/>
+      <c r="CC41" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="64"/>
-      <c r="CE41" s="64"/>
-      <c r="CF41" s="65"/>
-      <c r="CG41" s="89" t="s">
+      <c r="CD41" s="90"/>
+      <c r="CE41" s="90"/>
+      <c r="CF41" s="91"/>
+      <c r="CG41" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="CH41" s="90"/>
-      <c r="CI41" s="90"/>
-      <c r="CJ41" s="91"/>
+      <c r="CH41" s="81"/>
+      <c r="CI41" s="81"/>
+      <c r="CJ41" s="82"/>
     </row>
     <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="55" t="s">
@@ -7751,54 +7751,54 @@
       <c r="AX42" s="55"/>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
-      <c r="BE42" s="43" t="s">
+      <c r="BE42" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="BF42" s="44"/>
-      <c r="BG42" s="44"/>
-      <c r="BH42" s="45"/>
-      <c r="BI42" s="43" t="s">
+      <c r="BF42" s="60"/>
+      <c r="BG42" s="60"/>
+      <c r="BH42" s="61"/>
+      <c r="BI42" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="BJ42" s="44"/>
-      <c r="BK42" s="44"/>
-      <c r="BL42" s="45"/>
-      <c r="BM42" s="92" t="s">
+      <c r="BJ42" s="60"/>
+      <c r="BK42" s="60"/>
+      <c r="BL42" s="61"/>
+      <c r="BM42" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="BN42" s="93"/>
-      <c r="BO42" s="93"/>
-      <c r="BP42" s="94"/>
-      <c r="BQ42" s="43" t="s">
+      <c r="BN42" s="84"/>
+      <c r="BO42" s="84"/>
+      <c r="BP42" s="85"/>
+      <c r="BQ42" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="BR42" s="44"/>
-      <c r="BS42" s="44"/>
-      <c r="BT42" s="45"/>
+      <c r="BR42" s="60"/>
+      <c r="BS42" s="60"/>
+      <c r="BT42" s="61"/>
       <c r="BU42" s="92" t="s">
         <v>401</v>
       </c>
       <c r="BV42" s="93"/>
       <c r="BW42" s="93"/>
       <c r="BX42" s="94"/>
-      <c r="BY42" s="92" t="s">
+      <c r="BY42" s="83" t="s">
         <v>403</v>
       </c>
-      <c r="BZ42" s="93"/>
-      <c r="CA42" s="93"/>
-      <c r="CB42" s="94"/>
-      <c r="CC42" s="66" t="s">
+      <c r="BZ42" s="84"/>
+      <c r="CA42" s="84"/>
+      <c r="CB42" s="85"/>
+      <c r="CC42" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="CD42" s="67"/>
-      <c r="CE42" s="67"/>
-      <c r="CF42" s="68"/>
-      <c r="CG42" s="92" t="s">
+      <c r="CD42" s="93"/>
+      <c r="CE42" s="93"/>
+      <c r="CF42" s="94"/>
+      <c r="CG42" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="CH42" s="93"/>
-      <c r="CI42" s="93"/>
-      <c r="CJ42" s="94"/>
+      <c r="CH42" s="84"/>
+      <c r="CI42" s="84"/>
+      <c r="CJ42" s="85"/>
     </row>
     <row r="43" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -8060,28 +8060,28 @@
       <c r="BD45" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BE45" s="59" t="s">
+      <c r="BE45" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BF45" s="59" t="s">
+      <c r="BF45" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BG45" s="59" t="s">
+      <c r="BG45" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BH45" s="59" t="s">
+      <c r="BH45" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BI45" s="59" t="s">
+      <c r="BI45" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BJ45" s="59" t="s">
+      <c r="BJ45" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BK45" s="59" t="s">
+      <c r="BK45" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BL45" s="59" t="s">
+      <c r="BL45" s="43" t="s">
         <v>1</v>
       </c>
       <c r="BM45" s="40" t="s">
@@ -8266,28 +8266,28 @@
       <c r="BD46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BE46" s="60" t="s">
+      <c r="BE46" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="BF46" s="61" t="s">
+      <c r="BF46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="BG46" s="61" t="s">
+      <c r="BG46" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="BH46" s="61" t="s">
+      <c r="BH46" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="BI46" s="60" t="s">
+      <c r="BI46" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="BJ46" s="61" t="s">
+      <c r="BJ46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="BK46" s="61" t="s">
+      <c r="BK46" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="BL46" s="61" t="s">
+      <c r="BL46" s="45" t="s">
         <v>11</v>
       </c>
       <c r="BM46" s="16" t="s">
@@ -8446,26 +8446,26 @@
         <v>34</v>
       </c>
       <c r="BD47" s="40"/>
-      <c r="BE47" s="59" t="s">
+      <c r="BE47" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BF47" s="59" t="s">
+      <c r="BF47" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BG47" s="59" t="s">
+      <c r="BG47" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BH47" s="59"/>
-      <c r="BI47" s="59" t="s">
+      <c r="BH47" s="43"/>
+      <c r="BI47" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BJ47" s="59" t="s">
+      <c r="BJ47" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BK47" s="59" t="s">
+      <c r="BK47" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BL47" s="59"/>
+      <c r="BL47" s="43"/>
       <c r="BM47" s="40" t="s">
         <v>4</v>
       </c>
@@ -8618,26 +8618,26 @@
         <v>51</v>
       </c>
       <c r="BD48" s="39"/>
-      <c r="BE48" s="61" t="s">
+      <c r="BE48" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="BF48" s="62">
+      <c r="BF48" s="46">
         <v>40386</v>
       </c>
-      <c r="BG48" s="61" t="s">
+      <c r="BG48" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BH48" s="61"/>
-      <c r="BI48" s="61" t="s">
+      <c r="BH48" s="45"/>
+      <c r="BI48" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="BJ48" s="62">
+      <c r="BJ48" s="46">
         <v>40386</v>
       </c>
-      <c r="BK48" s="61" t="s">
+      <c r="BK48" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BL48" s="61"/>
+      <c r="BL48" s="45"/>
       <c r="BM48" s="39" t="s">
         <v>40</v>
       </c>
@@ -8660,316 +8660,316 @@
       <c r="BT48" s="39"/>
     </row>
     <row r="49" spans="1:72">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52" t="s">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52" t="s">
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52" t="s">
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52" t="s">
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52" t="s">
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52" t="s">
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52" t="s">
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52" t="s">
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52" t="s">
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
-      <c r="AO49" s="52" t="s">
+      <c r="AL49" s="56"/>
+      <c r="AM49" s="56"/>
+      <c r="AN49" s="56"/>
+      <c r="AO49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AP49" s="52"/>
-      <c r="AQ49" s="52"/>
-      <c r="AR49" s="52"/>
-      <c r="AS49" s="52" t="s">
+      <c r="AP49" s="56"/>
+      <c r="AQ49" s="56"/>
+      <c r="AR49" s="56"/>
+      <c r="AS49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AT49" s="52"/>
-      <c r="AU49" s="52"/>
-      <c r="AV49" s="52"/>
-      <c r="BA49" s="46" t="s">
+      <c r="AT49" s="56"/>
+      <c r="AU49" s="56"/>
+      <c r="AV49" s="56"/>
+      <c r="BA49" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="47"/>
-      <c r="BD49" s="48"/>
-      <c r="BE49" s="63" t="s">
+      <c r="BB49" s="66"/>
+      <c r="BC49" s="66"/>
+      <c r="BD49" s="67"/>
+      <c r="BE49" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BF49" s="64"/>
-      <c r="BG49" s="64"/>
-      <c r="BH49" s="65"/>
-      <c r="BI49" s="63" t="s">
+      <c r="BF49" s="90"/>
+      <c r="BG49" s="90"/>
+      <c r="BH49" s="91"/>
+      <c r="BI49" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BJ49" s="64"/>
-      <c r="BK49" s="64"/>
-      <c r="BL49" s="65"/>
-      <c r="BM49" s="46" t="s">
+      <c r="BJ49" s="90"/>
+      <c r="BK49" s="90"/>
+      <c r="BL49" s="91"/>
+      <c r="BM49" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BN49" s="47"/>
-      <c r="BO49" s="47"/>
-      <c r="BP49" s="48"/>
-      <c r="BQ49" s="46" t="s">
+      <c r="BN49" s="66"/>
+      <c r="BO49" s="66"/>
+      <c r="BP49" s="67"/>
+      <c r="BQ49" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BR49" s="47"/>
-      <c r="BS49" s="47"/>
-      <c r="BT49" s="48"/>
+      <c r="BR49" s="66"/>
+      <c r="BS49" s="66"/>
+      <c r="BT49" s="67"/>
     </row>
     <row r="50" spans="1:72" ht="30" customHeight="1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53" t="s">
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53" t="s">
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53" t="s">
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53" t="s">
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53" t="s">
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53" t="s">
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="57"/>
+      <c r="AC50" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="53" t="s">
+      <c r="AD50" s="57"/>
+      <c r="AE50" s="57"/>
+      <c r="AF50" s="57"/>
+      <c r="AG50" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AH50" s="53"/>
-      <c r="AI50" s="53"/>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53" t="s">
+      <c r="AH50" s="57"/>
+      <c r="AI50" s="57"/>
+      <c r="AJ50" s="57"/>
+      <c r="AK50" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53" t="s">
+      <c r="AL50" s="57"/>
+      <c r="AM50" s="57"/>
+      <c r="AN50" s="57"/>
+      <c r="AO50" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="AP50" s="53"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="53"/>
-      <c r="AS50" s="53" t="s">
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="57"/>
+      <c r="AR50" s="57"/>
+      <c r="AS50" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AT50" s="53"/>
-      <c r="AU50" s="53"/>
-      <c r="AV50" s="53"/>
-      <c r="BA50" s="43" t="s">
+      <c r="AT50" s="57"/>
+      <c r="AU50" s="57"/>
+      <c r="AV50" s="57"/>
+      <c r="BA50" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="BB50" s="44"/>
-      <c r="BC50" s="44"/>
-      <c r="BD50" s="45"/>
-      <c r="BE50" s="66" t="s">
+      <c r="BB50" s="60"/>
+      <c r="BC50" s="60"/>
+      <c r="BD50" s="61"/>
+      <c r="BE50" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BF50" s="67"/>
-      <c r="BG50" s="67"/>
-      <c r="BH50" s="68"/>
-      <c r="BI50" s="66" t="s">
+      <c r="BF50" s="93"/>
+      <c r="BG50" s="93"/>
+      <c r="BH50" s="94"/>
+      <c r="BI50" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="BJ50" s="67"/>
-      <c r="BK50" s="67"/>
-      <c r="BL50" s="68"/>
-      <c r="BM50" s="43" t="s">
+      <c r="BJ50" s="93"/>
+      <c r="BK50" s="93"/>
+      <c r="BL50" s="94"/>
+      <c r="BM50" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="BN50" s="44"/>
-      <c r="BO50" s="44"/>
-      <c r="BP50" s="45"/>
-      <c r="BQ50" s="43" t="s">
+      <c r="BN50" s="60"/>
+      <c r="BO50" s="60"/>
+      <c r="BP50" s="61"/>
+      <c r="BQ50" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="BR50" s="44"/>
-      <c r="BS50" s="44"/>
-      <c r="BT50" s="45"/>
+      <c r="BR50" s="60"/>
+      <c r="BS50" s="60"/>
+      <c r="BT50" s="61"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54" t="s">
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54" t="s">
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54" t="s">
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54" t="s">
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54" t="s">
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54" t="s">
+      <c r="V51" s="58"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54" t="s">
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="58"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54" t="s">
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AH51" s="54"/>
-      <c r="AI51" s="54"/>
-      <c r="AJ51" s="54"/>
-      <c r="AK51" s="54" t="s">
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AL51" s="54"/>
-      <c r="AM51" s="54"/>
-      <c r="AN51" s="54"/>
-      <c r="AO51" s="54" t="s">
+      <c r="AL51" s="58"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="58"/>
+      <c r="AO51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AP51" s="54"/>
-      <c r="AQ51" s="54"/>
-      <c r="AR51" s="54"/>
-      <c r="AS51" s="54" t="s">
+      <c r="AP51" s="58"/>
+      <c r="AQ51" s="58"/>
+      <c r="AR51" s="58"/>
+      <c r="AS51" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AT51" s="54"/>
-      <c r="AU51" s="54"/>
-      <c r="AV51" s="54"/>
-      <c r="BA51" s="49" t="s">
+      <c r="AT51" s="58"/>
+      <c r="AU51" s="58"/>
+      <c r="AV51" s="58"/>
+      <c r="BA51" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BB51" s="50"/>
-      <c r="BC51" s="50"/>
-      <c r="BD51" s="51"/>
-      <c r="BE51" s="69" t="s">
+      <c r="BB51" s="69"/>
+      <c r="BC51" s="69"/>
+      <c r="BD51" s="70"/>
+      <c r="BE51" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BF51" s="70"/>
-      <c r="BG51" s="70"/>
-      <c r="BH51" s="71"/>
-      <c r="BI51" s="69" t="s">
+      <c r="BF51" s="96"/>
+      <c r="BG51" s="96"/>
+      <c r="BH51" s="97"/>
+      <c r="BI51" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BJ51" s="70"/>
-      <c r="BK51" s="70"/>
-      <c r="BL51" s="71"/>
-      <c r="BM51" s="49" t="s">
+      <c r="BJ51" s="96"/>
+      <c r="BK51" s="96"/>
+      <c r="BL51" s="97"/>
+      <c r="BM51" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="50"/>
-      <c r="BO51" s="50"/>
-      <c r="BP51" s="51"/>
-      <c r="BQ51" s="49" t="s">
+      <c r="BN51" s="69"/>
+      <c r="BO51" s="69"/>
+      <c r="BP51" s="70"/>
+      <c r="BQ51" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BR51" s="50"/>
-      <c r="BS51" s="50"/>
-      <c r="BT51" s="51"/>
+      <c r="BR51" s="69"/>
+      <c r="BS51" s="69"/>
+      <c r="BT51" s="70"/>
     </row>
     <row r="52" spans="1:72" s="5" customFormat="1" ht="73.5" customHeight="1">
       <c r="A52" s="55" t="s">
@@ -9044,140 +9044,140 @@
       <c r="AT52" s="55"/>
       <c r="AU52" s="55"/>
       <c r="AV52" s="55"/>
-      <c r="BA52" s="43" t="s">
+      <c r="BA52" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="BB52" s="44"/>
-      <c r="BC52" s="44"/>
-      <c r="BD52" s="45"/>
-      <c r="BE52" s="66" t="s">
+      <c r="BB52" s="60"/>
+      <c r="BC52" s="60"/>
+      <c r="BD52" s="61"/>
+      <c r="BE52" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="BF52" s="67"/>
-      <c r="BG52" s="67"/>
-      <c r="BH52" s="68"/>
-      <c r="BI52" s="66" t="s">
+      <c r="BF52" s="93"/>
+      <c r="BG52" s="93"/>
+      <c r="BH52" s="94"/>
+      <c r="BI52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="BJ52" s="67"/>
-      <c r="BK52" s="67"/>
-      <c r="BL52" s="68"/>
-      <c r="BM52" s="43" t="s">
+      <c r="BJ52" s="93"/>
+      <c r="BK52" s="93"/>
+      <c r="BL52" s="94"/>
+      <c r="BM52" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="BN52" s="44"/>
-      <c r="BO52" s="44"/>
-      <c r="BP52" s="45"/>
-      <c r="BQ52" s="43" t="s">
+      <c r="BN52" s="60"/>
+      <c r="BO52" s="60"/>
+      <c r="BP52" s="61"/>
+      <c r="BQ52" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="BR52" s="44"/>
-      <c r="BS52" s="44"/>
-      <c r="BT52" s="45"/>
+      <c r="BR52" s="60"/>
+      <c r="BS52" s="60"/>
+      <c r="BT52" s="61"/>
     </row>
     <row r="53" spans="1:72">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52" t="s">
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52" t="s">
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52" t="s">
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52" t="s">
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52" t="s">
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52" t="s">
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52" t="s">
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52" t="s">
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52" t="s">
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="56"/>
+      <c r="AJ53" s="56"/>
+      <c r="AK53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52" t="s">
+      <c r="AL53" s="56"/>
+      <c r="AM53" s="56"/>
+      <c r="AN53" s="56"/>
+      <c r="AO53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="52"/>
-      <c r="AS53" s="52" t="s">
+      <c r="AP53" s="56"/>
+      <c r="AQ53" s="56"/>
+      <c r="AR53" s="56"/>
+      <c r="AS53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AT53" s="52"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="52"/>
-      <c r="BA53" s="46" t="s">
+      <c r="AT53" s="56"/>
+      <c r="AU53" s="56"/>
+      <c r="AV53" s="56"/>
+      <c r="BA53" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BB53" s="47"/>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="48"/>
-      <c r="BE53" s="63" t="s">
+      <c r="BB53" s="66"/>
+      <c r="BC53" s="66"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BF53" s="64"/>
-      <c r="BG53" s="64"/>
-      <c r="BH53" s="65"/>
-      <c r="BI53" s="63" t="s">
+      <c r="BF53" s="90"/>
+      <c r="BG53" s="90"/>
+      <c r="BH53" s="91"/>
+      <c r="BI53" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BJ53" s="64"/>
-      <c r="BK53" s="64"/>
-      <c r="BL53" s="65"/>
-      <c r="BM53" s="46" t="s">
+      <c r="BJ53" s="90"/>
+      <c r="BK53" s="90"/>
+      <c r="BL53" s="91"/>
+      <c r="BM53" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BN53" s="47"/>
-      <c r="BO53" s="47"/>
-      <c r="BP53" s="48"/>
-      <c r="BQ53" s="46" t="s">
+      <c r="BN53" s="66"/>
+      <c r="BO53" s="66"/>
+      <c r="BP53" s="67"/>
+      <c r="BQ53" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="BR53" s="47"/>
-      <c r="BS53" s="47"/>
-      <c r="BT53" s="48"/>
+      <c r="BR53" s="66"/>
+      <c r="BS53" s="66"/>
+      <c r="BT53" s="67"/>
     </row>
     <row r="54" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A54" s="55" t="s">
@@ -9252,140 +9252,140 @@
       <c r="AT54" s="55"/>
       <c r="AU54" s="55"/>
       <c r="AV54" s="55"/>
-      <c r="BA54" s="43" t="s">
+      <c r="BA54" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="BB54" s="44"/>
-      <c r="BC54" s="44"/>
-      <c r="BD54" s="45"/>
-      <c r="BE54" s="66" t="s">
+      <c r="BB54" s="60"/>
+      <c r="BC54" s="60"/>
+      <c r="BD54" s="61"/>
+      <c r="BE54" s="92" t="s">
         <v>409</v>
       </c>
-      <c r="BF54" s="67"/>
-      <c r="BG54" s="67"/>
-      <c r="BH54" s="68"/>
-      <c r="BI54" s="66" t="s">
+      <c r="BF54" s="93"/>
+      <c r="BG54" s="93"/>
+      <c r="BH54" s="94"/>
+      <c r="BI54" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="BJ54" s="67"/>
-      <c r="BK54" s="67"/>
-      <c r="BL54" s="68"/>
-      <c r="BM54" s="43" t="s">
+      <c r="BJ54" s="93"/>
+      <c r="BK54" s="93"/>
+      <c r="BL54" s="94"/>
+      <c r="BM54" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="BN54" s="44"/>
-      <c r="BO54" s="44"/>
-      <c r="BP54" s="45"/>
-      <c r="BQ54" s="43" t="s">
+      <c r="BN54" s="60"/>
+      <c r="BO54" s="60"/>
+      <c r="BP54" s="61"/>
+      <c r="BQ54" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="BR54" s="44"/>
-      <c r="BS54" s="44"/>
-      <c r="BT54" s="45"/>
+      <c r="BR54" s="60"/>
+      <c r="BS54" s="60"/>
+      <c r="BT54" s="61"/>
     </row>
     <row r="55" spans="1:72">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52" t="s">
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52" t="s">
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52" t="s">
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52" t="s">
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52" t="s">
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52" t="s">
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+      <c r="Y55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52" t="s">
+      <c r="Z55" s="56"/>
+      <c r="AA55" s="56"/>
+      <c r="AB55" s="56"/>
+      <c r="AC55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52" t="s">
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="56"/>
+      <c r="AF55" s="56"/>
+      <c r="AG55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH55" s="52"/>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52" t="s">
+      <c r="AH55" s="56"/>
+      <c r="AI55" s="56"/>
+      <c r="AJ55" s="56"/>
+      <c r="AK55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
-      <c r="AO55" s="52" t="s">
+      <c r="AL55" s="56"/>
+      <c r="AM55" s="56"/>
+      <c r="AN55" s="56"/>
+      <c r="AO55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AP55" s="52"/>
-      <c r="AQ55" s="52"/>
-      <c r="AR55" s="52"/>
-      <c r="AS55" s="52" t="s">
+      <c r="AP55" s="56"/>
+      <c r="AQ55" s="56"/>
+      <c r="AR55" s="56"/>
+      <c r="AS55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AT55" s="52"/>
-      <c r="AU55" s="52"/>
-      <c r="AV55" s="52"/>
-      <c r="BA55" s="46" t="s">
+      <c r="AT55" s="56"/>
+      <c r="AU55" s="56"/>
+      <c r="AV55" s="56"/>
+      <c r="BA55" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BB55" s="47"/>
-      <c r="BC55" s="47"/>
-      <c r="BD55" s="48"/>
-      <c r="BE55" s="63" t="s">
+      <c r="BB55" s="66"/>
+      <c r="BC55" s="66"/>
+      <c r="BD55" s="67"/>
+      <c r="BE55" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BF55" s="64"/>
-      <c r="BG55" s="64"/>
-      <c r="BH55" s="65"/>
-      <c r="BI55" s="63" t="s">
+      <c r="BF55" s="90"/>
+      <c r="BG55" s="90"/>
+      <c r="BH55" s="91"/>
+      <c r="BI55" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BJ55" s="64"/>
-      <c r="BK55" s="64"/>
-      <c r="BL55" s="65"/>
-      <c r="BM55" s="46" t="s">
+      <c r="BJ55" s="90"/>
+      <c r="BK55" s="90"/>
+      <c r="BL55" s="91"/>
+      <c r="BM55" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BN55" s="47"/>
-      <c r="BO55" s="47"/>
-      <c r="BP55" s="48"/>
-      <c r="BQ55" s="46" t="s">
+      <c r="BN55" s="66"/>
+      <c r="BO55" s="66"/>
+      <c r="BP55" s="67"/>
+      <c r="BQ55" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="BR55" s="47"/>
-      <c r="BS55" s="47"/>
-      <c r="BT55" s="48"/>
+      <c r="BR55" s="66"/>
+      <c r="BS55" s="66"/>
+      <c r="BT55" s="67"/>
     </row>
     <row r="56" spans="1:72" s="5" customFormat="1" ht="49.5" customHeight="1">
       <c r="A56" s="55" t="s">
@@ -9460,211 +9460,396 @@
       <c r="AT56" s="55"/>
       <c r="AU56" s="55"/>
       <c r="AV56" s="55"/>
-      <c r="BA56" s="43" t="s">
+      <c r="BA56" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="BB56" s="44"/>
-      <c r="BC56" s="44"/>
-      <c r="BD56" s="45"/>
-      <c r="BE56" s="66" t="s">
+      <c r="BB56" s="60"/>
+      <c r="BC56" s="60"/>
+      <c r="BD56" s="61"/>
+      <c r="BE56" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="BF56" s="67"/>
-      <c r="BG56" s="67"/>
-      <c r="BH56" s="68"/>
-      <c r="BI56" s="66" t="s">
+      <c r="BF56" s="93"/>
+      <c r="BG56" s="93"/>
+      <c r="BH56" s="94"/>
+      <c r="BI56" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="BJ56" s="67"/>
-      <c r="BK56" s="67"/>
-      <c r="BL56" s="68"/>
-      <c r="BM56" s="43" t="s">
+      <c r="BJ56" s="93"/>
+      <c r="BK56" s="93"/>
+      <c r="BL56" s="94"/>
+      <c r="BM56" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="BN56" s="44"/>
-      <c r="BO56" s="44"/>
-      <c r="BP56" s="45"/>
-      <c r="BQ56" s="43" t="s">
+      <c r="BN56" s="60"/>
+      <c r="BO56" s="60"/>
+      <c r="BP56" s="61"/>
+      <c r="BQ56" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="BR56" s="44"/>
-      <c r="BS56" s="44"/>
-      <c r="BT56" s="45"/>
+      <c r="BR56" s="60"/>
+      <c r="BS56" s="60"/>
+      <c r="BT56" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="553">
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BQ49:BT49"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="BM35:BP35"/>
+    <mergeCell ref="BM36:BP36"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BM39:BP39"/>
+    <mergeCell ref="BM40:BP40"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ35:BT35"/>
+    <mergeCell ref="BQ36:BT36"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BQ38:BT38"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="BQ50:BT50"/>
+    <mergeCell ref="BQ51:BT51"/>
+    <mergeCell ref="BQ52:BT52"/>
+    <mergeCell ref="BQ53:BT53"/>
+    <mergeCell ref="BQ54:BT54"/>
+    <mergeCell ref="BQ55:BT55"/>
+    <mergeCell ref="BQ56:BT56"/>
+    <mergeCell ref="BI49:BL49"/>
+    <mergeCell ref="BI50:BL50"/>
+    <mergeCell ref="BI51:BL51"/>
+    <mergeCell ref="BI52:BL52"/>
+    <mergeCell ref="BI53:BL53"/>
+    <mergeCell ref="BI54:BL54"/>
+    <mergeCell ref="BI55:BL55"/>
+    <mergeCell ref="BI56:BL56"/>
+    <mergeCell ref="BM49:BP49"/>
+    <mergeCell ref="BM50:BP50"/>
+    <mergeCell ref="BM51:BP51"/>
+    <mergeCell ref="BM52:BP52"/>
+    <mergeCell ref="BM53:BP53"/>
+    <mergeCell ref="BM54:BP54"/>
+    <mergeCell ref="BM55:BP55"/>
+    <mergeCell ref="BM56:BP56"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="BA51:BD51"/>
+    <mergeCell ref="BA52:BD52"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="BA54:BD54"/>
+    <mergeCell ref="BA55:BD55"/>
+    <mergeCell ref="BA56:BD56"/>
+    <mergeCell ref="BE49:BH49"/>
+    <mergeCell ref="BE50:BH50"/>
+    <mergeCell ref="BE51:BH51"/>
+    <mergeCell ref="BE52:BH52"/>
+    <mergeCell ref="BE53:BH53"/>
+    <mergeCell ref="BE54:BH54"/>
+    <mergeCell ref="BE55:BH55"/>
+    <mergeCell ref="BE56:BH56"/>
+    <mergeCell ref="CC35:CF35"/>
+    <mergeCell ref="CC36:CF36"/>
+    <mergeCell ref="CC37:CF37"/>
+    <mergeCell ref="CC38:CF38"/>
+    <mergeCell ref="CC39:CF39"/>
+    <mergeCell ref="CC40:CF40"/>
+    <mergeCell ref="CC41:CF41"/>
+    <mergeCell ref="CC42:CF42"/>
+    <mergeCell ref="CG35:CJ35"/>
+    <mergeCell ref="CG36:CJ36"/>
+    <mergeCell ref="CG37:CJ37"/>
+    <mergeCell ref="CG38:CJ38"/>
+    <mergeCell ref="CG39:CJ39"/>
+    <mergeCell ref="CG40:CJ40"/>
+    <mergeCell ref="CG41:CJ41"/>
+    <mergeCell ref="CG42:CJ42"/>
+    <mergeCell ref="BU35:BX35"/>
+    <mergeCell ref="BU36:BX36"/>
+    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="BU38:BX38"/>
+    <mergeCell ref="BU39:BX39"/>
+    <mergeCell ref="BU40:BX40"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BU42:BX42"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY36:CB36"/>
+    <mergeCell ref="BY37:CB37"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY39:CB39"/>
+    <mergeCell ref="BY40:CB40"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY42:CB42"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BE36:BH36"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BE38:BH38"/>
+    <mergeCell ref="BE39:BH39"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="BI36:BL36"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BI38:BL38"/>
+    <mergeCell ref="BI39:BL39"/>
+    <mergeCell ref="BI40:BL40"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ8:BT8"/>
+    <mergeCell ref="BQ9:BT9"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="BQ11:BT11"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BQ13:BT13"/>
+    <mergeCell ref="BQ14:BT14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="AS50:AV50"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS56:AV56"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="AS53:AV53"/>
+    <mergeCell ref="AS52:AV52"/>
+    <mergeCell ref="AK51:AN51"/>
+    <mergeCell ref="AK50:AN50"/>
+    <mergeCell ref="AK49:AN49"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO54:AR54"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AO51:AR51"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AK56:AN56"/>
+    <mergeCell ref="AK55:AN55"/>
+    <mergeCell ref="AK54:AN54"/>
+    <mergeCell ref="AK53:AN53"/>
+    <mergeCell ref="AK52:AN52"/>
+    <mergeCell ref="AC51:AF51"/>
+    <mergeCell ref="AC50:AF50"/>
+    <mergeCell ref="AC49:AF49"/>
+    <mergeCell ref="AG56:AJ56"/>
+    <mergeCell ref="AG55:AJ55"/>
+    <mergeCell ref="AG54:AJ54"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AG52:AJ52"/>
+    <mergeCell ref="AG51:AJ51"/>
+    <mergeCell ref="AG50:AJ50"/>
+    <mergeCell ref="AG49:AJ49"/>
+    <mergeCell ref="AC56:AF56"/>
+    <mergeCell ref="AC55:AF55"/>
+    <mergeCell ref="AC54:AF54"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AC52:AF52"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="Y56:AB56"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="Y54:AB54"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y50:AB50"/>
+    <mergeCell ref="Y49:AB49"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="AK9:AN9"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AK7:AN7"/>
@@ -9689,363 +9874,178 @@
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="AW42:AZ42"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="Y52:AB52"/>
-    <mergeCell ref="Y51:AB51"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="AC51:AF51"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG56:AJ56"/>
-    <mergeCell ref="AG55:AJ55"/>
-    <mergeCell ref="AG54:AJ54"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AG51:AJ51"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AC56:AF56"/>
-    <mergeCell ref="AC55:AF55"/>
-    <mergeCell ref="AC54:AF54"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AC52:AF52"/>
-    <mergeCell ref="AS56:AV56"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="AS52:AV52"/>
-    <mergeCell ref="AK51:AN51"/>
-    <mergeCell ref="AK50:AN50"/>
-    <mergeCell ref="AK49:AN49"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO54:AR54"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AO51:AR51"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AK56:AN56"/>
-    <mergeCell ref="AK55:AN55"/>
-    <mergeCell ref="AK54:AN54"/>
-    <mergeCell ref="AK53:AN53"/>
-    <mergeCell ref="AK52:AN52"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="AS50:AV50"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="BQ8:BT8"/>
-    <mergeCell ref="BQ9:BT9"/>
-    <mergeCell ref="BQ10:BT10"/>
-    <mergeCell ref="BQ11:BT11"/>
-    <mergeCell ref="BQ12:BT12"/>
-    <mergeCell ref="BQ13:BT13"/>
-    <mergeCell ref="BQ14:BT14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BI42:BL42"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BQ42:BT42"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BE41:BH41"/>
-    <mergeCell ref="BE42:BH42"/>
-    <mergeCell ref="BU35:BX35"/>
-    <mergeCell ref="BU36:BX36"/>
-    <mergeCell ref="BU37:BX37"/>
-    <mergeCell ref="BU38:BX38"/>
-    <mergeCell ref="BU39:BX39"/>
-    <mergeCell ref="BU40:BX40"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BU42:BX42"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY36:CB36"/>
-    <mergeCell ref="BY37:CB37"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY39:CB39"/>
-    <mergeCell ref="BY40:CB40"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY42:CB42"/>
-    <mergeCell ref="CC35:CF35"/>
-    <mergeCell ref="CC36:CF36"/>
-    <mergeCell ref="CC37:CF37"/>
-    <mergeCell ref="CC38:CF38"/>
-    <mergeCell ref="CC39:CF39"/>
-    <mergeCell ref="CC40:CF40"/>
-    <mergeCell ref="CC41:CF41"/>
-    <mergeCell ref="CC42:CF42"/>
-    <mergeCell ref="CG35:CJ35"/>
-    <mergeCell ref="CG36:CJ36"/>
-    <mergeCell ref="CG37:CJ37"/>
-    <mergeCell ref="CG38:CJ38"/>
-    <mergeCell ref="CG39:CJ39"/>
-    <mergeCell ref="CG40:CJ40"/>
-    <mergeCell ref="CG41:CJ41"/>
-    <mergeCell ref="CG42:CJ42"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="BA51:BD51"/>
-    <mergeCell ref="BA52:BD52"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="BA54:BD54"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BE49:BH49"/>
-    <mergeCell ref="BE50:BH50"/>
-    <mergeCell ref="BE51:BH51"/>
-    <mergeCell ref="BE52:BH52"/>
-    <mergeCell ref="BE53:BH53"/>
-    <mergeCell ref="BE54:BH54"/>
-    <mergeCell ref="BE55:BH55"/>
-    <mergeCell ref="BE56:BH56"/>
-    <mergeCell ref="BQ50:BT50"/>
-    <mergeCell ref="BQ51:BT51"/>
-    <mergeCell ref="BQ52:BT52"/>
-    <mergeCell ref="BQ53:BT53"/>
-    <mergeCell ref="BQ54:BT54"/>
-    <mergeCell ref="BQ55:BT55"/>
-    <mergeCell ref="BQ56:BT56"/>
-    <mergeCell ref="BI49:BL49"/>
-    <mergeCell ref="BI50:BL50"/>
-    <mergeCell ref="BI51:BL51"/>
-    <mergeCell ref="BI52:BL52"/>
-    <mergeCell ref="BI53:BL53"/>
-    <mergeCell ref="BI54:BL54"/>
-    <mergeCell ref="BI55:BL55"/>
-    <mergeCell ref="BI56:BL56"/>
-    <mergeCell ref="BM49:BP49"/>
-    <mergeCell ref="BM50:BP50"/>
-    <mergeCell ref="BM51:BP51"/>
-    <mergeCell ref="BM52:BP52"/>
-    <mergeCell ref="BM53:BP53"/>
-    <mergeCell ref="BM54:BP54"/>
-    <mergeCell ref="BM55:BP55"/>
-    <mergeCell ref="BM56:BP56"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BQ49:BT49"/>
-    <mergeCell ref="BA49:BD49"/>
-    <mergeCell ref="BM35:BP35"/>
-    <mergeCell ref="BM36:BP36"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BM38:BP38"/>
-    <mergeCell ref="BM39:BP39"/>
-    <mergeCell ref="BM40:BP40"/>
-    <mergeCell ref="BM41:BP41"/>
-    <mergeCell ref="BM42:BP42"/>
-    <mergeCell ref="BQ35:BT35"/>
-    <mergeCell ref="BQ36:BT36"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BQ38:BT38"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB46 BJ46 BR46 BJ32 BR32 BZ32 CH32 AX4 BF4 BN4 BF18 AP46 AL46 AH46 AD46 Z46 V46 R46 J18 N18 R18 V18 Z18 AD18 AH18 AL18 AP18 AT18 B32 B18 AX18 F32 J32 N32 R32 V32 Z32 AD32 AH32 AL32 AP32 AT32 AX32 F46 J46 N46 B46 F18 AL4 AH4 AD4 Z4 V4 R4 N4 J4 F4 B4 AT46 BR4 BJ4 BB4 AT4 CD32 BV32 BN32 BF32 BN46 BF46">

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -2743,8 +2743,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU31" sqref="BU31:BX42"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA10" sqref="BA10:BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,16 +3061,16 @@
       <c r="AV3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AW3" s="43" t="s">
+      <c r="AW3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" s="43" t="s">
+      <c r="AX3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="43" t="s">
+      <c r="AY3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="43" t="s">
+      <c r="AZ3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="BA3" s="41" t="s">
@@ -3085,16 +3085,16 @@
       <c r="BD3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="47" t="s">
+      <c r="BE3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="47" t="s">
+      <c r="BF3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="47" t="s">
+      <c r="BG3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="47" t="s">
+      <c r="BH3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="BI3" s="41" t="s">
@@ -3267,16 +3267,16 @@
       <c r="AV4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" s="44" t="s">
+      <c r="AW4" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="AX4" s="45" t="s">
+      <c r="AX4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="45" t="s">
+      <c r="AY4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="45" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>28</v>
       </c>
       <c r="BA4" s="16" t="s">
@@ -3291,16 +3291,16 @@
       <c r="BD4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="48" t="s">
+      <c r="BE4" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="BF4" s="49" t="s">
+      <c r="BF4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="49" t="s">
+      <c r="BG4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="49" t="s">
+      <c r="BH4" s="45" t="s">
         <v>28</v>
       </c>
       <c r="BI4" s="16" t="s">
@@ -3451,16 +3451,16 @@
         <v>34</v>
       </c>
       <c r="AV5" s="40"/>
-      <c r="AW5" s="43" t="s">
+      <c r="AW5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="43" t="s">
+      <c r="AX5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AY5" s="43" t="s">
+      <c r="AY5" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AZ5" s="43"/>
+      <c r="AZ5" s="47"/>
       <c r="BA5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3471,16 +3471,16 @@
         <v>34</v>
       </c>
       <c r="BD5" s="41"/>
-      <c r="BE5" s="47" t="s">
+      <c r="BE5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="47" t="s">
+      <c r="BF5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BG5" s="47" t="s">
+      <c r="BG5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="BH5" s="47"/>
+      <c r="BH5" s="43"/>
       <c r="BI5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3623,16 +3623,16 @@
         <v>51</v>
       </c>
       <c r="AV6" s="39"/>
-      <c r="AW6" s="45" t="s">
+      <c r="AW6" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AX6" s="46">
+      <c r="AX6" s="50">
         <v>40386</v>
       </c>
-      <c r="AY6" s="45" t="s">
+      <c r="AY6" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AZ6" s="45"/>
+      <c r="AZ6" s="49"/>
       <c r="BA6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3643,16 +3643,16 @@
         <v>51</v>
       </c>
       <c r="BD6" s="42"/>
-      <c r="BE6" s="49" t="s">
+      <c r="BE6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="BF6" s="50">
+      <c r="BF6" s="46">
         <v>40386</v>
       </c>
-      <c r="BG6" s="49" t="s">
+      <c r="BG6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BH6" s="49"/>
+      <c r="BH6" s="45"/>
       <c r="BI6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3751,24 +3751,24 @@
       <c r="AT7" s="56"/>
       <c r="AU7" s="56"/>
       <c r="AV7" s="56"/>
-      <c r="AW7" s="89" t="s">
+      <c r="AW7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="91"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="73"/>
       <c r="BA7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="BB7" s="66"/>
       <c r="BC7" s="66"/>
       <c r="BD7" s="67"/>
-      <c r="BE7" s="71" t="s">
+      <c r="BE7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="73"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="91"/>
       <c r="BI7" s="65" t="s">
         <v>5</v>
       </c>
@@ -3855,24 +3855,24 @@
       <c r="AT8" s="57"/>
       <c r="AU8" s="57"/>
       <c r="AV8" s="57"/>
-      <c r="AW8" s="92" t="s">
+      <c r="AW8" s="74" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
       <c r="BA8" s="59" t="s">
         <v>331</v>
       </c>
       <c r="BB8" s="60"/>
       <c r="BC8" s="60"/>
       <c r="BD8" s="61"/>
-      <c r="BE8" s="74" t="s">
+      <c r="BE8" s="92" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="75"/>
-      <c r="BG8" s="75"/>
-      <c r="BH8" s="76"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="94"/>
       <c r="BI8" s="59" t="s">
         <v>339</v>
       </c>
@@ -3959,24 +3959,24 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
       <c r="AV9" s="58"/>
-      <c r="AW9" s="95" t="s">
+      <c r="AW9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="97"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="79"/>
       <c r="BA9" s="68" t="s">
         <v>3</v>
       </c>
       <c r="BB9" s="69"/>
       <c r="BC9" s="69"/>
       <c r="BD9" s="70"/>
-      <c r="BE9" s="77" t="s">
+      <c r="BE9" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="78"/>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="79"/>
+      <c r="BF9" s="96"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="97"/>
       <c r="BI9" s="68" t="s">
         <v>3</v>
       </c>
@@ -4063,24 +4063,24 @@
       <c r="AT10" s="55"/>
       <c r="AU10" s="55"/>
       <c r="AV10" s="55"/>
-      <c r="AW10" s="92" t="s">
+      <c r="AW10" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="94"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
       <c r="BA10" s="59" t="s">
         <v>332</v>
       </c>
       <c r="BB10" s="60"/>
       <c r="BC10" s="60"/>
       <c r="BD10" s="61"/>
-      <c r="BE10" s="74" t="s">
+      <c r="BE10" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="76"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="94"/>
       <c r="BI10" s="59" t="s">
         <v>338</v>
       </c>
@@ -4167,24 +4167,24 @@
       <c r="AT11" s="56"/>
       <c r="AU11" s="56"/>
       <c r="AV11" s="56"/>
-      <c r="AW11" s="89" t="s">
+      <c r="AW11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="91"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="73"/>
       <c r="BA11" s="65" t="s">
         <v>33</v>
       </c>
       <c r="BB11" s="66"/>
       <c r="BC11" s="66"/>
       <c r="BD11" s="67"/>
-      <c r="BE11" s="71" t="s">
+      <c r="BE11" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="73"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="91"/>
       <c r="BI11" s="65" t="s">
         <v>33</v>
       </c>
@@ -4271,24 +4271,24 @@
       <c r="AT12" s="55"/>
       <c r="AU12" s="55"/>
       <c r="AV12" s="55"/>
-      <c r="AW12" s="92" t="s">
+      <c r="AW12" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="94"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="76"/>
       <c r="BA12" s="59" t="s">
         <v>333</v>
       </c>
       <c r="BB12" s="60"/>
       <c r="BC12" s="60"/>
       <c r="BD12" s="61"/>
-      <c r="BE12" s="74" t="s">
+      <c r="BE12" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="76"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="94"/>
       <c r="BI12" s="59" t="s">
         <v>341</v>
       </c>
@@ -4375,24 +4375,24 @@
       <c r="AT13" s="56"/>
       <c r="AU13" s="56"/>
       <c r="AV13" s="56"/>
-      <c r="AW13" s="89" t="s">
+      <c r="AW13" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="91"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
       <c r="BA13" s="65" t="s">
         <v>36</v>
       </c>
       <c r="BB13" s="66"/>
       <c r="BC13" s="66"/>
       <c r="BD13" s="67"/>
-      <c r="BE13" s="71" t="s">
+      <c r="BE13" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="73"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="91"/>
       <c r="BI13" s="65" t="s">
         <v>36</v>
       </c>
@@ -4479,24 +4479,24 @@
       <c r="AT14" s="55"/>
       <c r="AU14" s="55"/>
       <c r="AV14" s="55"/>
-      <c r="AW14" s="92" t="s">
+      <c r="AW14" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="94"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="76"/>
       <c r="BA14" s="59" t="s">
         <v>334</v>
       </c>
       <c r="BB14" s="60"/>
       <c r="BC14" s="60"/>
       <c r="BD14" s="61"/>
-      <c r="BE14" s="74" t="s">
+      <c r="BE14" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="75"/>
-      <c r="BG14" s="75"/>
-      <c r="BH14" s="76"/>
+      <c r="BF14" s="93"/>
+      <c r="BG14" s="93"/>
+      <c r="BH14" s="94"/>
       <c r="BI14" s="59" t="s">
         <v>342</v>
       </c>

--- a/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
+++ b/trunk/(BFT)_Testing_for_(Team_Homeless_Titans)_BugTracker.xlsx
@@ -1492,7 +1492,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1539,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1784,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1880,52 +1898,13 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,15 +1916,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1954,6 +1924,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1982,6 +1961,24 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2007,6 +2004,96 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2743,8 +2830,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10:BD10"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE52" sqref="BE52:BH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2836,11 +2923,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="15.75" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="14" t="s">
@@ -3085,16 +3172,16 @@
       <c r="BD3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="BE3" s="43" t="s">
+      <c r="BE3" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="BF3" s="43" t="s">
+      <c r="BF3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="BG3" s="43" t="s">
+      <c r="BG3" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="43" t="s">
+      <c r="BH3" s="111" t="s">
         <v>1</v>
       </c>
       <c r="BI3" s="41" t="s">
@@ -3291,16 +3378,16 @@
       <c r="BD4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="44" t="s">
+      <c r="BE4" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="BF4" s="45" t="s">
+      <c r="BF4" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="BG4" s="45" t="s">
+      <c r="BG4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="BH4" s="45" t="s">
+      <c r="BH4" s="99" t="s">
         <v>28</v>
       </c>
       <c r="BI4" s="16" t="s">
@@ -3471,16 +3558,16 @@
         <v>34</v>
       </c>
       <c r="BD5" s="41"/>
-      <c r="BE5" s="43" t="s">
+      <c r="BE5" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="43" t="s">
+      <c r="BF5" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="BG5" s="43" t="s">
+      <c r="BG5" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="BH5" s="43"/>
+      <c r="BH5" s="111"/>
       <c r="BI5" s="41" t="s">
         <v>4</v>
       </c>
@@ -3643,16 +3730,16 @@
         <v>51</v>
       </c>
       <c r="BD6" s="42"/>
-      <c r="BE6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF6" s="46">
+      <c r="BE6" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF6" s="100">
         <v>40386</v>
       </c>
-      <c r="BG6" s="45" t="s">
+      <c r="BG6" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="BH6" s="45"/>
+      <c r="BH6" s="99"/>
       <c r="BI6" s="42" t="s">
         <v>40</v>
       </c>
@@ -3685,836 +3772,836 @@
       <c r="BT6" s="42"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56" t="s">
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56" t="s">
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56" t="s">
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56" t="s">
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56" t="s">
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AS7" s="56" t="s">
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AS7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="71" t="s">
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="65" t="s">
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="60"/>
+      <c r="BA7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="89" t="s">
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="65" t="s">
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="65" t="s">
+      <c r="BJ7" s="65"/>
+      <c r="BK7" s="65"/>
+      <c r="BL7" s="66"/>
+      <c r="BM7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66"/>
-      <c r="BP7" s="67"/>
-      <c r="BQ7" s="65" t="s">
+      <c r="BN7" s="65"/>
+      <c r="BO7" s="65"/>
+      <c r="BP7" s="66"/>
+      <c r="BQ7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="66"/>
-      <c r="BS7" s="66"/>
-      <c r="BT7" s="67"/>
+      <c r="BR7" s="65"/>
+      <c r="BS7" s="65"/>
+      <c r="BT7" s="66"/>
     </row>
     <row r="8" spans="1:72" ht="44.25" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57" t="s">
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="57" t="s">
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="55" t="s">
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57" t="s">
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="55" t="s">
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57" t="s">
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AS8" s="57" t="s">
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AS8" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="74" t="s">
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="59" t="s">
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="92" t="s">
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="78"/>
+      <c r="BE8" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="94"/>
-      <c r="BI8" s="59" t="s">
+      <c r="BF8" s="102"/>
+      <c r="BG8" s="102"/>
+      <c r="BH8" s="103"/>
+      <c r="BI8" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="61"/>
-      <c r="BM8" s="59" t="s">
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="78"/>
+      <c r="BM8" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="60"/>
-      <c r="BP8" s="61"/>
-      <c r="BQ8" s="59" t="s">
+      <c r="BN8" s="77"/>
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="78"/>
+      <c r="BQ8" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="BR8" s="60"/>
-      <c r="BS8" s="60"/>
-      <c r="BT8" s="61"/>
+      <c r="BR8" s="77"/>
+      <c r="BS8" s="77"/>
+      <c r="BT8" s="78"/>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58" t="s">
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58" t="s">
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58" t="s">
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58" t="s">
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58" t="s">
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58" t="s">
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58" t="s">
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AS9" s="58" t="s">
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AS9" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="77" t="s">
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="68" t="s">
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="95" t="s">
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="81"/>
+      <c r="BE9" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="96"/>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="97"/>
-      <c r="BI9" s="68" t="s">
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="69"/>
-      <c r="BK9" s="69"/>
-      <c r="BL9" s="70"/>
-      <c r="BM9" s="68" t="s">
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="69"/>
-      <c r="BO9" s="69"/>
-      <c r="BP9" s="70"/>
-      <c r="BQ9" s="68" t="s">
+      <c r="BN9" s="80"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="81"/>
+      <c r="BQ9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="69"/>
-      <c r="BS9" s="69"/>
-      <c r="BT9" s="70"/>
+      <c r="BR9" s="80"/>
+      <c r="BS9" s="80"/>
+      <c r="BT9" s="81"/>
     </row>
     <row r="10" spans="1:72" s="5" customFormat="1" ht="75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55" t="s">
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55" t="s">
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55" t="s">
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55" t="s">
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55" t="s">
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55" t="s">
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94"/>
+      <c r="AK10" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AS10" s="55" t="s">
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AS10" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="74" t="s">
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="59" t="s">
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="92" t="s">
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="94"/>
-      <c r="BI10" s="59" t="s">
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="76" t="s">
         <v>338</v>
       </c>
-      <c r="BJ10" s="60"/>
-      <c r="BK10" s="60"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="59" t="s">
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="60"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="59" t="s">
+      <c r="BN10" s="77"/>
+      <c r="BO10" s="77"/>
+      <c r="BP10" s="78"/>
+      <c r="BQ10" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="BR10" s="60"/>
-      <c r="BS10" s="60"/>
-      <c r="BT10" s="61"/>
+      <c r="BR10" s="77"/>
+      <c r="BS10" s="77"/>
+      <c r="BT10" s="78"/>
     </row>
     <row r="11" spans="1:72">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56" t="s">
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56" t="s">
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56" t="s">
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56" t="s">
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56" t="s">
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56" t="s">
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56" t="s">
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56" t="s">
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AS11" s="56" t="s">
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="91"/>
+      <c r="AS11" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="71" t="s">
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="91"/>
+      <c r="AV11" s="91"/>
+      <c r="AW11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="65" t="s">
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="66"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="67"/>
-      <c r="BE11" s="89" t="s">
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="66"/>
+      <c r="BE11" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="90"/>
-      <c r="BG11" s="90"/>
-      <c r="BH11" s="91"/>
-      <c r="BI11" s="65" t="s">
+      <c r="BF11" s="113"/>
+      <c r="BG11" s="113"/>
+      <c r="BH11" s="114"/>
+      <c r="BI11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="66"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="67"/>
-      <c r="BM11" s="65" t="s">
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="66"/>
+      <c r="BM11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="66"/>
-      <c r="BO11" s="66"/>
-      <c r="BP11" s="67"/>
-      <c r="BQ11" s="65" t="s">
+      <c r="BN11" s="65"/>
+      <c r="BO11" s="65"/>
+      <c r="BP11" s="66"/>
+      <c r="BQ11" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="66"/>
-      <c r="BS11" s="66"/>
-      <c r="BT11" s="67"/>
+      <c r="BR11" s="65"/>
+      <c r="BS11" s="65"/>
+      <c r="BT11" s="66"/>
     </row>
     <row r="12" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55" t="s">
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55" t="s">
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55" t="s">
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55" t="s">
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55" t="s">
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55" t="s">
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55" t="s">
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55" t="s">
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AS12" s="55" t="s">
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AS12" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="74" t="s">
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="59" t="s">
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="92" t="s">
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="78"/>
+      <c r="BE12" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="94"/>
-      <c r="BI12" s="59" t="s">
+      <c r="BF12" s="102"/>
+      <c r="BG12" s="102"/>
+      <c r="BH12" s="103"/>
+      <c r="BI12" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="59" t="s">
+      <c r="BJ12" s="77"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="76" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="60"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="59" t="s">
+      <c r="BN12" s="77"/>
+      <c r="BO12" s="77"/>
+      <c r="BP12" s="78"/>
+      <c r="BQ12" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="BR12" s="60"/>
-      <c r="BS12" s="60"/>
-      <c r="BT12" s="61"/>
+      <c r="BR12" s="77"/>
+      <c r="BS12" s="77"/>
+      <c r="BT12" s="78"/>
     </row>
     <row r="13" spans="1:72">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56" t="s">
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56" t="s">
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56" t="s">
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56" t="s">
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56" t="s">
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56" t="s">
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56" t="s">
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56" t="s">
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AS13" s="56" t="s">
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AS13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="71" t="s">
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="65" t="s">
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="66"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="89" t="s">
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="66"/>
+      <c r="BE13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="65" t="s">
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="113"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="66"/>
-      <c r="BK13" s="66"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="65" t="s">
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="66"/>
+      <c r="BM13" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="66"/>
-      <c r="BO13" s="66"/>
-      <c r="BP13" s="67"/>
-      <c r="BQ13" s="65" t="s">
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="65"/>
+      <c r="BP13" s="66"/>
+      <c r="BQ13" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="66"/>
-      <c r="BS13" s="66"/>
-      <c r="BT13" s="67"/>
+      <c r="BR13" s="65"/>
+      <c r="BS13" s="65"/>
+      <c r="BT13" s="66"/>
     </row>
     <row r="14" spans="1:72" s="5" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55" t="s">
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55" t="s">
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55" t="s">
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94" t="s">
         <v>265</v>
       </c>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55" t="s">
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55" t="s">
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55" t="s">
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55" t="s">
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AS14" s="55" t="s">
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AS14" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="74" t="s">
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="59" t="s">
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="76" t="s">
         <v>334</v>
       </c>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="92" t="s">
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="78"/>
+      <c r="BE14" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="BF14" s="93"/>
-      <c r="BG14" s="93"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="59" t="s">
+      <c r="BF14" s="102"/>
+      <c r="BG14" s="102"/>
+      <c r="BH14" s="103"/>
+      <c r="BI14" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="60"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="59" t="s">
+      <c r="BJ14" s="77"/>
+      <c r="BK14" s="77"/>
+      <c r="BL14" s="78"/>
+      <c r="BM14" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="59" t="s">
+      <c r="BN14" s="77"/>
+      <c r="BO14" s="77"/>
+      <c r="BP14" s="78"/>
+      <c r="BQ14" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="BR14" s="60"/>
-      <c r="BS14" s="60"/>
-      <c r="BT14" s="61"/>
+      <c r="BR14" s="77"/>
+      <c r="BS14" s="77"/>
+      <c r="BT14" s="78"/>
     </row>
     <row r="15" spans="1:72" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:72" ht="16.5" thickTop="1" thickBot="1">
@@ -5130,692 +5217,692 @@
       <c r="BH20" s="49"/>
     </row>
     <row r="21" spans="1:88">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56" t="s">
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56" t="s">
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56" t="s">
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56" t="s">
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56" t="s">
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56" t="s">
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56" t="s">
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56" t="s">
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56" t="s">
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="91"/>
+      <c r="AN21" s="91"/>
+      <c r="AO21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56" t="s">
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="56"/>
-      <c r="AW21" s="56" t="s">
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="56"/>
-      <c r="AZ21" s="56"/>
-      <c r="BE21" s="71" t="s">
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="91"/>
+      <c r="BE21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="72"/>
-      <c r="BG21" s="72"/>
-      <c r="BH21" s="73"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="60"/>
     </row>
     <row r="22" spans="1:88">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57" t="s">
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57" t="s">
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57" t="s">
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57" t="s">
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57" t="s">
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57" t="s">
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57" t="s">
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57" t="s">
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="92"/>
+      <c r="AO22" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57" t="s">
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57" t="s">
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
-      <c r="AZ22" s="57"/>
-      <c r="BE22" s="74" t="s">
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="92"/>
+      <c r="BE22" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="BF22" s="75"/>
-      <c r="BG22" s="75"/>
-      <c r="BH22" s="76"/>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56"/>
+      <c r="BH22" s="57"/>
     </row>
     <row r="23" spans="1:88">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58" t="s">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58" t="s">
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58" t="s">
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58" t="s">
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58" t="s">
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58" t="s">
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58" t="s">
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58" t="s">
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58" t="s">
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="93"/>
+      <c r="AN23" s="93"/>
+      <c r="AO23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58" t="s">
+      <c r="AP23" s="93"/>
+      <c r="AQ23" s="93"/>
+      <c r="AR23" s="93"/>
+      <c r="AS23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58" t="s">
+      <c r="AT23" s="93"/>
+      <c r="AU23" s="93"/>
+      <c r="AV23" s="93"/>
+      <c r="AW23" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BE23" s="77" t="s">
+      <c r="AX23" s="93"/>
+      <c r="AY23" s="93"/>
+      <c r="AZ23" s="93"/>
+      <c r="BE23" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="78"/>
-      <c r="BG23" s="78"/>
-      <c r="BH23" s="79"/>
+      <c r="BF23" s="62"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="63"/>
     </row>
     <row r="24" spans="1:88" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55" t="s">
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55" t="s">
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55" t="s">
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55" t="s">
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55" t="s">
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55" t="s">
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55" t="s">
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55" t="s">
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55" t="s">
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94" t="s">
         <v>230</v>
       </c>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55" t="s">
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55" t="s">
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BE24" s="74" t="s">
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="94"/>
+      <c r="AZ24" s="94"/>
+      <c r="BE24" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="BF24" s="75"/>
-      <c r="BG24" s="75"/>
-      <c r="BH24" s="76"/>
+      <c r="BF24" s="56"/>
+      <c r="BG24" s="56"/>
+      <c r="BH24" s="57"/>
     </row>
     <row r="25" spans="1:88" ht="15" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56" t="s">
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56" t="s">
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56" t="s">
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56" t="s">
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56" t="s">
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56" t="s">
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56" t="s">
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="91"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56" t="s">
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="91"/>
+      <c r="AJ25" s="91"/>
+      <c r="AK25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56" t="s">
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="91"/>
+      <c r="AN25" s="91"/>
+      <c r="AO25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56" t="s">
+      <c r="AP25" s="91"/>
+      <c r="AQ25" s="91"/>
+      <c r="AR25" s="91"/>
+      <c r="AS25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56" t="s">
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91"/>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BE25" s="71" t="s">
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="91"/>
+      <c r="BE25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="72"/>
-      <c r="BG25" s="72"/>
-      <c r="BH25" s="73"/>
+      <c r="BF25" s="59"/>
+      <c r="BG25" s="59"/>
+      <c r="BH25" s="60"/>
     </row>
     <row r="26" spans="1:88" s="5" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55" t="s">
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55" t="s">
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55" t="s">
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55" t="s">
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="59" t="s">
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="55" t="s">
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="78"/>
+      <c r="AC26" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55" t="s">
+      <c r="AD26" s="94"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55" t="s">
+      <c r="AH26" s="94"/>
+      <c r="AI26" s="94"/>
+      <c r="AJ26" s="94"/>
+      <c r="AK26" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55" t="s">
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="94"/>
+      <c r="AO26" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55" t="s">
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="55"/>
-      <c r="AW26" s="55" t="s">
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="AX26" s="55"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BE26" s="74" t="s">
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
+      <c r="AZ26" s="94"/>
+      <c r="BE26" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="BF26" s="75"/>
-      <c r="BG26" s="75"/>
-      <c r="BH26" s="76"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="57"/>
     </row>
     <row r="27" spans="1:88">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56" t="s">
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56" t="s">
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56" t="s">
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56" t="s">
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56" t="s">
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56" t="s">
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56" t="s">
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56" t="s">
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56" t="s">
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="91"/>
+      <c r="AO27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56" t="s">
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56" t="s">
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BE27" s="71" t="s">
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="91"/>
+      <c r="BE27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="72"/>
-      <c r="BG27" s="72"/>
-      <c r="BH27" s="73"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="59"/>
+      <c r="BH27" s="60"/>
     </row>
     <row r="28" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55" t="s">
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55" t="s">
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55" t="s">
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55" t="s">
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55" t="s">
+      <c r="Z28" s="94"/>
+      <c r="AA28" s="94"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55" t="s">
+      <c r="AD28" s="94"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55" t="s">
+      <c r="AH28" s="94"/>
+      <c r="AI28" s="94"/>
+      <c r="AJ28" s="94"/>
+      <c r="AK28" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55" t="s">
+      <c r="AL28" s="94"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="94"/>
+      <c r="AO28" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55" t="s">
+      <c r="AP28" s="94"/>
+      <c r="AQ28" s="94"/>
+      <c r="AR28" s="94"/>
+      <c r="AS28" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
-      <c r="AW28" s="55" t="s">
+      <c r="AT28" s="94"/>
+      <c r="AU28" s="94"/>
+      <c r="AV28" s="94"/>
+      <c r="AW28" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BE28" s="74" t="s">
+      <c r="AX28" s="94"/>
+      <c r="AY28" s="94"/>
+      <c r="AZ28" s="94"/>
+      <c r="BE28" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="BF28" s="75"/>
-      <c r="BG28" s="75"/>
-      <c r="BH28" s="76"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="57"/>
     </row>
     <row r="29" spans="1:88" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:88" ht="16.5" thickTop="1" thickBot="1">
@@ -6133,16 +6220,16 @@
       <c r="BT31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="BU31" s="43" t="s">
+      <c r="BU31" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="BV31" s="43" t="s">
+      <c r="BV31" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="BW31" s="43" t="s">
+      <c r="BW31" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="BX31" s="43" t="s">
+      <c r="BX31" s="111" t="s">
         <v>1</v>
       </c>
       <c r="BY31" s="51" t="s">
@@ -6309,16 +6396,16 @@
       <c r="BT32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BU32" s="44" t="s">
+      <c r="BU32" s="98" t="s">
         <v>357</v>
       </c>
-      <c r="BV32" s="45" t="s">
+      <c r="BV32" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="BW32" s="45" t="s">
+      <c r="BW32" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="BX32" s="45" t="s">
+      <c r="BX32" s="99" t="s">
         <v>27</v>
       </c>
       <c r="BY32" s="52" t="s">
@@ -6529,16 +6616,16 @@
         <v>34</v>
       </c>
       <c r="BT33" s="40"/>
-      <c r="BU33" s="43" t="s">
+      <c r="BU33" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="BV33" s="43" t="s">
+      <c r="BV33" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="BW33" s="43" t="s">
+      <c r="BW33" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="BX33" s="43"/>
+      <c r="BX33" s="111"/>
       <c r="BY33" s="51" t="s">
         <v>4</v>
       </c>
@@ -6741,16 +6828,16 @@
         <v>51</v>
       </c>
       <c r="BT34" s="39"/>
-      <c r="BU34" s="45" t="s">
+      <c r="BU34" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="BV34" s="46">
+      <c r="BV34" s="100">
         <v>40386</v>
       </c>
-      <c r="BW34" s="45" t="s">
+      <c r="BW34" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="BX34" s="45"/>
+      <c r="BX34" s="99"/>
       <c r="BY34" s="53" t="s">
         <v>38</v>
       </c>
@@ -6783,1022 +6870,1022 @@
       <c r="CJ34" s="53"/>
     </row>
     <row r="35" spans="1:88">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56" t="s">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56" t="s">
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56" t="s">
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56" t="s">
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56" t="s">
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56" t="s">
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56" t="s">
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56" t="s">
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56" t="s">
+      <c r="AH35" s="91"/>
+      <c r="AI35" s="91"/>
+      <c r="AJ35" s="91"/>
+      <c r="AK35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56" t="s">
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="91"/>
+      <c r="AN35" s="91"/>
+      <c r="AO35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56" t="s">
+      <c r="AP35" s="91"/>
+      <c r="AQ35" s="91"/>
+      <c r="AR35" s="91"/>
+      <c r="AS35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56" t="s">
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="91"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BE35" s="65" t="s">
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="91"/>
+      <c r="BE35" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BF35" s="66"/>
-      <c r="BG35" s="66"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="65" t="s">
+      <c r="BF35" s="65"/>
+      <c r="BG35" s="65"/>
+      <c r="BH35" s="66"/>
+      <c r="BI35" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BJ35" s="66"/>
-      <c r="BK35" s="66"/>
-      <c r="BL35" s="67"/>
-      <c r="BM35" s="80" t="s">
+      <c r="BJ35" s="65"/>
+      <c r="BK35" s="65"/>
+      <c r="BL35" s="66"/>
+      <c r="BM35" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BN35" s="81"/>
-      <c r="BO35" s="81"/>
-      <c r="BP35" s="82"/>
-      <c r="BQ35" s="65" t="s">
+      <c r="BN35" s="68"/>
+      <c r="BO35" s="68"/>
+      <c r="BP35" s="69"/>
+      <c r="BQ35" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="BR35" s="66"/>
-      <c r="BS35" s="66"/>
-      <c r="BT35" s="67"/>
-      <c r="BU35" s="89" t="s">
+      <c r="BR35" s="65"/>
+      <c r="BS35" s="65"/>
+      <c r="BT35" s="66"/>
+      <c r="BU35" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="BV35" s="90"/>
-      <c r="BW35" s="90"/>
-      <c r="BX35" s="91"/>
-      <c r="BY35" s="80" t="s">
+      <c r="BV35" s="113"/>
+      <c r="BW35" s="113"/>
+      <c r="BX35" s="114"/>
+      <c r="BY35" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BZ35" s="81"/>
-      <c r="CA35" s="81"/>
-      <c r="CB35" s="82"/>
-      <c r="CC35" s="89" t="s">
+      <c r="BZ35" s="68"/>
+      <c r="CA35" s="68"/>
+      <c r="CB35" s="69"/>
+      <c r="CC35" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="CD35" s="90"/>
-      <c r="CE35" s="90"/>
-      <c r="CF35" s="91"/>
-      <c r="CG35" s="80" t="s">
+      <c r="CD35" s="83"/>
+      <c r="CE35" s="83"/>
+      <c r="CF35" s="84"/>
+      <c r="CG35" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="CH35" s="81"/>
-      <c r="CI35" s="81"/>
-      <c r="CJ35" s="82"/>
+      <c r="CH35" s="68"/>
+      <c r="CI35" s="68"/>
+      <c r="CJ35" s="69"/>
     </row>
     <row r="36" spans="1:88" ht="45" customHeight="1">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="55" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="55" t="s">
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57" t="s">
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57" t="s">
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57" t="s">
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="55" t="s">
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57" t="s">
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57" t="s">
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+      <c r="AF36" s="92"/>
+      <c r="AG36" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57" t="s">
+      <c r="AH36" s="92"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57" t="s">
+      <c r="AL36" s="92"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="92"/>
+      <c r="AO36" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57" t="s">
+      <c r="AP36" s="92"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="92"/>
+      <c r="AS36" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57" t="s">
+      <c r="AT36" s="92"/>
+      <c r="AU36" s="92"/>
+      <c r="AV36" s="92"/>
+      <c r="AW36" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BE36" s="59" t="s">
+      <c r="AX36" s="92"/>
+      <c r="AY36" s="92"/>
+      <c r="AZ36" s="92"/>
+      <c r="BE36" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="BF36" s="60"/>
-      <c r="BG36" s="60"/>
-      <c r="BH36" s="61"/>
-      <c r="BI36" s="59" t="s">
+      <c r="BF36" s="77"/>
+      <c r="BG36" s="77"/>
+      <c r="BH36" s="78"/>
+      <c r="BI36" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="BJ36" s="60"/>
-      <c r="BK36" s="60"/>
-      <c r="BL36" s="61"/>
-      <c r="BM36" s="83" t="s">
+      <c r="BJ36" s="77"/>
+      <c r="BK36" s="77"/>
+      <c r="BL36" s="78"/>
+      <c r="BM36" s="70" t="s">
         <v>368</v>
       </c>
-      <c r="BN36" s="84"/>
-      <c r="BO36" s="84"/>
-      <c r="BP36" s="85"/>
-      <c r="BQ36" s="59" t="s">
+      <c r="BN36" s="71"/>
+      <c r="BO36" s="71"/>
+      <c r="BP36" s="72"/>
+      <c r="BQ36" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="BR36" s="60"/>
-      <c r="BS36" s="60"/>
-      <c r="BT36" s="61"/>
-      <c r="BU36" s="92" t="s">
+      <c r="BR36" s="77"/>
+      <c r="BS36" s="77"/>
+      <c r="BT36" s="78"/>
+      <c r="BU36" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="BV36" s="93"/>
-      <c r="BW36" s="93"/>
-      <c r="BX36" s="94"/>
-      <c r="BY36" s="83" t="s">
+      <c r="BV36" s="102"/>
+      <c r="BW36" s="102"/>
+      <c r="BX36" s="103"/>
+      <c r="BY36" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="BZ36" s="84"/>
-      <c r="CA36" s="84"/>
-      <c r="CB36" s="85"/>
-      <c r="CC36" s="92" t="s">
+      <c r="BZ36" s="71"/>
+      <c r="CA36" s="71"/>
+      <c r="CB36" s="72"/>
+      <c r="CC36" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="CD36" s="93"/>
-      <c r="CE36" s="93"/>
-      <c r="CF36" s="94"/>
-      <c r="CG36" s="83" t="s">
+      <c r="CD36" s="86"/>
+      <c r="CE36" s="86"/>
+      <c r="CF36" s="87"/>
+      <c r="CG36" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="CH36" s="84"/>
-      <c r="CI36" s="84"/>
-      <c r="CJ36" s="85"/>
+      <c r="CH36" s="71"/>
+      <c r="CI36" s="71"/>
+      <c r="CJ36" s="72"/>
     </row>
     <row r="37" spans="1:88">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58" t="s">
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58" t="s">
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58" t="s">
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58" t="s">
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58" t="s">
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="58"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="58"/>
-      <c r="Y37" s="58" t="s">
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="58"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58" t="s">
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58" t="s">
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="58" t="s">
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
+      <c r="AK37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="58" t="s">
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="93"/>
+      <c r="AN37" s="93"/>
+      <c r="AO37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58" t="s">
+      <c r="AP37" s="93"/>
+      <c r="AQ37" s="93"/>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="58" t="s">
+      <c r="AT37" s="93"/>
+      <c r="AU37" s="93"/>
+      <c r="AV37" s="93"/>
+      <c r="AW37" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AX37" s="58"/>
-      <c r="AY37" s="58"/>
-      <c r="AZ37" s="58"/>
-      <c r="BE37" s="68" t="s">
+      <c r="AX37" s="93"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BE37" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BF37" s="69"/>
-      <c r="BG37" s="69"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="68" t="s">
+      <c r="BF37" s="80"/>
+      <c r="BG37" s="80"/>
+      <c r="BH37" s="81"/>
+      <c r="BI37" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="69"/>
-      <c r="BL37" s="70"/>
-      <c r="BM37" s="86" t="s">
+      <c r="BJ37" s="80"/>
+      <c r="BK37" s="80"/>
+      <c r="BL37" s="81"/>
+      <c r="BM37" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="BN37" s="87"/>
-      <c r="BO37" s="87"/>
-      <c r="BP37" s="88"/>
-      <c r="BQ37" s="68" t="s">
+      <c r="BN37" s="74"/>
+      <c r="BO37" s="74"/>
+      <c r="BP37" s="75"/>
+      <c r="BQ37" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BR37" s="69"/>
-      <c r="BS37" s="69"/>
-      <c r="BT37" s="70"/>
-      <c r="BU37" s="95" t="s">
+      <c r="BR37" s="80"/>
+      <c r="BS37" s="80"/>
+      <c r="BT37" s="81"/>
+      <c r="BU37" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="BV37" s="96"/>
-      <c r="BW37" s="96"/>
-      <c r="BX37" s="97"/>
-      <c r="BY37" s="86" t="s">
+      <c r="BV37" s="116"/>
+      <c r="BW37" s="116"/>
+      <c r="BX37" s="117"/>
+      <c r="BY37" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="BZ37" s="87"/>
-      <c r="CA37" s="87"/>
-      <c r="CB37" s="88"/>
-      <c r="CC37" s="95" t="s">
+      <c r="BZ37" s="74"/>
+      <c r="CA37" s="74"/>
+      <c r="CB37" s="75"/>
+      <c r="CC37" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="CD37" s="96"/>
-      <c r="CE37" s="96"/>
-      <c r="CF37" s="97"/>
-      <c r="CG37" s="86" t="s">
+      <c r="CD37" s="89"/>
+      <c r="CE37" s="89"/>
+      <c r="CF37" s="90"/>
+      <c r="CG37" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="CH37" s="87"/>
-      <c r="CI37" s="87"/>
-      <c r="CJ37" s="88"/>
+      <c r="CH37" s="74"/>
+      <c r="CI37" s="74"/>
+      <c r="CJ37" s="75"/>
     </row>
     <row r="38" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55" t="s">
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55" t="s">
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55" t="s">
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94" t="s">
         <v>277</v>
       </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55" t="s">
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55" t="s">
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55" t="s">
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AC38" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55" t="s">
+      <c r="AD38" s="94"/>
+      <c r="AE38" s="94"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55" t="s">
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55" t="s">
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="94"/>
+      <c r="AN38" s="94"/>
+      <c r="AO38" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55" t="s">
+      <c r="AP38" s="94"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="94"/>
+      <c r="AS38" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="AT38" s="55"/>
-      <c r="AU38" s="55"/>
-      <c r="AV38" s="55"/>
-      <c r="AW38" s="55" t="s">
+      <c r="AT38" s="94"/>
+      <c r="AU38" s="94"/>
+      <c r="AV38" s="94"/>
+      <c r="AW38" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="AX38" s="55"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BE38" s="59" t="s">
+      <c r="AX38" s="94"/>
+      <c r="AY38" s="94"/>
+      <c r="AZ38" s="94"/>
+      <c r="BE38" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="BF38" s="60"/>
-      <c r="BG38" s="60"/>
-      <c r="BH38" s="61"/>
-      <c r="BI38" s="59" t="s">
+      <c r="BF38" s="77"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="78"/>
+      <c r="BI38" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="BJ38" s="60"/>
-      <c r="BK38" s="60"/>
-      <c r="BL38" s="61"/>
-      <c r="BM38" s="83" t="s">
+      <c r="BJ38" s="77"/>
+      <c r="BK38" s="77"/>
+      <c r="BL38" s="78"/>
+      <c r="BM38" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="BN38" s="84"/>
-      <c r="BO38" s="84"/>
-      <c r="BP38" s="85"/>
-      <c r="BQ38" s="59" t="s">
+      <c r="BN38" s="71"/>
+      <c r="BO38" s="71"/>
+      <c r="BP38" s="72"/>
+      <c r="BQ38" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="BR38" s="60"/>
-      <c r="BS38" s="60"/>
-      <c r="BT38" s="61"/>
-      <c r="BU38" s="92" t="s">
+      <c r="BR38" s="77"/>
+      <c r="BS38" s="77"/>
+      <c r="BT38" s="78"/>
+      <c r="BU38" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="BV38" s="93"/>
-      <c r="BW38" s="93"/>
-      <c r="BX38" s="94"/>
-      <c r="BY38" s="83" t="s">
+      <c r="BV38" s="102"/>
+      <c r="BW38" s="102"/>
+      <c r="BX38" s="103"/>
+      <c r="BY38" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="BZ38" s="84"/>
-      <c r="CA38" s="84"/>
-      <c r="CB38" s="85"/>
-      <c r="CC38" s="92" t="s">
+      <c r="BZ38" s="71"/>
+      <c r="CA38" s="71"/>
+      <c r="CB38" s="72"/>
+      <c r="CC38" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="CD38" s="93"/>
-      <c r="CE38" s="93"/>
-      <c r="CF38" s="94"/>
-      <c r="CG38" s="83" t="s">
+      <c r="CD38" s="86"/>
+      <c r="CE38" s="86"/>
+      <c r="CF38" s="87"/>
+      <c r="CG38" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="CH38" s="84"/>
-      <c r="CI38" s="84"/>
-      <c r="CJ38" s="85"/>
+      <c r="CH38" s="71"/>
+      <c r="CI38" s="71"/>
+      <c r="CJ38" s="72"/>
     </row>
     <row r="39" spans="1:88">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56" t="s">
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56" t="s">
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56" t="s">
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56" t="s">
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56" t="s">
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56" t="s">
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56" t="s">
+      <c r="AD39" s="91"/>
+      <c r="AE39" s="91"/>
+      <c r="AF39" s="91"/>
+      <c r="AG39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56" t="s">
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="91"/>
+      <c r="AJ39" s="91"/>
+      <c r="AK39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56" t="s">
+      <c r="AL39" s="91"/>
+      <c r="AM39" s="91"/>
+      <c r="AN39" s="91"/>
+      <c r="AO39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="56"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56" t="s">
+      <c r="AP39" s="91"/>
+      <c r="AQ39" s="91"/>
+      <c r="AR39" s="91"/>
+      <c r="AS39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="56" t="s">
+      <c r="AT39" s="91"/>
+      <c r="AU39" s="91"/>
+      <c r="AV39" s="91"/>
+      <c r="AW39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="56"/>
-      <c r="BE39" s="65" t="s">
+      <c r="AX39" s="91"/>
+      <c r="AY39" s="91"/>
+      <c r="AZ39" s="91"/>
+      <c r="BE39" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BF39" s="66"/>
-      <c r="BG39" s="66"/>
-      <c r="BH39" s="67"/>
-      <c r="BI39" s="65" t="s">
+      <c r="BF39" s="65"/>
+      <c r="BG39" s="65"/>
+      <c r="BH39" s="66"/>
+      <c r="BI39" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BJ39" s="66"/>
-      <c r="BK39" s="66"/>
-      <c r="BL39" s="67"/>
-      <c r="BM39" s="80" t="s">
+      <c r="BJ39" s="65"/>
+      <c r="BK39" s="65"/>
+      <c r="BL39" s="66"/>
+      <c r="BM39" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="BN39" s="81"/>
-      <c r="BO39" s="81"/>
-      <c r="BP39" s="82"/>
-      <c r="BQ39" s="65" t="s">
+      <c r="BN39" s="68"/>
+      <c r="BO39" s="68"/>
+      <c r="BP39" s="69"/>
+      <c r="BQ39" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="BR39" s="66"/>
-      <c r="BS39" s="66"/>
-      <c r="BT39" s="67"/>
-      <c r="BU39" s="89" t="s">
+      <c r="BR39" s="65"/>
+      <c r="BS39" s="65"/>
+      <c r="BT39" s="66"/>
+      <c r="BU39" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="BV39" s="90"/>
-      <c r="BW39" s="90"/>
-      <c r="BX39" s="91"/>
-      <c r="BY39" s="80" t="s">
+      <c r="BV39" s="113"/>
+      <c r="BW39" s="113"/>
+      <c r="BX39" s="114"/>
+      <c r="BY39" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="BZ39" s="81"/>
-      <c r="CA39" s="81"/>
-      <c r="CB39" s="82"/>
-      <c r="CC39" s="89" t="s">
+      <c r="BZ39" s="68"/>
+      <c r="CA39" s="68"/>
+      <c r="CB39" s="69"/>
+      <c r="CC39" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="CD39" s="90"/>
-      <c r="CE39" s="90"/>
-      <c r="CF39" s="91"/>
-      <c r="CG39" s="80" t="s">
+      <c r="CD39" s="83"/>
+      <c r="CE39" s="83"/>
+      <c r="CF39" s="84"/>
+      <c r="CG39" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="CH39" s="81"/>
-      <c r="CI39" s="81"/>
-      <c r="CJ39" s="82"/>
+      <c r="CH39" s="68"/>
+      <c r="CI39" s="68"/>
+      <c r="CJ39" s="69"/>
     </row>
     <row r="40" spans="1:88" s="5" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55" t="s">
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55" t="s">
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55" t="s">
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55" t="s">
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55" t="s">
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="94"/>
+      <c r="AC40" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55" t="s">
+      <c r="AD40" s="94"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55" t="s">
+      <c r="AH40" s="94"/>
+      <c r="AI40" s="94"/>
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55" t="s">
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="94"/>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55" t="s">
+      <c r="AP40" s="94"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="94"/>
+      <c r="AS40" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55" t="s">
+      <c r="AT40" s="94"/>
+      <c r="AU40" s="94"/>
+      <c r="AV40" s="94"/>
+      <c r="AW40" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BE40" s="59" t="s">
+      <c r="AX40" s="94"/>
+      <c r="AY40" s="94"/>
+      <c r="AZ40" s="94"/>
+      <c r="BE40" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="BF40" s="60"/>
-      <c r="BG40" s="60"/>
-      <c r="BH40" s="61"/>
-      <c r="BI40" s="59" t="s">
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="78"/>
+      <c r="BI40" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="BJ40" s="60"/>
-      <c r="BK40" s="60"/>
-      <c r="BL40" s="61"/>
-      <c r="BM40" s="83" t="s">
+      <c r="BJ40" s="77"/>
+      <c r="BK40" s="77"/>
+      <c r="BL40" s="78"/>
+      <c r="BM40" s="70" t="s">
         <v>397</v>
       </c>
-      <c r="BN40" s="84"/>
-      <c r="BO40" s="84"/>
-      <c r="BP40" s="85"/>
-      <c r="BQ40" s="59" t="s">
+      <c r="BN40" s="71"/>
+      <c r="BO40" s="71"/>
+      <c r="BP40" s="72"/>
+      <c r="BQ40" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="BR40" s="60"/>
-      <c r="BS40" s="60"/>
-      <c r="BT40" s="61"/>
-      <c r="BU40" s="92" t="s">
+      <c r="BR40" s="77"/>
+      <c r="BS40" s="77"/>
+      <c r="BT40" s="78"/>
+      <c r="BU40" s="118" t="s">
         <v>400</v>
       </c>
-      <c r="BV40" s="93"/>
-      <c r="BW40" s="93"/>
-      <c r="BX40" s="94"/>
-      <c r="BY40" s="83" t="s">
+      <c r="BV40" s="119"/>
+      <c r="BW40" s="119"/>
+      <c r="BX40" s="120"/>
+      <c r="BY40" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="BZ40" s="84"/>
-      <c r="CA40" s="84"/>
-      <c r="CB40" s="85"/>
-      <c r="CC40" s="92" t="s">
+      <c r="BZ40" s="71"/>
+      <c r="CA40" s="71"/>
+      <c r="CB40" s="72"/>
+      <c r="CC40" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="CD40" s="93"/>
-      <c r="CE40" s="93"/>
-      <c r="CF40" s="94"/>
-      <c r="CG40" s="83" t="s">
+      <c r="CD40" s="86"/>
+      <c r="CE40" s="86"/>
+      <c r="CF40" s="87"/>
+      <c r="CG40" s="70" t="s">
         <v>405</v>
       </c>
-      <c r="CH40" s="84"/>
-      <c r="CI40" s="84"/>
-      <c r="CJ40" s="85"/>
+      <c r="CH40" s="71"/>
+      <c r="CI40" s="71"/>
+      <c r="CJ40" s="72"/>
     </row>
     <row r="41" spans="1:88">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56" t="s">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56" t="s">
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56" t="s">
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56" t="s">
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56" t="s">
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56" t="s">
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="56" t="s">
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="56" t="s">
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="91"/>
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="56"/>
-      <c r="AJ41" s="56"/>
-      <c r="AK41" s="56" t="s">
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="91"/>
+      <c r="AJ41" s="91"/>
+      <c r="AK41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="56"/>
-      <c r="AM41" s="56"/>
-      <c r="AN41" s="56"/>
-      <c r="AO41" s="56" t="s">
+      <c r="AL41" s="91"/>
+      <c r="AM41" s="91"/>
+      <c r="AN41" s="91"/>
+      <c r="AO41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="56"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="56"/>
-      <c r="AS41" s="56" t="s">
+      <c r="AP41" s="91"/>
+      <c r="AQ41" s="91"/>
+      <c r="AR41" s="91"/>
+      <c r="AS41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="56"/>
-      <c r="AU41" s="56"/>
-      <c r="AV41" s="56"/>
-      <c r="AW41" s="56" t="s">
+      <c r="AT41" s="91"/>
+      <c r="AU41" s="91"/>
+      <c r="AV41" s="91"/>
+      <c r="AW41" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AX41" s="56"/>
-      <c r="AY41" s="56"/>
-      <c r="AZ41" s="56"/>
-      <c r="BE41" s="65" t="s">
+      <c r="AX41" s="91"/>
+      <c r="AY41" s="91"/>
+      <c r="AZ41" s="91"/>
+      <c r="BE41" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BF41" s="66"/>
-      <c r="BG41" s="66"/>
-      <c r="BH41" s="67"/>
-      <c r="BI41" s="65" t="s">
+      <c r="BF41" s="65"/>
+      <c r="BG41" s="65"/>
+      <c r="BH41" s="66"/>
+      <c r="BI41" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="66"/>
-      <c r="BL41" s="67"/>
-      <c r="BM41" s="80" t="s">
+      <c r="BJ41" s="65"/>
+      <c r="BK41" s="65"/>
+      <c r="BL41" s="66"/>
+      <c r="BM41" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="BN41" s="81"/>
-      <c r="BO41" s="81"/>
-      <c r="BP41" s="82"/>
-      <c r="BQ41" s="65" t="s">
+      <c r="BN41" s="68"/>
+      <c r="BO41" s="68"/>
+      <c r="BP41" s="69"/>
+      <c r="BQ41" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="BR41" s="66"/>
-      <c r="BS41" s="66"/>
-      <c r="BT41" s="67"/>
-      <c r="BU41" s="89" t="s">
+      <c r="BR41" s="65"/>
+      <c r="BS41" s="65"/>
+      <c r="BT41" s="66"/>
+      <c r="BU41" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="BV41" s="90"/>
-      <c r="BW41" s="90"/>
-      <c r="BX41" s="91"/>
-      <c r="BY41" s="80" t="s">
+      <c r="BV41" s="113"/>
+      <c r="BW41" s="113"/>
+      <c r="BX41" s="114"/>
+      <c r="BY41" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="BZ41" s="81"/>
-      <c r="CA41" s="81"/>
-      <c r="CB41" s="82"/>
-      <c r="CC41" s="89" t="s">
+      <c r="BZ41" s="68"/>
+      <c r="CA41" s="68"/>
+      <c r="CB41" s="69"/>
+      <c r="CC41" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="CD41" s="90"/>
-      <c r="CE41" s="90"/>
-      <c r="CF41" s="91"/>
-      <c r="CG41" s="80" t="s">
+      <c r="CD41" s="83"/>
+      <c r="CE41" s="83"/>
+      <c r="CF41" s="84"/>
+      <c r="CG41" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="CH41" s="81"/>
-      <c r="CI41" s="81"/>
-      <c r="CJ41" s="82"/>
+      <c r="CH41" s="68"/>
+      <c r="CI41" s="68"/>
+      <c r="CJ41" s="69"/>
     </row>
     <row r="42" spans="1:88" s="5" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55" t="s">
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55" t="s">
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55" t="s">
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55" t="s">
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55" t="s">
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55" t="s">
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55" t="s">
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55" t="s">
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55" t="s">
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55" t="s">
+      <c r="AP42" s="94"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55" t="s">
+      <c r="AT42" s="94"/>
+      <c r="AU42" s="94"/>
+      <c r="AV42" s="94"/>
+      <c r="AW42" s="94" t="s">
         <v>303</v>
       </c>
-      <c r="AX42" s="55"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
-      <c r="BE42" s="59" t="s">
+      <c r="AX42"